--- a/메뉴구성도_IA - 김민아.xlsx
+++ b/메뉴구성도_IA - 김민아.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\als70\OneDrive\Desktop\삼성아카데미\samsung-lxp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAB9C77-6EB1-48B9-BE19-53EAC8BF0EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782C316D-E981-4C61-86E4-4609435AD4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7777" yWindow="0" windowWidth="13906" windowHeight="12863" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="화면구성도" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,12 @@
     <sheet name="화면 IA 구조 (3)" sheetId="14" r:id="rId10"/>
     <sheet name="데이터 정리" sheetId="16" r:id="rId11"/>
     <sheet name="화면 IA 구조 (4)" sheetId="15" r:id="rId12"/>
-    <sheet name="LMS최종표_기능명세포함" sheetId="12" r:id="rId13"/>
-    <sheet name="LMS최종표_기능명세포함 (2)" sheetId="13" r:id="rId14"/>
+    <sheet name="화면 IA 구조 (최종)" sheetId="17" r:id="rId13"/>
+    <sheet name="LMS최종표_기능명세포함" sheetId="12" r:id="rId14"/>
+    <sheet name="LMS최종표_기능명세포함 (2)" sheetId="13" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'LMS최종표_기능명세포함 (2)'!$B$2:$K$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'LMS최종표_기능명세포함 (2)'!$B$2:$K$46</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="823">
   <si>
     <t>메뉴</t>
   </si>
@@ -2871,6 +2872,14 @@
   </si>
   <si>
     <t>관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/trainee/dashboard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2975,7 +2984,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3025,6 +3034,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3264,7 +3279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3430,13 +3445,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3448,6 +3475,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3457,19 +3487,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3478,14 +3499,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4187,14 +4214,14 @@
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="24"/>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="68" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4214,46 +4241,46 @@
       <c r="F3" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="65" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="76" t="s">
         <v>339</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>340</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="73" t="s">
         <v>755</v>
       </c>
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B5" s="68"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="17" t="s">
         <v>341</v>
       </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="72"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B6" s="68"/>
-      <c r="C6" s="72"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="72"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B7" s="68"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="46" t="s">
         <v>380</v>
       </c>
@@ -4274,17 +4301,17 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="65" t="s">
         <v>521</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="77" t="s">
         <v>500</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>503</v>
       </c>
       <c r="E9" s="25"/>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="73" t="s">
         <v>752</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -4293,51 +4320,51 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B10" s="68"/>
-      <c r="C10" s="73"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="17" t="s">
         <v>504</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="72"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="20" t="s">
         <v>505</v>
       </c>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B11" s="68"/>
-      <c r="C11" s="72" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="73" t="s">
         <v>463</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>342</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="73" t="s">
         <v>751</v>
       </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B12" s="68"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="17" t="s">
         <v>479</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B13" s="68"/>
-      <c r="C13" s="72"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="73"/>
       <c r="E13" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.6">
@@ -4351,86 +4378,86 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="65" t="s">
         <v>348</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="76" t="s">
         <v>349</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>356</v>
       </c>
       <c r="E15" s="25"/>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="73" t="s">
         <v>754</v>
       </c>
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B16" s="68"/>
-      <c r="C16" s="72"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="17" t="s">
         <v>355</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="8" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B17" s="68"/>
-      <c r="C17" s="72"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" ht="17.649999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B18" s="68"/>
-      <c r="C18" s="72"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="55" t="s">
         <v>350</v>
       </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="72"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="B19" s="68"/>
-      <c r="D19" s="72" t="s">
+      <c r="B19" s="63"/>
+      <c r="D19" s="73" t="s">
         <v>360</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B20" s="68"/>
-      <c r="D20" s="72"/>
+      <c r="B20" s="63"/>
+      <c r="D20" s="73"/>
       <c r="E20" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="73"/>
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B21" s="68"/>
-      <c r="D21" s="72"/>
+      <c r="B21" s="63"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="F21" s="72"/>
+      <c r="F21" s="73"/>
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B22" s="68"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="37" t="s">
         <v>523</v>
       </c>
@@ -4451,130 +4478,130 @@
       <c r="G23" s="54"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="65" t="s">
         <v>742</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="76" t="s">
         <v>456</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>457</v>
       </c>
       <c r="E24" s="56"/>
-      <c r="F24" s="72" t="s">
+      <c r="F24" s="73" t="s">
         <v>756</v>
       </c>
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B25" s="68"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="F25" s="72"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B26" s="68"/>
-      <c r="C26" s="72"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="F26" s="72"/>
+      <c r="F26" s="73"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B27" s="68"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="17" t="s">
         <v>357</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="F27" s="72" t="s">
+      <c r="F27" s="73" t="s">
         <v>761</v>
       </c>
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B28" s="68"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="F28" s="72"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B29" s="68"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="F29" s="72"/>
+      <c r="F29" s="73"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B30" s="68"/>
-      <c r="C30" s="72" t="s">
+      <c r="B30" s="63"/>
+      <c r="C30" s="73" t="s">
         <v>358</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="F30" s="72" t="s">
+      <c r="F30" s="73" t="s">
         <v>757</v>
       </c>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B31" s="68"/>
-      <c r="C31" s="72"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="F31" s="72"/>
+      <c r="F31" s="73"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B32" s="68"/>
-      <c r="C32" s="72"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="F32" s="72"/>
+      <c r="F32" s="73"/>
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B33" s="68"/>
-      <c r="C33" s="72" t="s">
+      <c r="B33" s="63"/>
+      <c r="C33" s="73" t="s">
         <v>364</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="F33" s="72" t="s">
+      <c r="F33" s="73" t="s">
         <v>762</v>
       </c>
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B34" s="68"/>
-      <c r="C34" s="72"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="73"/>
       <c r="D34" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="F34" s="72"/>
+      <c r="F34" s="73"/>
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B35" s="68"/>
-      <c r="C35" s="72"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="F35" s="72"/>
+      <c r="F35" s="73"/>
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.6">
@@ -4588,7 +4615,7 @@
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="65" t="s">
         <v>524</v>
       </c>
       <c r="C37" s="25" t="s">
@@ -4598,80 +4625,80 @@
         <v>526</v>
       </c>
       <c r="E37" s="56"/>
-      <c r="F37" s="72" t="s">
+      <c r="F37" s="73" t="s">
         <v>763</v>
       </c>
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B38" s="68"/>
+      <c r="B38" s="63"/>
       <c r="D38" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="F38" s="72"/>
+      <c r="F38" s="73"/>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B39" s="68"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="17" t="s">
         <v>528</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="F39" s="72" t="s">
+      <c r="F39" s="73" t="s">
         <v>764</v>
       </c>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B40" s="68"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="F40" s="72"/>
+      <c r="F40" s="73"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B41" s="68"/>
+      <c r="B41" s="63"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="F41" s="72"/>
+      <c r="F41" s="73"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B42" s="68"/>
+      <c r="B42" s="63"/>
       <c r="C42" s="17" t="s">
         <v>359</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="F42" s="72" t="s">
+      <c r="F42" s="73" t="s">
         <v>765</v>
       </c>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B43" s="68"/>
+      <c r="B43" s="63"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="F43" s="72"/>
+      <c r="F43" s="73"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B44" s="68"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17" t="s">
         <v>376</v>
       </c>
       <c r="E44" s="17"/>
-      <c r="F44" s="72"/>
+      <c r="F44" s="73"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.6">
@@ -4685,7 +4712,7 @@
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="65" t="s">
         <v>529</v>
       </c>
       <c r="C46" s="25" t="s">
@@ -4701,7 +4728,7 @@
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B47" s="68"/>
+      <c r="B47" s="63"/>
       <c r="C47" s="17" t="s">
         <v>532</v>
       </c>
@@ -4714,7 +4741,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B48" s="68"/>
+      <c r="B48" s="63"/>
       <c r="C48" s="17" t="s">
         <v>530</v>
       </c>
@@ -4735,7 +4762,7 @@
       <c r="G49" s="9"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="65" t="s">
         <v>545</v>
       </c>
       <c r="C50" s="25" t="s">
@@ -4749,7 +4776,7 @@
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B51" s="68"/>
+      <c r="B51" s="63"/>
       <c r="C51" s="17" t="s">
         <v>535</v>
       </c>
@@ -4773,7 +4800,7 @@
       <c r="G52" s="9"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B53" s="68" t="s">
+      <c r="B53" s="63" t="s">
         <v>543</v>
       </c>
       <c r="C53" s="37" t="s">
@@ -4784,7 +4811,7 @@
       <c r="G53" s="8"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B54" s="69"/>
+      <c r="B54" s="64"/>
       <c r="C54" s="19" t="s">
         <v>126</v>
       </c>
@@ -4800,14 +4827,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="62" t="s">
+      <c r="B57" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="75"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="74"/>
       <c r="F57" s="50"/>
-      <c r="G57" s="64" t="s">
+      <c r="G57" s="68" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4827,13 +4854,13 @@
       <c r="F58" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G58" s="70"/>
+      <c r="G58" s="69"/>
       <c r="I58" s="31"/>
       <c r="J58" s="31"/>
       <c r="K58" s="31"/>
     </row>
     <row r="59" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="71" t="s">
+      <c r="B59" s="65" t="s">
         <v>387</v>
       </c>
       <c r="C59" s="25" t="s">
@@ -4848,7 +4875,7 @@
       <c r="K59" s="28"/>
     </row>
     <row r="60" spans="2:11" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="68"/>
+      <c r="B60" s="63"/>
       <c r="C60" s="17" t="s">
         <v>389</v>
       </c>
@@ -4858,7 +4885,7 @@
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="68"/>
+      <c r="B61" s="63"/>
       <c r="C61" s="17" t="s">
         <v>424</v>
       </c>
@@ -4867,7 +4894,7 @@
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="63" t="s">
         <v>390</v>
       </c>
       <c r="C62" s="17" t="s">
@@ -4883,7 +4910,7 @@
       <c r="K62" s="28"/>
     </row>
     <row r="63" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="68"/>
+      <c r="B63" s="63"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17" t="s">
         <v>418</v>
@@ -4894,7 +4921,7 @@
       <c r="K63" s="28"/>
     </row>
     <row r="64" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="68"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="17" t="s">
         <v>392</v>
       </c>
@@ -4906,7 +4933,7 @@
       <c r="K64" s="28"/>
     </row>
     <row r="65" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="68"/>
+      <c r="B65" s="63"/>
       <c r="C65" s="17" t="s">
         <v>403</v>
       </c>
@@ -4920,7 +4947,7 @@
       <c r="K65" s="28"/>
     </row>
     <row r="66" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="68"/>
+      <c r="B66" s="63"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17" t="s">
         <v>415</v>
@@ -4932,7 +4959,7 @@
       <c r="K66" s="28"/>
     </row>
     <row r="67" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="68"/>
+      <c r="B67" s="63"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17" t="s">
         <v>416</v>
@@ -4944,7 +4971,7 @@
       <c r="K67" s="28"/>
     </row>
     <row r="68" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="68"/>
+      <c r="B68" s="63"/>
       <c r="D68" s="17" t="s">
         <v>428</v>
       </c>
@@ -4954,7 +4981,7 @@
       <c r="K68" s="28"/>
     </row>
     <row r="69" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="68" t="s">
+      <c r="B69" s="63" t="s">
         <v>393</v>
       </c>
       <c r="C69" t="s">
@@ -4970,7 +4997,7 @@
       <c r="K69" s="28"/>
     </row>
     <row r="70" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="68"/>
+      <c r="B70" s="63"/>
       <c r="D70" s="17" t="s">
         <v>422</v>
       </c>
@@ -4982,7 +5009,7 @@
       <c r="K70" s="28"/>
     </row>
     <row r="71" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="68"/>
+      <c r="B71" s="63"/>
       <c r="C71" s="17" t="s">
         <v>394</v>
       </c>
@@ -4995,7 +5022,7 @@
       <c r="K71" s="28"/>
     </row>
     <row r="72" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="68"/>
+      <c r="B72" s="63"/>
       <c r="D72" s="17" t="s">
         <v>420</v>
       </c>
@@ -5005,7 +5032,7 @@
       <c r="K72" s="28"/>
     </row>
     <row r="73" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="68"/>
+      <c r="B73" s="63"/>
       <c r="D73" s="17" t="s">
         <v>421</v>
       </c>
@@ -5015,7 +5042,7 @@
       <c r="K73" s="28"/>
     </row>
     <row r="74" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="68"/>
+      <c r="B74" s="63"/>
       <c r="C74" s="17" t="s">
         <v>423</v>
       </c>
@@ -5025,7 +5052,7 @@
       <c r="K74" s="28"/>
     </row>
     <row r="75" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="68" t="s">
+      <c r="B75" s="63" t="s">
         <v>427</v>
       </c>
       <c r="C75" s="17" t="s">
@@ -5040,7 +5067,7 @@
       <c r="K75" s="28"/>
     </row>
     <row r="76" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="68"/>
+      <c r="B76" s="63"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17" t="s">
         <v>398</v>
@@ -5052,7 +5079,7 @@
       <c r="K76" s="28"/>
     </row>
     <row r="77" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="68"/>
+      <c r="B77" s="63"/>
       <c r="C77" s="17" t="s">
         <v>516</v>
       </c>
@@ -5069,7 +5096,7 @@
       <c r="K77" s="28"/>
     </row>
     <row r="78" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="68"/>
+      <c r="B78" s="63"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17" t="s">
         <v>399</v>
@@ -5081,7 +5108,7 @@
       <c r="K78" s="28"/>
     </row>
     <row r="79" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="68" t="s">
+      <c r="B79" s="63" t="s">
         <v>540</v>
       </c>
       <c r="C79" s="17" t="s">
@@ -5096,7 +5123,7 @@
       <c r="K79" s="28"/>
     </row>
     <row r="80" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B80" s="68"/>
+      <c r="B80" s="63"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17" t="s">
         <v>413</v>
@@ -5107,7 +5134,7 @@
       <c r="K80" s="28"/>
     </row>
     <row r="81" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B81" s="68"/>
+      <c r="B81" s="63"/>
       <c r="C81" s="17" t="s">
         <v>400</v>
       </c>
@@ -5121,7 +5148,7 @@
       <c r="K81" s="28"/>
     </row>
     <row r="82" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B82" s="68"/>
+      <c r="B82" s="63"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17" t="s">
         <v>402</v>
@@ -5133,7 +5160,7 @@
       <c r="K82" s="28"/>
     </row>
     <row r="83" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B83" s="68" t="s">
+      <c r="B83" s="63" t="s">
         <v>548</v>
       </c>
       <c r="C83" s="17" t="s">
@@ -5147,7 +5174,7 @@
       <c r="K83" s="28"/>
     </row>
     <row r="84" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B84" s="68"/>
+      <c r="B84" s="63"/>
       <c r="C84" s="17" t="s">
         <v>542</v>
       </c>
@@ -5159,7 +5186,7 @@
       <c r="K84" s="28"/>
     </row>
     <row r="85" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B85" s="68" t="s">
+      <c r="B85" s="63" t="s">
         <v>524</v>
       </c>
       <c r="C85" s="17" t="s">
@@ -5173,7 +5200,7 @@
       <c r="K85" s="28"/>
     </row>
     <row r="86" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B86" s="68"/>
+      <c r="B86" s="63"/>
       <c r="C86" s="17" t="s">
         <v>537</v>
       </c>
@@ -5187,7 +5214,7 @@
       <c r="K86" s="28"/>
     </row>
     <row r="87" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B87" s="68"/>
+      <c r="B87" s="63"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17" t="s">
         <v>408</v>
@@ -5199,7 +5226,7 @@
       <c r="K87" s="28"/>
     </row>
     <row r="88" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="69"/>
+      <c r="B88" s="64"/>
       <c r="C88" s="19" t="s">
         <v>404</v>
       </c>
@@ -5226,14 +5253,14 @@
       <c r="K90" s="28"/>
     </row>
     <row r="91" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="62" t="s">
+      <c r="B91" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="C91" s="63"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="75"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="67"/>
+      <c r="E91" s="74"/>
       <c r="F91" s="50"/>
-      <c r="G91" s="64" t="s">
+      <c r="G91" s="68" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5253,10 +5280,10 @@
       <c r="F92" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G92" s="65"/>
+      <c r="G92" s="70"/>
     </row>
     <row r="93" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B93" s="71" t="s">
+      <c r="B93" s="65" t="s">
         <v>433</v>
       </c>
       <c r="C93" s="25" t="s">
@@ -5270,7 +5297,7 @@
       </c>
     </row>
     <row r="94" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B94" s="68"/>
+      <c r="B94" s="63"/>
       <c r="C94" s="17" t="s">
         <v>435</v>
       </c>
@@ -5281,7 +5308,7 @@
       </c>
     </row>
     <row r="95" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B95" s="68"/>
+      <c r="B95" s="63"/>
       <c r="C95" s="17" t="s">
         <v>436</v>
       </c>
@@ -5294,7 +5321,7 @@
       </c>
     </row>
     <row r="96" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B96" s="68"/>
+      <c r="B96" s="63"/>
       <c r="C96" s="17" t="s">
         <v>480</v>
       </c>
@@ -5305,7 +5332,7 @@
       </c>
     </row>
     <row r="97" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B97" s="68" t="s">
+      <c r="B97" s="63" t="s">
         <v>441</v>
       </c>
       <c r="C97" s="17" t="s">
@@ -5318,7 +5345,7 @@
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B98" s="68"/>
+      <c r="B98" s="63"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17" t="s">
         <v>418</v>
@@ -5327,7 +5354,7 @@
       <c r="G98" s="10"/>
     </row>
     <row r="99" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B99" s="68"/>
+      <c r="B99" s="63"/>
       <c r="C99" s="17" t="s">
         <v>547</v>
       </c>
@@ -5342,7 +5369,7 @@
       </c>
     </row>
     <row r="100" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B100" s="68"/>
+      <c r="B100" s="63"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17" t="s">
         <v>447</v>
@@ -5351,7 +5378,7 @@
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B101" s="68"/>
+      <c r="B101" s="63"/>
       <c r="C101" s="17" t="s">
         <v>448</v>
       </c>
@@ -5362,8 +5389,8 @@
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B102" s="68"/>
-      <c r="C102" s="72" t="s">
+      <c r="B102" s="63"/>
+      <c r="C102" s="73" t="s">
         <v>360</v>
       </c>
       <c r="D102" s="49" t="s">
@@ -5375,8 +5402,8 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B103" s="68"/>
-      <c r="C103" s="72"/>
+      <c r="B103" s="63"/>
+      <c r="C103" s="73"/>
       <c r="D103" s="49" t="s">
         <v>485</v>
       </c>
@@ -5384,8 +5411,8 @@
       <c r="G103" s="10"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B104" s="68"/>
-      <c r="C104" s="72"/>
+      <c r="B104" s="63"/>
+      <c r="C104" s="73"/>
       <c r="D104" s="49" t="s">
         <v>487</v>
       </c>
@@ -5393,10 +5420,10 @@
       <c r="G104" s="10"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B105" s="68" t="s">
+      <c r="B105" s="63" t="s">
         <v>450</v>
       </c>
-      <c r="C105" s="72" t="s">
+      <c r="C105" s="73" t="s">
         <v>463</v>
       </c>
       <c r="D105" s="17" t="s">
@@ -5408,8 +5435,8 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B106" s="68"/>
-      <c r="C106" s="72"/>
+      <c r="B106" s="63"/>
+      <c r="C106" s="73"/>
       <c r="D106" s="17" t="s">
         <v>344</v>
       </c>
@@ -5419,8 +5446,8 @@
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B107" s="68"/>
-      <c r="C107" s="72"/>
+      <c r="B107" s="63"/>
+      <c r="C107" s="73"/>
       <c r="D107" s="17" t="s">
         <v>467</v>
       </c>
@@ -5430,8 +5457,8 @@
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B108" s="68"/>
-      <c r="C108" s="72"/>
+      <c r="B108" s="63"/>
+      <c r="C108" s="73"/>
       <c r="D108" s="17" t="s">
         <v>466</v>
       </c>
@@ -5441,8 +5468,8 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B109" s="68"/>
-      <c r="C109" s="72"/>
+      <c r="B109" s="63"/>
+      <c r="C109" s="73"/>
       <c r="D109" s="17" t="s">
         <v>488</v>
       </c>
@@ -5452,8 +5479,8 @@
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B110" s="68"/>
-      <c r="C110" s="72"/>
+      <c r="B110" s="63"/>
+      <c r="C110" s="73"/>
       <c r="D110" s="17" t="s">
         <v>489</v>
       </c>
@@ -5461,10 +5488,10 @@
       <c r="G110" s="10"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B111" s="68" t="s">
+      <c r="B111" s="63" t="s">
         <v>385</v>
       </c>
-      <c r="C111" s="72" t="s">
+      <c r="C111" s="73" t="s">
         <v>456</v>
       </c>
       <c r="D111" s="49" t="s">
@@ -5476,8 +5503,8 @@
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B112" s="68"/>
-      <c r="C112" s="72"/>
+      <c r="B112" s="63"/>
+      <c r="C112" s="73"/>
       <c r="D112" s="49" t="s">
         <v>461</v>
       </c>
@@ -5487,8 +5514,8 @@
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B113" s="68"/>
-      <c r="C113" s="72"/>
+      <c r="B113" s="63"/>
+      <c r="C113" s="73"/>
       <c r="D113" s="49" t="s">
         <v>458</v>
       </c>
@@ -5498,7 +5525,7 @@
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B114" s="68"/>
+      <c r="B114" s="63"/>
       <c r="C114" s="17" t="s">
         <v>469</v>
       </c>
@@ -5509,7 +5536,7 @@
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B115" s="68"/>
+      <c r="B115" s="63"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17" t="s">
         <v>474</v>
@@ -5518,7 +5545,7 @@
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B116" s="68"/>
+      <c r="B116" s="63"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17" t="s">
         <v>475</v>
@@ -5527,7 +5554,7 @@
       <c r="G116" s="10"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B117" s="68"/>
+      <c r="B117" s="63"/>
       <c r="C117" s="17" t="s">
         <v>358</v>
       </c>
@@ -5538,7 +5565,7 @@
       <c r="G117" s="10"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B118" s="68"/>
+      <c r="B118" s="63"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17" t="s">
         <v>372</v>
@@ -5547,7 +5574,7 @@
       <c r="G118" s="10"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B119" s="68"/>
+      <c r="B119" s="63"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17" t="s">
         <v>454</v>
@@ -5557,7 +5584,7 @@
       <c r="G119" s="8"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B120" s="68"/>
+      <c r="B120" s="63"/>
       <c r="C120" s="17" t="s">
         <v>364</v>
       </c>
@@ -5567,7 +5594,7 @@
       <c r="E120" s="8"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B121" s="68"/>
+      <c r="B121" s="63"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
         <v>378</v>
@@ -5575,7 +5602,7 @@
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B122" s="68"/>
+      <c r="B122" s="63"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17" t="s">
         <v>379</v>
@@ -5583,7 +5610,7 @@
       <c r="E122" s="8"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B123" s="68" t="s">
+      <c r="B123" s="63" t="s">
         <v>496</v>
       </c>
       <c r="C123" s="17" t="s">
@@ -5596,7 +5623,7 @@
       <c r="G123" s="10"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B124" s="68"/>
+      <c r="B124" s="63"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17" t="s">
         <v>482</v>
@@ -5605,7 +5632,7 @@
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B125" s="68"/>
+      <c r="B125" s="63"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17" t="s">
         <v>483</v>
@@ -5614,7 +5641,7 @@
       <c r="G125" s="10"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B126" s="68"/>
+      <c r="B126" s="63"/>
       <c r="C126" s="17" t="s">
         <v>404</v>
       </c>
@@ -5627,7 +5654,7 @@
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B127" s="68"/>
+      <c r="B127" s="63"/>
       <c r="C127" s="17" t="s">
         <v>409</v>
       </c>
@@ -5638,7 +5665,7 @@
       <c r="G127" s="10"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B128" s="68"/>
+      <c r="B128" s="63"/>
       <c r="C128" s="17"/>
       <c r="D128" s="17" t="s">
         <v>382</v>
@@ -5647,7 +5674,7 @@
       <c r="G128" s="10"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B129" s="69"/>
+      <c r="B129" s="64"/>
       <c r="C129" s="19" t="s">
         <v>513</v>
       </c>
@@ -5814,6 +5841,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B84"/>
     <mergeCell ref="B123:B129"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F13"/>
@@ -5830,38 +5889,6 @@
     <mergeCell ref="C105:C110"/>
     <mergeCell ref="B111:B122"/>
     <mergeCell ref="C111:C113"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="F4:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6058,7 +6085,7 @@
       <c r="D5" t="s">
         <v>809</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="59" t="s">
         <v>187</v>
       </c>
       <c r="F5" t="s">
@@ -6121,7 +6148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:K163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
@@ -6146,14 +6173,14 @@
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="24"/>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="68" t="s">
         <v>337</v>
       </c>
     </row>
@@ -6173,46 +6200,46 @@
       <c r="F3" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="65" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="76" t="s">
         <v>339</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>340</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="73" t="s">
         <v>755</v>
       </c>
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B5" s="68"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="17" t="s">
         <v>341</v>
       </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="72"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B6" s="68"/>
-      <c r="C6" s="72"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="72"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B7" s="68"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="46" t="s">
         <v>380</v>
       </c>
@@ -6233,17 +6260,17 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="65" t="s">
         <v>521</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="77" t="s">
         <v>500</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>503</v>
       </c>
       <c r="E9" s="25"/>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="73" t="s">
         <v>752</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -6252,51 +6279,51 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B10" s="68"/>
-      <c r="C10" s="73"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="17" t="s">
         <v>504</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="72"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="20" t="s">
         <v>505</v>
       </c>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B11" s="68"/>
-      <c r="C11" s="72" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="73" t="s">
         <v>463</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>342</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="73" t="s">
         <v>751</v>
       </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B12" s="68"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="17" t="s">
         <v>479</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B13" s="68"/>
-      <c r="C13" s="72"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="73"/>
       <c r="E13" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.6">
@@ -6310,54 +6337,54 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="65" t="s">
         <v>348</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="76" t="s">
         <v>349</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>356</v>
       </c>
       <c r="E15" s="25"/>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="73" t="s">
         <v>754</v>
       </c>
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B16" s="68"/>
-      <c r="C16" s="72"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="17" t="s">
         <v>355</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="8" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B17" s="68"/>
-      <c r="C17" s="72"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B18" s="68"/>
-      <c r="C18" s="72"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="73"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="72"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B19" s="68"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="37" t="s">
         <v>523</v>
       </c>
@@ -6378,14 +6405,14 @@
       <c r="G20" s="54"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="65" t="s">
         <v>451</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="76" t="s">
         <v>516</v>
       </c>
       <c r="D21" s="56"/>
-      <c r="F21" s="72" t="s">
+      <c r="F21" s="73" t="s">
         <v>756</v>
       </c>
       <c r="G21" s="26" t="s">
@@ -6393,111 +6420,111 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B22" s="68"/>
-      <c r="C22" s="72"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="73"/>
       <c r="D22" t="s">
         <v>770</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="73"/>
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B23" s="68"/>
-      <c r="C23" s="72"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="73"/>
       <c r="D23" t="s">
         <v>771</v>
       </c>
-      <c r="F23" s="72"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B24" s="68"/>
-      <c r="C24" s="72" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="73" t="s">
         <v>769</v>
       </c>
-      <c r="F24" s="72" t="s">
+      <c r="F24" s="73" t="s">
         <v>761</v>
       </c>
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B25" s="68"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="73"/>
       <c r="D25" t="s">
         <v>772</v>
       </c>
-      <c r="F25" s="72"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B26" s="68"/>
-      <c r="C26" s="72"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="73"/>
       <c r="D26" t="s">
         <v>773</v>
       </c>
-      <c r="F26" s="72"/>
+      <c r="F26" s="73"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B27" s="68"/>
-      <c r="C27" s="72" t="s">
+      <c r="B27" s="63"/>
+      <c r="C27" s="73" t="s">
         <v>358</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="F27" s="72" t="s">
+      <c r="F27" s="73" t="s">
         <v>757</v>
       </c>
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B28" s="68"/>
-      <c r="C28" s="72"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="F28" s="72"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B29" s="68"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="F29" s="72"/>
+      <c r="F29" s="73"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B30" s="68"/>
-      <c r="C30" s="72" t="s">
+      <c r="B30" s="63"/>
+      <c r="C30" s="73" t="s">
         <v>364</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="F30" s="72" t="s">
+      <c r="F30" s="73" t="s">
         <v>762</v>
       </c>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B31" s="68"/>
-      <c r="C31" s="72"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="F31" s="72"/>
+      <c r="F31" s="73"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B32" s="68"/>
-      <c r="C32" s="72"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="F32" s="72"/>
+      <c r="F32" s="73"/>
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.6">
@@ -6511,7 +6538,7 @@
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="65" t="s">
         <v>524</v>
       </c>
       <c r="C34" s="25" t="s">
@@ -6521,80 +6548,80 @@
         <v>526</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="72" t="s">
+      <c r="F34" s="73" t="s">
         <v>763</v>
       </c>
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B35" s="68"/>
+      <c r="B35" s="63"/>
       <c r="D35" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="F35" s="72"/>
+      <c r="F35" s="73"/>
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B36" s="68"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="17" t="s">
         <v>528</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="F36" s="72" t="s">
+      <c r="F36" s="73" t="s">
         <v>764</v>
       </c>
       <c r="G36" s="8"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B37" s="68"/>
+      <c r="B37" s="63"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="F37" s="72"/>
+      <c r="F37" s="73"/>
       <c r="G37" s="8"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B38" s="68"/>
+      <c r="B38" s="63"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="F38" s="72"/>
+      <c r="F38" s="73"/>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B39" s="68"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="17" t="s">
         <v>359</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="F39" s="72" t="s">
+      <c r="F39" s="73" t="s">
         <v>765</v>
       </c>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B40" s="68"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="F40" s="72"/>
+      <c r="F40" s="73"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B41" s="68"/>
+      <c r="B41" s="63"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17" t="s">
         <v>376</v>
       </c>
       <c r="E41" s="17"/>
-      <c r="F41" s="72"/>
+      <c r="F41" s="73"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.6">
@@ -6608,7 +6635,7 @@
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="65" t="s">
         <v>529</v>
       </c>
       <c r="C43" s="25" t="s">
@@ -6624,7 +6651,7 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B44" s="68"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="17" t="s">
         <v>532</v>
       </c>
@@ -6637,7 +6664,7 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B45" s="68"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="17" t="s">
         <v>530</v>
       </c>
@@ -6658,7 +6685,7 @@
       <c r="G46" s="9"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="65" t="s">
         <v>545</v>
       </c>
       <c r="C47" s="25" t="s">
@@ -6672,7 +6699,7 @@
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B48" s="68"/>
+      <c r="B48" s="63"/>
       <c r="C48" s="17" t="s">
         <v>535</v>
       </c>
@@ -6696,7 +6723,7 @@
       <c r="G49" s="9"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="63" t="s">
         <v>543</v>
       </c>
       <c r="C50" s="37" t="s">
@@ -6707,7 +6734,7 @@
       <c r="G50" s="8"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B51" s="69"/>
+      <c r="B51" s="64"/>
       <c r="C51" s="19" t="s">
         <v>126</v>
       </c>
@@ -6723,14 +6750,14 @@
       </c>
     </row>
     <row r="54" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B54" s="62" t="s">
+      <c r="B54" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="75"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="74"/>
       <c r="F54" s="50"/>
-      <c r="G54" s="64" t="s">
+      <c r="G54" s="68" t="s">
         <v>337</v>
       </c>
     </row>
@@ -6750,13 +6777,13 @@
       <c r="F55" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G55" s="70"/>
+      <c r="G55" s="69"/>
       <c r="I55" s="31"/>
       <c r="J55" s="31"/>
       <c r="K55" s="31"/>
     </row>
     <row r="56" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B56" s="71" t="s">
+      <c r="B56" s="65" t="s">
         <v>387</v>
       </c>
       <c r="C56" s="25" t="s">
@@ -6771,7 +6798,7 @@
       <c r="K56" s="28"/>
     </row>
     <row r="57" spans="2:11" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="68"/>
+      <c r="B57" s="63"/>
       <c r="C57" s="17" t="s">
         <v>389</v>
       </c>
@@ -6781,7 +6808,7 @@
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="68"/>
+      <c r="B58" s="63"/>
       <c r="C58" s="17" t="s">
         <v>424</v>
       </c>
@@ -6790,7 +6817,7 @@
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="63" t="s">
         <v>390</v>
       </c>
       <c r="C59" s="17" t="s">
@@ -6806,7 +6833,7 @@
       <c r="K59" s="28"/>
     </row>
     <row r="60" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="68"/>
+      <c r="B60" s="63"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17" t="s">
         <v>418</v>
@@ -6817,7 +6844,7 @@
       <c r="K60" s="28"/>
     </row>
     <row r="61" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="68"/>
+      <c r="B61" s="63"/>
       <c r="C61" s="17" t="s">
         <v>392</v>
       </c>
@@ -6829,7 +6856,7 @@
       <c r="K61" s="28"/>
     </row>
     <row r="62" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="68"/>
+      <c r="B62" s="63"/>
       <c r="C62" s="17" t="s">
         <v>403</v>
       </c>
@@ -6843,7 +6870,7 @@
       <c r="K62" s="28"/>
     </row>
     <row r="63" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="68"/>
+      <c r="B63" s="63"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17" t="s">
         <v>415</v>
@@ -6855,7 +6882,7 @@
       <c r="K63" s="28"/>
     </row>
     <row r="64" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="68"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17" t="s">
         <v>416</v>
@@ -6867,7 +6894,7 @@
       <c r="K64" s="28"/>
     </row>
     <row r="65" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="68"/>
+      <c r="B65" s="63"/>
       <c r="D65" s="17" t="s">
         <v>428</v>
       </c>
@@ -6877,7 +6904,7 @@
       <c r="K65" s="28"/>
     </row>
     <row r="66" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="68" t="s">
+      <c r="B66" s="63" t="s">
         <v>393</v>
       </c>
       <c r="C66" t="s">
@@ -6893,7 +6920,7 @@
       <c r="K66" s="28"/>
     </row>
     <row r="67" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="68"/>
+      <c r="B67" s="63"/>
       <c r="D67" s="17" t="s">
         <v>422</v>
       </c>
@@ -6905,7 +6932,7 @@
       <c r="K67" s="28"/>
     </row>
     <row r="68" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="68"/>
+      <c r="B68" s="63"/>
       <c r="C68" s="17" t="s">
         <v>394</v>
       </c>
@@ -6918,7 +6945,7 @@
       <c r="K68" s="28"/>
     </row>
     <row r="69" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="68"/>
+      <c r="B69" s="63"/>
       <c r="D69" s="17" t="s">
         <v>420</v>
       </c>
@@ -6928,7 +6955,7 @@
       <c r="K69" s="28"/>
     </row>
     <row r="70" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="68"/>
+      <c r="B70" s="63"/>
       <c r="D70" s="17" t="s">
         <v>421</v>
       </c>
@@ -6938,7 +6965,7 @@
       <c r="K70" s="28"/>
     </row>
     <row r="71" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="68"/>
+      <c r="B71" s="63"/>
       <c r="C71" s="17" t="s">
         <v>423</v>
       </c>
@@ -6948,7 +6975,7 @@
       <c r="K71" s="28"/>
     </row>
     <row r="72" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="68" t="s">
+      <c r="B72" s="63" t="s">
         <v>427</v>
       </c>
       <c r="C72" s="17" t="s">
@@ -6963,7 +6990,7 @@
       <c r="K72" s="28"/>
     </row>
     <row r="73" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="68"/>
+      <c r="B73" s="63"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
         <v>398</v>
@@ -6975,7 +7002,7 @@
       <c r="K73" s="28"/>
     </row>
     <row r="74" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="68"/>
+      <c r="B74" s="63"/>
       <c r="C74" s="17" t="s">
         <v>516</v>
       </c>
@@ -6992,7 +7019,7 @@
       <c r="K74" s="28"/>
     </row>
     <row r="75" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="68"/>
+      <c r="B75" s="63"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17" t="s">
         <v>399</v>
@@ -7004,7 +7031,7 @@
       <c r="K75" s="28"/>
     </row>
     <row r="76" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="68" t="s">
+      <c r="B76" s="63" t="s">
         <v>540</v>
       </c>
       <c r="C76" s="17" t="s">
@@ -7019,7 +7046,7 @@
       <c r="K76" s="28"/>
     </row>
     <row r="77" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="68"/>
+      <c r="B77" s="63"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17" t="s">
         <v>413</v>
@@ -7030,7 +7057,7 @@
       <c r="K77" s="28"/>
     </row>
     <row r="78" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="68"/>
+      <c r="B78" s="63"/>
       <c r="C78" s="17" t="s">
         <v>400</v>
       </c>
@@ -7044,7 +7071,7 @@
       <c r="K78" s="28"/>
     </row>
     <row r="79" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="68"/>
+      <c r="B79" s="63"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17" t="s">
         <v>402</v>
@@ -7056,7 +7083,7 @@
       <c r="K79" s="28"/>
     </row>
     <row r="80" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B80" s="68" t="s">
+      <c r="B80" s="63" t="s">
         <v>548</v>
       </c>
       <c r="C80" s="17" t="s">
@@ -7070,7 +7097,7 @@
       <c r="K80" s="28"/>
     </row>
     <row r="81" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B81" s="68"/>
+      <c r="B81" s="63"/>
       <c r="C81" s="17" t="s">
         <v>542</v>
       </c>
@@ -7082,7 +7109,7 @@
       <c r="K81" s="28"/>
     </row>
     <row r="82" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B82" s="68" t="s">
+      <c r="B82" s="63" t="s">
         <v>524</v>
       </c>
       <c r="C82" s="17" t="s">
@@ -7096,7 +7123,7 @@
       <c r="K82" s="28"/>
     </row>
     <row r="83" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B83" s="68"/>
+      <c r="B83" s="63"/>
       <c r="C83" s="17" t="s">
         <v>537</v>
       </c>
@@ -7110,7 +7137,7 @@
       <c r="K83" s="28"/>
     </row>
     <row r="84" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B84" s="68"/>
+      <c r="B84" s="63"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17" t="s">
         <v>408</v>
@@ -7122,7 +7149,7 @@
       <c r="K84" s="28"/>
     </row>
     <row r="85" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B85" s="69"/>
+      <c r="B85" s="64"/>
       <c r="C85" s="19" t="s">
         <v>404</v>
       </c>
@@ -7149,14 +7176,14 @@
       <c r="K87" s="28"/>
     </row>
     <row r="88" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="62" t="s">
+      <c r="B88" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="75"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="74"/>
       <c r="F88" s="50"/>
-      <c r="G88" s="64" t="s">
+      <c r="G88" s="68" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7176,10 +7203,10 @@
       <c r="F89" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G89" s="65"/>
+      <c r="G89" s="70"/>
     </row>
     <row r="90" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B90" s="71" t="s">
+      <c r="B90" s="65" t="s">
         <v>433</v>
       </c>
       <c r="C90" s="25" t="s">
@@ -7193,7 +7220,7 @@
       </c>
     </row>
     <row r="91" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="68"/>
+      <c r="B91" s="63"/>
       <c r="C91" s="17" t="s">
         <v>435</v>
       </c>
@@ -7204,7 +7231,7 @@
       </c>
     </row>
     <row r="92" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B92" s="68"/>
+      <c r="B92" s="63"/>
       <c r="C92" s="17" t="s">
         <v>436</v>
       </c>
@@ -7217,7 +7244,7 @@
       </c>
     </row>
     <row r="93" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B93" s="68"/>
+      <c r="B93" s="63"/>
       <c r="C93" s="17" t="s">
         <v>480</v>
       </c>
@@ -7228,7 +7255,7 @@
       </c>
     </row>
     <row r="94" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B94" s="68" t="s">
+      <c r="B94" s="63" t="s">
         <v>441</v>
       </c>
       <c r="C94" s="17" t="s">
@@ -7241,7 +7268,7 @@
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B95" s="68"/>
+      <c r="B95" s="63"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17" t="s">
         <v>418</v>
@@ -7250,7 +7277,7 @@
       <c r="G95" s="10"/>
     </row>
     <row r="96" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B96" s="68"/>
+      <c r="B96" s="63"/>
       <c r="C96" s="17" t="s">
         <v>547</v>
       </c>
@@ -7265,7 +7292,7 @@
       </c>
     </row>
     <row r="97" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B97" s="68"/>
+      <c r="B97" s="63"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17" t="s">
         <v>447</v>
@@ -7274,7 +7301,7 @@
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B98" s="68"/>
+      <c r="B98" s="63"/>
       <c r="C98" s="17" t="s">
         <v>448</v>
       </c>
@@ -7285,8 +7312,8 @@
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B99" s="68"/>
-      <c r="C99" s="72" t="s">
+      <c r="B99" s="63"/>
+      <c r="C99" s="73" t="s">
         <v>360</v>
       </c>
       <c r="D99" s="49" t="s">
@@ -7298,8 +7325,8 @@
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B100" s="68"/>
-      <c r="C100" s="72"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="73"/>
       <c r="D100" s="49" t="s">
         <v>485</v>
       </c>
@@ -7307,8 +7334,8 @@
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B101" s="68"/>
-      <c r="C101" s="72"/>
+      <c r="B101" s="63"/>
+      <c r="C101" s="73"/>
       <c r="D101" s="49" t="s">
         <v>487</v>
       </c>
@@ -7316,10 +7343,10 @@
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B102" s="68" t="s">
+      <c r="B102" s="63" t="s">
         <v>450</v>
       </c>
-      <c r="C102" s="72" t="s">
+      <c r="C102" s="73" t="s">
         <v>463</v>
       </c>
       <c r="D102" s="17" t="s">
@@ -7331,8 +7358,8 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B103" s="68"/>
-      <c r="C103" s="72"/>
+      <c r="B103" s="63"/>
+      <c r="C103" s="73"/>
       <c r="D103" s="17" t="s">
         <v>344</v>
       </c>
@@ -7342,8 +7369,8 @@
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B104" s="68"/>
-      <c r="C104" s="72"/>
+      <c r="B104" s="63"/>
+      <c r="C104" s="73"/>
       <c r="D104" s="17" t="s">
         <v>467</v>
       </c>
@@ -7353,8 +7380,8 @@
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B105" s="68"/>
-      <c r="C105" s="72"/>
+      <c r="B105" s="63"/>
+      <c r="C105" s="73"/>
       <c r="D105" s="17" t="s">
         <v>466</v>
       </c>
@@ -7364,8 +7391,8 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B106" s="68"/>
-      <c r="C106" s="72"/>
+      <c r="B106" s="63"/>
+      <c r="C106" s="73"/>
       <c r="D106" s="17" t="s">
         <v>488</v>
       </c>
@@ -7375,8 +7402,8 @@
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B107" s="68"/>
-      <c r="C107" s="72"/>
+      <c r="B107" s="63"/>
+      <c r="C107" s="73"/>
       <c r="D107" s="17" t="s">
         <v>489</v>
       </c>
@@ -7384,10 +7411,10 @@
       <c r="G107" s="10"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B108" s="68" t="s">
+      <c r="B108" s="63" t="s">
         <v>385</v>
       </c>
-      <c r="C108" s="72" t="s">
+      <c r="C108" s="73" t="s">
         <v>456</v>
       </c>
       <c r="D108" s="49" t="s">
@@ -7399,8 +7426,8 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B109" s="68"/>
-      <c r="C109" s="72"/>
+      <c r="B109" s="63"/>
+      <c r="C109" s="73"/>
       <c r="D109" s="49" t="s">
         <v>461</v>
       </c>
@@ -7410,8 +7437,8 @@
       <c r="G109" s="10"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B110" s="68"/>
-      <c r="C110" s="72"/>
+      <c r="B110" s="63"/>
+      <c r="C110" s="73"/>
       <c r="D110" s="49" t="s">
         <v>458</v>
       </c>
@@ -7421,7 +7448,7 @@
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B111" s="68"/>
+      <c r="B111" s="63"/>
       <c r="C111" s="17" t="s">
         <v>469</v>
       </c>
@@ -7432,7 +7459,7 @@
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B112" s="68"/>
+      <c r="B112" s="63"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17" t="s">
         <v>474</v>
@@ -7441,7 +7468,7 @@
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B113" s="68"/>
+      <c r="B113" s="63"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17" t="s">
         <v>475</v>
@@ -7450,7 +7477,7 @@
       <c r="G113" s="10"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B114" s="68"/>
+      <c r="B114" s="63"/>
       <c r="C114" s="17" t="s">
         <v>358</v>
       </c>
@@ -7461,7 +7488,7 @@
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B115" s="68"/>
+      <c r="B115" s="63"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17" t="s">
         <v>372</v>
@@ -7470,7 +7497,7 @@
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B116" s="68"/>
+      <c r="B116" s="63"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17" t="s">
         <v>454</v>
@@ -7480,7 +7507,7 @@
       <c r="G116" s="8"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B117" s="68"/>
+      <c r="B117" s="63"/>
       <c r="C117" s="17" t="s">
         <v>364</v>
       </c>
@@ -7490,7 +7517,7 @@
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B118" s="68"/>
+      <c r="B118" s="63"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17" t="s">
         <v>378</v>
@@ -7498,7 +7525,7 @@
       <c r="E118" s="8"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B119" s="68"/>
+      <c r="B119" s="63"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17" t="s">
         <v>379</v>
@@ -7506,7 +7533,7 @@
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B120" s="68" t="s">
+      <c r="B120" s="63" t="s">
         <v>496</v>
       </c>
       <c r="C120" s="17" t="s">
@@ -7519,7 +7546,7 @@
       <c r="G120" s="10"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B121" s="68"/>
+      <c r="B121" s="63"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
         <v>482</v>
@@ -7528,7 +7555,7 @@
       <c r="G121" s="10"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B122" s="68"/>
+      <c r="B122" s="63"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17" t="s">
         <v>483</v>
@@ -7537,7 +7564,7 @@
       <c r="G122" s="10"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B123" s="68"/>
+      <c r="B123" s="63"/>
       <c r="C123" s="17" t="s">
         <v>404</v>
       </c>
@@ -7550,7 +7577,7 @@
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B124" s="68"/>
+      <c r="B124" s="63"/>
       <c r="C124" s="17" t="s">
         <v>409</v>
       </c>
@@ -7561,7 +7588,7 @@
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B125" s="68"/>
+      <c r="B125" s="63"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17" t="s">
         <v>382</v>
@@ -7570,7 +7597,7 @@
       <c r="G125" s="10"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B126" s="69"/>
+      <c r="B126" s="64"/>
       <c r="C126" s="19" t="s">
         <v>513</v>
       </c>
@@ -7737,39 +7764,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="B21:B32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B94:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="C102:C107"/>
     <mergeCell ref="B108:B119"/>
     <mergeCell ref="C108:C110"/>
     <mergeCell ref="B120:B126"/>
@@ -7785,6 +7779,39 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B54:E54"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="C102:C107"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7793,11 +7820,1801 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D28C1D-3F36-4224-8A89-416496C127F8}">
+  <dimension ref="B1:K164"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="75.875" customWidth="1"/>
+    <col min="8" max="14" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="20.65" x14ac:dyDescent="0.6">
+      <c r="B1" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B2" s="66" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="68" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B3" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>750</v>
+      </c>
+      <c r="G3" s="69"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B4" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="73" t="s">
+        <v>755</v>
+      </c>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B5" s="63"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="81" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B6" s="63"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B7" s="63"/>
+      <c r="C7" s="78" t="s">
+        <v>380</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>544</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B8" s="51" t="s">
+        <v>743</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B9" s="65" t="s">
+        <v>521</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>500</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="73" t="s">
+        <v>752</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B10" s="63"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B11" s="63"/>
+      <c r="C11" s="73" t="s">
+        <v>463</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="73" t="s">
+        <v>751</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B12" s="63"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="F12" s="73"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B13" s="63"/>
+      <c r="C13" s="73"/>
+      <c r="E13" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="F13" s="73"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B14" s="29"/>
+      <c r="C14" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B15" s="51" t="s">
+        <v>744</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B16" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="73" t="s">
+        <v>754</v>
+      </c>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B17" s="63"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="F17" s="73"/>
+      <c r="G17" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B18" s="63"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="F18" s="73"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B19" s="63"/>
+      <c r="C19" s="73"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B20" s="63"/>
+      <c r="C20" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B21" s="51" t="s">
+        <v>745</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="54"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B22" s="65" t="s">
+        <v>385</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>516</v>
+      </c>
+      <c r="D22" s="56"/>
+      <c r="F22" s="73" t="s">
+        <v>756</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B23" s="63"/>
+      <c r="C23" s="73"/>
+      <c r="D23" t="s">
+        <v>770</v>
+      </c>
+      <c r="F23" s="73"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B24" s="63"/>
+      <c r="C24" s="73"/>
+      <c r="D24" t="s">
+        <v>771</v>
+      </c>
+      <c r="F24" s="73"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B25" s="63"/>
+      <c r="C25" s="73" t="s">
+        <v>769</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>761</v>
+      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B26" s="63"/>
+      <c r="C26" s="73"/>
+      <c r="D26" t="s">
+        <v>772</v>
+      </c>
+      <c r="F26" s="73"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B27" s="63"/>
+      <c r="C27" s="73"/>
+      <c r="D27" t="s">
+        <v>771</v>
+      </c>
+      <c r="F27" s="73"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B28" s="63"/>
+      <c r="C28" s="73" t="s">
+        <v>358</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="F28" s="73" t="s">
+        <v>757</v>
+      </c>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B29" s="63"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="F29" s="73"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B30" s="63"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="F30" s="73"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B31" s="63"/>
+      <c r="C31" s="73" t="s">
+        <v>364</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>762</v>
+      </c>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B32" s="63"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="F32" s="73"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B33" s="63"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="F33" s="73"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B34" s="51" t="s">
+        <v>746</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B35" s="65" t="s">
+        <v>524</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="E35" s="56"/>
+      <c r="F35" s="73" t="s">
+        <v>763</v>
+      </c>
+      <c r="G35" s="26"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B36" s="63"/>
+      <c r="D36" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="F36" s="73"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B37" s="63"/>
+      <c r="C37" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="F37" s="73" t="s">
+        <v>764</v>
+      </c>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B38" s="63"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="F38" s="73"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B39" s="63"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="F39" s="73"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B40" s="63"/>
+      <c r="C40" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="F40" s="73" t="s">
+        <v>765</v>
+      </c>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B41" s="63"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="F41" s="73"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B42" s="63"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B43" s="51" t="s">
+        <v>747</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B44" s="65" t="s">
+        <v>529</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="D44" s="56"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B45" s="63"/>
+      <c r="C45" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B46" s="63"/>
+      <c r="C46" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B47" s="51" t="s">
+        <v>748</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B48" s="65" t="s">
+        <v>545</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="G48" s="26"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B49" s="63"/>
+      <c r="C49" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B50" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B51" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B52" s="64"/>
+      <c r="C52" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="54" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B54" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B55" s="66" t="s">
+        <v>332</v>
+      </c>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="68" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B56" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="F56" s="57" t="s">
+        <v>750</v>
+      </c>
+      <c r="G56" s="69"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+    </row>
+    <row r="57" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B57" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="33"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+    </row>
+    <row r="58" spans="2:11" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B58" s="63"/>
+      <c r="C58" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B59" s="63"/>
+      <c r="C59" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B60" s="63" t="s">
+        <v>390</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="E60" s="17"/>
+      <c r="G60" s="34"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+    </row>
+    <row r="61" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B61" s="63"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+    </row>
+    <row r="62" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B62" s="63"/>
+      <c r="C62" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="G62" s="10"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+    </row>
+    <row r="63" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B63" s="63"/>
+      <c r="C63" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="E63" s="17"/>
+      <c r="G63" s="10"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+    </row>
+    <row r="64" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B64" s="63"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="E64" s="17"/>
+      <c r="G64" s="10"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+    </row>
+    <row r="65" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B65" s="63"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="E65" s="17"/>
+      <c r="G65" s="10"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+    </row>
+    <row r="66" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B66" s="63"/>
+      <c r="D66" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+    </row>
+    <row r="67" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B67" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="C67" t="s">
+        <v>395</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="E67" s="17"/>
+      <c r="G67" s="10"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+    </row>
+    <row r="68" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B68" s="63"/>
+      <c r="D68" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="G68" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+    </row>
+    <row r="69" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B69" s="63"/>
+      <c r="C69" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="G69" s="10"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+    </row>
+    <row r="70" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B70" s="63"/>
+      <c r="D70" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="G70" s="10"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+    </row>
+    <row r="71" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B71" s="63"/>
+      <c r="D71" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="G71" s="10"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+    </row>
+    <row r="72" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B72" s="63"/>
+      <c r="C72" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="G72" s="10"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+    </row>
+    <row r="73" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B73" s="63" t="s">
+        <v>427</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="G73" s="10"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+    </row>
+    <row r="74" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B74" s="63"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="E74" s="17"/>
+      <c r="G74" s="10"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+    </row>
+    <row r="75" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B75" s="63"/>
+      <c r="C75" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="F75" s="27"/>
+      <c r="G75" s="10"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+    </row>
+    <row r="76" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B76" s="63"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="E76" s="17"/>
+      <c r="G76" s="10"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+    </row>
+    <row r="77" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B77" s="63" t="s">
+        <v>540</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="G77" s="10"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+    </row>
+    <row r="78" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B78" s="63"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="G78" s="10"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
+    </row>
+    <row r="79" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B79" s="63"/>
+      <c r="C79" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="E79" s="17"/>
+      <c r="G79" s="10"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
+    </row>
+    <row r="80" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B80" s="63"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E80" s="17"/>
+      <c r="G80" s="10"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+    </row>
+    <row r="81" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B81" s="63" t="s">
+        <v>548</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="G81" s="10"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
+    </row>
+    <row r="82" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B82" s="63"/>
+      <c r="C82" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="G82" s="10"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+    </row>
+    <row r="83" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B83" s="63" t="s">
+        <v>524</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="G83" s="10"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
+    </row>
+    <row r="84" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B84" s="63"/>
+      <c r="C84" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="E84" s="17"/>
+      <c r="G84" s="10"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+    </row>
+    <row r="85" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B85" s="63"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="E85" s="17"/>
+      <c r="G85" s="10"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
+    </row>
+    <row r="86" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B86" s="64"/>
+      <c r="C86" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="11"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
+    </row>
+    <row r="87" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E87" s="17"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+    </row>
+    <row r="88" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B88" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
+    </row>
+    <row r="89" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B89" s="66" t="s">
+        <v>332</v>
+      </c>
+      <c r="C89" s="67"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="68" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B90" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="F90" s="57" t="s">
+        <v>750</v>
+      </c>
+      <c r="G90" s="70"/>
+    </row>
+    <row r="91" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B91" s="65" t="s">
+        <v>433</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="33" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B92" s="63"/>
+      <c r="C92" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="G92" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B93" s="63"/>
+      <c r="C93" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="E93" s="17"/>
+      <c r="G93" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B94" s="63"/>
+      <c r="C94" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="G94" s="10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B95" s="63" t="s">
+        <v>441</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="E95" s="17"/>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B96" s="63"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="E96" s="17"/>
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B97" s="63"/>
+      <c r="C97" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B98" s="63"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="E98" s="17"/>
+      <c r="G98" s="10"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B99" s="63"/>
+      <c r="C99" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="G99" s="10" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B100" s="63"/>
+      <c r="C100" s="73" t="s">
+        <v>360</v>
+      </c>
+      <c r="D100" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="E100" s="20"/>
+      <c r="G100" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B101" s="63"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="49" t="s">
+        <v>485</v>
+      </c>
+      <c r="E101" s="17"/>
+      <c r="G101" s="10"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B102" s="63"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="49" t="s">
+        <v>487</v>
+      </c>
+      <c r="E102" s="17"/>
+      <c r="G102" s="10"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B103" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="C103" s="73" t="s">
+        <v>463</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="E103" s="17"/>
+      <c r="G103" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B104" s="63"/>
+      <c r="C104" s="73"/>
+      <c r="D104" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E104" s="17"/>
+      <c r="G104" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B105" s="63"/>
+      <c r="C105" s="73"/>
+      <c r="D105" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="E105" s="17"/>
+      <c r="G105" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B106" s="63"/>
+      <c r="C106" s="73"/>
+      <c r="D106" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="E106" s="17"/>
+      <c r="G106" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B107" s="63"/>
+      <c r="C107" s="73"/>
+      <c r="D107" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="E107" s="17"/>
+      <c r="G107" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B108" s="63"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="E108" s="17"/>
+      <c r="G108" s="10"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B109" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="C109" s="73" t="s">
+        <v>456</v>
+      </c>
+      <c r="D109" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="E109" s="17"/>
+      <c r="G109" s="10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B110" s="63"/>
+      <c r="C110" s="73"/>
+      <c r="D110" s="49" t="s">
+        <v>461</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="G110" s="10"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B111" s="63"/>
+      <c r="C111" s="73"/>
+      <c r="D111" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="E111" s="17"/>
+      <c r="G111" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B112" s="63"/>
+      <c r="C112" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="E112" s="17"/>
+      <c r="G112" s="10"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B113" s="63"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="E113" s="17"/>
+      <c r="G113" s="10"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B114" s="63"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="E114" s="17"/>
+      <c r="G114" s="10"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B115" s="63"/>
+      <c r="C115" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E115" s="17"/>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B116" s="63"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="E116" s="17"/>
+      <c r="G116" s="10"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B117" s="63"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="8"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B118" s="63"/>
+      <c r="C118" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="E118" s="8"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B119" s="63"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="E119" s="8"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B120" s="63"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="E120" s="8"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B121" s="63" t="s">
+        <v>496</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E121" s="17"/>
+      <c r="G121" s="10"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B122" s="63"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="E122" s="17"/>
+      <c r="G122" s="10"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B123" s="63"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="E123" s="17"/>
+      <c r="G123" s="10"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B124" s="63"/>
+      <c r="C124" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="E124" s="17"/>
+      <c r="G124" s="10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B125" s="63"/>
+      <c r="C125" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="E125" s="17"/>
+      <c r="G125" s="10"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B126" s="63"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="E126" s="17"/>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B127" s="64"/>
+      <c r="C127" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="D127" s="19"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B128" s="17"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+    </row>
+    <row r="134" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+    </row>
+    <row r="135" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+    </row>
+    <row r="136" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+    </row>
+    <row r="137" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+    </row>
+    <row r="138" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+    </row>
+    <row r="139" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B139"/>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+    </row>
+    <row r="140" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B140"/>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+    </row>
+    <row r="141" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+    </row>
+    <row r="142" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B142"/>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+    </row>
+    <row r="143" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+    </row>
+    <row r="144" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B144"/>
+      <c r="D144"/>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
+    </row>
+    <row r="145" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B145"/>
+      <c r="D145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+    </row>
+    <row r="146" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B146"/>
+      <c r="D146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
+    </row>
+    <row r="147" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+    </row>
+    <row r="148" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+    </row>
+    <row r="149" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B149"/>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149"/>
+    </row>
+    <row r="150" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B150"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150"/>
+    </row>
+    <row r="151" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B151"/>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151"/>
+    </row>
+    <row r="152" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B152"/>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+    </row>
+    <row r="153" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B153"/>
+      <c r="G153"/>
+      <c r="H153"/>
+      <c r="I153"/>
+      <c r="J153"/>
+      <c r="K153"/>
+    </row>
+    <row r="154" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B154"/>
+      <c r="G154"/>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154"/>
+    </row>
+    <row r="155" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B155"/>
+      <c r="G155"/>
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155"/>
+    </row>
+    <row r="156" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B156"/>
+      <c r="G156"/>
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156"/>
+    </row>
+    <row r="157" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B157"/>
+      <c r="G157"/>
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157"/>
+    </row>
+    <row r="158" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B158"/>
+      <c r="G158"/>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158"/>
+    </row>
+    <row r="159" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B159"/>
+      <c r="G159"/>
+      <c r="H159"/>
+      <c r="I159"/>
+      <c r="J159"/>
+      <c r="K159"/>
+    </row>
+    <row r="160" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B160"/>
+      <c r="G160"/>
+      <c r="H160"/>
+      <c r="I160"/>
+      <c r="J160"/>
+      <c r="K160"/>
+    </row>
+    <row r="161" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161"/>
+    </row>
+    <row r="162" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B162"/>
+      <c r="G162"/>
+      <c r="H162"/>
+      <c r="I162"/>
+      <c r="J162"/>
+      <c r="K162"/>
+    </row>
+    <row r="163" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B163"/>
+      <c r="G163"/>
+      <c r="H163"/>
+      <c r="I163"/>
+      <c r="J163"/>
+      <c r="K163"/>
+    </row>
+    <row r="164" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B164"/>
+      <c r="G164"/>
+      <c r="H164"/>
+      <c r="I164"/>
+      <c r="J164"/>
+      <c r="K164"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="B109:B120"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="B121:B127"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B95:B102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="C103:C108"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="B22:B33"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="F11:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -7876,7 +9693,7 @@
         <v>705</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>173</v>
@@ -7960,7 +9777,7 @@
         <v>700</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>703</v>
+        <v>727</v>
       </c>
       <c r="K6" s="28" t="s">
         <v>173</v>
@@ -8046,7 +9863,7 @@
         <v>697</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>699</v>
+        <v>822</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>173</v>
@@ -9140,7 +10957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:K46"/>
   <sheetViews>
@@ -12555,13 +14372,13 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68" t="s">
         <v>337</v>
       </c>
     </row>
@@ -12578,13 +14395,13 @@
       <c r="E3" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="65"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="60" t="s">
         <v>339</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -12594,8 +14411,8 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="12" t="s">
         <v>341</v>
       </c>
@@ -12603,8 +14420,8 @@
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="12" t="s">
         <v>59</v>
       </c>
@@ -12621,10 +14438,10 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="71" t="s">
         <v>497</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="60" t="s">
         <v>500</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -12635,7 +14452,7 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B9" s="67"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="61"/>
       <c r="D9" s="12" t="s">
         <v>504</v>
@@ -12647,10 +14464,10 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="60" t="s">
         <v>502</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="60" t="s">
         <v>501</v>
       </c>
       <c r="D10" s="16" t="s">
@@ -12660,8 +14477,8 @@
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="12" t="s">
         <v>479</v>
       </c>
@@ -12671,16 +14488,16 @@
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
       <c r="E12" s="12" t="s">
         <v>344</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B13" s="60"/>
-      <c r="C13" s="60" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62" t="s">
         <v>345</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -12699,7 +14516,7 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="60" t="s">
         <v>348</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -12714,7 +14531,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B16" s="60"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
         <v>355</v>
@@ -12725,7 +14542,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B17" s="60"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12" t="s">
         <v>350</v>
@@ -12734,7 +14551,7 @@
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B18" s="60"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="12" t="s">
         <v>351</v>
       </c>
@@ -12745,7 +14562,7 @@
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B19" s="60"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
         <v>353</v>
@@ -12763,7 +14580,7 @@
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="60" t="s">
         <v>360</v>
       </c>
       <c r="C21" s="16" t="s">
@@ -12774,7 +14591,7 @@
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B22" s="60"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="12" t="s">
         <v>366</v>
       </c>
@@ -12790,7 +14607,7 @@
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="60" t="s">
         <v>385</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -12803,7 +14620,7 @@
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B25" s="60"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12" t="s">
         <v>369</v>
@@ -12812,7 +14629,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B26" s="60"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12" t="s">
         <v>370</v>
@@ -12821,7 +14638,7 @@
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B27" s="60"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="12" t="s">
         <v>358</v>
       </c>
@@ -12832,7 +14649,7 @@
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B28" s="60"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="s">
         <v>372</v>
@@ -12841,7 +14658,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B29" s="60"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12" t="s">
         <v>373</v>
@@ -12850,7 +14667,7 @@
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B30" s="60"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="12" t="s">
         <v>359</v>
       </c>
@@ -12861,7 +14678,7 @@
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B31" s="60"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12" t="s">
         <v>375</v>
@@ -12870,7 +14687,7 @@
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B32" s="60"/>
+      <c r="B32" s="62"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12" t="s">
         <v>376</v>
@@ -12879,7 +14696,7 @@
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B33" s="68"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="12" t="s">
         <v>364</v>
       </c>
@@ -12890,7 +14707,7 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B34" s="68"/>
+      <c r="B34" s="63"/>
       <c r="C34" s="12"/>
       <c r="D34" s="29" t="s">
         <v>378</v>
@@ -12899,7 +14716,7 @@
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B35" s="69"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="18"/>
       <c r="D35" s="30" t="s">
         <v>379</v>
@@ -12908,7 +14725,7 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="60" t="s">
         <v>508</v>
       </c>
       <c r="C36" s="16" t="s">
@@ -12919,7 +14736,7 @@
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B37" s="60"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="12" t="s">
         <v>510</v>
       </c>
@@ -12937,7 +14754,7 @@
       <c r="F38" s="10"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="60" t="s">
         <v>361</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -12957,7 +14774,7 @@
       <c r="F40" s="10"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="60" t="s">
         <v>495</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -12970,7 +14787,7 @@
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B42" s="60"/>
+      <c r="B42" s="62"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12" t="s">
         <v>383</v>
@@ -12981,7 +14798,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B43" s="60"/>
+      <c r="B43" s="62"/>
       <c r="C43" s="29" t="s">
         <v>511</v>
       </c>
@@ -12992,7 +14809,7 @@
       <c r="F43" s="11"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="60" t="s">
         <v>362</v>
       </c>
       <c r="C44" s="16" t="s">
@@ -13003,7 +14820,7 @@
       <c r="F44" s="26"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B45" s="60"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="36" t="s">
         <v>498</v>
       </c>
@@ -13027,13 +14844,13 @@
       </c>
     </row>
     <row r="49" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="64" t="s">
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="68" t="s">
         <v>337</v>
       </c>
     </row>
@@ -13050,13 +14867,13 @@
       <c r="E50" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="F50" s="70"/>
+      <c r="F50" s="69"/>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
       <c r="J50" s="31"/>
     </row>
     <row r="51" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="65" t="s">
         <v>387</v>
       </c>
       <c r="C51" s="25" t="s">
@@ -13070,7 +14887,7 @@
       <c r="J51" s="28"/>
     </row>
     <row r="52" spans="2:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B52" s="68"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="17" t="s">
         <v>389</v>
       </c>
@@ -13079,7 +14896,7 @@
       <c r="F52" s="10"/>
     </row>
     <row r="53" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B53" s="68"/>
+      <c r="B53" s="63"/>
       <c r="C53" s="17" t="s">
         <v>424</v>
       </c>
@@ -13099,7 +14916,7 @@
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="63" t="s">
         <v>390</v>
       </c>
       <c r="C55" s="17" t="s">
@@ -13115,7 +14932,7 @@
       <c r="J55" s="28"/>
     </row>
     <row r="56" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B56" s="68"/>
+      <c r="B56" s="63"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17" t="s">
         <v>418</v>
@@ -13126,7 +14943,7 @@
       <c r="J56" s="28"/>
     </row>
     <row r="57" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="68"/>
+      <c r="B57" s="63"/>
       <c r="C57" s="17" t="s">
         <v>392</v>
       </c>
@@ -13138,7 +14955,7 @@
       <c r="J57" s="28"/>
     </row>
     <row r="58" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="68"/>
+      <c r="B58" s="63"/>
       <c r="C58" s="17" t="s">
         <v>403</v>
       </c>
@@ -13152,7 +14969,7 @@
       <c r="J58" s="28"/>
     </row>
     <row r="59" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="68"/>
+      <c r="B59" s="63"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17" t="s">
         <v>415</v>
@@ -13164,7 +14981,7 @@
       <c r="J59" s="28"/>
     </row>
     <row r="60" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="68"/>
+      <c r="B60" s="63"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17" t="s">
         <v>416</v>
@@ -13176,7 +14993,7 @@
       <c r="J60" s="28"/>
     </row>
     <row r="61" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="68"/>
+      <c r="B61" s="63"/>
       <c r="D61" s="17" t="s">
         <v>428</v>
       </c>
@@ -13186,7 +15003,7 @@
       <c r="J61" s="28"/>
     </row>
     <row r="62" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="63" t="s">
         <v>393</v>
       </c>
       <c r="C62" t="s">
@@ -13202,7 +15019,7 @@
       <c r="J62" s="28"/>
     </row>
     <row r="63" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="68"/>
+      <c r="B63" s="63"/>
       <c r="D63" s="17" t="s">
         <v>422</v>
       </c>
@@ -13214,7 +15031,7 @@
       <c r="J63" s="28"/>
     </row>
     <row r="64" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="68"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="17" t="s">
         <v>394</v>
       </c>
@@ -13227,7 +15044,7 @@
       <c r="J64" s="28"/>
     </row>
     <row r="65" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="68"/>
+      <c r="B65" s="63"/>
       <c r="D65" s="17" t="s">
         <v>420</v>
       </c>
@@ -13237,7 +15054,7 @@
       <c r="J65" s="28"/>
     </row>
     <row r="66" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="68"/>
+      <c r="B66" s="63"/>
       <c r="D66" s="17" t="s">
         <v>421</v>
       </c>
@@ -13247,7 +15064,7 @@
       <c r="J66" s="28"/>
     </row>
     <row r="67" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="68"/>
+      <c r="B67" s="63"/>
       <c r="C67" s="17" t="s">
         <v>423</v>
       </c>
@@ -13257,7 +15074,7 @@
       <c r="J67" s="28"/>
     </row>
     <row r="68" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="68" t="s">
+      <c r="B68" s="63" t="s">
         <v>427</v>
       </c>
       <c r="C68" s="17" t="s">
@@ -13272,7 +15089,7 @@
       <c r="J68" s="28"/>
     </row>
     <row r="69" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="68"/>
+      <c r="B69" s="63"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17" t="s">
         <v>398</v>
@@ -13284,7 +15101,7 @@
       <c r="J69" s="28"/>
     </row>
     <row r="70" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="68"/>
+      <c r="B70" s="63"/>
       <c r="C70" s="17" t="s">
         <v>516</v>
       </c>
@@ -13300,7 +15117,7 @@
       <c r="J70" s="28"/>
     </row>
     <row r="71" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="68"/>
+      <c r="B71" s="63"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17" t="s">
         <v>399</v>
@@ -13312,7 +15129,7 @@
       <c r="J71" s="28"/>
     </row>
     <row r="72" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="68" t="s">
+      <c r="B72" s="63" t="s">
         <v>430</v>
       </c>
       <c r="C72" s="17" t="s">
@@ -13327,7 +15144,7 @@
       <c r="J72" s="28"/>
     </row>
     <row r="73" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="68"/>
+      <c r="B73" s="63"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
         <v>413</v>
@@ -13338,7 +15155,7 @@
       <c r="J73" s="28"/>
     </row>
     <row r="74" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="68"/>
+      <c r="B74" s="63"/>
       <c r="C74" s="17" t="s">
         <v>400</v>
       </c>
@@ -13352,7 +15169,7 @@
       <c r="J74" s="28"/>
     </row>
     <row r="75" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="68"/>
+      <c r="B75" s="63"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17" t="s">
         <v>402</v>
@@ -13364,7 +15181,7 @@
       <c r="J75" s="28"/>
     </row>
     <row r="76" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="68"/>
+      <c r="B76" s="63"/>
       <c r="C76" s="17" t="s">
         <v>404</v>
       </c>
@@ -13378,7 +15195,7 @@
       <c r="J76" s="28"/>
     </row>
     <row r="77" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="68"/>
+      <c r="B77" s="63"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17" t="s">
         <v>517</v>
@@ -13390,7 +15207,7 @@
       <c r="J77" s="28"/>
     </row>
     <row r="78" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="68" t="s">
+      <c r="B78" s="63" t="s">
         <v>406</v>
       </c>
       <c r="C78" s="17" t="s">
@@ -13404,7 +15221,7 @@
       <c r="J78" s="28"/>
     </row>
     <row r="79" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="68"/>
+      <c r="B79" s="63"/>
       <c r="C79" s="17" t="s">
         <v>408</v>
       </c>
@@ -13441,13 +15258,13 @@
       <c r="J82" s="28"/>
     </row>
     <row r="83" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B83" s="62" t="s">
+      <c r="B83" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="C83" s="63"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="64" t="s">
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="68" t="s">
         <v>337</v>
       </c>
     </row>
@@ -13464,10 +15281,10 @@
       <c r="E84" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F84" s="65"/>
+      <c r="F84" s="70"/>
     </row>
     <row r="85" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B85" s="71" t="s">
+      <c r="B85" s="65" t="s">
         <v>433</v>
       </c>
       <c r="C85" s="25" t="s">
@@ -13480,7 +15297,7 @@
       </c>
     </row>
     <row r="86" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B86" s="68"/>
+      <c r="B86" s="63"/>
       <c r="C86" s="17" t="s">
         <v>435</v>
       </c>
@@ -13491,7 +15308,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B87" s="68"/>
+      <c r="B87" s="63"/>
       <c r="C87" s="17" t="s">
         <v>436</v>
       </c>
@@ -13502,7 +15319,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="68"/>
+      <c r="B88" s="63"/>
       <c r="C88" s="17" t="s">
         <v>480</v>
       </c>
@@ -13513,7 +15330,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B89" s="68" t="s">
+      <c r="B89" s="63" t="s">
         <v>441</v>
       </c>
       <c r="C89" s="17" t="s">
@@ -13526,7 +15343,7 @@
       <c r="F89" s="10"/>
     </row>
     <row r="90" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B90" s="68"/>
+      <c r="B90" s="63"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17" t="s">
         <v>444</v>
@@ -13535,7 +15352,7 @@
       <c r="F90" s="10"/>
     </row>
     <row r="91" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="68"/>
+      <c r="B91" s="63"/>
       <c r="C91" s="17" t="s">
         <v>446</v>
       </c>
@@ -13546,7 +15363,7 @@
       <c r="F91" s="10"/>
     </row>
     <row r="92" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B92" s="68"/>
+      <c r="B92" s="63"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17" t="s">
         <v>447</v>
@@ -13555,7 +15372,7 @@
       <c r="F92" s="10"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B93" s="68"/>
+      <c r="B93" s="63"/>
       <c r="C93" s="17" t="s">
         <v>448</v>
       </c>
@@ -13566,7 +15383,7 @@
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B94" s="68" t="s">
+      <c r="B94" s="63" t="s">
         <v>455</v>
       </c>
       <c r="C94" s="17" t="s">
@@ -13578,7 +15395,7 @@
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B95" s="68"/>
+      <c r="B95" s="63"/>
       <c r="C95" s="17" t="s">
         <v>485</v>
       </c>
@@ -13586,7 +15403,7 @@
       <c r="F95" s="10"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B96" s="68"/>
+      <c r="B96" s="63"/>
       <c r="C96" s="17" t="s">
         <v>487</v>
       </c>
@@ -13594,7 +15411,7 @@
       <c r="F96" s="10"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B97" s="68" t="s">
+      <c r="B97" s="63" t="s">
         <v>450</v>
       </c>
       <c r="C97" s="17" t="s">
@@ -13607,7 +15424,7 @@
       <c r="F97" s="10"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B98" s="68"/>
+      <c r="B98" s="63"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17" t="s">
         <v>468</v>
@@ -13618,7 +15435,7 @@
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B99" s="68"/>
+      <c r="B99" s="63"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17" t="s">
         <v>467</v>
@@ -13629,7 +15446,7 @@
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B100" s="68"/>
+      <c r="B100" s="63"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17" t="s">
         <v>466</v>
@@ -13640,7 +15457,7 @@
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B101" s="68"/>
+      <c r="B101" s="63"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17" t="s">
         <v>488</v>
@@ -13651,7 +15468,7 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B102" s="68"/>
+      <c r="B102" s="63"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17" t="s">
         <v>489</v>
@@ -13660,7 +15477,7 @@
       <c r="F102" s="10"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B103" s="68" t="s">
+      <c r="B103" s="63" t="s">
         <v>451</v>
       </c>
       <c r="C103" s="17" t="s">
@@ -13673,7 +15490,7 @@
       <c r="F103" s="10"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B104" s="68"/>
+      <c r="B104" s="63"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17" t="s">
         <v>474</v>
@@ -13682,7 +15499,7 @@
       <c r="F104" s="10"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B105" s="68"/>
+      <c r="B105" s="63"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17" t="s">
         <v>475</v>
@@ -13691,7 +15508,7 @@
       <c r="F105" s="10"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B106" s="68"/>
+      <c r="B106" s="63"/>
       <c r="C106" s="17" t="s">
         <v>476</v>
       </c>
@@ -13702,7 +15519,7 @@
       <c r="F106" s="10"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B107" s="68"/>
+      <c r="B107" s="63"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17" t="s">
         <v>478</v>
@@ -13711,7 +15528,7 @@
       <c r="F107" s="10"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B108" s="68"/>
+      <c r="B108" s="63"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17" t="s">
         <v>454</v>
@@ -13720,7 +15537,7 @@
       <c r="F108" s="10"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B109" s="68"/>
+      <c r="B109" s="63"/>
       <c r="C109" s="17" t="s">
         <v>470</v>
       </c>
@@ -13733,7 +15550,7 @@
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B110" s="68"/>
+      <c r="B110" s="63"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
       <c r="E110" s="17" t="s">
@@ -13742,7 +15559,7 @@
       <c r="F110" s="10"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B111" s="68"/>
+      <c r="B111" s="63"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
       <c r="E111" s="17" t="s">
@@ -13751,7 +15568,7 @@
       <c r="F111" s="10"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B112" s="68" t="s">
+      <c r="B112" s="63" t="s">
         <v>456</v>
       </c>
       <c r="C112" s="17" t="s">
@@ -13764,7 +15581,7 @@
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B113" s="68"/>
+      <c r="B113" s="63"/>
       <c r="C113" s="17" t="s">
         <v>461</v>
       </c>
@@ -13775,7 +15592,7 @@
       <c r="F113" s="10"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B114" s="68"/>
+      <c r="B114" s="63"/>
       <c r="C114" s="17" t="s">
         <v>458</v>
       </c>
@@ -13786,7 +15603,7 @@
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B115" s="68" t="s">
+      <c r="B115" s="63" t="s">
         <v>496</v>
       </c>
       <c r="C115" s="17" t="s">
@@ -13799,7 +15616,7 @@
       <c r="F115" s="10"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B116" s="68"/>
+      <c r="B116" s="63"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17" t="s">
         <v>482</v>
@@ -13808,7 +15625,7 @@
       <c r="F116" s="10"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B117" s="68"/>
+      <c r="B117" s="63"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17" t="s">
         <v>483</v>
@@ -13817,7 +15634,7 @@
       <c r="F117" s="10"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B118" s="68"/>
+      <c r="B118" s="63"/>
       <c r="C118" s="17" t="s">
         <v>404</v>
       </c>
@@ -13830,7 +15647,7 @@
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B119" s="68"/>
+      <c r="B119" s="63"/>
       <c r="C119" s="17" t="s">
         <v>492</v>
       </c>
@@ -13841,7 +15658,7 @@
       <c r="F119" s="10"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B120" s="68"/>
+      <c r="B120" s="63"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17" t="s">
         <v>494</v>
@@ -13850,7 +15667,7 @@
       <c r="F120" s="10"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B121" s="69"/>
+      <c r="B121" s="64"/>
       <c r="C121" s="19" t="s">
         <v>513</v>
       </c>
@@ -14016,14 +15833,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B115:B121"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="F49:F50"/>
     <mergeCell ref="B94:B96"/>
     <mergeCell ref="B97:B102"/>
@@ -14036,19 +15858,14 @@
     <mergeCell ref="B62:B67"/>
     <mergeCell ref="B68:B71"/>
     <mergeCell ref="B72:B77"/>
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B115:B121"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B83:E83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14084,13 +15901,13 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68" t="s">
         <v>337</v>
       </c>
     </row>
@@ -14107,13 +15924,13 @@
       <c r="E3" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="70"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="65" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="76" t="s">
         <v>339</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -14123,8 +15940,8 @@
       <c r="F4" s="26"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B5" s="68"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="17" t="s">
         <v>341</v>
       </c>
@@ -14132,8 +15949,8 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B6" s="68"/>
-      <c r="C6" s="72"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="17" t="s">
         <v>59</v>
       </c>
@@ -14141,7 +15958,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B7" s="68"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="46" t="s">
         <v>380</v>
       </c>
@@ -14152,10 +15969,10 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="63" t="s">
         <v>521</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="75" t="s">
         <v>500</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -14168,8 +15985,8 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B9" s="68"/>
-      <c r="C9" s="73"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="17" t="s">
         <v>504</v>
       </c>
@@ -14180,8 +15997,8 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B10" s="68"/>
-      <c r="C10" s="72" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="73" t="s">
         <v>501</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -14191,8 +16008,8 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B11" s="68"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="17" t="s">
         <v>479</v>
       </c>
@@ -14202,18 +16019,18 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B12" s="68"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="73"/>
       <c r="E12" s="17" t="s">
         <v>344</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="73" t="s">
         <v>349</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -14223,8 +16040,8 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B14" s="68"/>
-      <c r="C14" s="72"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="17" t="s">
         <v>355</v>
       </c>
@@ -14236,8 +16053,8 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B15" s="68"/>
-      <c r="C15" s="72"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17" t="s">
         <v>722</v>
@@ -14245,8 +16062,8 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B16" s="68"/>
-      <c r="C16" s="72"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="17" t="s">
         <v>350</v>
       </c>
@@ -14254,8 +16071,8 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B17" s="68"/>
-      <c r="C17" s="72" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="73" t="s">
         <v>360</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -14264,23 +16081,23 @@
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B18" s="68"/>
-      <c r="C18" s="72"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="17" t="s">
         <v>366</v>
       </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B19" s="68"/>
-      <c r="C19" s="72"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="17" t="s">
         <v>367</v>
       </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B20" s="68"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="37" t="s">
         <v>523</v>
       </c>
@@ -14288,10 +16105,10 @@
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="63" t="s">
         <v>385</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="73" t="s">
         <v>508</v>
       </c>
       <c r="D21" s="17" t="s">
@@ -14300,24 +16117,24 @@
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B22" s="68"/>
-      <c r="C22" s="72"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="17" t="s">
         <v>510</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B23" s="68"/>
-      <c r="C23" s="72"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="17" t="s">
         <v>509</v>
       </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B24" s="68"/>
-      <c r="C24" s="72" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="73" t="s">
         <v>357</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -14326,24 +16143,24 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B25" s="68"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="17" t="s">
         <v>369</v>
       </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B26" s="68"/>
-      <c r="C26" s="72"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="17" t="s">
         <v>370</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B27" s="68"/>
-      <c r="C27" s="72" t="s">
+      <c r="B27" s="63"/>
+      <c r="C27" s="73" t="s">
         <v>358</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -14352,24 +16169,24 @@
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B28" s="68"/>
-      <c r="C28" s="72"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="17" t="s">
         <v>372</v>
       </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B29" s="68"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="17" t="s">
         <v>373</v>
       </c>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B30" s="68"/>
-      <c r="C30" s="72" t="s">
+      <c r="B30" s="63"/>
+      <c r="C30" s="73" t="s">
         <v>364</v>
       </c>
       <c r="D30" s="17" t="s">
@@ -14378,23 +16195,23 @@
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B31" s="68"/>
-      <c r="C31" s="72"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="17" t="s">
         <v>378</v>
       </c>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B32" s="68"/>
-      <c r="C32" s="72"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="17" t="s">
         <v>379</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="63" t="s">
         <v>524</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -14406,14 +16223,14 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B34" s="68"/>
+      <c r="B34" s="63"/>
       <c r="D34" s="17" t="s">
         <v>527</v>
       </c>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B35" s="68"/>
+      <c r="B35" s="63"/>
       <c r="C35" s="17" t="s">
         <v>528</v>
       </c>
@@ -14423,7 +16240,7 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B36" s="68"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17" t="s">
         <v>353</v>
@@ -14431,7 +16248,7 @@
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B37" s="68"/>
+      <c r="B37" s="63"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
         <v>354</v>
@@ -14439,7 +16256,7 @@
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B38" s="68"/>
+      <c r="B38" s="63"/>
       <c r="C38" s="17" t="s">
         <v>359</v>
       </c>
@@ -14449,7 +16266,7 @@
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B39" s="68"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17" t="s">
         <v>375</v>
@@ -14457,7 +16274,7 @@
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B40" s="68"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17" t="s">
         <v>376</v>
@@ -14466,7 +16283,7 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="63" t="s">
         <v>529</v>
       </c>
       <c r="C41" s="17" t="s">
@@ -14478,7 +16295,7 @@
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B42" s="68"/>
+      <c r="B42" s="63"/>
       <c r="C42" s="17" t="s">
         <v>532</v>
       </c>
@@ -14488,7 +16305,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B43" s="68"/>
+      <c r="B43" s="63"/>
       <c r="C43" s="17" t="s">
         <v>530</v>
       </c>
@@ -14496,7 +16313,7 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="63" t="s">
         <v>545</v>
       </c>
       <c r="C44" s="17" t="s">
@@ -14507,7 +16324,7 @@
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B45" s="68"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="17" t="s">
         <v>535</v>
       </c>
@@ -14518,7 +16335,7 @@
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="63" t="s">
         <v>543</v>
       </c>
       <c r="C46" s="37" t="s">
@@ -14529,7 +16346,7 @@
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B47" s="69"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="19" t="s">
         <v>126</v>
       </c>
@@ -14544,13 +16361,13 @@
       </c>
     </row>
     <row r="50" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="64" t="s">
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="68" t="s">
         <v>337</v>
       </c>
     </row>
@@ -14567,13 +16384,13 @@
       <c r="E51" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="F51" s="70"/>
+      <c r="F51" s="69"/>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
     </row>
     <row r="52" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B52" s="71" t="s">
+      <c r="B52" s="65" t="s">
         <v>387</v>
       </c>
       <c r="C52" s="25" t="s">
@@ -14587,7 +16404,7 @@
       <c r="J52" s="28"/>
     </row>
     <row r="53" spans="2:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B53" s="68"/>
+      <c r="B53" s="63"/>
       <c r="C53" s="17" t="s">
         <v>389</v>
       </c>
@@ -14596,7 +16413,7 @@
       <c r="F53" s="10"/>
     </row>
     <row r="54" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B54" s="68"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="17" t="s">
         <v>424</v>
       </c>
@@ -14605,7 +16422,7 @@
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="63" t="s">
         <v>390</v>
       </c>
       <c r="C55" s="17" t="s">
@@ -14621,7 +16438,7 @@
       <c r="J55" s="28"/>
     </row>
     <row r="56" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B56" s="68"/>
+      <c r="B56" s="63"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17" t="s">
         <v>418</v>
@@ -14632,7 +16449,7 @@
       <c r="J56" s="28"/>
     </row>
     <row r="57" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="68"/>
+      <c r="B57" s="63"/>
       <c r="C57" s="17" t="s">
         <v>392</v>
       </c>
@@ -14644,7 +16461,7 @@
       <c r="J57" s="28"/>
     </row>
     <row r="58" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="68"/>
+      <c r="B58" s="63"/>
       <c r="C58" s="17" t="s">
         <v>403</v>
       </c>
@@ -14658,7 +16475,7 @@
       <c r="J58" s="28"/>
     </row>
     <row r="59" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="68"/>
+      <c r="B59" s="63"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17" t="s">
         <v>415</v>
@@ -14670,7 +16487,7 @@
       <c r="J59" s="28"/>
     </row>
     <row r="60" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="68"/>
+      <c r="B60" s="63"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17" t="s">
         <v>416</v>
@@ -14682,7 +16499,7 @@
       <c r="J60" s="28"/>
     </row>
     <row r="61" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="68"/>
+      <c r="B61" s="63"/>
       <c r="D61" s="17" t="s">
         <v>428</v>
       </c>
@@ -14692,7 +16509,7 @@
       <c r="J61" s="28"/>
     </row>
     <row r="62" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="63" t="s">
         <v>393</v>
       </c>
       <c r="C62" t="s">
@@ -14708,7 +16525,7 @@
       <c r="J62" s="28"/>
     </row>
     <row r="63" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="68"/>
+      <c r="B63" s="63"/>
       <c r="D63" s="17" t="s">
         <v>422</v>
       </c>
@@ -14720,7 +16537,7 @@
       <c r="J63" s="28"/>
     </row>
     <row r="64" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="68"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="17" t="s">
         <v>736</v>
       </c>
@@ -14733,7 +16550,7 @@
       <c r="J64" s="28"/>
     </row>
     <row r="65" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="68"/>
+      <c r="B65" s="63"/>
       <c r="D65" s="17" t="s">
         <v>420</v>
       </c>
@@ -14743,7 +16560,7 @@
       <c r="J65" s="28"/>
     </row>
     <row r="66" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="68"/>
+      <c r="B66" s="63"/>
       <c r="D66" s="17" t="s">
         <v>421</v>
       </c>
@@ -14753,7 +16570,7 @@
       <c r="J66" s="28"/>
     </row>
     <row r="67" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="68"/>
+      <c r="B67" s="63"/>
       <c r="C67" s="17" t="s">
         <v>423</v>
       </c>
@@ -14763,7 +16580,7 @@
       <c r="J67" s="28"/>
     </row>
     <row r="68" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="68" t="s">
+      <c r="B68" s="63" t="s">
         <v>427</v>
       </c>
       <c r="C68" s="17" t="s">
@@ -14778,7 +16595,7 @@
       <c r="J68" s="28"/>
     </row>
     <row r="69" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="68"/>
+      <c r="B69" s="63"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17" t="s">
         <v>398</v>
@@ -14790,7 +16607,7 @@
       <c r="J69" s="28"/>
     </row>
     <row r="70" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="68"/>
+      <c r="B70" s="63"/>
       <c r="C70" s="17" t="s">
         <v>516</v>
       </c>
@@ -14806,7 +16623,7 @@
       <c r="J70" s="28"/>
     </row>
     <row r="71" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="68"/>
+      <c r="B71" s="63"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17" t="s">
         <v>399</v>
@@ -14818,7 +16635,7 @@
       <c r="J71" s="28"/>
     </row>
     <row r="72" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="68" t="s">
+      <c r="B72" s="63" t="s">
         <v>540</v>
       </c>
       <c r="C72" s="17" t="s">
@@ -14833,7 +16650,7 @@
       <c r="J72" s="28"/>
     </row>
     <row r="73" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="68"/>
+      <c r="B73" s="63"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
         <v>413</v>
@@ -14844,7 +16661,7 @@
       <c r="J73" s="28"/>
     </row>
     <row r="74" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="68"/>
+      <c r="B74" s="63"/>
       <c r="C74" s="17" t="s">
         <v>400</v>
       </c>
@@ -14858,7 +16675,7 @@
       <c r="J74" s="28"/>
     </row>
     <row r="75" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="68"/>
+      <c r="B75" s="63"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17" t="s">
         <v>402</v>
@@ -14870,7 +16687,7 @@
       <c r="J75" s="28"/>
     </row>
     <row r="76" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="68" t="s">
+      <c r="B76" s="63" t="s">
         <v>548</v>
       </c>
       <c r="C76" s="17" t="s">
@@ -14884,7 +16701,7 @@
       <c r="J76" s="28"/>
     </row>
     <row r="77" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="68"/>
+      <c r="B77" s="63"/>
       <c r="C77" s="17" t="s">
         <v>542</v>
       </c>
@@ -14896,7 +16713,7 @@
       <c r="J77" s="28"/>
     </row>
     <row r="78" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="68" t="s">
+      <c r="B78" s="63" t="s">
         <v>536</v>
       </c>
       <c r="C78" s="17" t="s">
@@ -14910,7 +16727,7 @@
       <c r="J78" s="28"/>
     </row>
     <row r="79" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="68"/>
+      <c r="B79" s="63"/>
       <c r="C79" s="17" t="s">
         <v>537</v>
       </c>
@@ -14924,7 +16741,7 @@
       <c r="J79" s="28"/>
     </row>
     <row r="80" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B80" s="68"/>
+      <c r="B80" s="63"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17" t="s">
         <v>408</v>
@@ -14936,7 +16753,7 @@
       <c r="J80" s="28"/>
     </row>
     <row r="81" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B81" s="69"/>
+      <c r="B81" s="64"/>
       <c r="C81" s="19" t="s">
         <v>538</v>
       </c>
@@ -14962,13 +16779,13 @@
       <c r="J83" s="28"/>
     </row>
     <row r="84" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B84" s="62" t="s">
+      <c r="B84" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="C84" s="63"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="64" t="s">
+      <c r="C84" s="67"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="68" t="s">
         <v>337</v>
       </c>
     </row>
@@ -14985,10 +16802,10 @@
       <c r="E85" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F85" s="65"/>
+      <c r="F85" s="70"/>
     </row>
     <row r="86" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B86" s="71" t="s">
+      <c r="B86" s="65" t="s">
         <v>433</v>
       </c>
       <c r="C86" s="25" t="s">
@@ -15001,7 +16818,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B87" s="68"/>
+      <c r="B87" s="63"/>
       <c r="C87" s="17" t="s">
         <v>435</v>
       </c>
@@ -15012,7 +16829,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="68"/>
+      <c r="B88" s="63"/>
       <c r="C88" s="17" t="s">
         <v>436</v>
       </c>
@@ -15025,7 +16842,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B89" s="68"/>
+      <c r="B89" s="63"/>
       <c r="C89" s="17" t="s">
         <v>480</v>
       </c>
@@ -15036,7 +16853,7 @@
       </c>
     </row>
     <row r="90" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B90" s="68" t="s">
+      <c r="B90" s="63" t="s">
         <v>441</v>
       </c>
       <c r="C90" s="17" t="s">
@@ -15049,7 +16866,7 @@
       <c r="F90" s="10"/>
     </row>
     <row r="91" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="68"/>
+      <c r="B91" s="63"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17" t="s">
         <v>418</v>
@@ -15058,7 +16875,7 @@
       <c r="F91" s="10"/>
     </row>
     <row r="92" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B92" s="68"/>
+      <c r="B92" s="63"/>
       <c r="C92" s="17" t="s">
         <v>547</v>
       </c>
@@ -15073,7 +16890,7 @@
       </c>
     </row>
     <row r="93" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B93" s="68"/>
+      <c r="B93" s="63"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17" t="s">
         <v>447</v>
@@ -15082,7 +16899,7 @@
       <c r="F93" s="10"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B94" s="68"/>
+      <c r="B94" s="63"/>
       <c r="C94" s="17" t="s">
         <v>448</v>
       </c>
@@ -15093,8 +16910,8 @@
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B95" s="68"/>
-      <c r="C95" s="72" t="s">
+      <c r="B95" s="63"/>
+      <c r="C95" s="73" t="s">
         <v>455</v>
       </c>
       <c r="D95" s="49" t="s">
@@ -15106,8 +16923,8 @@
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B96" s="68"/>
-      <c r="C96" s="72"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="73"/>
       <c r="D96" s="49" t="s">
         <v>485</v>
       </c>
@@ -15115,8 +16932,8 @@
       <c r="F96" s="10"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B97" s="68"/>
-      <c r="C97" s="72"/>
+      <c r="B97" s="63"/>
+      <c r="C97" s="73"/>
       <c r="D97" s="49" t="s">
         <v>487</v>
       </c>
@@ -15124,10 +16941,10 @@
       <c r="F97" s="10"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B98" s="68" t="s">
+      <c r="B98" s="63" t="s">
         <v>450</v>
       </c>
-      <c r="C98" s="72" t="s">
+      <c r="C98" s="73" t="s">
         <v>463</v>
       </c>
       <c r="D98" s="17" t="s">
@@ -15139,8 +16956,8 @@
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B99" s="68"/>
-      <c r="C99" s="72"/>
+      <c r="B99" s="63"/>
+      <c r="C99" s="73"/>
       <c r="D99" s="17" t="s">
         <v>468</v>
       </c>
@@ -15150,8 +16967,8 @@
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B100" s="68"/>
-      <c r="C100" s="72"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="73"/>
       <c r="D100" s="17" t="s">
         <v>467</v>
       </c>
@@ -15161,8 +16978,8 @@
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B101" s="68"/>
-      <c r="C101" s="72"/>
+      <c r="B101" s="63"/>
+      <c r="C101" s="73"/>
       <c r="D101" s="17" t="s">
         <v>466</v>
       </c>
@@ -15172,8 +16989,8 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B102" s="68"/>
-      <c r="C102" s="72"/>
+      <c r="B102" s="63"/>
+      <c r="C102" s="73"/>
       <c r="D102" s="17" t="s">
         <v>488</v>
       </c>
@@ -15183,8 +17000,8 @@
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B103" s="68"/>
-      <c r="C103" s="72"/>
+      <c r="B103" s="63"/>
+      <c r="C103" s="73"/>
       <c r="D103" s="17" t="s">
         <v>489</v>
       </c>
@@ -15192,10 +17009,10 @@
       <c r="F103" s="10"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B104" s="68" t="s">
+      <c r="B104" s="63" t="s">
         <v>385</v>
       </c>
-      <c r="C104" s="72" t="s">
+      <c r="C104" s="73" t="s">
         <v>456</v>
       </c>
       <c r="D104" s="49" t="s">
@@ -15207,8 +17024,8 @@
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B105" s="68"/>
-      <c r="C105" s="72"/>
+      <c r="B105" s="63"/>
+      <c r="C105" s="73"/>
       <c r="D105" s="49" t="s">
         <v>461</v>
       </c>
@@ -15218,8 +17035,8 @@
       <c r="F105" s="10"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B106" s="68"/>
-      <c r="C106" s="72"/>
+      <c r="B106" s="63"/>
+      <c r="C106" s="73"/>
       <c r="D106" s="49" t="s">
         <v>458</v>
       </c>
@@ -15229,7 +17046,7 @@
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B107" s="68"/>
+      <c r="B107" s="63"/>
       <c r="C107" s="17" t="s">
         <v>469</v>
       </c>
@@ -15240,7 +17057,7 @@
       <c r="F107" s="10"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B108" s="68"/>
+      <c r="B108" s="63"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17" t="s">
         <v>474</v>
@@ -15249,7 +17066,7 @@
       <c r="F108" s="10"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B109" s="68"/>
+      <c r="B109" s="63"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17" t="s">
         <v>475</v>
@@ -15258,7 +17075,7 @@
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B110" s="68"/>
+      <c r="B110" s="63"/>
       <c r="C110" s="17" t="s">
         <v>476</v>
       </c>
@@ -15269,7 +17086,7 @@
       <c r="F110" s="10"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B111" s="68"/>
+      <c r="B111" s="63"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17" t="s">
         <v>478</v>
@@ -15278,7 +17095,7 @@
       <c r="F111" s="10"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B112" s="68"/>
+      <c r="B112" s="63"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17" t="s">
         <v>454</v>
@@ -15287,7 +17104,7 @@
       <c r="F112" s="8"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B113" s="68"/>
+      <c r="B113" s="63"/>
       <c r="C113" s="17" t="s">
         <v>452</v>
       </c>
@@ -15297,7 +17114,7 @@
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B114" s="68"/>
+      <c r="B114" s="63"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17" t="s">
         <v>378</v>
@@ -15305,7 +17122,7 @@
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B115" s="68"/>
+      <c r="B115" s="63"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17" t="s">
         <v>473</v>
@@ -15313,7 +17130,7 @@
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B116" s="68" t="s">
+      <c r="B116" s="63" t="s">
         <v>496</v>
       </c>
       <c r="C116" s="17" t="s">
@@ -15326,7 +17143,7 @@
       <c r="F116" s="10"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B117" s="68"/>
+      <c r="B117" s="63"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17" t="s">
         <v>482</v>
@@ -15335,7 +17152,7 @@
       <c r="F117" s="10"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B118" s="68"/>
+      <c r="B118" s="63"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17" t="s">
         <v>483</v>
@@ -15344,7 +17161,7 @@
       <c r="F118" s="10"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B119" s="68"/>
+      <c r="B119" s="63"/>
       <c r="C119" s="17" t="s">
         <v>404</v>
       </c>
@@ -15357,7 +17174,7 @@
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B120" s="68"/>
+      <c r="B120" s="63"/>
       <c r="C120" s="17" t="s">
         <v>492</v>
       </c>
@@ -15368,7 +17185,7 @@
       <c r="F120" s="10"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B121" s="68"/>
+      <c r="B121" s="63"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
         <v>382</v>
@@ -15377,7 +17194,7 @@
       <c r="F121" s="10"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B122" s="69"/>
+      <c r="B122" s="64"/>
       <c r="C122" s="19" t="s">
         <v>513</v>
       </c>
@@ -15543,6 +17360,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="B90:B97"/>
+    <mergeCell ref="C98:C103"/>
     <mergeCell ref="C104:C106"/>
     <mergeCell ref="B116:B122"/>
     <mergeCell ref="B8:B12"/>
@@ -15559,28 +17398,6 @@
     <mergeCell ref="B68:B71"/>
     <mergeCell ref="B72:B75"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="B90:B97"/>
-    <mergeCell ref="C98:C103"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B50:E50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/메뉴구성도_IA - 김민아.xlsx
+++ b/메뉴구성도_IA - 김민아.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\als70\OneDrive\Desktop\삼성아카데미\samsung-lxp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAB9C77-6EB1-48B9-BE19-53EAC8BF0EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90246B8-4FD3-4178-B627-376FE985CAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="화면구성도" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="830">
   <si>
     <t>메뉴</t>
   </si>
@@ -2873,12 +2873,44 @@
     <t>관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>과제 제출 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 제출+텍스트 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크 제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>document_text</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2974,8 +3006,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3025,6 +3063,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3264,7 +3308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3430,6 +3474,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3484,8 +3537,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4187,14 +4240,14 @@
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="24"/>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="67" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4214,46 +4267,46 @@
       <c r="F3" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="74" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="77" t="s">
         <v>339</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>340</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="75" t="s">
         <v>755</v>
       </c>
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B5" s="68"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="17" t="s">
         <v>341</v>
       </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="72"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B6" s="68"/>
-      <c r="C6" s="72"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="72"/>
+      <c r="F6" s="75"/>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B7" s="68"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="46" t="s">
         <v>380</v>
       </c>
@@ -4274,17 +4327,17 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="74" t="s">
         <v>521</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="79" t="s">
         <v>500</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>503</v>
       </c>
       <c r="E9" s="25"/>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="75" t="s">
         <v>752</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -4293,51 +4346,51 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B10" s="68"/>
-      <c r="C10" s="73"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="17" t="s">
         <v>504</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="72"/>
+      <c r="F10" s="75"/>
       <c r="G10" s="20" t="s">
         <v>505</v>
       </c>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B11" s="68"/>
-      <c r="C11" s="72" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="75" t="s">
         <v>463</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>342</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="75" t="s">
         <v>751</v>
       </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B12" s="68"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="17" t="s">
         <v>479</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="75"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B13" s="68"/>
-      <c r="C13" s="72"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="75"/>
       <c r="E13" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="75"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.6">
@@ -4351,86 +4404,86 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="74" t="s">
         <v>348</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="77" t="s">
         <v>349</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>356</v>
       </c>
       <c r="E15" s="25"/>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="75" t="s">
         <v>754</v>
       </c>
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B16" s="68"/>
-      <c r="C16" s="72"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="17" t="s">
         <v>355</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="8" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B17" s="68"/>
-      <c r="C17" s="72"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="75"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" ht="17.649999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B18" s="68"/>
-      <c r="C18" s="72"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="55" t="s">
         <v>350</v>
       </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="72"/>
+      <c r="F18" s="75"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="B19" s="68"/>
-      <c r="D19" s="72" t="s">
+      <c r="B19" s="71"/>
+      <c r="D19" s="75" t="s">
         <v>360</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B20" s="68"/>
-      <c r="D20" s="72"/>
+      <c r="B20" s="71"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B21" s="68"/>
-      <c r="D21" s="72"/>
+      <c r="B21" s="71"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="F21" s="72"/>
+      <c r="F21" s="75"/>
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B22" s="68"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="37" t="s">
         <v>523</v>
       </c>
@@ -4451,130 +4504,130 @@
       <c r="G23" s="54"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="74" t="s">
         <v>742</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="77" t="s">
         <v>456</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>457</v>
       </c>
       <c r="E24" s="56"/>
-      <c r="F24" s="72" t="s">
+      <c r="F24" s="75" t="s">
         <v>756</v>
       </c>
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B25" s="68"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="F25" s="72"/>
+      <c r="F25" s="75"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B26" s="68"/>
-      <c r="C26" s="72"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="F26" s="72"/>
+      <c r="F26" s="75"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B27" s="68"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="17" t="s">
         <v>357</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="F27" s="72" t="s">
+      <c r="F27" s="75" t="s">
         <v>761</v>
       </c>
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B28" s="68"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="F28" s="72"/>
+      <c r="F28" s="75"/>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B29" s="68"/>
+      <c r="B29" s="71"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="F29" s="72"/>
+      <c r="F29" s="75"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B30" s="68"/>
-      <c r="C30" s="72" t="s">
+      <c r="B30" s="71"/>
+      <c r="C30" s="75" t="s">
         <v>358</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="F30" s="72" t="s">
+      <c r="F30" s="75" t="s">
         <v>757</v>
       </c>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B31" s="68"/>
-      <c r="C31" s="72"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="F31" s="72"/>
+      <c r="F31" s="75"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B32" s="68"/>
-      <c r="C32" s="72"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="F32" s="72"/>
+      <c r="F32" s="75"/>
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B33" s="68"/>
-      <c r="C33" s="72" t="s">
+      <c r="B33" s="71"/>
+      <c r="C33" s="75" t="s">
         <v>364</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="F33" s="72" t="s">
+      <c r="F33" s="75" t="s">
         <v>762</v>
       </c>
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B34" s="68"/>
-      <c r="C34" s="72"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="F34" s="72"/>
+      <c r="F34" s="75"/>
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B35" s="68"/>
-      <c r="C35" s="72"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="F35" s="72"/>
+      <c r="F35" s="75"/>
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.6">
@@ -4588,7 +4641,7 @@
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="74" t="s">
         <v>524</v>
       </c>
       <c r="C37" s="25" t="s">
@@ -4598,80 +4651,80 @@
         <v>526</v>
       </c>
       <c r="E37" s="56"/>
-      <c r="F37" s="72" t="s">
+      <c r="F37" s="75" t="s">
         <v>763</v>
       </c>
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B38" s="68"/>
+      <c r="B38" s="71"/>
       <c r="D38" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="F38" s="72"/>
+      <c r="F38" s="75"/>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B39" s="68"/>
+      <c r="B39" s="71"/>
       <c r="C39" s="17" t="s">
         <v>528</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="F39" s="72" t="s">
+      <c r="F39" s="75" t="s">
         <v>764</v>
       </c>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B40" s="68"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="F40" s="72"/>
+      <c r="F40" s="75"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B41" s="68"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="F41" s="72"/>
+      <c r="F41" s="75"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B42" s="68"/>
+      <c r="B42" s="71"/>
       <c r="C42" s="17" t="s">
         <v>359</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="F42" s="72" t="s">
+      <c r="F42" s="75" t="s">
         <v>765</v>
       </c>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B43" s="68"/>
+      <c r="B43" s="71"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="F43" s="72"/>
+      <c r="F43" s="75"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B44" s="68"/>
+      <c r="B44" s="71"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17" t="s">
         <v>376</v>
       </c>
       <c r="E44" s="17"/>
-      <c r="F44" s="72"/>
+      <c r="F44" s="75"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.6">
@@ -4685,7 +4738,7 @@
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="74" t="s">
         <v>529</v>
       </c>
       <c r="C46" s="25" t="s">
@@ -4701,7 +4754,7 @@
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B47" s="68"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="17" t="s">
         <v>532</v>
       </c>
@@ -4714,7 +4767,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B48" s="68"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="17" t="s">
         <v>530</v>
       </c>
@@ -4735,7 +4788,7 @@
       <c r="G49" s="9"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="74" t="s">
         <v>545</v>
       </c>
       <c r="C50" s="25" t="s">
@@ -4749,7 +4802,7 @@
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B51" s="68"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="17" t="s">
         <v>535</v>
       </c>
@@ -4773,7 +4826,7 @@
       <c r="G52" s="9"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B53" s="68" t="s">
+      <c r="B53" s="71" t="s">
         <v>543</v>
       </c>
       <c r="C53" s="37" t="s">
@@ -4784,7 +4837,7 @@
       <c r="G53" s="8"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B54" s="69"/>
+      <c r="B54" s="72"/>
       <c r="C54" s="19" t="s">
         <v>126</v>
       </c>
@@ -4800,14 +4853,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="62" t="s">
+      <c r="B57" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="75"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="78"/>
       <c r="F57" s="50"/>
-      <c r="G57" s="64" t="s">
+      <c r="G57" s="67" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4827,13 +4880,13 @@
       <c r="F58" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G58" s="70"/>
+      <c r="G58" s="73"/>
       <c r="I58" s="31"/>
       <c r="J58" s="31"/>
       <c r="K58" s="31"/>
     </row>
     <row r="59" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="71" t="s">
+      <c r="B59" s="74" t="s">
         <v>387</v>
       </c>
       <c r="C59" s="25" t="s">
@@ -4848,7 +4901,7 @@
       <c r="K59" s="28"/>
     </row>
     <row r="60" spans="2:11" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="68"/>
+      <c r="B60" s="71"/>
       <c r="C60" s="17" t="s">
         <v>389</v>
       </c>
@@ -4858,7 +4911,7 @@
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="68"/>
+      <c r="B61" s="71"/>
       <c r="C61" s="17" t="s">
         <v>424</v>
       </c>
@@ -4867,7 +4920,7 @@
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="71" t="s">
         <v>390</v>
       </c>
       <c r="C62" s="17" t="s">
@@ -4883,7 +4936,7 @@
       <c r="K62" s="28"/>
     </row>
     <row r="63" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="68"/>
+      <c r="B63" s="71"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17" t="s">
         <v>418</v>
@@ -4894,7 +4947,7 @@
       <c r="K63" s="28"/>
     </row>
     <row r="64" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="68"/>
+      <c r="B64" s="71"/>
       <c r="C64" s="17" t="s">
         <v>392</v>
       </c>
@@ -4906,7 +4959,7 @@
       <c r="K64" s="28"/>
     </row>
     <row r="65" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="68"/>
+      <c r="B65" s="71"/>
       <c r="C65" s="17" t="s">
         <v>403</v>
       </c>
@@ -4920,7 +4973,7 @@
       <c r="K65" s="28"/>
     </row>
     <row r="66" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="68"/>
+      <c r="B66" s="71"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17" t="s">
         <v>415</v>
@@ -4932,7 +4985,7 @@
       <c r="K66" s="28"/>
     </row>
     <row r="67" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="68"/>
+      <c r="B67" s="71"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17" t="s">
         <v>416</v>
@@ -4944,7 +4997,7 @@
       <c r="K67" s="28"/>
     </row>
     <row r="68" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="68"/>
+      <c r="B68" s="71"/>
       <c r="D68" s="17" t="s">
         <v>428</v>
       </c>
@@ -4954,7 +5007,7 @@
       <c r="K68" s="28"/>
     </row>
     <row r="69" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="68" t="s">
+      <c r="B69" s="71" t="s">
         <v>393</v>
       </c>
       <c r="C69" t="s">
@@ -4970,7 +5023,7 @@
       <c r="K69" s="28"/>
     </row>
     <row r="70" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="68"/>
+      <c r="B70" s="71"/>
       <c r="D70" s="17" t="s">
         <v>422</v>
       </c>
@@ -4982,7 +5035,7 @@
       <c r="K70" s="28"/>
     </row>
     <row r="71" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="68"/>
+      <c r="B71" s="71"/>
       <c r="C71" s="17" t="s">
         <v>394</v>
       </c>
@@ -4995,7 +5048,7 @@
       <c r="K71" s="28"/>
     </row>
     <row r="72" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="68"/>
+      <c r="B72" s="71"/>
       <c r="D72" s="17" t="s">
         <v>420</v>
       </c>
@@ -5005,7 +5058,7 @@
       <c r="K72" s="28"/>
     </row>
     <row r="73" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="68"/>
+      <c r="B73" s="71"/>
       <c r="D73" s="17" t="s">
         <v>421</v>
       </c>
@@ -5015,7 +5068,7 @@
       <c r="K73" s="28"/>
     </row>
     <row r="74" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="68"/>
+      <c r="B74" s="71"/>
       <c r="C74" s="17" t="s">
         <v>423</v>
       </c>
@@ -5025,7 +5078,7 @@
       <c r="K74" s="28"/>
     </row>
     <row r="75" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="68" t="s">
+      <c r="B75" s="71" t="s">
         <v>427</v>
       </c>
       <c r="C75" s="17" t="s">
@@ -5040,7 +5093,7 @@
       <c r="K75" s="28"/>
     </row>
     <row r="76" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="68"/>
+      <c r="B76" s="71"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17" t="s">
         <v>398</v>
@@ -5052,7 +5105,7 @@
       <c r="K76" s="28"/>
     </row>
     <row r="77" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="68"/>
+      <c r="B77" s="71"/>
       <c r="C77" s="17" t="s">
         <v>516</v>
       </c>
@@ -5069,7 +5122,7 @@
       <c r="K77" s="28"/>
     </row>
     <row r="78" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="68"/>
+      <c r="B78" s="71"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17" t="s">
         <v>399</v>
@@ -5081,7 +5134,7 @@
       <c r="K78" s="28"/>
     </row>
     <row r="79" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="68" t="s">
+      <c r="B79" s="71" t="s">
         <v>540</v>
       </c>
       <c r="C79" s="17" t="s">
@@ -5096,7 +5149,7 @@
       <c r="K79" s="28"/>
     </row>
     <row r="80" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B80" s="68"/>
+      <c r="B80" s="71"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17" t="s">
         <v>413</v>
@@ -5107,7 +5160,7 @@
       <c r="K80" s="28"/>
     </row>
     <row r="81" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B81" s="68"/>
+      <c r="B81" s="71"/>
       <c r="C81" s="17" t="s">
         <v>400</v>
       </c>
@@ -5121,7 +5174,7 @@
       <c r="K81" s="28"/>
     </row>
     <row r="82" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B82" s="68"/>
+      <c r="B82" s="71"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17" t="s">
         <v>402</v>
@@ -5133,7 +5186,7 @@
       <c r="K82" s="28"/>
     </row>
     <row r="83" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B83" s="68" t="s">
+      <c r="B83" s="71" t="s">
         <v>548</v>
       </c>
       <c r="C83" s="17" t="s">
@@ -5147,7 +5200,7 @@
       <c r="K83" s="28"/>
     </row>
     <row r="84" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B84" s="68"/>
+      <c r="B84" s="71"/>
       <c r="C84" s="17" t="s">
         <v>542</v>
       </c>
@@ -5159,7 +5212,7 @@
       <c r="K84" s="28"/>
     </row>
     <row r="85" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B85" s="68" t="s">
+      <c r="B85" s="71" t="s">
         <v>524</v>
       </c>
       <c r="C85" s="17" t="s">
@@ -5173,7 +5226,7 @@
       <c r="K85" s="28"/>
     </row>
     <row r="86" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B86" s="68"/>
+      <c r="B86" s="71"/>
       <c r="C86" s="17" t="s">
         <v>537</v>
       </c>
@@ -5187,7 +5240,7 @@
       <c r="K86" s="28"/>
     </row>
     <row r="87" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B87" s="68"/>
+      <c r="B87" s="71"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17" t="s">
         <v>408</v>
@@ -5199,7 +5252,7 @@
       <c r="K87" s="28"/>
     </row>
     <row r="88" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="69"/>
+      <c r="B88" s="72"/>
       <c r="C88" s="19" t="s">
         <v>404</v>
       </c>
@@ -5226,14 +5279,14 @@
       <c r="K90" s="28"/>
     </row>
     <row r="91" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="62" t="s">
+      <c r="B91" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="C91" s="63"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="75"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="78"/>
       <c r="F91" s="50"/>
-      <c r="G91" s="64" t="s">
+      <c r="G91" s="67" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5253,10 +5306,10 @@
       <c r="F92" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G92" s="65"/>
+      <c r="G92" s="68"/>
     </row>
     <row r="93" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B93" s="71" t="s">
+      <c r="B93" s="74" t="s">
         <v>433</v>
       </c>
       <c r="C93" s="25" t="s">
@@ -5270,7 +5323,7 @@
       </c>
     </row>
     <row r="94" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B94" s="68"/>
+      <c r="B94" s="71"/>
       <c r="C94" s="17" t="s">
         <v>435</v>
       </c>
@@ -5281,7 +5334,7 @@
       </c>
     </row>
     <row r="95" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B95" s="68"/>
+      <c r="B95" s="71"/>
       <c r="C95" s="17" t="s">
         <v>436</v>
       </c>
@@ -5294,7 +5347,7 @@
       </c>
     </row>
     <row r="96" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B96" s="68"/>
+      <c r="B96" s="71"/>
       <c r="C96" s="17" t="s">
         <v>480</v>
       </c>
@@ -5305,7 +5358,7 @@
       </c>
     </row>
     <row r="97" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B97" s="68" t="s">
+      <c r="B97" s="71" t="s">
         <v>441</v>
       </c>
       <c r="C97" s="17" t="s">
@@ -5318,7 +5371,7 @@
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B98" s="68"/>
+      <c r="B98" s="71"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17" t="s">
         <v>418</v>
@@ -5327,7 +5380,7 @@
       <c r="G98" s="10"/>
     </row>
     <row r="99" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B99" s="68"/>
+      <c r="B99" s="71"/>
       <c r="C99" s="17" t="s">
         <v>547</v>
       </c>
@@ -5342,7 +5395,7 @@
       </c>
     </row>
     <row r="100" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B100" s="68"/>
+      <c r="B100" s="71"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17" t="s">
         <v>447</v>
@@ -5351,7 +5404,7 @@
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B101" s="68"/>
+      <c r="B101" s="71"/>
       <c r="C101" s="17" t="s">
         <v>448</v>
       </c>
@@ -5362,8 +5415,8 @@
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B102" s="68"/>
-      <c r="C102" s="72" t="s">
+      <c r="B102" s="71"/>
+      <c r="C102" s="75" t="s">
         <v>360</v>
       </c>
       <c r="D102" s="49" t="s">
@@ -5375,8 +5428,8 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B103" s="68"/>
-      <c r="C103" s="72"/>
+      <c r="B103" s="71"/>
+      <c r="C103" s="75"/>
       <c r="D103" s="49" t="s">
         <v>485</v>
       </c>
@@ -5384,8 +5437,8 @@
       <c r="G103" s="10"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B104" s="68"/>
-      <c r="C104" s="72"/>
+      <c r="B104" s="71"/>
+      <c r="C104" s="75"/>
       <c r="D104" s="49" t="s">
         <v>487</v>
       </c>
@@ -5393,10 +5446,10 @@
       <c r="G104" s="10"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B105" s="68" t="s">
+      <c r="B105" s="71" t="s">
         <v>450</v>
       </c>
-      <c r="C105" s="72" t="s">
+      <c r="C105" s="75" t="s">
         <v>463</v>
       </c>
       <c r="D105" s="17" t="s">
@@ -5408,8 +5461,8 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B106" s="68"/>
-      <c r="C106" s="72"/>
+      <c r="B106" s="71"/>
+      <c r="C106" s="75"/>
       <c r="D106" s="17" t="s">
         <v>344</v>
       </c>
@@ -5419,8 +5472,8 @@
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B107" s="68"/>
-      <c r="C107" s="72"/>
+      <c r="B107" s="71"/>
+      <c r="C107" s="75"/>
       <c r="D107" s="17" t="s">
         <v>467</v>
       </c>
@@ -5430,8 +5483,8 @@
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B108" s="68"/>
-      <c r="C108" s="72"/>
+      <c r="B108" s="71"/>
+      <c r="C108" s="75"/>
       <c r="D108" s="17" t="s">
         <v>466</v>
       </c>
@@ -5441,8 +5494,8 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B109" s="68"/>
-      <c r="C109" s="72"/>
+      <c r="B109" s="71"/>
+      <c r="C109" s="75"/>
       <c r="D109" s="17" t="s">
         <v>488</v>
       </c>
@@ -5452,8 +5505,8 @@
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B110" s="68"/>
-      <c r="C110" s="72"/>
+      <c r="B110" s="71"/>
+      <c r="C110" s="75"/>
       <c r="D110" s="17" t="s">
         <v>489</v>
       </c>
@@ -5461,10 +5514,10 @@
       <c r="G110" s="10"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B111" s="68" t="s">
+      <c r="B111" s="71" t="s">
         <v>385</v>
       </c>
-      <c r="C111" s="72" t="s">
+      <c r="C111" s="75" t="s">
         <v>456</v>
       </c>
       <c r="D111" s="49" t="s">
@@ -5476,8 +5529,8 @@
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B112" s="68"/>
-      <c r="C112" s="72"/>
+      <c r="B112" s="71"/>
+      <c r="C112" s="75"/>
       <c r="D112" s="49" t="s">
         <v>461</v>
       </c>
@@ -5487,8 +5540,8 @@
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B113" s="68"/>
-      <c r="C113" s="72"/>
+      <c r="B113" s="71"/>
+      <c r="C113" s="75"/>
       <c r="D113" s="49" t="s">
         <v>458</v>
       </c>
@@ -5498,7 +5551,7 @@
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B114" s="68"/>
+      <c r="B114" s="71"/>
       <c r="C114" s="17" t="s">
         <v>469</v>
       </c>
@@ -5509,7 +5562,7 @@
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B115" s="68"/>
+      <c r="B115" s="71"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17" t="s">
         <v>474</v>
@@ -5518,7 +5571,7 @@
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B116" s="68"/>
+      <c r="B116" s="71"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17" t="s">
         <v>475</v>
@@ -5527,7 +5580,7 @@
       <c r="G116" s="10"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B117" s="68"/>
+      <c r="B117" s="71"/>
       <c r="C117" s="17" t="s">
         <v>358</v>
       </c>
@@ -5538,7 +5591,7 @@
       <c r="G117" s="10"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B118" s="68"/>
+      <c r="B118" s="71"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17" t="s">
         <v>372</v>
@@ -5547,7 +5600,7 @@
       <c r="G118" s="10"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B119" s="68"/>
+      <c r="B119" s="71"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17" t="s">
         <v>454</v>
@@ -5557,7 +5610,7 @@
       <c r="G119" s="8"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B120" s="68"/>
+      <c r="B120" s="71"/>
       <c r="C120" s="17" t="s">
         <v>364</v>
       </c>
@@ -5567,7 +5620,7 @@
       <c r="E120" s="8"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B121" s="68"/>
+      <c r="B121" s="71"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
         <v>378</v>
@@ -5575,7 +5628,7 @@
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B122" s="68"/>
+      <c r="B122" s="71"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17" t="s">
         <v>379</v>
@@ -5583,7 +5636,7 @@
       <c r="E122" s="8"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B123" s="68" t="s">
+      <c r="B123" s="71" t="s">
         <v>496</v>
       </c>
       <c r="C123" s="17" t="s">
@@ -5596,7 +5649,7 @@
       <c r="G123" s="10"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B124" s="68"/>
+      <c r="B124" s="71"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17" t="s">
         <v>482</v>
@@ -5605,7 +5658,7 @@
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B125" s="68"/>
+      <c r="B125" s="71"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17" t="s">
         <v>483</v>
@@ -5614,7 +5667,7 @@
       <c r="G125" s="10"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B126" s="68"/>
+      <c r="B126" s="71"/>
       <c r="C126" s="17" t="s">
         <v>404</v>
       </c>
@@ -5627,7 +5680,7 @@
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B127" s="68"/>
+      <c r="B127" s="71"/>
       <c r="C127" s="17" t="s">
         <v>409</v>
       </c>
@@ -5638,7 +5691,7 @@
       <c r="G127" s="10"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B128" s="68"/>
+      <c r="B128" s="71"/>
       <c r="C128" s="17"/>
       <c r="D128" s="17" t="s">
         <v>382</v>
@@ -5647,7 +5700,7 @@
       <c r="G128" s="10"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B129" s="69"/>
+      <c r="B129" s="72"/>
       <c r="C129" s="19" t="s">
         <v>513</v>
       </c>
@@ -5873,8 +5926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -6058,7 +6111,7 @@
       <c r="D5" t="s">
         <v>809</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="59" t="s">
         <v>187</v>
       </c>
       <c r="F5" t="s">
@@ -6095,11 +6148,36 @@
         <v>820</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="E6" s="28"/>
+    <row r="6" spans="1:17" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A6" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="B6" t="s">
+        <v>822</v>
+      </c>
+      <c r="C6" t="s">
+        <v>825</v>
+      </c>
+      <c r="D6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="E7" s="28"/>
+      <c r="B7" s="80" t="s">
+        <v>826</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>827</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>828</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.6">
       <c r="E8" s="28"/>
@@ -6121,8 +6199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:K163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -6146,14 +6224,14 @@
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="24"/>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="67" t="s">
         <v>337</v>
       </c>
     </row>
@@ -6173,46 +6251,46 @@
       <c r="F3" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="74" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="77" t="s">
         <v>339</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>340</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="75" t="s">
         <v>755</v>
       </c>
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B5" s="68"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="17" t="s">
         <v>341</v>
       </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="72"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B6" s="68"/>
-      <c r="C6" s="72"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="72"/>
+      <c r="F6" s="75"/>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B7" s="68"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="46" t="s">
         <v>380</v>
       </c>
@@ -6233,17 +6311,17 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="74" t="s">
         <v>521</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="79" t="s">
         <v>500</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>503</v>
       </c>
       <c r="E9" s="25"/>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="75" t="s">
         <v>752</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -6252,51 +6330,51 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B10" s="68"/>
-      <c r="C10" s="73"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="17" t="s">
         <v>504</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="72"/>
+      <c r="F10" s="75"/>
       <c r="G10" s="20" t="s">
         <v>505</v>
       </c>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B11" s="68"/>
-      <c r="C11" s="72" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="75" t="s">
         <v>463</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>342</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="75" t="s">
         <v>751</v>
       </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B12" s="68"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="17" t="s">
         <v>479</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="75"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B13" s="68"/>
-      <c r="C13" s="72"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="75"/>
       <c r="E13" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="75"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.6">
@@ -6310,54 +6388,54 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="74" t="s">
         <v>348</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="77" t="s">
         <v>349</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>356</v>
       </c>
       <c r="E15" s="25"/>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="75" t="s">
         <v>754</v>
       </c>
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B16" s="68"/>
-      <c r="C16" s="72"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="17" t="s">
         <v>355</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="8" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B17" s="68"/>
-      <c r="C17" s="72"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="75"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B18" s="68"/>
-      <c r="C18" s="72"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="75"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="72"/>
+      <c r="F18" s="75"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B19" s="68"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="37" t="s">
         <v>523</v>
       </c>
@@ -6378,14 +6456,14 @@
       <c r="G20" s="54"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="74" t="s">
         <v>451</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="77" t="s">
         <v>516</v>
       </c>
       <c r="D21" s="56"/>
-      <c r="F21" s="72" t="s">
+      <c r="F21" s="75" t="s">
         <v>756</v>
       </c>
       <c r="G21" s="26" t="s">
@@ -6393,111 +6471,111 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B22" s="68"/>
-      <c r="C22" s="72"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="75"/>
       <c r="D22" t="s">
         <v>770</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="75"/>
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B23" s="68"/>
-      <c r="C23" s="72"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="75"/>
       <c r="D23" t="s">
         <v>771</v>
       </c>
-      <c r="F23" s="72"/>
+      <c r="F23" s="75"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B24" s="68"/>
-      <c r="C24" s="72" t="s">
+      <c r="B24" s="71"/>
+      <c r="C24" s="75" t="s">
         <v>769</v>
       </c>
-      <c r="F24" s="72" t="s">
+      <c r="F24" s="75" t="s">
         <v>761</v>
       </c>
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B25" s="68"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="75"/>
       <c r="D25" t="s">
         <v>772</v>
       </c>
-      <c r="F25" s="72"/>
+      <c r="F25" s="75"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B26" s="68"/>
-      <c r="C26" s="72"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="75"/>
       <c r="D26" t="s">
         <v>773</v>
       </c>
-      <c r="F26" s="72"/>
+      <c r="F26" s="75"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B27" s="68"/>
-      <c r="C27" s="72" t="s">
+      <c r="B27" s="71"/>
+      <c r="C27" s="75" t="s">
         <v>358</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="F27" s="72" t="s">
+      <c r="F27" s="75" t="s">
         <v>757</v>
       </c>
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B28" s="68"/>
-      <c r="C28" s="72"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="F28" s="72"/>
+      <c r="F28" s="75"/>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B29" s="68"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="F29" s="72"/>
+      <c r="F29" s="75"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B30" s="68"/>
-      <c r="C30" s="72" t="s">
+      <c r="B30" s="71"/>
+      <c r="C30" s="75" t="s">
         <v>364</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="F30" s="72" t="s">
+      <c r="F30" s="75" t="s">
         <v>762</v>
       </c>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B31" s="68"/>
-      <c r="C31" s="72"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="F31" s="72"/>
+      <c r="F31" s="75"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B32" s="68"/>
-      <c r="C32" s="72"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="F32" s="72"/>
+      <c r="F32" s="75"/>
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.6">
@@ -6511,7 +6589,7 @@
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="74" t="s">
         <v>524</v>
       </c>
       <c r="C34" s="25" t="s">
@@ -6521,80 +6599,80 @@
         <v>526</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="72" t="s">
+      <c r="F34" s="75" t="s">
         <v>763</v>
       </c>
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B35" s="68"/>
+      <c r="B35" s="71"/>
       <c r="D35" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="F35" s="72"/>
+      <c r="F35" s="75"/>
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B36" s="68"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="17" t="s">
         <v>528</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="F36" s="72" t="s">
+      <c r="F36" s="75" t="s">
         <v>764</v>
       </c>
       <c r="G36" s="8"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B37" s="68"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="F37" s="72"/>
+      <c r="F37" s="75"/>
       <c r="G37" s="8"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B38" s="68"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="F38" s="72"/>
+      <c r="F38" s="75"/>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B39" s="68"/>
+      <c r="B39" s="71"/>
       <c r="C39" s="17" t="s">
         <v>359</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="F39" s="72" t="s">
+      <c r="F39" s="75" t="s">
         <v>765</v>
       </c>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B40" s="68"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="F40" s="72"/>
+      <c r="F40" s="75"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B41" s="68"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17" t="s">
         <v>376</v>
       </c>
       <c r="E41" s="17"/>
-      <c r="F41" s="72"/>
+      <c r="F41" s="75"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.6">
@@ -6608,7 +6686,7 @@
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="74" t="s">
         <v>529</v>
       </c>
       <c r="C43" s="25" t="s">
@@ -6624,7 +6702,7 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B44" s="68"/>
+      <c r="B44" s="71"/>
       <c r="C44" s="17" t="s">
         <v>532</v>
       </c>
@@ -6637,7 +6715,7 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B45" s="68"/>
+      <c r="B45" s="71"/>
       <c r="C45" s="17" t="s">
         <v>530</v>
       </c>
@@ -6658,7 +6736,7 @@
       <c r="G46" s="9"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="74" t="s">
         <v>545</v>
       </c>
       <c r="C47" s="25" t="s">
@@ -6672,7 +6750,7 @@
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B48" s="68"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="17" t="s">
         <v>535</v>
       </c>
@@ -6696,7 +6774,7 @@
       <c r="G49" s="9"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="71" t="s">
         <v>543</v>
       </c>
       <c r="C50" s="37" t="s">
@@ -6707,7 +6785,7 @@
       <c r="G50" s="8"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B51" s="69"/>
+      <c r="B51" s="72"/>
       <c r="C51" s="19" t="s">
         <v>126</v>
       </c>
@@ -6723,14 +6801,14 @@
       </c>
     </row>
     <row r="54" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B54" s="62" t="s">
+      <c r="B54" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="75"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="78"/>
       <c r="F54" s="50"/>
-      <c r="G54" s="64" t="s">
+      <c r="G54" s="67" t="s">
         <v>337</v>
       </c>
     </row>
@@ -6750,13 +6828,13 @@
       <c r="F55" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G55" s="70"/>
+      <c r="G55" s="73"/>
       <c r="I55" s="31"/>
       <c r="J55" s="31"/>
       <c r="K55" s="31"/>
     </row>
     <row r="56" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B56" s="71" t="s">
+      <c r="B56" s="74" t="s">
         <v>387</v>
       </c>
       <c r="C56" s="25" t="s">
@@ -6771,7 +6849,7 @@
       <c r="K56" s="28"/>
     </row>
     <row r="57" spans="2:11" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="68"/>
+      <c r="B57" s="71"/>
       <c r="C57" s="17" t="s">
         <v>389</v>
       </c>
@@ -6781,7 +6859,7 @@
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="68"/>
+      <c r="B58" s="71"/>
       <c r="C58" s="17" t="s">
         <v>424</v>
       </c>
@@ -6790,7 +6868,7 @@
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="71" t="s">
         <v>390</v>
       </c>
       <c r="C59" s="17" t="s">
@@ -6806,7 +6884,7 @@
       <c r="K59" s="28"/>
     </row>
     <row r="60" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="68"/>
+      <c r="B60" s="71"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17" t="s">
         <v>418</v>
@@ -6817,7 +6895,7 @@
       <c r="K60" s="28"/>
     </row>
     <row r="61" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="68"/>
+      <c r="B61" s="71"/>
       <c r="C61" s="17" t="s">
         <v>392</v>
       </c>
@@ -6829,7 +6907,7 @@
       <c r="K61" s="28"/>
     </row>
     <row r="62" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="68"/>
+      <c r="B62" s="71"/>
       <c r="C62" s="17" t="s">
         <v>403</v>
       </c>
@@ -6843,7 +6921,7 @@
       <c r="K62" s="28"/>
     </row>
     <row r="63" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="68"/>
+      <c r="B63" s="71"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17" t="s">
         <v>415</v>
@@ -6855,7 +6933,7 @@
       <c r="K63" s="28"/>
     </row>
     <row r="64" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="68"/>
+      <c r="B64" s="71"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17" t="s">
         <v>416</v>
@@ -6867,7 +6945,7 @@
       <c r="K64" s="28"/>
     </row>
     <row r="65" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="68"/>
+      <c r="B65" s="71"/>
       <c r="D65" s="17" t="s">
         <v>428</v>
       </c>
@@ -6877,7 +6955,7 @@
       <c r="K65" s="28"/>
     </row>
     <row r="66" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="68" t="s">
+      <c r="B66" s="71" t="s">
         <v>393</v>
       </c>
       <c r="C66" t="s">
@@ -6893,7 +6971,7 @@
       <c r="K66" s="28"/>
     </row>
     <row r="67" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="68"/>
+      <c r="B67" s="71"/>
       <c r="D67" s="17" t="s">
         <v>422</v>
       </c>
@@ -6905,7 +6983,7 @@
       <c r="K67" s="28"/>
     </row>
     <row r="68" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="68"/>
+      <c r="B68" s="71"/>
       <c r="C68" s="17" t="s">
         <v>394</v>
       </c>
@@ -6918,7 +6996,7 @@
       <c r="K68" s="28"/>
     </row>
     <row r="69" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="68"/>
+      <c r="B69" s="71"/>
       <c r="D69" s="17" t="s">
         <v>420</v>
       </c>
@@ -6928,7 +7006,7 @@
       <c r="K69" s="28"/>
     </row>
     <row r="70" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="68"/>
+      <c r="B70" s="71"/>
       <c r="D70" s="17" t="s">
         <v>421</v>
       </c>
@@ -6938,7 +7016,7 @@
       <c r="K70" s="28"/>
     </row>
     <row r="71" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="68"/>
+      <c r="B71" s="71"/>
       <c r="C71" s="17" t="s">
         <v>423</v>
       </c>
@@ -6948,7 +7026,7 @@
       <c r="K71" s="28"/>
     </row>
     <row r="72" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="68" t="s">
+      <c r="B72" s="71" t="s">
         <v>427</v>
       </c>
       <c r="C72" s="17" t="s">
@@ -6963,7 +7041,7 @@
       <c r="K72" s="28"/>
     </row>
     <row r="73" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="68"/>
+      <c r="B73" s="71"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
         <v>398</v>
@@ -6975,7 +7053,7 @@
       <c r="K73" s="28"/>
     </row>
     <row r="74" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="68"/>
+      <c r="B74" s="71"/>
       <c r="C74" s="17" t="s">
         <v>516</v>
       </c>
@@ -6992,7 +7070,7 @@
       <c r="K74" s="28"/>
     </row>
     <row r="75" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="68"/>
+      <c r="B75" s="71"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17" t="s">
         <v>399</v>
@@ -7004,7 +7082,7 @@
       <c r="K75" s="28"/>
     </row>
     <row r="76" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="68" t="s">
+      <c r="B76" s="71" t="s">
         <v>540</v>
       </c>
       <c r="C76" s="17" t="s">
@@ -7019,7 +7097,7 @@
       <c r="K76" s="28"/>
     </row>
     <row r="77" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="68"/>
+      <c r="B77" s="71"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17" t="s">
         <v>413</v>
@@ -7030,7 +7108,7 @@
       <c r="K77" s="28"/>
     </row>
     <row r="78" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="68"/>
+      <c r="B78" s="71"/>
       <c r="C78" s="17" t="s">
         <v>400</v>
       </c>
@@ -7044,7 +7122,7 @@
       <c r="K78" s="28"/>
     </row>
     <row r="79" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="68"/>
+      <c r="B79" s="71"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17" t="s">
         <v>402</v>
@@ -7056,7 +7134,7 @@
       <c r="K79" s="28"/>
     </row>
     <row r="80" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B80" s="68" t="s">
+      <c r="B80" s="71" t="s">
         <v>548</v>
       </c>
       <c r="C80" s="17" t="s">
@@ -7070,7 +7148,7 @@
       <c r="K80" s="28"/>
     </row>
     <row r="81" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B81" s="68"/>
+      <c r="B81" s="71"/>
       <c r="C81" s="17" t="s">
         <v>542</v>
       </c>
@@ -7082,7 +7160,7 @@
       <c r="K81" s="28"/>
     </row>
     <row r="82" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B82" s="68" t="s">
+      <c r="B82" s="71" t="s">
         <v>524</v>
       </c>
       <c r="C82" s="17" t="s">
@@ -7096,7 +7174,7 @@
       <c r="K82" s="28"/>
     </row>
     <row r="83" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B83" s="68"/>
+      <c r="B83" s="71"/>
       <c r="C83" s="17" t="s">
         <v>537</v>
       </c>
@@ -7110,7 +7188,7 @@
       <c r="K83" s="28"/>
     </row>
     <row r="84" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B84" s="68"/>
+      <c r="B84" s="71"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17" t="s">
         <v>408</v>
@@ -7122,7 +7200,7 @@
       <c r="K84" s="28"/>
     </row>
     <row r="85" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B85" s="69"/>
+      <c r="B85" s="72"/>
       <c r="C85" s="19" t="s">
         <v>404</v>
       </c>
@@ -7149,14 +7227,14 @@
       <c r="K87" s="28"/>
     </row>
     <row r="88" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="62" t="s">
+      <c r="B88" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="75"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="78"/>
       <c r="F88" s="50"/>
-      <c r="G88" s="64" t="s">
+      <c r="G88" s="67" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7176,10 +7254,10 @@
       <c r="F89" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G89" s="65"/>
+      <c r="G89" s="68"/>
     </row>
     <row r="90" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B90" s="71" t="s">
+      <c r="B90" s="74" t="s">
         <v>433</v>
       </c>
       <c r="C90" s="25" t="s">
@@ -7193,7 +7271,7 @@
       </c>
     </row>
     <row r="91" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="68"/>
+      <c r="B91" s="71"/>
       <c r="C91" s="17" t="s">
         <v>435</v>
       </c>
@@ -7204,7 +7282,7 @@
       </c>
     </row>
     <row r="92" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B92" s="68"/>
+      <c r="B92" s="71"/>
       <c r="C92" s="17" t="s">
         <v>436</v>
       </c>
@@ -7217,7 +7295,7 @@
       </c>
     </row>
     <row r="93" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B93" s="68"/>
+      <c r="B93" s="71"/>
       <c r="C93" s="17" t="s">
         <v>480</v>
       </c>
@@ -7228,7 +7306,7 @@
       </c>
     </row>
     <row r="94" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B94" s="68" t="s">
+      <c r="B94" s="71" t="s">
         <v>441</v>
       </c>
       <c r="C94" s="17" t="s">
@@ -7241,7 +7319,7 @@
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B95" s="68"/>
+      <c r="B95" s="71"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17" t="s">
         <v>418</v>
@@ -7250,7 +7328,7 @@
       <c r="G95" s="10"/>
     </row>
     <row r="96" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B96" s="68"/>
+      <c r="B96" s="71"/>
       <c r="C96" s="17" t="s">
         <v>547</v>
       </c>
@@ -7265,7 +7343,7 @@
       </c>
     </row>
     <row r="97" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B97" s="68"/>
+      <c r="B97" s="71"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17" t="s">
         <v>447</v>
@@ -7274,7 +7352,7 @@
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B98" s="68"/>
+      <c r="B98" s="71"/>
       <c r="C98" s="17" t="s">
         <v>448</v>
       </c>
@@ -7285,8 +7363,8 @@
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B99" s="68"/>
-      <c r="C99" s="72" t="s">
+      <c r="B99" s="71"/>
+      <c r="C99" s="75" t="s">
         <v>360</v>
       </c>
       <c r="D99" s="49" t="s">
@@ -7298,8 +7376,8 @@
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B100" s="68"/>
-      <c r="C100" s="72"/>
+      <c r="B100" s="71"/>
+      <c r="C100" s="75"/>
       <c r="D100" s="49" t="s">
         <v>485</v>
       </c>
@@ -7307,8 +7385,8 @@
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B101" s="68"/>
-      <c r="C101" s="72"/>
+      <c r="B101" s="71"/>
+      <c r="C101" s="75"/>
       <c r="D101" s="49" t="s">
         <v>487</v>
       </c>
@@ -7316,10 +7394,10 @@
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B102" s="68" t="s">
+      <c r="B102" s="71" t="s">
         <v>450</v>
       </c>
-      <c r="C102" s="72" t="s">
+      <c r="C102" s="75" t="s">
         <v>463</v>
       </c>
       <c r="D102" s="17" t="s">
@@ -7331,8 +7409,8 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B103" s="68"/>
-      <c r="C103" s="72"/>
+      <c r="B103" s="71"/>
+      <c r="C103" s="75"/>
       <c r="D103" s="17" t="s">
         <v>344</v>
       </c>
@@ -7342,8 +7420,8 @@
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B104" s="68"/>
-      <c r="C104" s="72"/>
+      <c r="B104" s="71"/>
+      <c r="C104" s="75"/>
       <c r="D104" s="17" t="s">
         <v>467</v>
       </c>
@@ -7353,8 +7431,8 @@
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B105" s="68"/>
-      <c r="C105" s="72"/>
+      <c r="B105" s="71"/>
+      <c r="C105" s="75"/>
       <c r="D105" s="17" t="s">
         <v>466</v>
       </c>
@@ -7364,8 +7442,8 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B106" s="68"/>
-      <c r="C106" s="72"/>
+      <c r="B106" s="71"/>
+      <c r="C106" s="75"/>
       <c r="D106" s="17" t="s">
         <v>488</v>
       </c>
@@ -7375,8 +7453,8 @@
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B107" s="68"/>
-      <c r="C107" s="72"/>
+      <c r="B107" s="71"/>
+      <c r="C107" s="75"/>
       <c r="D107" s="17" t="s">
         <v>489</v>
       </c>
@@ -7384,10 +7462,10 @@
       <c r="G107" s="10"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B108" s="68" t="s">
+      <c r="B108" s="71" t="s">
         <v>385</v>
       </c>
-      <c r="C108" s="72" t="s">
+      <c r="C108" s="75" t="s">
         <v>456</v>
       </c>
       <c r="D108" s="49" t="s">
@@ -7399,8 +7477,8 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B109" s="68"/>
-      <c r="C109" s="72"/>
+      <c r="B109" s="71"/>
+      <c r="C109" s="75"/>
       <c r="D109" s="49" t="s">
         <v>461</v>
       </c>
@@ -7410,8 +7488,8 @@
       <c r="G109" s="10"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B110" s="68"/>
-      <c r="C110" s="72"/>
+      <c r="B110" s="71"/>
+      <c r="C110" s="75"/>
       <c r="D110" s="49" t="s">
         <v>458</v>
       </c>
@@ -7421,7 +7499,7 @@
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B111" s="68"/>
+      <c r="B111" s="71"/>
       <c r="C111" s="17" t="s">
         <v>469</v>
       </c>
@@ -7432,7 +7510,7 @@
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B112" s="68"/>
+      <c r="B112" s="71"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17" t="s">
         <v>474</v>
@@ -7441,7 +7519,7 @@
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B113" s="68"/>
+      <c r="B113" s="71"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17" t="s">
         <v>475</v>
@@ -7450,7 +7528,7 @@
       <c r="G113" s="10"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B114" s="68"/>
+      <c r="B114" s="71"/>
       <c r="C114" s="17" t="s">
         <v>358</v>
       </c>
@@ -7461,7 +7539,7 @@
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B115" s="68"/>
+      <c r="B115" s="71"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17" t="s">
         <v>372</v>
@@ -7470,7 +7548,7 @@
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B116" s="68"/>
+      <c r="B116" s="71"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17" t="s">
         <v>454</v>
@@ -7480,7 +7558,7 @@
       <c r="G116" s="8"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B117" s="68"/>
+      <c r="B117" s="71"/>
       <c r="C117" s="17" t="s">
         <v>364</v>
       </c>
@@ -7490,7 +7568,7 @@
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B118" s="68"/>
+      <c r="B118" s="71"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17" t="s">
         <v>378</v>
@@ -7498,7 +7576,7 @@
       <c r="E118" s="8"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B119" s="68"/>
+      <c r="B119" s="71"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17" t="s">
         <v>379</v>
@@ -7506,7 +7584,7 @@
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B120" s="68" t="s">
+      <c r="B120" s="71" t="s">
         <v>496</v>
       </c>
       <c r="C120" s="17" t="s">
@@ -7519,7 +7597,7 @@
       <c r="G120" s="10"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B121" s="68"/>
+      <c r="B121" s="71"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
         <v>482</v>
@@ -7528,7 +7606,7 @@
       <c r="G121" s="10"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B122" s="68"/>
+      <c r="B122" s="71"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17" t="s">
         <v>483</v>
@@ -7537,7 +7615,7 @@
       <c r="G122" s="10"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B123" s="68"/>
+      <c r="B123" s="71"/>
       <c r="C123" s="17" t="s">
         <v>404</v>
       </c>
@@ -7550,7 +7628,7 @@
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B124" s="68"/>
+      <c r="B124" s="71"/>
       <c r="C124" s="17" t="s">
         <v>409</v>
       </c>
@@ -7561,7 +7639,7 @@
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B125" s="68"/>
+      <c r="B125" s="71"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17" t="s">
         <v>382</v>
@@ -7570,7 +7648,7 @@
       <c r="G125" s="10"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B126" s="69"/>
+      <c r="B126" s="72"/>
       <c r="C126" s="19" t="s">
         <v>513</v>
       </c>
@@ -7796,8 +7874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -9144,8 +9222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -9198,429 +9276,429 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="2:11" s="61" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="60" t="s">
         <v>704</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="G3" s="28" t="s">
+      <c r="F3" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="G3" s="60" t="s">
         <v>703</v>
       </c>
-      <c r="H3" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="I3" s="28" t="s">
+      <c r="H3" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="I3" s="60" t="s">
         <v>700</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="60" t="s">
         <v>703</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="60" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="2:11" s="61" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="G4" s="28" t="s">
+      <c r="F4" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="G4" s="60" t="s">
         <v>702</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="I4" s="28" t="s">
+      <c r="H4" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="I4" s="60" t="s">
         <v>700</v>
       </c>
-      <c r="J4" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B5" s="28" t="s">
+      <c r="J4" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="K4" s="60"/>
+    </row>
+    <row r="5" spans="2:11" s="61" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="G5" s="28" t="s">
+      <c r="F5" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="G5" s="60" t="s">
         <v>701</v>
       </c>
-      <c r="H5" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="I5" s="28" t="s">
+      <c r="H5" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="I5" s="60" t="s">
         <v>700</v>
       </c>
-      <c r="J5" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="K5" s="28"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B6" s="44" t="s">
+      <c r="J5" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="K5" s="60"/>
+    </row>
+    <row r="6" spans="2:11" s="61" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="60" t="s">
         <v>689</v>
       </c>
-      <c r="F6" s="44" t="s">
-        <v>612</v>
-      </c>
-      <c r="G6" s="44" t="s">
+      <c r="F6" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="G6" s="60" t="s">
         <v>688</v>
       </c>
-      <c r="H6" s="44" t="s">
-        <v>612</v>
-      </c>
-      <c r="I6" s="44" t="s">
+      <c r="H6" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="I6" s="60" t="s">
         <v>685</v>
       </c>
-      <c r="J6" s="44" t="s">
-        <v>612</v>
-      </c>
-      <c r="K6" s="44"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B7" s="44" t="s">
+      <c r="J6" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="K6" s="60"/>
+    </row>
+    <row r="7" spans="2:11" s="61" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="44" t="s">
-        <v>612</v>
-      </c>
-      <c r="G7" s="44" t="s">
+      <c r="F7" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="G7" s="60" t="s">
         <v>687</v>
       </c>
-      <c r="H7" s="44" t="s">
-        <v>612</v>
-      </c>
-      <c r="I7" s="44" t="s">
+      <c r="H7" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="I7" s="60" t="s">
         <v>685</v>
       </c>
-      <c r="J7" s="44" t="s">
-        <v>612</v>
-      </c>
-      <c r="K7" s="44"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B8" s="44" t="s">
+      <c r="J7" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="K7" s="60"/>
+    </row>
+    <row r="8" spans="2:11" s="61" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="F8" s="44" t="s">
-        <v>612</v>
-      </c>
-      <c r="G8" s="44" t="s">
+      <c r="F8" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="G8" s="60" t="s">
         <v>732</v>
       </c>
-      <c r="H8" s="44" t="s">
-        <v>612</v>
-      </c>
-      <c r="I8" s="44" t="s">
+      <c r="H8" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="I8" s="60" t="s">
         <v>685</v>
       </c>
-      <c r="J8" s="44" t="s">
-        <v>612</v>
-      </c>
-      <c r="K8" s="44"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B9" s="28" t="s">
+      <c r="J8" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="K8" s="60"/>
+    </row>
+    <row r="9" spans="2:11" s="61" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="60" t="s">
         <v>673</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="60" t="s">
         <v>678</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="G9" s="28" t="s">
+      <c r="F9" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="G9" s="60" t="s">
         <v>677</v>
       </c>
-      <c r="H9" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="I9" s="28" t="s">
+      <c r="H9" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="I9" s="60" t="s">
         <v>674</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="K9" s="28"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B10" s="28" t="s">
+      <c r="J9" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="K9" s="60"/>
+    </row>
+    <row r="10" spans="2:11" s="61" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="60" t="s">
         <v>673</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="60" t="s">
         <v>676</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="G10" s="28" t="s">
+      <c r="F10" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="G10" s="60" t="s">
         <v>675</v>
       </c>
-      <c r="H10" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="I10" s="28" t="s">
+      <c r="H10" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="I10" s="60" t="s">
         <v>674</v>
       </c>
-      <c r="J10" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="K10" s="28"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B11" s="28" t="s">
+      <c r="J10" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="K10" s="60"/>
+    </row>
+    <row r="11" spans="2:11" s="61" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="60" t="s">
         <v>673</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="G11" s="28" t="s">
+      <c r="F11" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="G11" s="60" t="s">
         <v>672</v>
       </c>
-      <c r="H11" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="I11" s="28" t="s">
+      <c r="H11" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="I11" s="60" t="s">
         <v>671</v>
       </c>
-      <c r="J11" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="K11" s="28"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B12" s="44" t="s">
+      <c r="J11" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="K11" s="60"/>
+    </row>
+    <row r="12" spans="2:11" s="61" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="60" t="s">
         <v>657</v>
       </c>
-      <c r="F12" s="44" t="s">
-        <v>612</v>
-      </c>
-      <c r="G12" s="44" t="s">
+      <c r="F12" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="G12" s="60" t="s">
         <v>738</v>
       </c>
-      <c r="H12" s="44" t="s">
-        <v>612</v>
-      </c>
-      <c r="I12" s="44" t="s">
+      <c r="H12" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="I12" s="60" t="s">
         <v>655</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="60" t="s">
         <v>654</v>
       </c>
-      <c r="K12" s="44" t="s">
+      <c r="K12" s="60" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B13" s="28" t="s">
+    <row r="13" spans="2:11" s="61" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="G13" s="28" t="s">
+      <c r="F13" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="G13" s="60" t="s">
         <v>640</v>
       </c>
-      <c r="H13" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="I13" s="28" t="s">
+      <c r="H13" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="I13" s="60" t="s">
         <v>638</v>
       </c>
-      <c r="J13" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" spans="2:11" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="B14" s="28" t="s">
+      <c r="J13" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="K13" s="60"/>
+    </row>
+    <row r="14" spans="2:11" s="61" customFormat="1" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="B14" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="60" t="s">
         <v>299</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="G14" s="28" t="s">
+      <c r="F14" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="G14" s="60" t="s">
         <v>639</v>
       </c>
-      <c r="H14" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="I14" s="28" t="s">
+      <c r="H14" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="I14" s="60" t="s">
         <v>638</v>
       </c>
-      <c r="J14" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="K14" s="28"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B15" s="44" t="s">
+      <c r="J14" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="K14" s="60"/>
+    </row>
+    <row r="15" spans="2:11" s="61" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="60" t="s">
         <v>634</v>
       </c>
-      <c r="F15" s="44" t="s">
-        <v>612</v>
-      </c>
-      <c r="G15" s="44" t="s">
+      <c r="F15" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="G15" s="60" t="s">
         <v>633</v>
       </c>
-      <c r="H15" s="44" t="s">
-        <v>612</v>
-      </c>
-      <c r="I15" s="44" t="s">
+      <c r="H15" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="I15" s="60" t="s">
         <v>632</v>
       </c>
-      <c r="J15" s="44" t="s">
-        <v>612</v>
-      </c>
-      <c r="K15" s="44"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B16" s="28" t="s">
+      <c r="J15" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="K15" s="60"/>
+    </row>
+    <row r="16" spans="2:11" s="61" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B16" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="G16" s="28" t="s">
+      <c r="F16" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="G16" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="H16" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="I16" s="28" t="s">
+      <c r="H16" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="I16" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="J16" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="K16" s="28"/>
+      <c r="J16" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="K16" s="60"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B17" s="28" t="s">
@@ -12555,13 +12633,13 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67" t="s">
         <v>337</v>
       </c>
     </row>
@@ -12578,13 +12656,13 @@
       <c r="E3" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="65"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="62" t="s">
         <v>339</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -12594,8 +12672,8 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="12" t="s">
         <v>341</v>
       </c>
@@ -12603,8 +12681,8 @@
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="12" t="s">
         <v>59</v>
       </c>
@@ -12612,8 +12690,8 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="18" t="s">
         <v>513</v>
       </c>
@@ -12621,10 +12699,10 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="69" t="s">
         <v>497</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="62" t="s">
         <v>500</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -12635,8 +12713,8 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B9" s="67"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="12" t="s">
         <v>504</v>
       </c>
@@ -12647,10 +12725,10 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="62" t="s">
         <v>502</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="62" t="s">
         <v>501</v>
       </c>
       <c r="D10" s="16" t="s">
@@ -12660,8 +12738,8 @@
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="12" t="s">
         <v>479</v>
       </c>
@@ -12671,16 +12749,16 @@
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
       <c r="E12" s="12" t="s">
         <v>344</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B13" s="60"/>
-      <c r="C13" s="60" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63" t="s">
         <v>345</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -12690,8 +12768,8 @@
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="18" t="s">
         <v>347</v>
       </c>
@@ -12699,7 +12777,7 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="62" t="s">
         <v>348</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -12714,7 +12792,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B16" s="60"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
         <v>355</v>
@@ -12725,7 +12803,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B17" s="60"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12" t="s">
         <v>350</v>
@@ -12734,7 +12812,7 @@
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B18" s="60"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="12" t="s">
         <v>351</v>
       </c>
@@ -12745,7 +12823,7 @@
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B19" s="60"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
         <v>353</v>
@@ -12754,7 +12832,7 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B20" s="61"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
         <v>354</v>
@@ -12763,7 +12841,7 @@
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="62" t="s">
         <v>360</v>
       </c>
       <c r="C21" s="16" t="s">
@@ -12774,7 +12852,7 @@
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B22" s="60"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="12" t="s">
         <v>366</v>
       </c>
@@ -12782,7 +12860,7 @@
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B23" s="61"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="18" t="s">
         <v>367</v>
       </c>
@@ -12790,7 +12868,7 @@
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="62" t="s">
         <v>385</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -12803,7 +12881,7 @@
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B25" s="60"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12" t="s">
         <v>369</v>
@@ -12812,7 +12890,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B26" s="60"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12" t="s">
         <v>370</v>
@@ -12821,7 +12899,7 @@
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B27" s="60"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="12" t="s">
         <v>358</v>
       </c>
@@ -12832,7 +12910,7 @@
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B28" s="60"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="s">
         <v>372</v>
@@ -12841,7 +12919,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B29" s="60"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12" t="s">
         <v>373</v>
@@ -12850,7 +12928,7 @@
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B30" s="60"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="12" t="s">
         <v>359</v>
       </c>
@@ -12861,7 +12939,7 @@
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B31" s="60"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12" t="s">
         <v>375</v>
@@ -12870,7 +12948,7 @@
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B32" s="60"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12" t="s">
         <v>376</v>
@@ -12879,7 +12957,7 @@
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B33" s="68"/>
+      <c r="B33" s="71"/>
       <c r="C33" s="12" t="s">
         <v>364</v>
       </c>
@@ -12890,7 +12968,7 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B34" s="68"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="12"/>
       <c r="D34" s="29" t="s">
         <v>378</v>
@@ -12899,7 +12977,7 @@
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B35" s="69"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="18"/>
       <c r="D35" s="30" t="s">
         <v>379</v>
@@ -12908,7 +12986,7 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="62" t="s">
         <v>508</v>
       </c>
       <c r="C36" s="16" t="s">
@@ -12919,7 +12997,7 @@
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B37" s="60"/>
+      <c r="B37" s="63"/>
       <c r="C37" s="12" t="s">
         <v>510</v>
       </c>
@@ -12928,7 +13006,7 @@
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B38" s="61"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="18" t="s">
         <v>509</v>
       </c>
@@ -12937,7 +13015,7 @@
       <c r="F38" s="10"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="62" t="s">
         <v>361</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -12948,7 +13026,7 @@
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B40" s="61"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="18" t="s">
         <v>381</v>
       </c>
@@ -12957,7 +13035,7 @@
       <c r="F40" s="10"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="62" t="s">
         <v>495</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -12970,7 +13048,7 @@
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B42" s="60"/>
+      <c r="B42" s="63"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12" t="s">
         <v>383</v>
@@ -12981,7 +13059,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B43" s="60"/>
+      <c r="B43" s="63"/>
       <c r="C43" s="29" t="s">
         <v>511</v>
       </c>
@@ -12992,7 +13070,7 @@
       <c r="F43" s="11"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="62" t="s">
         <v>362</v>
       </c>
       <c r="C44" s="16" t="s">
@@ -13003,7 +13081,7 @@
       <c r="F44" s="26"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B45" s="60"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="36" t="s">
         <v>498</v>
       </c>
@@ -13012,7 +13090,7 @@
       <c r="F45" s="8"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B46" s="61"/>
+      <c r="B46" s="64"/>
       <c r="C46" s="18" t="s">
         <v>126</v>
       </c>
@@ -13027,13 +13105,13 @@
       </c>
     </row>
     <row r="49" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="64" t="s">
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="67" t="s">
         <v>337</v>
       </c>
     </row>
@@ -13050,13 +13128,13 @@
       <c r="E50" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="F50" s="70"/>
+      <c r="F50" s="73"/>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
       <c r="J50" s="31"/>
     </row>
     <row r="51" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="74" t="s">
         <v>387</v>
       </c>
       <c r="C51" s="25" t="s">
@@ -13070,7 +13148,7 @@
       <c r="J51" s="28"/>
     </row>
     <row r="52" spans="2:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B52" s="68"/>
+      <c r="B52" s="71"/>
       <c r="C52" s="17" t="s">
         <v>389</v>
       </c>
@@ -13079,7 +13157,7 @@
       <c r="F52" s="10"/>
     </row>
     <row r="53" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B53" s="68"/>
+      <c r="B53" s="71"/>
       <c r="C53" s="17" t="s">
         <v>424</v>
       </c>
@@ -13099,7 +13177,7 @@
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="71" t="s">
         <v>390</v>
       </c>
       <c r="C55" s="17" t="s">
@@ -13115,7 +13193,7 @@
       <c r="J55" s="28"/>
     </row>
     <row r="56" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B56" s="68"/>
+      <c r="B56" s="71"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17" t="s">
         <v>418</v>
@@ -13126,7 +13204,7 @@
       <c r="J56" s="28"/>
     </row>
     <row r="57" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="68"/>
+      <c r="B57" s="71"/>
       <c r="C57" s="17" t="s">
         <v>392</v>
       </c>
@@ -13138,7 +13216,7 @@
       <c r="J57" s="28"/>
     </row>
     <row r="58" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="68"/>
+      <c r="B58" s="71"/>
       <c r="C58" s="17" t="s">
         <v>403</v>
       </c>
@@ -13152,7 +13230,7 @@
       <c r="J58" s="28"/>
     </row>
     <row r="59" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="68"/>
+      <c r="B59" s="71"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17" t="s">
         <v>415</v>
@@ -13164,7 +13242,7 @@
       <c r="J59" s="28"/>
     </row>
     <row r="60" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="68"/>
+      <c r="B60" s="71"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17" t="s">
         <v>416</v>
@@ -13176,7 +13254,7 @@
       <c r="J60" s="28"/>
     </row>
     <row r="61" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="68"/>
+      <c r="B61" s="71"/>
       <c r="D61" s="17" t="s">
         <v>428</v>
       </c>
@@ -13186,7 +13264,7 @@
       <c r="J61" s="28"/>
     </row>
     <row r="62" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="71" t="s">
         <v>393</v>
       </c>
       <c r="C62" t="s">
@@ -13202,7 +13280,7 @@
       <c r="J62" s="28"/>
     </row>
     <row r="63" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="68"/>
+      <c r="B63" s="71"/>
       <c r="D63" s="17" t="s">
         <v>422</v>
       </c>
@@ -13214,7 +13292,7 @@
       <c r="J63" s="28"/>
     </row>
     <row r="64" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="68"/>
+      <c r="B64" s="71"/>
       <c r="C64" s="17" t="s">
         <v>394</v>
       </c>
@@ -13227,7 +13305,7 @@
       <c r="J64" s="28"/>
     </row>
     <row r="65" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="68"/>
+      <c r="B65" s="71"/>
       <c r="D65" s="17" t="s">
         <v>420</v>
       </c>
@@ -13237,7 +13315,7 @@
       <c r="J65" s="28"/>
     </row>
     <row r="66" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="68"/>
+      <c r="B66" s="71"/>
       <c r="D66" s="17" t="s">
         <v>421</v>
       </c>
@@ -13247,7 +13325,7 @@
       <c r="J66" s="28"/>
     </row>
     <row r="67" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="68"/>
+      <c r="B67" s="71"/>
       <c r="C67" s="17" t="s">
         <v>423</v>
       </c>
@@ -13257,7 +13335,7 @@
       <c r="J67" s="28"/>
     </row>
     <row r="68" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="68" t="s">
+      <c r="B68" s="71" t="s">
         <v>427</v>
       </c>
       <c r="C68" s="17" t="s">
@@ -13272,7 +13350,7 @@
       <c r="J68" s="28"/>
     </row>
     <row r="69" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="68"/>
+      <c r="B69" s="71"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17" t="s">
         <v>398</v>
@@ -13284,7 +13362,7 @@
       <c r="J69" s="28"/>
     </row>
     <row r="70" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="68"/>
+      <c r="B70" s="71"/>
       <c r="C70" s="17" t="s">
         <v>516</v>
       </c>
@@ -13300,7 +13378,7 @@
       <c r="J70" s="28"/>
     </row>
     <row r="71" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="68"/>
+      <c r="B71" s="71"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17" t="s">
         <v>399</v>
@@ -13312,7 +13390,7 @@
       <c r="J71" s="28"/>
     </row>
     <row r="72" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="68" t="s">
+      <c r="B72" s="71" t="s">
         <v>430</v>
       </c>
       <c r="C72" s="17" t="s">
@@ -13327,7 +13405,7 @@
       <c r="J72" s="28"/>
     </row>
     <row r="73" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="68"/>
+      <c r="B73" s="71"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
         <v>413</v>
@@ -13338,7 +13416,7 @@
       <c r="J73" s="28"/>
     </row>
     <row r="74" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="68"/>
+      <c r="B74" s="71"/>
       <c r="C74" s="17" t="s">
         <v>400</v>
       </c>
@@ -13352,7 +13430,7 @@
       <c r="J74" s="28"/>
     </row>
     <row r="75" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="68"/>
+      <c r="B75" s="71"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17" t="s">
         <v>402</v>
@@ -13364,7 +13442,7 @@
       <c r="J75" s="28"/>
     </row>
     <row r="76" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="68"/>
+      <c r="B76" s="71"/>
       <c r="C76" s="17" t="s">
         <v>404</v>
       </c>
@@ -13378,7 +13456,7 @@
       <c r="J76" s="28"/>
     </row>
     <row r="77" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="68"/>
+      <c r="B77" s="71"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17" t="s">
         <v>517</v>
@@ -13390,7 +13468,7 @@
       <c r="J77" s="28"/>
     </row>
     <row r="78" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="68" t="s">
+      <c r="B78" s="71" t="s">
         <v>406</v>
       </c>
       <c r="C78" s="17" t="s">
@@ -13404,7 +13482,7 @@
       <c r="J78" s="28"/>
     </row>
     <row r="79" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="68"/>
+      <c r="B79" s="71"/>
       <c r="C79" s="17" t="s">
         <v>408</v>
       </c>
@@ -13441,13 +13519,13 @@
       <c r="J82" s="28"/>
     </row>
     <row r="83" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B83" s="62" t="s">
+      <c r="B83" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="C83" s="63"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="64" t="s">
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="67" t="s">
         <v>337</v>
       </c>
     </row>
@@ -13464,10 +13542,10 @@
       <c r="E84" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F84" s="65"/>
+      <c r="F84" s="68"/>
     </row>
     <row r="85" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B85" s="71" t="s">
+      <c r="B85" s="74" t="s">
         <v>433</v>
       </c>
       <c r="C85" s="25" t="s">
@@ -13480,7 +13558,7 @@
       </c>
     </row>
     <row r="86" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B86" s="68"/>
+      <c r="B86" s="71"/>
       <c r="C86" s="17" t="s">
         <v>435</v>
       </c>
@@ -13491,7 +13569,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B87" s="68"/>
+      <c r="B87" s="71"/>
       <c r="C87" s="17" t="s">
         <v>436</v>
       </c>
@@ -13502,7 +13580,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="68"/>
+      <c r="B88" s="71"/>
       <c r="C88" s="17" t="s">
         <v>480</v>
       </c>
@@ -13513,7 +13591,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B89" s="68" t="s">
+      <c r="B89" s="71" t="s">
         <v>441</v>
       </c>
       <c r="C89" s="17" t="s">
@@ -13526,7 +13604,7 @@
       <c r="F89" s="10"/>
     </row>
     <row r="90" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B90" s="68"/>
+      <c r="B90" s="71"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17" t="s">
         <v>444</v>
@@ -13535,7 +13613,7 @@
       <c r="F90" s="10"/>
     </row>
     <row r="91" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="68"/>
+      <c r="B91" s="71"/>
       <c r="C91" s="17" t="s">
         <v>446</v>
       </c>
@@ -13546,7 +13624,7 @@
       <c r="F91" s="10"/>
     </row>
     <row r="92" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B92" s="68"/>
+      <c r="B92" s="71"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17" t="s">
         <v>447</v>
@@ -13555,7 +13633,7 @@
       <c r="F92" s="10"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B93" s="68"/>
+      <c r="B93" s="71"/>
       <c r="C93" s="17" t="s">
         <v>448</v>
       </c>
@@ -13566,7 +13644,7 @@
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B94" s="68" t="s">
+      <c r="B94" s="71" t="s">
         <v>455</v>
       </c>
       <c r="C94" s="17" t="s">
@@ -13578,7 +13656,7 @@
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B95" s="68"/>
+      <c r="B95" s="71"/>
       <c r="C95" s="17" t="s">
         <v>485</v>
       </c>
@@ -13586,7 +13664,7 @@
       <c r="F95" s="10"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B96" s="68"/>
+      <c r="B96" s="71"/>
       <c r="C96" s="17" t="s">
         <v>487</v>
       </c>
@@ -13594,7 +13672,7 @@
       <c r="F96" s="10"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B97" s="68" t="s">
+      <c r="B97" s="71" t="s">
         <v>450</v>
       </c>
       <c r="C97" s="17" t="s">
@@ -13607,7 +13685,7 @@
       <c r="F97" s="10"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B98" s="68"/>
+      <c r="B98" s="71"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17" t="s">
         <v>468</v>
@@ -13618,7 +13696,7 @@
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B99" s="68"/>
+      <c r="B99" s="71"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17" t="s">
         <v>467</v>
@@ -13629,7 +13707,7 @@
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B100" s="68"/>
+      <c r="B100" s="71"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17" t="s">
         <v>466</v>
@@ -13640,7 +13718,7 @@
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B101" s="68"/>
+      <c r="B101" s="71"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17" t="s">
         <v>488</v>
@@ -13651,7 +13729,7 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B102" s="68"/>
+      <c r="B102" s="71"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17" t="s">
         <v>489</v>
@@ -13660,7 +13738,7 @@
       <c r="F102" s="10"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B103" s="68" t="s">
+      <c r="B103" s="71" t="s">
         <v>451</v>
       </c>
       <c r="C103" s="17" t="s">
@@ -13673,7 +13751,7 @@
       <c r="F103" s="10"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B104" s="68"/>
+      <c r="B104" s="71"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17" t="s">
         <v>474</v>
@@ -13682,7 +13760,7 @@
       <c r="F104" s="10"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B105" s="68"/>
+      <c r="B105" s="71"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17" t="s">
         <v>475</v>
@@ -13691,7 +13769,7 @@
       <c r="F105" s="10"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B106" s="68"/>
+      <c r="B106" s="71"/>
       <c r="C106" s="17" t="s">
         <v>476</v>
       </c>
@@ -13702,7 +13780,7 @@
       <c r="F106" s="10"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B107" s="68"/>
+      <c r="B107" s="71"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17" t="s">
         <v>478</v>
@@ -13711,7 +13789,7 @@
       <c r="F107" s="10"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B108" s="68"/>
+      <c r="B108" s="71"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17" t="s">
         <v>454</v>
@@ -13720,7 +13798,7 @@
       <c r="F108" s="10"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B109" s="68"/>
+      <c r="B109" s="71"/>
       <c r="C109" s="17" t="s">
         <v>470</v>
       </c>
@@ -13733,7 +13811,7 @@
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B110" s="68"/>
+      <c r="B110" s="71"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
       <c r="E110" s="17" t="s">
@@ -13742,7 +13820,7 @@
       <c r="F110" s="10"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B111" s="68"/>
+      <c r="B111" s="71"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
       <c r="E111" s="17" t="s">
@@ -13751,7 +13829,7 @@
       <c r="F111" s="10"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B112" s="68" t="s">
+      <c r="B112" s="71" t="s">
         <v>456</v>
       </c>
       <c r="C112" s="17" t="s">
@@ -13764,7 +13842,7 @@
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B113" s="68"/>
+      <c r="B113" s="71"/>
       <c r="C113" s="17" t="s">
         <v>461</v>
       </c>
@@ -13775,7 +13853,7 @@
       <c r="F113" s="10"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B114" s="68"/>
+      <c r="B114" s="71"/>
       <c r="C114" s="17" t="s">
         <v>458</v>
       </c>
@@ -13786,7 +13864,7 @@
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B115" s="68" t="s">
+      <c r="B115" s="71" t="s">
         <v>496</v>
       </c>
       <c r="C115" s="17" t="s">
@@ -13799,7 +13877,7 @@
       <c r="F115" s="10"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B116" s="68"/>
+      <c r="B116" s="71"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17" t="s">
         <v>482</v>
@@ -13808,7 +13886,7 @@
       <c r="F116" s="10"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B117" s="68"/>
+      <c r="B117" s="71"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17" t="s">
         <v>483</v>
@@ -13817,7 +13895,7 @@
       <c r="F117" s="10"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B118" s="68"/>
+      <c r="B118" s="71"/>
       <c r="C118" s="17" t="s">
         <v>404</v>
       </c>
@@ -13830,7 +13908,7 @@
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B119" s="68"/>
+      <c r="B119" s="71"/>
       <c r="C119" s="17" t="s">
         <v>492</v>
       </c>
@@ -13841,7 +13919,7 @@
       <c r="F119" s="10"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B120" s="68"/>
+      <c r="B120" s="71"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17" t="s">
         <v>494</v>
@@ -13850,7 +13928,7 @@
       <c r="F120" s="10"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B121" s="69"/>
+      <c r="B121" s="72"/>
       <c r="C121" s="19" t="s">
         <v>513</v>
       </c>
@@ -14084,13 +14162,13 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67" t="s">
         <v>337</v>
       </c>
     </row>
@@ -14107,13 +14185,13 @@
       <c r="E3" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="70"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="74" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="77" t="s">
         <v>339</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -14123,8 +14201,8 @@
       <c r="F4" s="26"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B5" s="68"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="17" t="s">
         <v>341</v>
       </c>
@@ -14132,8 +14210,8 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B6" s="68"/>
-      <c r="C6" s="72"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="17" t="s">
         <v>59</v>
       </c>
@@ -14141,7 +14219,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B7" s="68"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="46" t="s">
         <v>380</v>
       </c>
@@ -14152,10 +14230,10 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="71" t="s">
         <v>521</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="76" t="s">
         <v>500</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -14168,8 +14246,8 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B9" s="68"/>
-      <c r="C9" s="73"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="17" t="s">
         <v>504</v>
       </c>
@@ -14180,8 +14258,8 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B10" s="68"/>
-      <c r="C10" s="72" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="75" t="s">
         <v>501</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -14191,8 +14269,8 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B11" s="68"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="17" t="s">
         <v>479</v>
       </c>
@@ -14202,18 +14280,18 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B12" s="68"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="75"/>
       <c r="E12" s="17" t="s">
         <v>344</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="71" t="s">
         <v>348</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="75" t="s">
         <v>349</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -14223,8 +14301,8 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B14" s="68"/>
-      <c r="C14" s="72"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="17" t="s">
         <v>355</v>
       </c>
@@ -14236,8 +14314,8 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B15" s="68"/>
-      <c r="C15" s="72"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17" t="s">
         <v>722</v>
@@ -14245,8 +14323,8 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B16" s="68"/>
-      <c r="C16" s="72"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="17" t="s">
         <v>350</v>
       </c>
@@ -14254,8 +14332,8 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B17" s="68"/>
-      <c r="C17" s="72" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="75" t="s">
         <v>360</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -14264,23 +14342,23 @@
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B18" s="68"/>
-      <c r="C18" s="72"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="17" t="s">
         <v>366</v>
       </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B19" s="68"/>
-      <c r="C19" s="72"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="17" t="s">
         <v>367</v>
       </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B20" s="68"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="37" t="s">
         <v>523</v>
       </c>
@@ -14288,10 +14366,10 @@
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="71" t="s">
         <v>385</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="75" t="s">
         <v>508</v>
       </c>
       <c r="D21" s="17" t="s">
@@ -14300,24 +14378,24 @@
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B22" s="68"/>
-      <c r="C22" s="72"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="17" t="s">
         <v>510</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B23" s="68"/>
-      <c r="C23" s="72"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="17" t="s">
         <v>509</v>
       </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B24" s="68"/>
-      <c r="C24" s="72" t="s">
+      <c r="B24" s="71"/>
+      <c r="C24" s="75" t="s">
         <v>357</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -14326,24 +14404,24 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B25" s="68"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="17" t="s">
         <v>369</v>
       </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B26" s="68"/>
-      <c r="C26" s="72"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="17" t="s">
         <v>370</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B27" s="68"/>
-      <c r="C27" s="72" t="s">
+      <c r="B27" s="71"/>
+      <c r="C27" s="75" t="s">
         <v>358</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -14352,24 +14430,24 @@
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B28" s="68"/>
-      <c r="C28" s="72"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="17" t="s">
         <v>372</v>
       </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B29" s="68"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="17" t="s">
         <v>373</v>
       </c>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B30" s="68"/>
-      <c r="C30" s="72" t="s">
+      <c r="B30" s="71"/>
+      <c r="C30" s="75" t="s">
         <v>364</v>
       </c>
       <c r="D30" s="17" t="s">
@@ -14378,23 +14456,23 @@
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B31" s="68"/>
-      <c r="C31" s="72"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="17" t="s">
         <v>378</v>
       </c>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B32" s="68"/>
-      <c r="C32" s="72"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="17" t="s">
         <v>379</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="71" t="s">
         <v>524</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -14406,14 +14484,14 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B34" s="68"/>
+      <c r="B34" s="71"/>
       <c r="D34" s="17" t="s">
         <v>527</v>
       </c>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B35" s="68"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="17" t="s">
         <v>528</v>
       </c>
@@ -14423,7 +14501,7 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B36" s="68"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17" t="s">
         <v>353</v>
@@ -14431,7 +14509,7 @@
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B37" s="68"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
         <v>354</v>
@@ -14439,7 +14517,7 @@
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B38" s="68"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="17" t="s">
         <v>359</v>
       </c>
@@ -14449,7 +14527,7 @@
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B39" s="68"/>
+      <c r="B39" s="71"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17" t="s">
         <v>375</v>
@@ -14457,7 +14535,7 @@
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B40" s="68"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17" t="s">
         <v>376</v>
@@ -14466,7 +14544,7 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="71" t="s">
         <v>529</v>
       </c>
       <c r="C41" s="17" t="s">
@@ -14478,7 +14556,7 @@
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B42" s="68"/>
+      <c r="B42" s="71"/>
       <c r="C42" s="17" t="s">
         <v>532</v>
       </c>
@@ -14488,7 +14566,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B43" s="68"/>
+      <c r="B43" s="71"/>
       <c r="C43" s="17" t="s">
         <v>530</v>
       </c>
@@ -14496,7 +14574,7 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="71" t="s">
         <v>545</v>
       </c>
       <c r="C44" s="17" t="s">
@@ -14507,7 +14585,7 @@
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B45" s="68"/>
+      <c r="B45" s="71"/>
       <c r="C45" s="17" t="s">
         <v>535</v>
       </c>
@@ -14518,7 +14596,7 @@
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="71" t="s">
         <v>543</v>
       </c>
       <c r="C46" s="37" t="s">
@@ -14529,7 +14607,7 @@
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B47" s="69"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="19" t="s">
         <v>126</v>
       </c>
@@ -14544,13 +14622,13 @@
       </c>
     </row>
     <row r="50" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="64" t="s">
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="67" t="s">
         <v>337</v>
       </c>
     </row>
@@ -14567,13 +14645,13 @@
       <c r="E51" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="F51" s="70"/>
+      <c r="F51" s="73"/>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
     </row>
     <row r="52" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B52" s="71" t="s">
+      <c r="B52" s="74" t="s">
         <v>387</v>
       </c>
       <c r="C52" s="25" t="s">
@@ -14587,7 +14665,7 @@
       <c r="J52" s="28"/>
     </row>
     <row r="53" spans="2:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B53" s="68"/>
+      <c r="B53" s="71"/>
       <c r="C53" s="17" t="s">
         <v>389</v>
       </c>
@@ -14596,7 +14674,7 @@
       <c r="F53" s="10"/>
     </row>
     <row r="54" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B54" s="68"/>
+      <c r="B54" s="71"/>
       <c r="C54" s="17" t="s">
         <v>424</v>
       </c>
@@ -14605,7 +14683,7 @@
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="71" t="s">
         <v>390</v>
       </c>
       <c r="C55" s="17" t="s">
@@ -14621,7 +14699,7 @@
       <c r="J55" s="28"/>
     </row>
     <row r="56" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B56" s="68"/>
+      <c r="B56" s="71"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17" t="s">
         <v>418</v>
@@ -14632,7 +14710,7 @@
       <c r="J56" s="28"/>
     </row>
     <row r="57" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="68"/>
+      <c r="B57" s="71"/>
       <c r="C57" s="17" t="s">
         <v>392</v>
       </c>
@@ -14644,7 +14722,7 @@
       <c r="J57" s="28"/>
     </row>
     <row r="58" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="68"/>
+      <c r="B58" s="71"/>
       <c r="C58" s="17" t="s">
         <v>403</v>
       </c>
@@ -14658,7 +14736,7 @@
       <c r="J58" s="28"/>
     </row>
     <row r="59" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="68"/>
+      <c r="B59" s="71"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17" t="s">
         <v>415</v>
@@ -14670,7 +14748,7 @@
       <c r="J59" s="28"/>
     </row>
     <row r="60" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="68"/>
+      <c r="B60" s="71"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17" t="s">
         <v>416</v>
@@ -14682,7 +14760,7 @@
       <c r="J60" s="28"/>
     </row>
     <row r="61" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="68"/>
+      <c r="B61" s="71"/>
       <c r="D61" s="17" t="s">
         <v>428</v>
       </c>
@@ -14692,7 +14770,7 @@
       <c r="J61" s="28"/>
     </row>
     <row r="62" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="71" t="s">
         <v>393</v>
       </c>
       <c r="C62" t="s">
@@ -14708,7 +14786,7 @@
       <c r="J62" s="28"/>
     </row>
     <row r="63" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="68"/>
+      <c r="B63" s="71"/>
       <c r="D63" s="17" t="s">
         <v>422</v>
       </c>
@@ -14720,7 +14798,7 @@
       <c r="J63" s="28"/>
     </row>
     <row r="64" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="68"/>
+      <c r="B64" s="71"/>
       <c r="C64" s="17" t="s">
         <v>736</v>
       </c>
@@ -14733,7 +14811,7 @@
       <c r="J64" s="28"/>
     </row>
     <row r="65" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="68"/>
+      <c r="B65" s="71"/>
       <c r="D65" s="17" t="s">
         <v>420</v>
       </c>
@@ -14743,7 +14821,7 @@
       <c r="J65" s="28"/>
     </row>
     <row r="66" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="68"/>
+      <c r="B66" s="71"/>
       <c r="D66" s="17" t="s">
         <v>421</v>
       </c>
@@ -14753,7 +14831,7 @@
       <c r="J66" s="28"/>
     </row>
     <row r="67" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="68"/>
+      <c r="B67" s="71"/>
       <c r="C67" s="17" t="s">
         <v>423</v>
       </c>
@@ -14763,7 +14841,7 @@
       <c r="J67" s="28"/>
     </row>
     <row r="68" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="68" t="s">
+      <c r="B68" s="71" t="s">
         <v>427</v>
       </c>
       <c r="C68" s="17" t="s">
@@ -14778,7 +14856,7 @@
       <c r="J68" s="28"/>
     </row>
     <row r="69" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="68"/>
+      <c r="B69" s="71"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17" t="s">
         <v>398</v>
@@ -14790,7 +14868,7 @@
       <c r="J69" s="28"/>
     </row>
     <row r="70" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="68"/>
+      <c r="B70" s="71"/>
       <c r="C70" s="17" t="s">
         <v>516</v>
       </c>
@@ -14806,7 +14884,7 @@
       <c r="J70" s="28"/>
     </row>
     <row r="71" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="68"/>
+      <c r="B71" s="71"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17" t="s">
         <v>399</v>
@@ -14818,7 +14896,7 @@
       <c r="J71" s="28"/>
     </row>
     <row r="72" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="68" t="s">
+      <c r="B72" s="71" t="s">
         <v>540</v>
       </c>
       <c r="C72" s="17" t="s">
@@ -14833,7 +14911,7 @@
       <c r="J72" s="28"/>
     </row>
     <row r="73" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="68"/>
+      <c r="B73" s="71"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
         <v>413</v>
@@ -14844,7 +14922,7 @@
       <c r="J73" s="28"/>
     </row>
     <row r="74" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="68"/>
+      <c r="B74" s="71"/>
       <c r="C74" s="17" t="s">
         <v>400</v>
       </c>
@@ -14858,7 +14936,7 @@
       <c r="J74" s="28"/>
     </row>
     <row r="75" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="68"/>
+      <c r="B75" s="71"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17" t="s">
         <v>402</v>
@@ -14870,7 +14948,7 @@
       <c r="J75" s="28"/>
     </row>
     <row r="76" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="68" t="s">
+      <c r="B76" s="71" t="s">
         <v>548</v>
       </c>
       <c r="C76" s="17" t="s">
@@ -14884,7 +14962,7 @@
       <c r="J76" s="28"/>
     </row>
     <row r="77" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="68"/>
+      <c r="B77" s="71"/>
       <c r="C77" s="17" t="s">
         <v>542</v>
       </c>
@@ -14896,7 +14974,7 @@
       <c r="J77" s="28"/>
     </row>
     <row r="78" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="68" t="s">
+      <c r="B78" s="71" t="s">
         <v>536</v>
       </c>
       <c r="C78" s="17" t="s">
@@ -14910,7 +14988,7 @@
       <c r="J78" s="28"/>
     </row>
     <row r="79" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="68"/>
+      <c r="B79" s="71"/>
       <c r="C79" s="17" t="s">
         <v>537</v>
       </c>
@@ -14924,7 +15002,7 @@
       <c r="J79" s="28"/>
     </row>
     <row r="80" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B80" s="68"/>
+      <c r="B80" s="71"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17" t="s">
         <v>408</v>
@@ -14936,7 +15014,7 @@
       <c r="J80" s="28"/>
     </row>
     <row r="81" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B81" s="69"/>
+      <c r="B81" s="72"/>
       <c r="C81" s="19" t="s">
         <v>538</v>
       </c>
@@ -14962,13 +15040,13 @@
       <c r="J83" s="28"/>
     </row>
     <row r="84" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B84" s="62" t="s">
+      <c r="B84" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="C84" s="63"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="64" t="s">
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="78"/>
+      <c r="F84" s="67" t="s">
         <v>337</v>
       </c>
     </row>
@@ -14985,10 +15063,10 @@
       <c r="E85" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F85" s="65"/>
+      <c r="F85" s="68"/>
     </row>
     <row r="86" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B86" s="71" t="s">
+      <c r="B86" s="74" t="s">
         <v>433</v>
       </c>
       <c r="C86" s="25" t="s">
@@ -15001,7 +15079,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B87" s="68"/>
+      <c r="B87" s="71"/>
       <c r="C87" s="17" t="s">
         <v>435</v>
       </c>
@@ -15012,7 +15090,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="68"/>
+      <c r="B88" s="71"/>
       <c r="C88" s="17" t="s">
         <v>436</v>
       </c>
@@ -15025,7 +15103,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B89" s="68"/>
+      <c r="B89" s="71"/>
       <c r="C89" s="17" t="s">
         <v>480</v>
       </c>
@@ -15036,7 +15114,7 @@
       </c>
     </row>
     <row r="90" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B90" s="68" t="s">
+      <c r="B90" s="71" t="s">
         <v>441</v>
       </c>
       <c r="C90" s="17" t="s">
@@ -15049,7 +15127,7 @@
       <c r="F90" s="10"/>
     </row>
     <row r="91" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="68"/>
+      <c r="B91" s="71"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17" t="s">
         <v>418</v>
@@ -15058,7 +15136,7 @@
       <c r="F91" s="10"/>
     </row>
     <row r="92" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B92" s="68"/>
+      <c r="B92" s="71"/>
       <c r="C92" s="17" t="s">
         <v>547</v>
       </c>
@@ -15073,7 +15151,7 @@
       </c>
     </row>
     <row r="93" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B93" s="68"/>
+      <c r="B93" s="71"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17" t="s">
         <v>447</v>
@@ -15082,7 +15160,7 @@
       <c r="F93" s="10"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B94" s="68"/>
+      <c r="B94" s="71"/>
       <c r="C94" s="17" t="s">
         <v>448</v>
       </c>
@@ -15093,8 +15171,8 @@
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B95" s="68"/>
-      <c r="C95" s="72" t="s">
+      <c r="B95" s="71"/>
+      <c r="C95" s="75" t="s">
         <v>455</v>
       </c>
       <c r="D95" s="49" t="s">
@@ -15106,8 +15184,8 @@
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B96" s="68"/>
-      <c r="C96" s="72"/>
+      <c r="B96" s="71"/>
+      <c r="C96" s="75"/>
       <c r="D96" s="49" t="s">
         <v>485</v>
       </c>
@@ -15115,8 +15193,8 @@
       <c r="F96" s="10"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B97" s="68"/>
-      <c r="C97" s="72"/>
+      <c r="B97" s="71"/>
+      <c r="C97" s="75"/>
       <c r="D97" s="49" t="s">
         <v>487</v>
       </c>
@@ -15124,10 +15202,10 @@
       <c r="F97" s="10"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B98" s="68" t="s">
+      <c r="B98" s="71" t="s">
         <v>450</v>
       </c>
-      <c r="C98" s="72" t="s">
+      <c r="C98" s="75" t="s">
         <v>463</v>
       </c>
       <c r="D98" s="17" t="s">
@@ -15139,8 +15217,8 @@
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B99" s="68"/>
-      <c r="C99" s="72"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="75"/>
       <c r="D99" s="17" t="s">
         <v>468</v>
       </c>
@@ -15150,8 +15228,8 @@
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B100" s="68"/>
-      <c r="C100" s="72"/>
+      <c r="B100" s="71"/>
+      <c r="C100" s="75"/>
       <c r="D100" s="17" t="s">
         <v>467</v>
       </c>
@@ -15161,8 +15239,8 @@
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B101" s="68"/>
-      <c r="C101" s="72"/>
+      <c r="B101" s="71"/>
+      <c r="C101" s="75"/>
       <c r="D101" s="17" t="s">
         <v>466</v>
       </c>
@@ -15172,8 +15250,8 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B102" s="68"/>
-      <c r="C102" s="72"/>
+      <c r="B102" s="71"/>
+      <c r="C102" s="75"/>
       <c r="D102" s="17" t="s">
         <v>488</v>
       </c>
@@ -15183,8 +15261,8 @@
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B103" s="68"/>
-      <c r="C103" s="72"/>
+      <c r="B103" s="71"/>
+      <c r="C103" s="75"/>
       <c r="D103" s="17" t="s">
         <v>489</v>
       </c>
@@ -15192,10 +15270,10 @@
       <c r="F103" s="10"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B104" s="68" t="s">
+      <c r="B104" s="71" t="s">
         <v>385</v>
       </c>
-      <c r="C104" s="72" t="s">
+      <c r="C104" s="75" t="s">
         <v>456</v>
       </c>
       <c r="D104" s="49" t="s">
@@ -15207,8 +15285,8 @@
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B105" s="68"/>
-      <c r="C105" s="72"/>
+      <c r="B105" s="71"/>
+      <c r="C105" s="75"/>
       <c r="D105" s="49" t="s">
         <v>461</v>
       </c>
@@ -15218,8 +15296,8 @@
       <c r="F105" s="10"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B106" s="68"/>
-      <c r="C106" s="72"/>
+      <c r="B106" s="71"/>
+      <c r="C106" s="75"/>
       <c r="D106" s="49" t="s">
         <v>458</v>
       </c>
@@ -15229,7 +15307,7 @@
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B107" s="68"/>
+      <c r="B107" s="71"/>
       <c r="C107" s="17" t="s">
         <v>469</v>
       </c>
@@ -15240,7 +15318,7 @@
       <c r="F107" s="10"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B108" s="68"/>
+      <c r="B108" s="71"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17" t="s">
         <v>474</v>
@@ -15249,7 +15327,7 @@
       <c r="F108" s="10"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B109" s="68"/>
+      <c r="B109" s="71"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17" t="s">
         <v>475</v>
@@ -15258,7 +15336,7 @@
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B110" s="68"/>
+      <c r="B110" s="71"/>
       <c r="C110" s="17" t="s">
         <v>476</v>
       </c>
@@ -15269,7 +15347,7 @@
       <c r="F110" s="10"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B111" s="68"/>
+      <c r="B111" s="71"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17" t="s">
         <v>478</v>
@@ -15278,7 +15356,7 @@
       <c r="F111" s="10"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B112" s="68"/>
+      <c r="B112" s="71"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17" t="s">
         <v>454</v>
@@ -15287,7 +15365,7 @@
       <c r="F112" s="8"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B113" s="68"/>
+      <c r="B113" s="71"/>
       <c r="C113" s="17" t="s">
         <v>452</v>
       </c>
@@ -15297,7 +15375,7 @@
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B114" s="68"/>
+      <c r="B114" s="71"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17" t="s">
         <v>378</v>
@@ -15305,7 +15383,7 @@
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B115" s="68"/>
+      <c r="B115" s="71"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17" t="s">
         <v>473</v>
@@ -15313,7 +15391,7 @@
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B116" s="68" t="s">
+      <c r="B116" s="71" t="s">
         <v>496</v>
       </c>
       <c r="C116" s="17" t="s">
@@ -15326,7 +15404,7 @@
       <c r="F116" s="10"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B117" s="68"/>
+      <c r="B117" s="71"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17" t="s">
         <v>482</v>
@@ -15335,7 +15413,7 @@
       <c r="F117" s="10"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B118" s="68"/>
+      <c r="B118" s="71"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17" t="s">
         <v>483</v>
@@ -15344,7 +15422,7 @@
       <c r="F118" s="10"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B119" s="68"/>
+      <c r="B119" s="71"/>
       <c r="C119" s="17" t="s">
         <v>404</v>
       </c>
@@ -15357,7 +15435,7 @@
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B120" s="68"/>
+      <c r="B120" s="71"/>
       <c r="C120" s="17" t="s">
         <v>492</v>
       </c>
@@ -15368,7 +15446,7 @@
       <c r="F120" s="10"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B121" s="68"/>
+      <c r="B121" s="71"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
         <v>382</v>
@@ -15377,7 +15455,7 @@
       <c r="F121" s="10"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B122" s="69"/>
+      <c r="B122" s="72"/>
       <c r="C122" s="19" t="s">
         <v>513</v>
       </c>

--- a/메뉴구성도_IA - 김민아.xlsx
+++ b/메뉴구성도_IA - 김민아.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\als70\OneDrive\Desktop\삼성아카데미\samsung-lxp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90246B8-4FD3-4178-B627-376FE985CAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E9B5BA-7918-4D5F-84AC-57BB0D0F08CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="740" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="화면구성도" sheetId="1" r:id="rId1"/>
@@ -31,17 +31,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'LMS최종표_기능명세포함 (2)'!$B$2:$K$46</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="848">
   <si>
     <t>메뉴</t>
   </si>
@@ -2905,12 +2914,72 @@
   <si>
     <t>document_text</t>
   </si>
+  <si>
+    <t>설문(survey)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문명</t>
+  </si>
+  <si>
+    <t>연계 차시</t>
+  </si>
+  <si>
+    <t>이수 반영</t>
+  </si>
+  <si>
+    <t>필수</t>
+  </si>
+  <si>
+    <t>응답률</t>
+  </si>
+  <si>
+    <t>이수현황</t>
+  </si>
+  <si>
+    <t>수강률</t>
+  </si>
+  <si>
+    <t>이탈위험도</t>
+  </si>
+  <si>
+    <t>마감일</t>
+  </si>
+  <si>
+    <t>콘텐츠명</t>
+  </si>
+  <si>
+    <t>콘텐츠 유형 (영상 / 문서 / 실습 / 시험)</t>
+  </si>
+  <si>
+    <t>연결 차시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일/링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개 상태</t>
+  </si>
+  <si>
+    <t>생성자 (관리자 / 강사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/instructor/courses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/instructor/proctor/exams/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3012,8 +3081,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="5"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3069,6 +3145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3308,7 +3390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3483,13 +3565,25 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3501,6 +3595,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3510,19 +3607,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3531,14 +3619,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4240,14 +4325,14 @@
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="24"/>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="71" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4267,46 +4352,46 @@
       <c r="F3" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G3" s="73"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="79" t="s">
         <v>339</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>340</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="76" t="s">
         <v>755</v>
       </c>
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B5" s="71"/>
-      <c r="C5" s="75"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="76"/>
       <c r="D5" s="17" t="s">
         <v>341</v>
       </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="75"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B6" s="71"/>
-      <c r="C6" s="75"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="75"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B7" s="71"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="46" t="s">
         <v>380</v>
       </c>
@@ -4327,17 +4412,17 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="68" t="s">
         <v>521</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="80" t="s">
         <v>500</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>503</v>
       </c>
       <c r="E9" s="25"/>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="76" t="s">
         <v>752</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -4346,51 +4431,51 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B10" s="71"/>
-      <c r="C10" s="76"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="17" t="s">
         <v>504</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="75"/>
+      <c r="F10" s="76"/>
       <c r="G10" s="20" t="s">
         <v>505</v>
       </c>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B11" s="71"/>
-      <c r="C11" s="75" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="76" t="s">
         <v>463</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>342</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="76" t="s">
         <v>751</v>
       </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B12" s="71"/>
-      <c r="C12" s="75"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="17" t="s">
         <v>479</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="76"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B13" s="71"/>
-      <c r="C13" s="75"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="76"/>
       <c r="E13" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="F13" s="75"/>
+      <c r="F13" s="76"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.6">
@@ -4404,86 +4489,86 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="68" t="s">
         <v>348</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="79" t="s">
         <v>349</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>356</v>
       </c>
       <c r="E15" s="25"/>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="76" t="s">
         <v>754</v>
       </c>
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B16" s="71"/>
-      <c r="C16" s="75"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="17" t="s">
         <v>355</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="F16" s="75"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="8" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B17" s="71"/>
-      <c r="C17" s="75"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="F17" s="75"/>
+      <c r="F17" s="76"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" ht="17.649999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B18" s="71"/>
-      <c r="C18" s="75"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="55" t="s">
         <v>350</v>
       </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="75"/>
+      <c r="F18" s="76"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="B19" s="71"/>
-      <c r="D19" s="75" t="s">
+      <c r="B19" s="66"/>
+      <c r="D19" s="76" t="s">
         <v>360</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="F19" s="75"/>
+      <c r="F19" s="76"/>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B20" s="71"/>
-      <c r="D20" s="75"/>
+      <c r="B20" s="66"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="F20" s="75"/>
+      <c r="F20" s="76"/>
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B21" s="71"/>
-      <c r="D21" s="75"/>
+      <c r="B21" s="66"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="F21" s="75"/>
+      <c r="F21" s="76"/>
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B22" s="71"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="37" t="s">
         <v>523</v>
       </c>
@@ -4504,130 +4589,130 @@
       <c r="G23" s="54"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="68" t="s">
         <v>742</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="79" t="s">
         <v>456</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>457</v>
       </c>
       <c r="E24" s="56"/>
-      <c r="F24" s="75" t="s">
+      <c r="F24" s="76" t="s">
         <v>756</v>
       </c>
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B25" s="71"/>
-      <c r="C25" s="75"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="F25" s="75"/>
+      <c r="F25" s="76"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B26" s="71"/>
-      <c r="C26" s="75"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="F26" s="75"/>
+      <c r="F26" s="76"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B27" s="71"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="17" t="s">
         <v>357</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="F27" s="75" t="s">
+      <c r="F27" s="76" t="s">
         <v>761</v>
       </c>
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B28" s="71"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="F28" s="75"/>
+      <c r="F28" s="76"/>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B29" s="71"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="F29" s="75"/>
+      <c r="F29" s="76"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B30" s="71"/>
-      <c r="C30" s="75" t="s">
+      <c r="B30" s="66"/>
+      <c r="C30" s="76" t="s">
         <v>358</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="F30" s="75" t="s">
+      <c r="F30" s="76" t="s">
         <v>757</v>
       </c>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B31" s="71"/>
-      <c r="C31" s="75"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="F31" s="75"/>
+      <c r="F31" s="76"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B32" s="71"/>
-      <c r="C32" s="75"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="F32" s="75"/>
+      <c r="F32" s="76"/>
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B33" s="71"/>
-      <c r="C33" s="75" t="s">
+      <c r="B33" s="66"/>
+      <c r="C33" s="76" t="s">
         <v>364</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="F33" s="75" t="s">
+      <c r="F33" s="76" t="s">
         <v>762</v>
       </c>
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B34" s="71"/>
-      <c r="C34" s="75"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="F34" s="75"/>
+      <c r="F34" s="76"/>
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B35" s="71"/>
-      <c r="C35" s="75"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="F35" s="75"/>
+      <c r="F35" s="76"/>
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.6">
@@ -4641,7 +4726,7 @@
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="68" t="s">
         <v>524</v>
       </c>
       <c r="C37" s="25" t="s">
@@ -4651,80 +4736,80 @@
         <v>526</v>
       </c>
       <c r="E37" s="56"/>
-      <c r="F37" s="75" t="s">
+      <c r="F37" s="76" t="s">
         <v>763</v>
       </c>
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B38" s="71"/>
+      <c r="B38" s="66"/>
       <c r="D38" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="F38" s="75"/>
+      <c r="F38" s="76"/>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B39" s="71"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="17" t="s">
         <v>528</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="F39" s="75" t="s">
+      <c r="F39" s="76" t="s">
         <v>764</v>
       </c>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B40" s="71"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="F40" s="75"/>
+      <c r="F40" s="76"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B41" s="71"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="F41" s="75"/>
+      <c r="F41" s="76"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B42" s="71"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="17" t="s">
         <v>359</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="F42" s="75" t="s">
+      <c r="F42" s="76" t="s">
         <v>765</v>
       </c>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B43" s="71"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="F43" s="75"/>
+      <c r="F43" s="76"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B44" s="71"/>
+      <c r="B44" s="66"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17" t="s">
         <v>376</v>
       </c>
       <c r="E44" s="17"/>
-      <c r="F44" s="75"/>
+      <c r="F44" s="76"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.6">
@@ -4738,7 +4823,7 @@
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B46" s="74" t="s">
+      <c r="B46" s="68" t="s">
         <v>529</v>
       </c>
       <c r="C46" s="25" t="s">
@@ -4754,7 +4839,7 @@
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B47" s="71"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="17" t="s">
         <v>532</v>
       </c>
@@ -4767,7 +4852,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B48" s="71"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="17" t="s">
         <v>530</v>
       </c>
@@ -4788,7 +4873,7 @@
       <c r="G49" s="9"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B50" s="74" t="s">
+      <c r="B50" s="68" t="s">
         <v>545</v>
       </c>
       <c r="C50" s="25" t="s">
@@ -4802,7 +4887,7 @@
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B51" s="71"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="17" t="s">
         <v>535</v>
       </c>
@@ -4826,7 +4911,7 @@
       <c r="G52" s="9"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B53" s="71" t="s">
+      <c r="B53" s="66" t="s">
         <v>543</v>
       </c>
       <c r="C53" s="37" t="s">
@@ -4837,7 +4922,7 @@
       <c r="G53" s="8"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B54" s="72"/>
+      <c r="B54" s="67"/>
       <c r="C54" s="19" t="s">
         <v>126</v>
       </c>
@@ -4853,14 +4938,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="65" t="s">
+      <c r="B57" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="78"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="77"/>
       <c r="F57" s="50"/>
-      <c r="G57" s="67" t="s">
+      <c r="G57" s="71" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4880,13 +4965,13 @@
       <c r="F58" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G58" s="73"/>
+      <c r="G58" s="72"/>
       <c r="I58" s="31"/>
       <c r="J58" s="31"/>
       <c r="K58" s="31"/>
     </row>
     <row r="59" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="74" t="s">
+      <c r="B59" s="68" t="s">
         <v>387</v>
       </c>
       <c r="C59" s="25" t="s">
@@ -4901,7 +4986,7 @@
       <c r="K59" s="28"/>
     </row>
     <row r="60" spans="2:11" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="71"/>
+      <c r="B60" s="66"/>
       <c r="C60" s="17" t="s">
         <v>389</v>
       </c>
@@ -4911,7 +4996,7 @@
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="71"/>
+      <c r="B61" s="66"/>
       <c r="C61" s="17" t="s">
         <v>424</v>
       </c>
@@ -4920,7 +5005,7 @@
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="71" t="s">
+      <c r="B62" s="66" t="s">
         <v>390</v>
       </c>
       <c r="C62" s="17" t="s">
@@ -4936,7 +5021,7 @@
       <c r="K62" s="28"/>
     </row>
     <row r="63" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="71"/>
+      <c r="B63" s="66"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17" t="s">
         <v>418</v>
@@ -4947,7 +5032,7 @@
       <c r="K63" s="28"/>
     </row>
     <row r="64" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="71"/>
+      <c r="B64" s="66"/>
       <c r="C64" s="17" t="s">
         <v>392</v>
       </c>
@@ -4959,7 +5044,7 @@
       <c r="K64" s="28"/>
     </row>
     <row r="65" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="71"/>
+      <c r="B65" s="66"/>
       <c r="C65" s="17" t="s">
         <v>403</v>
       </c>
@@ -4973,7 +5058,7 @@
       <c r="K65" s="28"/>
     </row>
     <row r="66" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="71"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17" t="s">
         <v>415</v>
@@ -4985,7 +5070,7 @@
       <c r="K66" s="28"/>
     </row>
     <row r="67" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="71"/>
+      <c r="B67" s="66"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17" t="s">
         <v>416</v>
@@ -4997,7 +5082,7 @@
       <c r="K67" s="28"/>
     </row>
     <row r="68" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="71"/>
+      <c r="B68" s="66"/>
       <c r="D68" s="17" t="s">
         <v>428</v>
       </c>
@@ -5007,7 +5092,7 @@
       <c r="K68" s="28"/>
     </row>
     <row r="69" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="71" t="s">
+      <c r="B69" s="66" t="s">
         <v>393</v>
       </c>
       <c r="C69" t="s">
@@ -5023,7 +5108,7 @@
       <c r="K69" s="28"/>
     </row>
     <row r="70" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="71"/>
+      <c r="B70" s="66"/>
       <c r="D70" s="17" t="s">
         <v>422</v>
       </c>
@@ -5035,7 +5120,7 @@
       <c r="K70" s="28"/>
     </row>
     <row r="71" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="71"/>
+      <c r="B71" s="66"/>
       <c r="C71" s="17" t="s">
         <v>394</v>
       </c>
@@ -5048,7 +5133,7 @@
       <c r="K71" s="28"/>
     </row>
     <row r="72" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="71"/>
+      <c r="B72" s="66"/>
       <c r="D72" s="17" t="s">
         <v>420</v>
       </c>
@@ -5058,7 +5143,7 @@
       <c r="K72" s="28"/>
     </row>
     <row r="73" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="71"/>
+      <c r="B73" s="66"/>
       <c r="D73" s="17" t="s">
         <v>421</v>
       </c>
@@ -5068,7 +5153,7 @@
       <c r="K73" s="28"/>
     </row>
     <row r="74" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="71"/>
+      <c r="B74" s="66"/>
       <c r="C74" s="17" t="s">
         <v>423</v>
       </c>
@@ -5078,7 +5163,7 @@
       <c r="K74" s="28"/>
     </row>
     <row r="75" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="71" t="s">
+      <c r="B75" s="66" t="s">
         <v>427</v>
       </c>
       <c r="C75" s="17" t="s">
@@ -5093,7 +5178,7 @@
       <c r="K75" s="28"/>
     </row>
     <row r="76" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="71"/>
+      <c r="B76" s="66"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17" t="s">
         <v>398</v>
@@ -5105,7 +5190,7 @@
       <c r="K76" s="28"/>
     </row>
     <row r="77" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="71"/>
+      <c r="B77" s="66"/>
       <c r="C77" s="17" t="s">
         <v>516</v>
       </c>
@@ -5122,7 +5207,7 @@
       <c r="K77" s="28"/>
     </row>
     <row r="78" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="71"/>
+      <c r="B78" s="66"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17" t="s">
         <v>399</v>
@@ -5134,7 +5219,7 @@
       <c r="K78" s="28"/>
     </row>
     <row r="79" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="71" t="s">
+      <c r="B79" s="66" t="s">
         <v>540</v>
       </c>
       <c r="C79" s="17" t="s">
@@ -5149,7 +5234,7 @@
       <c r="K79" s="28"/>
     </row>
     <row r="80" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B80" s="71"/>
+      <c r="B80" s="66"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17" t="s">
         <v>413</v>
@@ -5160,7 +5245,7 @@
       <c r="K80" s="28"/>
     </row>
     <row r="81" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B81" s="71"/>
+      <c r="B81" s="66"/>
       <c r="C81" s="17" t="s">
         <v>400</v>
       </c>
@@ -5174,7 +5259,7 @@
       <c r="K81" s="28"/>
     </row>
     <row r="82" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B82" s="71"/>
+      <c r="B82" s="66"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17" t="s">
         <v>402</v>
@@ -5186,7 +5271,7 @@
       <c r="K82" s="28"/>
     </row>
     <row r="83" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B83" s="71" t="s">
+      <c r="B83" s="66" t="s">
         <v>548</v>
       </c>
       <c r="C83" s="17" t="s">
@@ -5200,7 +5285,7 @@
       <c r="K83" s="28"/>
     </row>
     <row r="84" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B84" s="71"/>
+      <c r="B84" s="66"/>
       <c r="C84" s="17" t="s">
         <v>542</v>
       </c>
@@ -5212,7 +5297,7 @@
       <c r="K84" s="28"/>
     </row>
     <row r="85" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B85" s="71" t="s">
+      <c r="B85" s="66" t="s">
         <v>524</v>
       </c>
       <c r="C85" s="17" t="s">
@@ -5226,7 +5311,7 @@
       <c r="K85" s="28"/>
     </row>
     <row r="86" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B86" s="71"/>
+      <c r="B86" s="66"/>
       <c r="C86" s="17" t="s">
         <v>537</v>
       </c>
@@ -5240,7 +5325,7 @@
       <c r="K86" s="28"/>
     </row>
     <row r="87" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B87" s="71"/>
+      <c r="B87" s="66"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17" t="s">
         <v>408</v>
@@ -5252,7 +5337,7 @@
       <c r="K87" s="28"/>
     </row>
     <row r="88" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="72"/>
+      <c r="B88" s="67"/>
       <c r="C88" s="19" t="s">
         <v>404</v>
       </c>
@@ -5279,14 +5364,14 @@
       <c r="K90" s="28"/>
     </row>
     <row r="91" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="65" t="s">
+      <c r="B91" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="C91" s="66"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="78"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="77"/>
       <c r="F91" s="50"/>
-      <c r="G91" s="67" t="s">
+      <c r="G91" s="71" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5306,10 +5391,10 @@
       <c r="F92" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G92" s="68"/>
+      <c r="G92" s="73"/>
     </row>
     <row r="93" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B93" s="74" t="s">
+      <c r="B93" s="68" t="s">
         <v>433</v>
       </c>
       <c r="C93" s="25" t="s">
@@ -5323,7 +5408,7 @@
       </c>
     </row>
     <row r="94" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B94" s="71"/>
+      <c r="B94" s="66"/>
       <c r="C94" s="17" t="s">
         <v>435</v>
       </c>
@@ -5334,7 +5419,7 @@
       </c>
     </row>
     <row r="95" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B95" s="71"/>
+      <c r="B95" s="66"/>
       <c r="C95" s="17" t="s">
         <v>436</v>
       </c>
@@ -5347,7 +5432,7 @@
       </c>
     </row>
     <row r="96" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B96" s="71"/>
+      <c r="B96" s="66"/>
       <c r="C96" s="17" t="s">
         <v>480</v>
       </c>
@@ -5358,7 +5443,7 @@
       </c>
     </row>
     <row r="97" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B97" s="71" t="s">
+      <c r="B97" s="66" t="s">
         <v>441</v>
       </c>
       <c r="C97" s="17" t="s">
@@ -5371,7 +5456,7 @@
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B98" s="71"/>
+      <c r="B98" s="66"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17" t="s">
         <v>418</v>
@@ -5380,7 +5465,7 @@
       <c r="G98" s="10"/>
     </row>
     <row r="99" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B99" s="71"/>
+      <c r="B99" s="66"/>
       <c r="C99" s="17" t="s">
         <v>547</v>
       </c>
@@ -5395,7 +5480,7 @@
       </c>
     </row>
     <row r="100" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B100" s="71"/>
+      <c r="B100" s="66"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17" t="s">
         <v>447</v>
@@ -5404,7 +5489,7 @@
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B101" s="71"/>
+      <c r="B101" s="66"/>
       <c r="C101" s="17" t="s">
         <v>448</v>
       </c>
@@ -5415,8 +5500,8 @@
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B102" s="71"/>
-      <c r="C102" s="75" t="s">
+      <c r="B102" s="66"/>
+      <c r="C102" s="76" t="s">
         <v>360</v>
       </c>
       <c r="D102" s="49" t="s">
@@ -5428,8 +5513,8 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B103" s="71"/>
-      <c r="C103" s="75"/>
+      <c r="B103" s="66"/>
+      <c r="C103" s="76"/>
       <c r="D103" s="49" t="s">
         <v>485</v>
       </c>
@@ -5437,8 +5522,8 @@
       <c r="G103" s="10"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B104" s="71"/>
-      <c r="C104" s="75"/>
+      <c r="B104" s="66"/>
+      <c r="C104" s="76"/>
       <c r="D104" s="49" t="s">
         <v>487</v>
       </c>
@@ -5446,10 +5531,10 @@
       <c r="G104" s="10"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B105" s="71" t="s">
+      <c r="B105" s="66" t="s">
         <v>450</v>
       </c>
-      <c r="C105" s="75" t="s">
+      <c r="C105" s="76" t="s">
         <v>463</v>
       </c>
       <c r="D105" s="17" t="s">
@@ -5461,8 +5546,8 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B106" s="71"/>
-      <c r="C106" s="75"/>
+      <c r="B106" s="66"/>
+      <c r="C106" s="76"/>
       <c r="D106" s="17" t="s">
         <v>344</v>
       </c>
@@ -5472,8 +5557,8 @@
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B107" s="71"/>
-      <c r="C107" s="75"/>
+      <c r="B107" s="66"/>
+      <c r="C107" s="76"/>
       <c r="D107" s="17" t="s">
         <v>467</v>
       </c>
@@ -5483,8 +5568,8 @@
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B108" s="71"/>
-      <c r="C108" s="75"/>
+      <c r="B108" s="66"/>
+      <c r="C108" s="76"/>
       <c r="D108" s="17" t="s">
         <v>466</v>
       </c>
@@ -5494,8 +5579,8 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B109" s="71"/>
-      <c r="C109" s="75"/>
+      <c r="B109" s="66"/>
+      <c r="C109" s="76"/>
       <c r="D109" s="17" t="s">
         <v>488</v>
       </c>
@@ -5505,8 +5590,8 @@
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B110" s="71"/>
-      <c r="C110" s="75"/>
+      <c r="B110" s="66"/>
+      <c r="C110" s="76"/>
       <c r="D110" s="17" t="s">
         <v>489</v>
       </c>
@@ -5514,10 +5599,10 @@
       <c r="G110" s="10"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B111" s="71" t="s">
+      <c r="B111" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="C111" s="75" t="s">
+      <c r="C111" s="76" t="s">
         <v>456</v>
       </c>
       <c r="D111" s="49" t="s">
@@ -5529,8 +5614,8 @@
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B112" s="71"/>
-      <c r="C112" s="75"/>
+      <c r="B112" s="66"/>
+      <c r="C112" s="76"/>
       <c r="D112" s="49" t="s">
         <v>461</v>
       </c>
@@ -5540,8 +5625,8 @@
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B113" s="71"/>
-      <c r="C113" s="75"/>
+      <c r="B113" s="66"/>
+      <c r="C113" s="76"/>
       <c r="D113" s="49" t="s">
         <v>458</v>
       </c>
@@ -5551,7 +5636,7 @@
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B114" s="71"/>
+      <c r="B114" s="66"/>
       <c r="C114" s="17" t="s">
         <v>469</v>
       </c>
@@ -5562,7 +5647,7 @@
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B115" s="71"/>
+      <c r="B115" s="66"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17" t="s">
         <v>474</v>
@@ -5571,7 +5656,7 @@
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B116" s="71"/>
+      <c r="B116" s="66"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17" t="s">
         <v>475</v>
@@ -5580,7 +5665,7 @@
       <c r="G116" s="10"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B117" s="71"/>
+      <c r="B117" s="66"/>
       <c r="C117" s="17" t="s">
         <v>358</v>
       </c>
@@ -5591,7 +5676,7 @@
       <c r="G117" s="10"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B118" s="71"/>
+      <c r="B118" s="66"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17" t="s">
         <v>372</v>
@@ -5600,7 +5685,7 @@
       <c r="G118" s="10"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B119" s="71"/>
+      <c r="B119" s="66"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17" t="s">
         <v>454</v>
@@ -5610,7 +5695,7 @@
       <c r="G119" s="8"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B120" s="71"/>
+      <c r="B120" s="66"/>
       <c r="C120" s="17" t="s">
         <v>364</v>
       </c>
@@ -5620,7 +5705,7 @@
       <c r="E120" s="8"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B121" s="71"/>
+      <c r="B121" s="66"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
         <v>378</v>
@@ -5628,7 +5713,7 @@
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B122" s="71"/>
+      <c r="B122" s="66"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17" t="s">
         <v>379</v>
@@ -5636,7 +5721,7 @@
       <c r="E122" s="8"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B123" s="71" t="s">
+      <c r="B123" s="66" t="s">
         <v>496</v>
       </c>
       <c r="C123" s="17" t="s">
@@ -5649,7 +5734,7 @@
       <c r="G123" s="10"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B124" s="71"/>
+      <c r="B124" s="66"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17" t="s">
         <v>482</v>
@@ -5658,7 +5743,7 @@
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B125" s="71"/>
+      <c r="B125" s="66"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17" t="s">
         <v>483</v>
@@ -5667,7 +5752,7 @@
       <c r="G125" s="10"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B126" s="71"/>
+      <c r="B126" s="66"/>
       <c r="C126" s="17" t="s">
         <v>404</v>
       </c>
@@ -5680,7 +5765,7 @@
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B127" s="71"/>
+      <c r="B127" s="66"/>
       <c r="C127" s="17" t="s">
         <v>409</v>
       </c>
@@ -5691,7 +5776,7 @@
       <c r="G127" s="10"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B128" s="71"/>
+      <c r="B128" s="66"/>
       <c r="C128" s="17"/>
       <c r="D128" s="17" t="s">
         <v>382</v>
@@ -5700,7 +5785,7 @@
       <c r="G128" s="10"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B129" s="72"/>
+      <c r="B129" s="67"/>
       <c r="C129" s="19" t="s">
         <v>513</v>
       </c>
@@ -5867,6 +5952,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B84"/>
     <mergeCell ref="B123:B129"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F13"/>
@@ -5883,38 +6000,6 @@
     <mergeCell ref="C105:C110"/>
     <mergeCell ref="B111:B122"/>
     <mergeCell ref="C111:C113"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="F4:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5926,8 +6011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -6166,24 +6251,80 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="62" t="s">
         <v>826</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="62" t="s">
         <v>827</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="62" t="s">
         <v>828</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="62" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="E8" s="28"/>
+      <c r="A8" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>819</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>831</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>810</v>
+      </c>
+      <c r="E8" s="81" t="s">
+        <v>832</v>
+      </c>
+      <c r="F8" s="81" t="s">
+        <v>833</v>
+      </c>
+      <c r="G8" s="81" t="s">
+        <v>834</v>
+      </c>
+      <c r="H8" s="81" t="s">
+        <v>835</v>
+      </c>
+      <c r="I8" s="81" t="s">
+        <v>836</v>
+      </c>
+      <c r="J8" s="81" t="s">
+        <v>837</v>
+      </c>
+      <c r="K8" s="81" t="s">
+        <v>838</v>
+      </c>
+      <c r="L8" s="81" t="s">
+        <v>839</v>
+      </c>
+      <c r="M8" s="81"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="E9" s="28"/>
+      <c r="A9" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>840</v>
+      </c>
+      <c r="C9" t="s">
+        <v>841</v>
+      </c>
+      <c r="D9" t="s">
+        <v>842</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="F9" t="s">
+        <v>844</v>
+      </c>
+      <c r="G9" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.6">
       <c r="E10" s="28"/>
@@ -6199,8 +6340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:K163"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87:G126"/>
+    <sheetView topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -6224,14 +6365,14 @@
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="24"/>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="71" t="s">
         <v>337</v>
       </c>
     </row>
@@ -6251,46 +6392,46 @@
       <c r="F3" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G3" s="73"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="79" t="s">
         <v>339</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>340</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="76" t="s">
         <v>755</v>
       </c>
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B5" s="71"/>
-      <c r="C5" s="75"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="76"/>
       <c r="D5" s="17" t="s">
         <v>341</v>
       </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="75"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B6" s="71"/>
-      <c r="C6" s="75"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="75"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B7" s="71"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="46" t="s">
         <v>380</v>
       </c>
@@ -6311,17 +6452,17 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="68" t="s">
         <v>521</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="80" t="s">
         <v>500</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>503</v>
       </c>
       <c r="E9" s="25"/>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="76" t="s">
         <v>752</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -6330,51 +6471,51 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B10" s="71"/>
-      <c r="C10" s="76"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="17" t="s">
         <v>504</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="75"/>
+      <c r="F10" s="76"/>
       <c r="G10" s="20" t="s">
         <v>505</v>
       </c>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B11" s="71"/>
-      <c r="C11" s="75" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="76" t="s">
         <v>463</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>342</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="76" t="s">
         <v>751</v>
       </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B12" s="71"/>
-      <c r="C12" s="75"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="17" t="s">
         <v>479</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="76"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B13" s="71"/>
-      <c r="C13" s="75"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="76"/>
       <c r="E13" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="F13" s="75"/>
+      <c r="F13" s="76"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.6">
@@ -6388,54 +6529,54 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="68" t="s">
         <v>348</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="79" t="s">
         <v>349</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>356</v>
       </c>
       <c r="E15" s="25"/>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="76" t="s">
         <v>754</v>
       </c>
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B16" s="71"/>
-      <c r="C16" s="75"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="17" t="s">
         <v>355</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="F16" s="75"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="8" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B17" s="71"/>
-      <c r="C17" s="75"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="F17" s="75"/>
+      <c r="F17" s="76"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B18" s="71"/>
-      <c r="C18" s="75"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="76"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="75"/>
+      <c r="F18" s="76"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B19" s="71"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="37" t="s">
         <v>523</v>
       </c>
@@ -6456,14 +6597,14 @@
       <c r="G20" s="54"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="68" t="s">
         <v>451</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="79" t="s">
         <v>516</v>
       </c>
       <c r="D21" s="56"/>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="76" t="s">
         <v>756</v>
       </c>
       <c r="G21" s="26" t="s">
@@ -6471,111 +6612,111 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B22" s="71"/>
-      <c r="C22" s="75"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="76"/>
       <c r="D22" t="s">
         <v>770</v>
       </c>
-      <c r="F22" s="75"/>
+      <c r="F22" s="76"/>
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B23" s="71"/>
-      <c r="C23" s="75"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="76"/>
       <c r="D23" t="s">
         <v>771</v>
       </c>
-      <c r="F23" s="75"/>
+      <c r="F23" s="76"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B24" s="71"/>
-      <c r="C24" s="75" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="76" t="s">
         <v>769</v>
       </c>
-      <c r="F24" s="75" t="s">
+      <c r="F24" s="76" t="s">
         <v>761</v>
       </c>
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B25" s="71"/>
-      <c r="C25" s="75"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="76"/>
       <c r="D25" t="s">
         <v>772</v>
       </c>
-      <c r="F25" s="75"/>
+      <c r="F25" s="76"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B26" s="71"/>
-      <c r="C26" s="75"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="76"/>
       <c r="D26" t="s">
         <v>773</v>
       </c>
-      <c r="F26" s="75"/>
+      <c r="F26" s="76"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B27" s="71"/>
-      <c r="C27" s="75" t="s">
+      <c r="B27" s="66"/>
+      <c r="C27" s="76" t="s">
         <v>358</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="F27" s="75" t="s">
+      <c r="F27" s="76" t="s">
         <v>757</v>
       </c>
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B28" s="71"/>
-      <c r="C28" s="75"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="F28" s="75"/>
+      <c r="F28" s="76"/>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B29" s="71"/>
-      <c r="C29" s="75"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="F29" s="75"/>
+      <c r="F29" s="76"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B30" s="71"/>
-      <c r="C30" s="75" t="s">
+      <c r="B30" s="66"/>
+      <c r="C30" s="76" t="s">
         <v>364</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="F30" s="75" t="s">
+      <c r="F30" s="76" t="s">
         <v>762</v>
       </c>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B31" s="71"/>
-      <c r="C31" s="75"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="F31" s="75"/>
+      <c r="F31" s="76"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B32" s="71"/>
-      <c r="C32" s="75"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="F32" s="75"/>
+      <c r="F32" s="76"/>
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.6">
@@ -6589,7 +6730,7 @@
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="68" t="s">
         <v>524</v>
       </c>
       <c r="C34" s="25" t="s">
@@ -6599,80 +6740,80 @@
         <v>526</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="75" t="s">
+      <c r="F34" s="76" t="s">
         <v>763</v>
       </c>
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B35" s="71"/>
+      <c r="B35" s="66"/>
       <c r="D35" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="F35" s="75"/>
+      <c r="F35" s="76"/>
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B36" s="71"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="17" t="s">
         <v>528</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="F36" s="75" t="s">
+      <c r="F36" s="76" t="s">
         <v>764</v>
       </c>
       <c r="G36" s="8"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B37" s="71"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="F37" s="75"/>
+      <c r="F37" s="76"/>
       <c r="G37" s="8"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B38" s="71"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="F38" s="75"/>
+      <c r="F38" s="76"/>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B39" s="71"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="17" t="s">
         <v>359</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="F39" s="75" t="s">
+      <c r="F39" s="76" t="s">
         <v>765</v>
       </c>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B40" s="71"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="F40" s="75"/>
+      <c r="F40" s="76"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B41" s="71"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17" t="s">
         <v>376</v>
       </c>
       <c r="E41" s="17"/>
-      <c r="F41" s="75"/>
+      <c r="F41" s="76"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.6">
@@ -6686,7 +6827,7 @@
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="68" t="s">
         <v>529</v>
       </c>
       <c r="C43" s="25" t="s">
@@ -6702,7 +6843,7 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B44" s="71"/>
+      <c r="B44" s="66"/>
       <c r="C44" s="17" t="s">
         <v>532</v>
       </c>
@@ -6715,7 +6856,7 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B45" s="71"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="17" t="s">
         <v>530</v>
       </c>
@@ -6736,7 +6877,7 @@
       <c r="G46" s="9"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B47" s="74" t="s">
+      <c r="B47" s="68" t="s">
         <v>545</v>
       </c>
       <c r="C47" s="25" t="s">
@@ -6750,7 +6891,7 @@
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B48" s="71"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="17" t="s">
         <v>535</v>
       </c>
@@ -6774,7 +6915,7 @@
       <c r="G49" s="9"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="66" t="s">
         <v>543</v>
       </c>
       <c r="C50" s="37" t="s">
@@ -6785,7 +6926,7 @@
       <c r="G50" s="8"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B51" s="72"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="19" t="s">
         <v>126</v>
       </c>
@@ -6801,14 +6942,14 @@
       </c>
     </row>
     <row r="54" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B54" s="65" t="s">
+      <c r="B54" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="78"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="77"/>
       <c r="F54" s="50"/>
-      <c r="G54" s="67" t="s">
+      <c r="G54" s="71" t="s">
         <v>337</v>
       </c>
     </row>
@@ -6828,13 +6969,13 @@
       <c r="F55" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G55" s="73"/>
+      <c r="G55" s="72"/>
       <c r="I55" s="31"/>
       <c r="J55" s="31"/>
       <c r="K55" s="31"/>
     </row>
     <row r="56" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B56" s="74" t="s">
+      <c r="B56" s="68" t="s">
         <v>387</v>
       </c>
       <c r="C56" s="25" t="s">
@@ -6849,7 +6990,7 @@
       <c r="K56" s="28"/>
     </row>
     <row r="57" spans="2:11" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="71"/>
+      <c r="B57" s="66"/>
       <c r="C57" s="17" t="s">
         <v>389</v>
       </c>
@@ -6859,7 +7000,7 @@
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="71"/>
+      <c r="B58" s="66"/>
       <c r="C58" s="17" t="s">
         <v>424</v>
       </c>
@@ -6868,7 +7009,7 @@
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="71" t="s">
+      <c r="B59" s="66" t="s">
         <v>390</v>
       </c>
       <c r="C59" s="17" t="s">
@@ -6884,7 +7025,7 @@
       <c r="K59" s="28"/>
     </row>
     <row r="60" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="71"/>
+      <c r="B60" s="66"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17" t="s">
         <v>418</v>
@@ -6895,7 +7036,7 @@
       <c r="K60" s="28"/>
     </row>
     <row r="61" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="71"/>
+      <c r="B61" s="66"/>
       <c r="C61" s="17" t="s">
         <v>392</v>
       </c>
@@ -6907,7 +7048,7 @@
       <c r="K61" s="28"/>
     </row>
     <row r="62" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="71"/>
+      <c r="B62" s="66"/>
       <c r="C62" s="17" t="s">
         <v>403</v>
       </c>
@@ -6921,7 +7062,7 @@
       <c r="K62" s="28"/>
     </row>
     <row r="63" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="71"/>
+      <c r="B63" s="66"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17" t="s">
         <v>415</v>
@@ -6933,7 +7074,7 @@
       <c r="K63" s="28"/>
     </row>
     <row r="64" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="71"/>
+      <c r="B64" s="66"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17" t="s">
         <v>416</v>
@@ -6945,7 +7086,7 @@
       <c r="K64" s="28"/>
     </row>
     <row r="65" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="71"/>
+      <c r="B65" s="66"/>
       <c r="D65" s="17" t="s">
         <v>428</v>
       </c>
@@ -6955,7 +7096,7 @@
       <c r="K65" s="28"/>
     </row>
     <row r="66" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="71" t="s">
+      <c r="B66" s="66" t="s">
         <v>393</v>
       </c>
       <c r="C66" t="s">
@@ -6971,7 +7112,7 @@
       <c r="K66" s="28"/>
     </row>
     <row r="67" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="71"/>
+      <c r="B67" s="66"/>
       <c r="D67" s="17" t="s">
         <v>422</v>
       </c>
@@ -6983,7 +7124,7 @@
       <c r="K67" s="28"/>
     </row>
     <row r="68" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="71"/>
+      <c r="B68" s="66"/>
       <c r="C68" s="17" t="s">
         <v>394</v>
       </c>
@@ -6996,7 +7137,7 @@
       <c r="K68" s="28"/>
     </row>
     <row r="69" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="71"/>
+      <c r="B69" s="66"/>
       <c r="D69" s="17" t="s">
         <v>420</v>
       </c>
@@ -7006,7 +7147,7 @@
       <c r="K69" s="28"/>
     </row>
     <row r="70" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="71"/>
+      <c r="B70" s="66"/>
       <c r="D70" s="17" t="s">
         <v>421</v>
       </c>
@@ -7016,7 +7157,7 @@
       <c r="K70" s="28"/>
     </row>
     <row r="71" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="71"/>
+      <c r="B71" s="66"/>
       <c r="C71" s="17" t="s">
         <v>423</v>
       </c>
@@ -7026,7 +7167,7 @@
       <c r="K71" s="28"/>
     </row>
     <row r="72" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="71" t="s">
+      <c r="B72" s="66" t="s">
         <v>427</v>
       </c>
       <c r="C72" s="17" t="s">
@@ -7041,7 +7182,7 @@
       <c r="K72" s="28"/>
     </row>
     <row r="73" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="71"/>
+      <c r="B73" s="66"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
         <v>398</v>
@@ -7053,7 +7194,7 @@
       <c r="K73" s="28"/>
     </row>
     <row r="74" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="71"/>
+      <c r="B74" s="66"/>
       <c r="C74" s="17" t="s">
         <v>516</v>
       </c>
@@ -7070,7 +7211,7 @@
       <c r="K74" s="28"/>
     </row>
     <row r="75" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="71"/>
+      <c r="B75" s="66"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17" t="s">
         <v>399</v>
@@ -7082,7 +7223,7 @@
       <c r="K75" s="28"/>
     </row>
     <row r="76" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="71" t="s">
+      <c r="B76" s="66" t="s">
         <v>540</v>
       </c>
       <c r="C76" s="17" t="s">
@@ -7097,7 +7238,7 @@
       <c r="K76" s="28"/>
     </row>
     <row r="77" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="71"/>
+      <c r="B77" s="66"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17" t="s">
         <v>413</v>
@@ -7108,7 +7249,7 @@
       <c r="K77" s="28"/>
     </row>
     <row r="78" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="71"/>
+      <c r="B78" s="66"/>
       <c r="C78" s="17" t="s">
         <v>400</v>
       </c>
@@ -7122,7 +7263,7 @@
       <c r="K78" s="28"/>
     </row>
     <row r="79" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="71"/>
+      <c r="B79" s="66"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17" t="s">
         <v>402</v>
@@ -7134,7 +7275,7 @@
       <c r="K79" s="28"/>
     </row>
     <row r="80" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B80" s="71" t="s">
+      <c r="B80" s="66" t="s">
         <v>548</v>
       </c>
       <c r="C80" s="17" t="s">
@@ -7148,7 +7289,7 @@
       <c r="K80" s="28"/>
     </row>
     <row r="81" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B81" s="71"/>
+      <c r="B81" s="66"/>
       <c r="C81" s="17" t="s">
         <v>542</v>
       </c>
@@ -7160,7 +7301,7 @@
       <c r="K81" s="28"/>
     </row>
     <row r="82" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B82" s="71" t="s">
+      <c r="B82" s="66" t="s">
         <v>524</v>
       </c>
       <c r="C82" s="17" t="s">
@@ -7174,7 +7315,7 @@
       <c r="K82" s="28"/>
     </row>
     <row r="83" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B83" s="71"/>
+      <c r="B83" s="66"/>
       <c r="C83" s="17" t="s">
         <v>537</v>
       </c>
@@ -7188,7 +7329,7 @@
       <c r="K83" s="28"/>
     </row>
     <row r="84" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B84" s="71"/>
+      <c r="B84" s="66"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17" t="s">
         <v>408</v>
@@ -7200,7 +7341,7 @@
       <c r="K84" s="28"/>
     </row>
     <row r="85" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B85" s="72"/>
+      <c r="B85" s="67"/>
       <c r="C85" s="19" t="s">
         <v>404</v>
       </c>
@@ -7227,14 +7368,14 @@
       <c r="K87" s="28"/>
     </row>
     <row r="88" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="65" t="s">
+      <c r="B88" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="C88" s="66"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="78"/>
+      <c r="C88" s="70"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="77"/>
       <c r="F88" s="50"/>
-      <c r="G88" s="67" t="s">
+      <c r="G88" s="71" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7254,10 +7395,10 @@
       <c r="F89" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G89" s="68"/>
+      <c r="G89" s="73"/>
     </row>
     <row r="90" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B90" s="74" t="s">
+      <c r="B90" s="68" t="s">
         <v>433</v>
       </c>
       <c r="C90" s="25" t="s">
@@ -7271,7 +7412,7 @@
       </c>
     </row>
     <row r="91" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="71"/>
+      <c r="B91" s="66"/>
       <c r="C91" s="17" t="s">
         <v>435</v>
       </c>
@@ -7282,7 +7423,7 @@
       </c>
     </row>
     <row r="92" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B92" s="71"/>
+      <c r="B92" s="66"/>
       <c r="C92" s="17" t="s">
         <v>436</v>
       </c>
@@ -7295,7 +7436,7 @@
       </c>
     </row>
     <row r="93" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B93" s="71"/>
+      <c r="B93" s="66"/>
       <c r="C93" s="17" t="s">
         <v>480</v>
       </c>
@@ -7306,7 +7447,7 @@
       </c>
     </row>
     <row r="94" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B94" s="71" t="s">
+      <c r="B94" s="66" t="s">
         <v>441</v>
       </c>
       <c r="C94" s="17" t="s">
@@ -7319,7 +7460,7 @@
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B95" s="71"/>
+      <c r="B95" s="66"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17" t="s">
         <v>418</v>
@@ -7328,7 +7469,7 @@
       <c r="G95" s="10"/>
     </row>
     <row r="96" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B96" s="71"/>
+      <c r="B96" s="66"/>
       <c r="C96" s="17" t="s">
         <v>547</v>
       </c>
@@ -7343,7 +7484,7 @@
       </c>
     </row>
     <row r="97" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B97" s="71"/>
+      <c r="B97" s="66"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17" t="s">
         <v>447</v>
@@ -7352,7 +7493,7 @@
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B98" s="71"/>
+      <c r="B98" s="66"/>
       <c r="C98" s="17" t="s">
         <v>448</v>
       </c>
@@ -7363,8 +7504,8 @@
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B99" s="71"/>
-      <c r="C99" s="75" t="s">
+      <c r="B99" s="66"/>
+      <c r="C99" s="76" t="s">
         <v>360</v>
       </c>
       <c r="D99" s="49" t="s">
@@ -7376,8 +7517,8 @@
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B100" s="71"/>
-      <c r="C100" s="75"/>
+      <c r="B100" s="66"/>
+      <c r="C100" s="76"/>
       <c r="D100" s="49" t="s">
         <v>485</v>
       </c>
@@ -7385,8 +7526,8 @@
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B101" s="71"/>
-      <c r="C101" s="75"/>
+      <c r="B101" s="66"/>
+      <c r="C101" s="76"/>
       <c r="D101" s="49" t="s">
         <v>487</v>
       </c>
@@ -7394,10 +7535,10 @@
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B102" s="71" t="s">
+      <c r="B102" s="66" t="s">
         <v>450</v>
       </c>
-      <c r="C102" s="75" t="s">
+      <c r="C102" s="76" t="s">
         <v>463</v>
       </c>
       <c r="D102" s="17" t="s">
@@ -7409,8 +7550,8 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B103" s="71"/>
-      <c r="C103" s="75"/>
+      <c r="B103" s="66"/>
+      <c r="C103" s="76"/>
       <c r="D103" s="17" t="s">
         <v>344</v>
       </c>
@@ -7420,8 +7561,8 @@
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B104" s="71"/>
-      <c r="C104" s="75"/>
+      <c r="B104" s="66"/>
+      <c r="C104" s="76"/>
       <c r="D104" s="17" t="s">
         <v>467</v>
       </c>
@@ -7431,8 +7572,8 @@
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B105" s="71"/>
-      <c r="C105" s="75"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="76"/>
       <c r="D105" s="17" t="s">
         <v>466</v>
       </c>
@@ -7442,8 +7583,8 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B106" s="71"/>
-      <c r="C106" s="75"/>
+      <c r="B106" s="66"/>
+      <c r="C106" s="76"/>
       <c r="D106" s="17" t="s">
         <v>488</v>
       </c>
@@ -7453,8 +7594,8 @@
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B107" s="71"/>
-      <c r="C107" s="75"/>
+      <c r="B107" s="66"/>
+      <c r="C107" s="76"/>
       <c r="D107" s="17" t="s">
         <v>489</v>
       </c>
@@ -7462,10 +7603,10 @@
       <c r="G107" s="10"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B108" s="71" t="s">
+      <c r="B108" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="C108" s="75" t="s">
+      <c r="C108" s="76" t="s">
         <v>456</v>
       </c>
       <c r="D108" s="49" t="s">
@@ -7477,8 +7618,8 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B109" s="71"/>
-      <c r="C109" s="75"/>
+      <c r="B109" s="66"/>
+      <c r="C109" s="76"/>
       <c r="D109" s="49" t="s">
         <v>461</v>
       </c>
@@ -7488,8 +7629,8 @@
       <c r="G109" s="10"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B110" s="71"/>
-      <c r="C110" s="75"/>
+      <c r="B110" s="66"/>
+      <c r="C110" s="76"/>
       <c r="D110" s="49" t="s">
         <v>458</v>
       </c>
@@ -7499,7 +7640,7 @@
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B111" s="71"/>
+      <c r="B111" s="66"/>
       <c r="C111" s="17" t="s">
         <v>469</v>
       </c>
@@ -7510,7 +7651,7 @@
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B112" s="71"/>
+      <c r="B112" s="66"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17" t="s">
         <v>474</v>
@@ -7519,7 +7660,7 @@
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B113" s="71"/>
+      <c r="B113" s="66"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17" t="s">
         <v>475</v>
@@ -7528,7 +7669,7 @@
       <c r="G113" s="10"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B114" s="71"/>
+      <c r="B114" s="66"/>
       <c r="C114" s="17" t="s">
         <v>358</v>
       </c>
@@ -7539,7 +7680,7 @@
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B115" s="71"/>
+      <c r="B115" s="66"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17" t="s">
         <v>372</v>
@@ -7548,7 +7689,7 @@
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B116" s="71"/>
+      <c r="B116" s="66"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17" t="s">
         <v>454</v>
@@ -7558,7 +7699,7 @@
       <c r="G116" s="8"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B117" s="71"/>
+      <c r="B117" s="66"/>
       <c r="C117" s="17" t="s">
         <v>364</v>
       </c>
@@ -7568,7 +7709,7 @@
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B118" s="71"/>
+      <c r="B118" s="66"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17" t="s">
         <v>378</v>
@@ -7576,7 +7717,7 @@
       <c r="E118" s="8"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B119" s="71"/>
+      <c r="B119" s="66"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17" t="s">
         <v>379</v>
@@ -7584,7 +7725,7 @@
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B120" s="71" t="s">
+      <c r="B120" s="66" t="s">
         <v>496</v>
       </c>
       <c r="C120" s="17" t="s">
@@ -7597,7 +7738,7 @@
       <c r="G120" s="10"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B121" s="71"/>
+      <c r="B121" s="66"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
         <v>482</v>
@@ -7606,7 +7747,7 @@
       <c r="G121" s="10"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B122" s="71"/>
+      <c r="B122" s="66"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17" t="s">
         <v>483</v>
@@ -7615,7 +7756,7 @@
       <c r="G122" s="10"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B123" s="71"/>
+      <c r="B123" s="66"/>
       <c r="C123" s="17" t="s">
         <v>404</v>
       </c>
@@ -7628,7 +7769,7 @@
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B124" s="71"/>
+      <c r="B124" s="66"/>
       <c r="C124" s="17" t="s">
         <v>409</v>
       </c>
@@ -7639,7 +7780,7 @@
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B125" s="71"/>
+      <c r="B125" s="66"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17" t="s">
         <v>382</v>
@@ -7648,7 +7789,7 @@
       <c r="G125" s="10"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B126" s="72"/>
+      <c r="B126" s="67"/>
       <c r="C126" s="19" t="s">
         <v>513</v>
       </c>
@@ -7815,39 +7956,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="B21:B32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B94:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="C102:C107"/>
     <mergeCell ref="B108:B119"/>
     <mergeCell ref="C108:C110"/>
     <mergeCell ref="B120:B126"/>
@@ -7863,6 +7971,39 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B54:E54"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="C102:C107"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9222,8 +9363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -9475,7 +9616,7 @@
         <v>612</v>
       </c>
       <c r="G9" s="60" t="s">
-        <v>677</v>
+        <v>846</v>
       </c>
       <c r="H9" s="60" t="s">
         <v>612</v>
@@ -9597,7 +9738,7 @@
         <v>612</v>
       </c>
       <c r="G13" s="60" t="s">
-        <v>640</v>
+        <v>847</v>
       </c>
       <c r="H13" s="60" t="s">
         <v>612</v>
@@ -12244,8 +12385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -12633,13 +12774,13 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="67" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71" t="s">
         <v>337</v>
       </c>
     </row>
@@ -12656,13 +12797,13 @@
       <c r="E3" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="63" t="s">
         <v>339</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -12672,8 +12813,8 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="12" t="s">
         <v>341</v>
       </c>
@@ -12681,8 +12822,8 @@
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="12" t="s">
         <v>59</v>
       </c>
@@ -12699,10 +12840,10 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="74" t="s">
         <v>497</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="63" t="s">
         <v>500</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -12713,7 +12854,7 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B9" s="70"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="64"/>
       <c r="D9" s="12" t="s">
         <v>504</v>
@@ -12725,10 +12866,10 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="63" t="s">
         <v>502</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="63" t="s">
         <v>501</v>
       </c>
       <c r="D10" s="16" t="s">
@@ -12738,8 +12879,8 @@
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="12" t="s">
         <v>479</v>
       </c>
@@ -12749,16 +12890,16 @@
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
       <c r="E12" s="12" t="s">
         <v>344</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B13" s="63"/>
-      <c r="C13" s="63" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="65" t="s">
         <v>345</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -12777,7 +12918,7 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="63" t="s">
         <v>348</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -12792,7 +12933,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B16" s="63"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
         <v>355</v>
@@ -12803,7 +12944,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B17" s="63"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12" t="s">
         <v>350</v>
@@ -12812,7 +12953,7 @@
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B18" s="63"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="12" t="s">
         <v>351</v>
       </c>
@@ -12823,7 +12964,7 @@
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B19" s="63"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
         <v>353</v>
@@ -12841,7 +12982,7 @@
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="63" t="s">
         <v>360</v>
       </c>
       <c r="C21" s="16" t="s">
@@ -12852,7 +12993,7 @@
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B22" s="63"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="12" t="s">
         <v>366</v>
       </c>
@@ -12868,7 +13009,7 @@
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="63" t="s">
         <v>385</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -12881,7 +13022,7 @@
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B25" s="63"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12" t="s">
         <v>369</v>
@@ -12890,7 +13031,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B26" s="63"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12" t="s">
         <v>370</v>
@@ -12899,7 +13040,7 @@
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B27" s="63"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="12" t="s">
         <v>358</v>
       </c>
@@ -12910,7 +13051,7 @@
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B28" s="63"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="s">
         <v>372</v>
@@ -12919,7 +13060,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B29" s="63"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12" t="s">
         <v>373</v>
@@ -12928,7 +13069,7 @@
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B30" s="63"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="12" t="s">
         <v>359</v>
       </c>
@@ -12939,7 +13080,7 @@
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B31" s="63"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12" t="s">
         <v>375</v>
@@ -12948,7 +13089,7 @@
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B32" s="63"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12" t="s">
         <v>376</v>
@@ -12957,7 +13098,7 @@
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B33" s="71"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="12" t="s">
         <v>364</v>
       </c>
@@ -12968,7 +13109,7 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B34" s="71"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="12"/>
       <c r="D34" s="29" t="s">
         <v>378</v>
@@ -12977,7 +13118,7 @@
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B35" s="72"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="18"/>
       <c r="D35" s="30" t="s">
         <v>379</v>
@@ -12986,7 +13127,7 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="63" t="s">
         <v>508</v>
       </c>
       <c r="C36" s="16" t="s">
@@ -12997,7 +13138,7 @@
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B37" s="63"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="12" t="s">
         <v>510</v>
       </c>
@@ -13015,7 +13156,7 @@
       <c r="F38" s="10"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="63" t="s">
         <v>361</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -13035,7 +13176,7 @@
       <c r="F40" s="10"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="63" t="s">
         <v>495</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -13048,7 +13189,7 @@
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B42" s="63"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12" t="s">
         <v>383</v>
@@ -13059,7 +13200,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B43" s="63"/>
+      <c r="B43" s="65"/>
       <c r="C43" s="29" t="s">
         <v>511</v>
       </c>
@@ -13070,7 +13211,7 @@
       <c r="F43" s="11"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="63" t="s">
         <v>362</v>
       </c>
       <c r="C44" s="16" t="s">
@@ -13081,7 +13222,7 @@
       <c r="F44" s="26"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B45" s="63"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="36" t="s">
         <v>498</v>
       </c>
@@ -13105,13 +13246,13 @@
       </c>
     </row>
     <row r="49" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="67" t="s">
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="71" t="s">
         <v>337</v>
       </c>
     </row>
@@ -13128,13 +13269,13 @@
       <c r="E50" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="F50" s="73"/>
+      <c r="F50" s="72"/>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
       <c r="J50" s="31"/>
     </row>
     <row r="51" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B51" s="74" t="s">
+      <c r="B51" s="68" t="s">
         <v>387</v>
       </c>
       <c r="C51" s="25" t="s">
@@ -13148,7 +13289,7 @@
       <c r="J51" s="28"/>
     </row>
     <row r="52" spans="2:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B52" s="71"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="17" t="s">
         <v>389</v>
       </c>
@@ -13157,7 +13298,7 @@
       <c r="F52" s="10"/>
     </row>
     <row r="53" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B53" s="71"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="17" t="s">
         <v>424</v>
       </c>
@@ -13177,7 +13318,7 @@
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B55" s="71" t="s">
+      <c r="B55" s="66" t="s">
         <v>390</v>
       </c>
       <c r="C55" s="17" t="s">
@@ -13193,7 +13334,7 @@
       <c r="J55" s="28"/>
     </row>
     <row r="56" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B56" s="71"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17" t="s">
         <v>418</v>
@@ -13204,7 +13345,7 @@
       <c r="J56" s="28"/>
     </row>
     <row r="57" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="71"/>
+      <c r="B57" s="66"/>
       <c r="C57" s="17" t="s">
         <v>392</v>
       </c>
@@ -13216,7 +13357,7 @@
       <c r="J57" s="28"/>
     </row>
     <row r="58" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="71"/>
+      <c r="B58" s="66"/>
       <c r="C58" s="17" t="s">
         <v>403</v>
       </c>
@@ -13230,7 +13371,7 @@
       <c r="J58" s="28"/>
     </row>
     <row r="59" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="71"/>
+      <c r="B59" s="66"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17" t="s">
         <v>415</v>
@@ -13242,7 +13383,7 @@
       <c r="J59" s="28"/>
     </row>
     <row r="60" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="71"/>
+      <c r="B60" s="66"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17" t="s">
         <v>416</v>
@@ -13254,7 +13395,7 @@
       <c r="J60" s="28"/>
     </row>
     <row r="61" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="71"/>
+      <c r="B61" s="66"/>
       <c r="D61" s="17" t="s">
         <v>428</v>
       </c>
@@ -13264,7 +13405,7 @@
       <c r="J61" s="28"/>
     </row>
     <row r="62" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="71" t="s">
+      <c r="B62" s="66" t="s">
         <v>393</v>
       </c>
       <c r="C62" t="s">
@@ -13280,7 +13421,7 @@
       <c r="J62" s="28"/>
     </row>
     <row r="63" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="71"/>
+      <c r="B63" s="66"/>
       <c r="D63" s="17" t="s">
         <v>422</v>
       </c>
@@ -13292,7 +13433,7 @@
       <c r="J63" s="28"/>
     </row>
     <row r="64" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="71"/>
+      <c r="B64" s="66"/>
       <c r="C64" s="17" t="s">
         <v>394</v>
       </c>
@@ -13305,7 +13446,7 @@
       <c r="J64" s="28"/>
     </row>
     <row r="65" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="71"/>
+      <c r="B65" s="66"/>
       <c r="D65" s="17" t="s">
         <v>420</v>
       </c>
@@ -13315,7 +13456,7 @@
       <c r="J65" s="28"/>
     </row>
     <row r="66" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="71"/>
+      <c r="B66" s="66"/>
       <c r="D66" s="17" t="s">
         <v>421</v>
       </c>
@@ -13325,7 +13466,7 @@
       <c r="J66" s="28"/>
     </row>
     <row r="67" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="71"/>
+      <c r="B67" s="66"/>
       <c r="C67" s="17" t="s">
         <v>423</v>
       </c>
@@ -13335,7 +13476,7 @@
       <c r="J67" s="28"/>
     </row>
     <row r="68" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="71" t="s">
+      <c r="B68" s="66" t="s">
         <v>427</v>
       </c>
       <c r="C68" s="17" t="s">
@@ -13350,7 +13491,7 @@
       <c r="J68" s="28"/>
     </row>
     <row r="69" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="71"/>
+      <c r="B69" s="66"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17" t="s">
         <v>398</v>
@@ -13362,7 +13503,7 @@
       <c r="J69" s="28"/>
     </row>
     <row r="70" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="71"/>
+      <c r="B70" s="66"/>
       <c r="C70" s="17" t="s">
         <v>516</v>
       </c>
@@ -13378,7 +13519,7 @@
       <c r="J70" s="28"/>
     </row>
     <row r="71" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="71"/>
+      <c r="B71" s="66"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17" t="s">
         <v>399</v>
@@ -13390,7 +13531,7 @@
       <c r="J71" s="28"/>
     </row>
     <row r="72" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="71" t="s">
+      <c r="B72" s="66" t="s">
         <v>430</v>
       </c>
       <c r="C72" s="17" t="s">
@@ -13405,7 +13546,7 @@
       <c r="J72" s="28"/>
     </row>
     <row r="73" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="71"/>
+      <c r="B73" s="66"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
         <v>413</v>
@@ -13416,7 +13557,7 @@
       <c r="J73" s="28"/>
     </row>
     <row r="74" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="71"/>
+      <c r="B74" s="66"/>
       <c r="C74" s="17" t="s">
         <v>400</v>
       </c>
@@ -13430,7 +13571,7 @@
       <c r="J74" s="28"/>
     </row>
     <row r="75" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="71"/>
+      <c r="B75" s="66"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17" t="s">
         <v>402</v>
@@ -13442,7 +13583,7 @@
       <c r="J75" s="28"/>
     </row>
     <row r="76" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="71"/>
+      <c r="B76" s="66"/>
       <c r="C76" s="17" t="s">
         <v>404</v>
       </c>
@@ -13456,7 +13597,7 @@
       <c r="J76" s="28"/>
     </row>
     <row r="77" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="71"/>
+      <c r="B77" s="66"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17" t="s">
         <v>517</v>
@@ -13468,7 +13609,7 @@
       <c r="J77" s="28"/>
     </row>
     <row r="78" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="71" t="s">
+      <c r="B78" s="66" t="s">
         <v>406</v>
       </c>
       <c r="C78" s="17" t="s">
@@ -13482,7 +13623,7 @@
       <c r="J78" s="28"/>
     </row>
     <row r="79" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="71"/>
+      <c r="B79" s="66"/>
       <c r="C79" s="17" t="s">
         <v>408</v>
       </c>
@@ -13519,13 +13660,13 @@
       <c r="J82" s="28"/>
     </row>
     <row r="83" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B83" s="65" t="s">
+      <c r="B83" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="C83" s="66"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="67" t="s">
+      <c r="C83" s="70"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="71" t="s">
         <v>337</v>
       </c>
     </row>
@@ -13542,10 +13683,10 @@
       <c r="E84" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F84" s="68"/>
+      <c r="F84" s="73"/>
     </row>
     <row r="85" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B85" s="74" t="s">
+      <c r="B85" s="68" t="s">
         <v>433</v>
       </c>
       <c r="C85" s="25" t="s">
@@ -13558,7 +13699,7 @@
       </c>
     </row>
     <row r="86" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B86" s="71"/>
+      <c r="B86" s="66"/>
       <c r="C86" s="17" t="s">
         <v>435</v>
       </c>
@@ -13569,7 +13710,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B87" s="71"/>
+      <c r="B87" s="66"/>
       <c r="C87" s="17" t="s">
         <v>436</v>
       </c>
@@ -13580,7 +13721,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="71"/>
+      <c r="B88" s="66"/>
       <c r="C88" s="17" t="s">
         <v>480</v>
       </c>
@@ -13591,7 +13732,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B89" s="71" t="s">
+      <c r="B89" s="66" t="s">
         <v>441</v>
       </c>
       <c r="C89" s="17" t="s">
@@ -13604,7 +13745,7 @@
       <c r="F89" s="10"/>
     </row>
     <row r="90" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B90" s="71"/>
+      <c r="B90" s="66"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17" t="s">
         <v>444</v>
@@ -13613,7 +13754,7 @@
       <c r="F90" s="10"/>
     </row>
     <row r="91" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="71"/>
+      <c r="B91" s="66"/>
       <c r="C91" s="17" t="s">
         <v>446</v>
       </c>
@@ -13624,7 +13765,7 @@
       <c r="F91" s="10"/>
     </row>
     <row r="92" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B92" s="71"/>
+      <c r="B92" s="66"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17" t="s">
         <v>447</v>
@@ -13633,7 +13774,7 @@
       <c r="F92" s="10"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B93" s="71"/>
+      <c r="B93" s="66"/>
       <c r="C93" s="17" t="s">
         <v>448</v>
       </c>
@@ -13644,7 +13785,7 @@
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B94" s="71" t="s">
+      <c r="B94" s="66" t="s">
         <v>455</v>
       </c>
       <c r="C94" s="17" t="s">
@@ -13656,7 +13797,7 @@
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B95" s="71"/>
+      <c r="B95" s="66"/>
       <c r="C95" s="17" t="s">
         <v>485</v>
       </c>
@@ -13664,7 +13805,7 @@
       <c r="F95" s="10"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B96" s="71"/>
+      <c r="B96" s="66"/>
       <c r="C96" s="17" t="s">
         <v>487</v>
       </c>
@@ -13672,7 +13813,7 @@
       <c r="F96" s="10"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B97" s="71" t="s">
+      <c r="B97" s="66" t="s">
         <v>450</v>
       </c>
       <c r="C97" s="17" t="s">
@@ -13685,7 +13826,7 @@
       <c r="F97" s="10"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B98" s="71"/>
+      <c r="B98" s="66"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17" t="s">
         <v>468</v>
@@ -13696,7 +13837,7 @@
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B99" s="71"/>
+      <c r="B99" s="66"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17" t="s">
         <v>467</v>
@@ -13707,7 +13848,7 @@
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B100" s="71"/>
+      <c r="B100" s="66"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17" t="s">
         <v>466</v>
@@ -13718,7 +13859,7 @@
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B101" s="71"/>
+      <c r="B101" s="66"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17" t="s">
         <v>488</v>
@@ -13729,7 +13870,7 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B102" s="71"/>
+      <c r="B102" s="66"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17" t="s">
         <v>489</v>
@@ -13738,7 +13879,7 @@
       <c r="F102" s="10"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B103" s="71" t="s">
+      <c r="B103" s="66" t="s">
         <v>451</v>
       </c>
       <c r="C103" s="17" t="s">
@@ -13751,7 +13892,7 @@
       <c r="F103" s="10"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B104" s="71"/>
+      <c r="B104" s="66"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17" t="s">
         <v>474</v>
@@ -13760,7 +13901,7 @@
       <c r="F104" s="10"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B105" s="71"/>
+      <c r="B105" s="66"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17" t="s">
         <v>475</v>
@@ -13769,7 +13910,7 @@
       <c r="F105" s="10"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B106" s="71"/>
+      <c r="B106" s="66"/>
       <c r="C106" s="17" t="s">
         <v>476</v>
       </c>
@@ -13780,7 +13921,7 @@
       <c r="F106" s="10"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B107" s="71"/>
+      <c r="B107" s="66"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17" t="s">
         <v>478</v>
@@ -13789,7 +13930,7 @@
       <c r="F107" s="10"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B108" s="71"/>
+      <c r="B108" s="66"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17" t="s">
         <v>454</v>
@@ -13798,7 +13939,7 @@
       <c r="F108" s="10"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B109" s="71"/>
+      <c r="B109" s="66"/>
       <c r="C109" s="17" t="s">
         <v>470</v>
       </c>
@@ -13811,7 +13952,7 @@
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B110" s="71"/>
+      <c r="B110" s="66"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
       <c r="E110" s="17" t="s">
@@ -13820,7 +13961,7 @@
       <c r="F110" s="10"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B111" s="71"/>
+      <c r="B111" s="66"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
       <c r="E111" s="17" t="s">
@@ -13829,7 +13970,7 @@
       <c r="F111" s="10"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B112" s="71" t="s">
+      <c r="B112" s="66" t="s">
         <v>456</v>
       </c>
       <c r="C112" s="17" t="s">
@@ -13842,7 +13983,7 @@
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B113" s="71"/>
+      <c r="B113" s="66"/>
       <c r="C113" s="17" t="s">
         <v>461</v>
       </c>
@@ -13853,7 +13994,7 @@
       <c r="F113" s="10"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B114" s="71"/>
+      <c r="B114" s="66"/>
       <c r="C114" s="17" t="s">
         <v>458</v>
       </c>
@@ -13864,7 +14005,7 @@
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B115" s="71" t="s">
+      <c r="B115" s="66" t="s">
         <v>496</v>
       </c>
       <c r="C115" s="17" t="s">
@@ -13877,7 +14018,7 @@
       <c r="F115" s="10"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B116" s="71"/>
+      <c r="B116" s="66"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17" t="s">
         <v>482</v>
@@ -13886,7 +14027,7 @@
       <c r="F116" s="10"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B117" s="71"/>
+      <c r="B117" s="66"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17" t="s">
         <v>483</v>
@@ -13895,7 +14036,7 @@
       <c r="F117" s="10"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B118" s="71"/>
+      <c r="B118" s="66"/>
       <c r="C118" s="17" t="s">
         <v>404</v>
       </c>
@@ -13908,7 +14049,7 @@
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B119" s="71"/>
+      <c r="B119" s="66"/>
       <c r="C119" s="17" t="s">
         <v>492</v>
       </c>
@@ -13919,7 +14060,7 @@
       <c r="F119" s="10"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B120" s="71"/>
+      <c r="B120" s="66"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17" t="s">
         <v>494</v>
@@ -13928,7 +14069,7 @@
       <c r="F120" s="10"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B121" s="72"/>
+      <c r="B121" s="67"/>
       <c r="C121" s="19" t="s">
         <v>513</v>
       </c>
@@ -14094,14 +14235,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B115:B121"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="F49:F50"/>
     <mergeCell ref="B94:B96"/>
     <mergeCell ref="B97:B102"/>
@@ -14114,19 +14260,14 @@
     <mergeCell ref="B62:B67"/>
     <mergeCell ref="B68:B71"/>
     <mergeCell ref="B72:B77"/>
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B115:B121"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B83:E83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14162,13 +14303,13 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="67" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71" t="s">
         <v>337</v>
       </c>
     </row>
@@ -14185,13 +14326,13 @@
       <c r="E3" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="73"/>
+      <c r="F3" s="72"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="79" t="s">
         <v>339</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -14201,8 +14342,8 @@
       <c r="F4" s="26"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B5" s="71"/>
-      <c r="C5" s="75"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="76"/>
       <c r="D5" s="17" t="s">
         <v>341</v>
       </c>
@@ -14210,8 +14351,8 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B6" s="71"/>
-      <c r="C6" s="75"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="17" t="s">
         <v>59</v>
       </c>
@@ -14219,7 +14360,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B7" s="71"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="46" t="s">
         <v>380</v>
       </c>
@@ -14230,10 +14371,10 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="66" t="s">
         <v>521</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="78" t="s">
         <v>500</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -14246,8 +14387,8 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B9" s="71"/>
-      <c r="C9" s="76"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="17" t="s">
         <v>504</v>
       </c>
@@ -14258,8 +14399,8 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B10" s="71"/>
-      <c r="C10" s="75" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="76" t="s">
         <v>501</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -14269,8 +14410,8 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B11" s="71"/>
-      <c r="C11" s="75"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="17" t="s">
         <v>479</v>
       </c>
@@ -14280,18 +14421,18 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B12" s="71"/>
-      <c r="C12" s="75"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="76"/>
       <c r="E12" s="17" t="s">
         <v>344</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="76" t="s">
         <v>349</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -14301,8 +14442,8 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B14" s="71"/>
-      <c r="C14" s="75"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="17" t="s">
         <v>355</v>
       </c>
@@ -14314,8 +14455,8 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B15" s="71"/>
-      <c r="C15" s="75"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17" t="s">
         <v>722</v>
@@ -14323,8 +14464,8 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B16" s="71"/>
-      <c r="C16" s="75"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="17" t="s">
         <v>350</v>
       </c>
@@ -14332,8 +14473,8 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B17" s="71"/>
-      <c r="C17" s="75" t="s">
+      <c r="B17" s="66"/>
+      <c r="C17" s="76" t="s">
         <v>360</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -14342,23 +14483,23 @@
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B18" s="71"/>
-      <c r="C18" s="75"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="17" t="s">
         <v>366</v>
       </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B19" s="71"/>
-      <c r="C19" s="75"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="17" t="s">
         <v>367</v>
       </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B20" s="71"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="37" t="s">
         <v>523</v>
       </c>
@@ -14366,10 +14507,10 @@
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="76" t="s">
         <v>508</v>
       </c>
       <c r="D21" s="17" t="s">
@@ -14378,24 +14519,24 @@
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B22" s="71"/>
-      <c r="C22" s="75"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="17" t="s">
         <v>510</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B23" s="71"/>
-      <c r="C23" s="75"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="17" t="s">
         <v>509</v>
       </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B24" s="71"/>
-      <c r="C24" s="75" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="76" t="s">
         <v>357</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -14404,24 +14545,24 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B25" s="71"/>
-      <c r="C25" s="75"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="17" t="s">
         <v>369</v>
       </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B26" s="71"/>
-      <c r="C26" s="75"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="17" t="s">
         <v>370</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B27" s="71"/>
-      <c r="C27" s="75" t="s">
+      <c r="B27" s="66"/>
+      <c r="C27" s="76" t="s">
         <v>358</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -14430,24 +14571,24 @@
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B28" s="71"/>
-      <c r="C28" s="75"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="17" t="s">
         <v>372</v>
       </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B29" s="71"/>
-      <c r="C29" s="75"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="17" t="s">
         <v>373</v>
       </c>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B30" s="71"/>
-      <c r="C30" s="75" t="s">
+      <c r="B30" s="66"/>
+      <c r="C30" s="76" t="s">
         <v>364</v>
       </c>
       <c r="D30" s="17" t="s">
@@ -14456,23 +14597,23 @@
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B31" s="71"/>
-      <c r="C31" s="75"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="17" t="s">
         <v>378</v>
       </c>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B32" s="71"/>
-      <c r="C32" s="75"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="17" t="s">
         <v>379</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="66" t="s">
         <v>524</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -14484,14 +14625,14 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B34" s="71"/>
+      <c r="B34" s="66"/>
       <c r="D34" s="17" t="s">
         <v>527</v>
       </c>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B35" s="71"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="17" t="s">
         <v>528</v>
       </c>
@@ -14501,7 +14642,7 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B36" s="71"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17" t="s">
         <v>353</v>
@@ -14509,7 +14650,7 @@
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B37" s="71"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
         <v>354</v>
@@ -14517,7 +14658,7 @@
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B38" s="71"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="17" t="s">
         <v>359</v>
       </c>
@@ -14527,7 +14668,7 @@
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B39" s="71"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17" t="s">
         <v>375</v>
@@ -14535,7 +14676,7 @@
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B40" s="71"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17" t="s">
         <v>376</v>
@@ -14544,7 +14685,7 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="66" t="s">
         <v>529</v>
       </c>
       <c r="C41" s="17" t="s">
@@ -14556,7 +14697,7 @@
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B42" s="71"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="17" t="s">
         <v>532</v>
       </c>
@@ -14566,7 +14707,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B43" s="71"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="17" t="s">
         <v>530</v>
       </c>
@@ -14574,7 +14715,7 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="66" t="s">
         <v>545</v>
       </c>
       <c r="C44" s="17" t="s">
@@ -14585,7 +14726,7 @@
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B45" s="71"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="17" t="s">
         <v>535</v>
       </c>
@@ -14596,7 +14737,7 @@
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="66" t="s">
         <v>543</v>
       </c>
       <c r="C46" s="37" t="s">
@@ -14607,7 +14748,7 @@
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B47" s="72"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="19" t="s">
         <v>126</v>
       </c>
@@ -14622,13 +14763,13 @@
       </c>
     </row>
     <row r="50" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="67" t="s">
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="71" t="s">
         <v>337</v>
       </c>
     </row>
@@ -14645,13 +14786,13 @@
       <c r="E51" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="F51" s="73"/>
+      <c r="F51" s="72"/>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
     </row>
     <row r="52" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B52" s="74" t="s">
+      <c r="B52" s="68" t="s">
         <v>387</v>
       </c>
       <c r="C52" s="25" t="s">
@@ -14665,7 +14806,7 @@
       <c r="J52" s="28"/>
     </row>
     <row r="53" spans="2:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B53" s="71"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="17" t="s">
         <v>389</v>
       </c>
@@ -14674,7 +14815,7 @@
       <c r="F53" s="10"/>
     </row>
     <row r="54" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B54" s="71"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="17" t="s">
         <v>424</v>
       </c>
@@ -14683,7 +14824,7 @@
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B55" s="71" t="s">
+      <c r="B55" s="66" t="s">
         <v>390</v>
       </c>
       <c r="C55" s="17" t="s">
@@ -14699,7 +14840,7 @@
       <c r="J55" s="28"/>
     </row>
     <row r="56" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B56" s="71"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17" t="s">
         <v>418</v>
@@ -14710,7 +14851,7 @@
       <c r="J56" s="28"/>
     </row>
     <row r="57" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="71"/>
+      <c r="B57" s="66"/>
       <c r="C57" s="17" t="s">
         <v>392</v>
       </c>
@@ -14722,7 +14863,7 @@
       <c r="J57" s="28"/>
     </row>
     <row r="58" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="71"/>
+      <c r="B58" s="66"/>
       <c r="C58" s="17" t="s">
         <v>403</v>
       </c>
@@ -14736,7 +14877,7 @@
       <c r="J58" s="28"/>
     </row>
     <row r="59" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="71"/>
+      <c r="B59" s="66"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17" t="s">
         <v>415</v>
@@ -14748,7 +14889,7 @@
       <c r="J59" s="28"/>
     </row>
     <row r="60" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="71"/>
+      <c r="B60" s="66"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17" t="s">
         <v>416</v>
@@ -14760,7 +14901,7 @@
       <c r="J60" s="28"/>
     </row>
     <row r="61" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="71"/>
+      <c r="B61" s="66"/>
       <c r="D61" s="17" t="s">
         <v>428</v>
       </c>
@@ -14770,7 +14911,7 @@
       <c r="J61" s="28"/>
     </row>
     <row r="62" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="71" t="s">
+      <c r="B62" s="66" t="s">
         <v>393</v>
       </c>
       <c r="C62" t="s">
@@ -14786,7 +14927,7 @@
       <c r="J62" s="28"/>
     </row>
     <row r="63" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="71"/>
+      <c r="B63" s="66"/>
       <c r="D63" s="17" t="s">
         <v>422</v>
       </c>
@@ -14798,7 +14939,7 @@
       <c r="J63" s="28"/>
     </row>
     <row r="64" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="71"/>
+      <c r="B64" s="66"/>
       <c r="C64" s="17" t="s">
         <v>736</v>
       </c>
@@ -14811,7 +14952,7 @@
       <c r="J64" s="28"/>
     </row>
     <row r="65" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="71"/>
+      <c r="B65" s="66"/>
       <c r="D65" s="17" t="s">
         <v>420</v>
       </c>
@@ -14821,7 +14962,7 @@
       <c r="J65" s="28"/>
     </row>
     <row r="66" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="71"/>
+      <c r="B66" s="66"/>
       <c r="D66" s="17" t="s">
         <v>421</v>
       </c>
@@ -14831,7 +14972,7 @@
       <c r="J66" s="28"/>
     </row>
     <row r="67" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="71"/>
+      <c r="B67" s="66"/>
       <c r="C67" s="17" t="s">
         <v>423</v>
       </c>
@@ -14841,7 +14982,7 @@
       <c r="J67" s="28"/>
     </row>
     <row r="68" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="71" t="s">
+      <c r="B68" s="66" t="s">
         <v>427</v>
       </c>
       <c r="C68" s="17" t="s">
@@ -14856,7 +14997,7 @@
       <c r="J68" s="28"/>
     </row>
     <row r="69" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="71"/>
+      <c r="B69" s="66"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17" t="s">
         <v>398</v>
@@ -14868,7 +15009,7 @@
       <c r="J69" s="28"/>
     </row>
     <row r="70" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="71"/>
+      <c r="B70" s="66"/>
       <c r="C70" s="17" t="s">
         <v>516</v>
       </c>
@@ -14884,7 +15025,7 @@
       <c r="J70" s="28"/>
     </row>
     <row r="71" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="71"/>
+      <c r="B71" s="66"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17" t="s">
         <v>399</v>
@@ -14896,7 +15037,7 @@
       <c r="J71" s="28"/>
     </row>
     <row r="72" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="71" t="s">
+      <c r="B72" s="66" t="s">
         <v>540</v>
       </c>
       <c r="C72" s="17" t="s">
@@ -14911,7 +15052,7 @@
       <c r="J72" s="28"/>
     </row>
     <row r="73" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="71"/>
+      <c r="B73" s="66"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
         <v>413</v>
@@ -14922,7 +15063,7 @@
       <c r="J73" s="28"/>
     </row>
     <row r="74" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="71"/>
+      <c r="B74" s="66"/>
       <c r="C74" s="17" t="s">
         <v>400</v>
       </c>
@@ -14936,7 +15077,7 @@
       <c r="J74" s="28"/>
     </row>
     <row r="75" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="71"/>
+      <c r="B75" s="66"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17" t="s">
         <v>402</v>
@@ -14948,7 +15089,7 @@
       <c r="J75" s="28"/>
     </row>
     <row r="76" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="71" t="s">
+      <c r="B76" s="66" t="s">
         <v>548</v>
       </c>
       <c r="C76" s="17" t="s">
@@ -14962,7 +15103,7 @@
       <c r="J76" s="28"/>
     </row>
     <row r="77" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="71"/>
+      <c r="B77" s="66"/>
       <c r="C77" s="17" t="s">
         <v>542</v>
       </c>
@@ -14974,7 +15115,7 @@
       <c r="J77" s="28"/>
     </row>
     <row r="78" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="71" t="s">
+      <c r="B78" s="66" t="s">
         <v>536</v>
       </c>
       <c r="C78" s="17" t="s">
@@ -14988,7 +15129,7 @@
       <c r="J78" s="28"/>
     </row>
     <row r="79" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="71"/>
+      <c r="B79" s="66"/>
       <c r="C79" s="17" t="s">
         <v>537</v>
       </c>
@@ -15002,7 +15143,7 @@
       <c r="J79" s="28"/>
     </row>
     <row r="80" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B80" s="71"/>
+      <c r="B80" s="66"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17" t="s">
         <v>408</v>
@@ -15014,7 +15155,7 @@
       <c r="J80" s="28"/>
     </row>
     <row r="81" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B81" s="72"/>
+      <c r="B81" s="67"/>
       <c r="C81" s="19" t="s">
         <v>538</v>
       </c>
@@ -15040,13 +15181,13 @@
       <c r="J83" s="28"/>
     </row>
     <row r="84" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B84" s="65" t="s">
+      <c r="B84" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="78"/>
-      <c r="F84" s="67" t="s">
+      <c r="C84" s="70"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="71" t="s">
         <v>337</v>
       </c>
     </row>
@@ -15063,10 +15204,10 @@
       <c r="E85" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F85" s="68"/>
+      <c r="F85" s="73"/>
     </row>
     <row r="86" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B86" s="74" t="s">
+      <c r="B86" s="68" t="s">
         <v>433</v>
       </c>
       <c r="C86" s="25" t="s">
@@ -15079,7 +15220,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B87" s="71"/>
+      <c r="B87" s="66"/>
       <c r="C87" s="17" t="s">
         <v>435</v>
       </c>
@@ -15090,7 +15231,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="71"/>
+      <c r="B88" s="66"/>
       <c r="C88" s="17" t="s">
         <v>436</v>
       </c>
@@ -15103,7 +15244,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B89" s="71"/>
+      <c r="B89" s="66"/>
       <c r="C89" s="17" t="s">
         <v>480</v>
       </c>
@@ -15114,7 +15255,7 @@
       </c>
     </row>
     <row r="90" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B90" s="71" t="s">
+      <c r="B90" s="66" t="s">
         <v>441</v>
       </c>
       <c r="C90" s="17" t="s">
@@ -15127,7 +15268,7 @@
       <c r="F90" s="10"/>
     </row>
     <row r="91" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="71"/>
+      <c r="B91" s="66"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17" t="s">
         <v>418</v>
@@ -15136,7 +15277,7 @@
       <c r="F91" s="10"/>
     </row>
     <row r="92" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B92" s="71"/>
+      <c r="B92" s="66"/>
       <c r="C92" s="17" t="s">
         <v>547</v>
       </c>
@@ -15151,7 +15292,7 @@
       </c>
     </row>
     <row r="93" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B93" s="71"/>
+      <c r="B93" s="66"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17" t="s">
         <v>447</v>
@@ -15160,7 +15301,7 @@
       <c r="F93" s="10"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B94" s="71"/>
+      <c r="B94" s="66"/>
       <c r="C94" s="17" t="s">
         <v>448</v>
       </c>
@@ -15171,8 +15312,8 @@
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B95" s="71"/>
-      <c r="C95" s="75" t="s">
+      <c r="B95" s="66"/>
+      <c r="C95" s="76" t="s">
         <v>455</v>
       </c>
       <c r="D95" s="49" t="s">
@@ -15184,8 +15325,8 @@
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B96" s="71"/>
-      <c r="C96" s="75"/>
+      <c r="B96" s="66"/>
+      <c r="C96" s="76"/>
       <c r="D96" s="49" t="s">
         <v>485</v>
       </c>
@@ -15193,8 +15334,8 @@
       <c r="F96" s="10"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B97" s="71"/>
-      <c r="C97" s="75"/>
+      <c r="B97" s="66"/>
+      <c r="C97" s="76"/>
       <c r="D97" s="49" t="s">
         <v>487</v>
       </c>
@@ -15202,10 +15343,10 @@
       <c r="F97" s="10"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B98" s="71" t="s">
+      <c r="B98" s="66" t="s">
         <v>450</v>
       </c>
-      <c r="C98" s="75" t="s">
+      <c r="C98" s="76" t="s">
         <v>463</v>
       </c>
       <c r="D98" s="17" t="s">
@@ -15217,8 +15358,8 @@
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B99" s="71"/>
-      <c r="C99" s="75"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="76"/>
       <c r="D99" s="17" t="s">
         <v>468</v>
       </c>
@@ -15228,8 +15369,8 @@
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B100" s="71"/>
-      <c r="C100" s="75"/>
+      <c r="B100" s="66"/>
+      <c r="C100" s="76"/>
       <c r="D100" s="17" t="s">
         <v>467</v>
       </c>
@@ -15239,8 +15380,8 @@
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B101" s="71"/>
-      <c r="C101" s="75"/>
+      <c r="B101" s="66"/>
+      <c r="C101" s="76"/>
       <c r="D101" s="17" t="s">
         <v>466</v>
       </c>
@@ -15250,8 +15391,8 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B102" s="71"/>
-      <c r="C102" s="75"/>
+      <c r="B102" s="66"/>
+      <c r="C102" s="76"/>
       <c r="D102" s="17" t="s">
         <v>488</v>
       </c>
@@ -15261,8 +15402,8 @@
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B103" s="71"/>
-      <c r="C103" s="75"/>
+      <c r="B103" s="66"/>
+      <c r="C103" s="76"/>
       <c r="D103" s="17" t="s">
         <v>489</v>
       </c>
@@ -15270,10 +15411,10 @@
       <c r="F103" s="10"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B104" s="71" t="s">
+      <c r="B104" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="C104" s="75" t="s">
+      <c r="C104" s="76" t="s">
         <v>456</v>
       </c>
       <c r="D104" s="49" t="s">
@@ -15285,8 +15426,8 @@
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B105" s="71"/>
-      <c r="C105" s="75"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="76"/>
       <c r="D105" s="49" t="s">
         <v>461</v>
       </c>
@@ -15296,8 +15437,8 @@
       <c r="F105" s="10"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B106" s="71"/>
-      <c r="C106" s="75"/>
+      <c r="B106" s="66"/>
+      <c r="C106" s="76"/>
       <c r="D106" s="49" t="s">
         <v>458</v>
       </c>
@@ -15307,7 +15448,7 @@
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B107" s="71"/>
+      <c r="B107" s="66"/>
       <c r="C107" s="17" t="s">
         <v>469</v>
       </c>
@@ -15318,7 +15459,7 @@
       <c r="F107" s="10"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B108" s="71"/>
+      <c r="B108" s="66"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17" t="s">
         <v>474</v>
@@ -15327,7 +15468,7 @@
       <c r="F108" s="10"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B109" s="71"/>
+      <c r="B109" s="66"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17" t="s">
         <v>475</v>
@@ -15336,7 +15477,7 @@
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B110" s="71"/>
+      <c r="B110" s="66"/>
       <c r="C110" s="17" t="s">
         <v>476</v>
       </c>
@@ -15347,7 +15488,7 @@
       <c r="F110" s="10"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B111" s="71"/>
+      <c r="B111" s="66"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17" t="s">
         <v>478</v>
@@ -15356,7 +15497,7 @@
       <c r="F111" s="10"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B112" s="71"/>
+      <c r="B112" s="66"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17" t="s">
         <v>454</v>
@@ -15365,7 +15506,7 @@
       <c r="F112" s="8"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B113" s="71"/>
+      <c r="B113" s="66"/>
       <c r="C113" s="17" t="s">
         <v>452</v>
       </c>
@@ -15375,7 +15516,7 @@
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B114" s="71"/>
+      <c r="B114" s="66"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17" t="s">
         <v>378</v>
@@ -15383,7 +15524,7 @@
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B115" s="71"/>
+      <c r="B115" s="66"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17" t="s">
         <v>473</v>
@@ -15391,7 +15532,7 @@
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B116" s="71" t="s">
+      <c r="B116" s="66" t="s">
         <v>496</v>
       </c>
       <c r="C116" s="17" t="s">
@@ -15404,7 +15545,7 @@
       <c r="F116" s="10"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B117" s="71"/>
+      <c r="B117" s="66"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17" t="s">
         <v>482</v>
@@ -15413,7 +15554,7 @@
       <c r="F117" s="10"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B118" s="71"/>
+      <c r="B118" s="66"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17" t="s">
         <v>483</v>
@@ -15422,7 +15563,7 @@
       <c r="F118" s="10"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B119" s="71"/>
+      <c r="B119" s="66"/>
       <c r="C119" s="17" t="s">
         <v>404</v>
       </c>
@@ -15435,7 +15576,7 @@
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B120" s="71"/>
+      <c r="B120" s="66"/>
       <c r="C120" s="17" t="s">
         <v>492</v>
       </c>
@@ -15446,7 +15587,7 @@
       <c r="F120" s="10"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B121" s="71"/>
+      <c r="B121" s="66"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
         <v>382</v>
@@ -15455,7 +15596,7 @@
       <c r="F121" s="10"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B122" s="72"/>
+      <c r="B122" s="67"/>
       <c r="C122" s="19" t="s">
         <v>513</v>
       </c>
@@ -15621,6 +15762,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="B90:B97"/>
+    <mergeCell ref="C98:C103"/>
     <mergeCell ref="C104:C106"/>
     <mergeCell ref="B116:B122"/>
     <mergeCell ref="B8:B12"/>
@@ -15637,28 +15800,6 @@
     <mergeCell ref="B68:B71"/>
     <mergeCell ref="B72:B75"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="B90:B97"/>
-    <mergeCell ref="C98:C103"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B50:E50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/메뉴구성도_IA - 김민아.xlsx
+++ b/메뉴구성도_IA - 김민아.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\als70\OneDrive\Desktop\삼성아카데미\samsung-lxp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E9B5BA-7918-4D5F-84AC-57BB0D0F08CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F76734-FA16-47D8-838E-7C6ACCDD71D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="740" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="740" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="화면구성도" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="850">
   <si>
     <t>메뉴</t>
   </si>
@@ -2972,6 +2972,14 @@
   </si>
   <si>
     <t>/instructor/proctor/exams/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/instructor/assignments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/instructor/proctor/exams/{id}/recordings</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3568,22 +3576,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3595,9 +3597,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3607,10 +3606,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3619,11 +3627,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4325,14 +4333,14 @@
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="24"/>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="69" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4352,10 +4360,10 @@
       <c r="F3" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G3" s="72"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="76" t="s">
         <v>338</v>
       </c>
       <c r="C4" s="79" t="s">
@@ -4365,33 +4373,33 @@
         <v>340</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="77" t="s">
         <v>755</v>
       </c>
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B5" s="66"/>
-      <c r="C5" s="76"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="17" t="s">
         <v>341</v>
       </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="76"/>
+      <c r="F5" s="77"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B6" s="66"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="76"/>
+      <c r="F6" s="77"/>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B7" s="66"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="46" t="s">
         <v>380</v>
       </c>
@@ -4412,17 +4420,17 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="76" t="s">
         <v>521</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="81" t="s">
         <v>500</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>503</v>
       </c>
       <c r="E9" s="25"/>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="77" t="s">
         <v>752</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -4431,51 +4439,51 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B10" s="66"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="78"/>
       <c r="D10" s="17" t="s">
         <v>504</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="76"/>
+      <c r="F10" s="77"/>
       <c r="G10" s="20" t="s">
         <v>505</v>
       </c>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B11" s="66"/>
-      <c r="C11" s="76" t="s">
+      <c r="B11" s="73"/>
+      <c r="C11" s="77" t="s">
         <v>463</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>342</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="77" t="s">
         <v>751</v>
       </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B12" s="66"/>
-      <c r="C12" s="76"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="17" t="s">
         <v>479</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F12" s="76"/>
+      <c r="F12" s="77"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B13" s="66"/>
-      <c r="C13" s="76"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="77"/>
       <c r="E13" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="F13" s="76"/>
+      <c r="F13" s="77"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.6">
@@ -4489,7 +4497,7 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="76" t="s">
         <v>348</v>
       </c>
       <c r="C15" s="79" t="s">
@@ -4499,76 +4507,76 @@
         <v>356</v>
       </c>
       <c r="E15" s="25"/>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="77" t="s">
         <v>754</v>
       </c>
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B16" s="66"/>
-      <c r="C16" s="76"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="17" t="s">
         <v>355</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="F16" s="76"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="8" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B17" s="66"/>
-      <c r="C17" s="76"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="F17" s="76"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" ht="17.649999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B18" s="66"/>
-      <c r="C18" s="76"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="55" t="s">
         <v>350</v>
       </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="76"/>
+      <c r="F18" s="77"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="B19" s="66"/>
-      <c r="D19" s="76" t="s">
+      <c r="B19" s="73"/>
+      <c r="D19" s="77" t="s">
         <v>360</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="F19" s="76"/>
+      <c r="F19" s="77"/>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B20" s="66"/>
-      <c r="D20" s="76"/>
+      <c r="B20" s="73"/>
+      <c r="D20" s="77"/>
       <c r="E20" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="F20" s="76"/>
+      <c r="F20" s="77"/>
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B21" s="66"/>
-      <c r="D21" s="76"/>
+      <c r="B21" s="73"/>
+      <c r="D21" s="77"/>
       <c r="E21" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="F21" s="76"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B22" s="66"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="37" t="s">
         <v>523</v>
       </c>
@@ -4589,7 +4597,7 @@
       <c r="G23" s="54"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="76" t="s">
         <v>742</v>
       </c>
       <c r="C24" s="79" t="s">
@@ -4599,120 +4607,120 @@
         <v>457</v>
       </c>
       <c r="E24" s="56"/>
-      <c r="F24" s="76" t="s">
+      <c r="F24" s="77" t="s">
         <v>756</v>
       </c>
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B25" s="66"/>
-      <c r="C25" s="76"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="F25" s="76"/>
+      <c r="F25" s="77"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B26" s="66"/>
-      <c r="C26" s="76"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="F26" s="76"/>
+      <c r="F26" s="77"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B27" s="66"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="17" t="s">
         <v>357</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="F27" s="76" t="s">
+      <c r="F27" s="77" t="s">
         <v>761</v>
       </c>
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B28" s="66"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="F28" s="76"/>
+      <c r="F28" s="77"/>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B29" s="66"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="F29" s="76"/>
+      <c r="F29" s="77"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B30" s="66"/>
-      <c r="C30" s="76" t="s">
+      <c r="B30" s="73"/>
+      <c r="C30" s="77" t="s">
         <v>358</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="F30" s="76" t="s">
+      <c r="F30" s="77" t="s">
         <v>757</v>
       </c>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B31" s="66"/>
-      <c r="C31" s="76"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="F31" s="76"/>
+      <c r="F31" s="77"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B32" s="66"/>
-      <c r="C32" s="76"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="F32" s="76"/>
+      <c r="F32" s="77"/>
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B33" s="66"/>
-      <c r="C33" s="76" t="s">
+      <c r="B33" s="73"/>
+      <c r="C33" s="77" t="s">
         <v>364</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="F33" s="76" t="s">
+      <c r="F33" s="77" t="s">
         <v>762</v>
       </c>
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B34" s="66"/>
-      <c r="C34" s="76"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="77"/>
       <c r="D34" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="F34" s="76"/>
+      <c r="F34" s="77"/>
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B35" s="66"/>
-      <c r="C35" s="76"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="77"/>
       <c r="D35" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="F35" s="76"/>
+      <c r="F35" s="77"/>
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.6">
@@ -4726,7 +4734,7 @@
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="76" t="s">
         <v>524</v>
       </c>
       <c r="C37" s="25" t="s">
@@ -4736,80 +4744,80 @@
         <v>526</v>
       </c>
       <c r="E37" s="56"/>
-      <c r="F37" s="76" t="s">
+      <c r="F37" s="77" t="s">
         <v>763</v>
       </c>
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B38" s="66"/>
+      <c r="B38" s="73"/>
       <c r="D38" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="F38" s="76"/>
+      <c r="F38" s="77"/>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B39" s="66"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="17" t="s">
         <v>528</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="F39" s="76" t="s">
+      <c r="F39" s="77" t="s">
         <v>764</v>
       </c>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B40" s="66"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="F40" s="76"/>
+      <c r="F40" s="77"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B41" s="66"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="F41" s="76"/>
+      <c r="F41" s="77"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B42" s="66"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="17" t="s">
         <v>359</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="F42" s="76" t="s">
+      <c r="F42" s="77" t="s">
         <v>765</v>
       </c>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B43" s="66"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="F43" s="76"/>
+      <c r="F43" s="77"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B44" s="66"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17" t="s">
         <v>376</v>
       </c>
       <c r="E44" s="17"/>
-      <c r="F44" s="76"/>
+      <c r="F44" s="77"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.6">
@@ -4823,7 +4831,7 @@
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="76" t="s">
         <v>529</v>
       </c>
       <c r="C46" s="25" t="s">
@@ -4839,7 +4847,7 @@
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B47" s="66"/>
+      <c r="B47" s="73"/>
       <c r="C47" s="17" t="s">
         <v>532</v>
       </c>
@@ -4852,7 +4860,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B48" s="66"/>
+      <c r="B48" s="73"/>
       <c r="C48" s="17" t="s">
         <v>530</v>
       </c>
@@ -4873,7 +4881,7 @@
       <c r="G49" s="9"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="76" t="s">
         <v>545</v>
       </c>
       <c r="C50" s="25" t="s">
@@ -4887,7 +4895,7 @@
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B51" s="66"/>
+      <c r="B51" s="73"/>
       <c r="C51" s="17" t="s">
         <v>535</v>
       </c>
@@ -4911,7 +4919,7 @@
       <c r="G52" s="9"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="73" t="s">
         <v>543</v>
       </c>
       <c r="C53" s="37" t="s">
@@ -4922,7 +4930,7 @@
       <c r="G53" s="8"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B54" s="67"/>
+      <c r="B54" s="74"/>
       <c r="C54" s="19" t="s">
         <v>126</v>
       </c>
@@ -4938,14 +4946,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="77"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="80"/>
       <c r="F57" s="50"/>
-      <c r="G57" s="71" t="s">
+      <c r="G57" s="69" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4965,13 +4973,13 @@
       <c r="F58" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G58" s="72"/>
+      <c r="G58" s="75"/>
       <c r="I58" s="31"/>
       <c r="J58" s="31"/>
       <c r="K58" s="31"/>
     </row>
     <row r="59" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="76" t="s">
         <v>387</v>
       </c>
       <c r="C59" s="25" t="s">
@@ -4986,7 +4994,7 @@
       <c r="K59" s="28"/>
     </row>
     <row r="60" spans="2:11" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="66"/>
+      <c r="B60" s="73"/>
       <c r="C60" s="17" t="s">
         <v>389</v>
       </c>
@@ -4996,7 +5004,7 @@
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="66"/>
+      <c r="B61" s="73"/>
       <c r="C61" s="17" t="s">
         <v>424</v>
       </c>
@@ -5005,7 +5013,7 @@
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="66" t="s">
+      <c r="B62" s="73" t="s">
         <v>390</v>
       </c>
       <c r="C62" s="17" t="s">
@@ -5021,7 +5029,7 @@
       <c r="K62" s="28"/>
     </row>
     <row r="63" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="66"/>
+      <c r="B63" s="73"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17" t="s">
         <v>418</v>
@@ -5032,7 +5040,7 @@
       <c r="K63" s="28"/>
     </row>
     <row r="64" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="66"/>
+      <c r="B64" s="73"/>
       <c r="C64" s="17" t="s">
         <v>392</v>
       </c>
@@ -5044,7 +5052,7 @@
       <c r="K64" s="28"/>
     </row>
     <row r="65" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="66"/>
+      <c r="B65" s="73"/>
       <c r="C65" s="17" t="s">
         <v>403</v>
       </c>
@@ -5058,7 +5066,7 @@
       <c r="K65" s="28"/>
     </row>
     <row r="66" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="66"/>
+      <c r="B66" s="73"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17" t="s">
         <v>415</v>
@@ -5070,7 +5078,7 @@
       <c r="K66" s="28"/>
     </row>
     <row r="67" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="66"/>
+      <c r="B67" s="73"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17" t="s">
         <v>416</v>
@@ -5082,7 +5090,7 @@
       <c r="K67" s="28"/>
     </row>
     <row r="68" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="66"/>
+      <c r="B68" s="73"/>
       <c r="D68" s="17" t="s">
         <v>428</v>
       </c>
@@ -5092,7 +5100,7 @@
       <c r="K68" s="28"/>
     </row>
     <row r="69" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="66" t="s">
+      <c r="B69" s="73" t="s">
         <v>393</v>
       </c>
       <c r="C69" t="s">
@@ -5108,7 +5116,7 @@
       <c r="K69" s="28"/>
     </row>
     <row r="70" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="66"/>
+      <c r="B70" s="73"/>
       <c r="D70" s="17" t="s">
         <v>422</v>
       </c>
@@ -5120,7 +5128,7 @@
       <c r="K70" s="28"/>
     </row>
     <row r="71" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="66"/>
+      <c r="B71" s="73"/>
       <c r="C71" s="17" t="s">
         <v>394</v>
       </c>
@@ -5133,7 +5141,7 @@
       <c r="K71" s="28"/>
     </row>
     <row r="72" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="66"/>
+      <c r="B72" s="73"/>
       <c r="D72" s="17" t="s">
         <v>420</v>
       </c>
@@ -5143,7 +5151,7 @@
       <c r="K72" s="28"/>
     </row>
     <row r="73" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="66"/>
+      <c r="B73" s="73"/>
       <c r="D73" s="17" t="s">
         <v>421</v>
       </c>
@@ -5153,7 +5161,7 @@
       <c r="K73" s="28"/>
     </row>
     <row r="74" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="66"/>
+      <c r="B74" s="73"/>
       <c r="C74" s="17" t="s">
         <v>423</v>
       </c>
@@ -5163,7 +5171,7 @@
       <c r="K74" s="28"/>
     </row>
     <row r="75" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="66" t="s">
+      <c r="B75" s="73" t="s">
         <v>427</v>
       </c>
       <c r="C75" s="17" t="s">
@@ -5178,7 +5186,7 @@
       <c r="K75" s="28"/>
     </row>
     <row r="76" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="66"/>
+      <c r="B76" s="73"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17" t="s">
         <v>398</v>
@@ -5190,7 +5198,7 @@
       <c r="K76" s="28"/>
     </row>
     <row r="77" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="66"/>
+      <c r="B77" s="73"/>
       <c r="C77" s="17" t="s">
         <v>516</v>
       </c>
@@ -5207,7 +5215,7 @@
       <c r="K77" s="28"/>
     </row>
     <row r="78" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="66"/>
+      <c r="B78" s="73"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17" t="s">
         <v>399</v>
@@ -5219,7 +5227,7 @@
       <c r="K78" s="28"/>
     </row>
     <row r="79" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="66" t="s">
+      <c r="B79" s="73" t="s">
         <v>540</v>
       </c>
       <c r="C79" s="17" t="s">
@@ -5234,7 +5242,7 @@
       <c r="K79" s="28"/>
     </row>
     <row r="80" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B80" s="66"/>
+      <c r="B80" s="73"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17" t="s">
         <v>413</v>
@@ -5245,7 +5253,7 @@
       <c r="K80" s="28"/>
     </row>
     <row r="81" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B81" s="66"/>
+      <c r="B81" s="73"/>
       <c r="C81" s="17" t="s">
         <v>400</v>
       </c>
@@ -5259,7 +5267,7 @@
       <c r="K81" s="28"/>
     </row>
     <row r="82" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B82" s="66"/>
+      <c r="B82" s="73"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17" t="s">
         <v>402</v>
@@ -5271,7 +5279,7 @@
       <c r="K82" s="28"/>
     </row>
     <row r="83" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B83" s="66" t="s">
+      <c r="B83" s="73" t="s">
         <v>548</v>
       </c>
       <c r="C83" s="17" t="s">
@@ -5285,7 +5293,7 @@
       <c r="K83" s="28"/>
     </row>
     <row r="84" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B84" s="66"/>
+      <c r="B84" s="73"/>
       <c r="C84" s="17" t="s">
         <v>542</v>
       </c>
@@ -5297,7 +5305,7 @@
       <c r="K84" s="28"/>
     </row>
     <row r="85" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B85" s="66" t="s">
+      <c r="B85" s="73" t="s">
         <v>524</v>
       </c>
       <c r="C85" s="17" t="s">
@@ -5311,7 +5319,7 @@
       <c r="K85" s="28"/>
     </row>
     <row r="86" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B86" s="66"/>
+      <c r="B86" s="73"/>
       <c r="C86" s="17" t="s">
         <v>537</v>
       </c>
@@ -5325,7 +5333,7 @@
       <c r="K86" s="28"/>
     </row>
     <row r="87" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B87" s="66"/>
+      <c r="B87" s="73"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17" t="s">
         <v>408</v>
@@ -5337,7 +5345,7 @@
       <c r="K87" s="28"/>
     </row>
     <row r="88" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="67"/>
+      <c r="B88" s="74"/>
       <c r="C88" s="19" t="s">
         <v>404</v>
       </c>
@@ -5364,14 +5372,14 @@
       <c r="K90" s="28"/>
     </row>
     <row r="91" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="69" t="s">
+      <c r="B91" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="C91" s="70"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="77"/>
+      <c r="C91" s="68"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="80"/>
       <c r="F91" s="50"/>
-      <c r="G91" s="71" t="s">
+      <c r="G91" s="69" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5391,10 +5399,10 @@
       <c r="F92" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G92" s="73"/>
+      <c r="G92" s="70"/>
     </row>
     <row r="93" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B93" s="68" t="s">
+      <c r="B93" s="76" t="s">
         <v>433</v>
       </c>
       <c r="C93" s="25" t="s">
@@ -5408,7 +5416,7 @@
       </c>
     </row>
     <row r="94" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B94" s="66"/>
+      <c r="B94" s="73"/>
       <c r="C94" s="17" t="s">
         <v>435</v>
       </c>
@@ -5419,7 +5427,7 @@
       </c>
     </row>
     <row r="95" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B95" s="66"/>
+      <c r="B95" s="73"/>
       <c r="C95" s="17" t="s">
         <v>436</v>
       </c>
@@ -5432,7 +5440,7 @@
       </c>
     </row>
     <row r="96" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B96" s="66"/>
+      <c r="B96" s="73"/>
       <c r="C96" s="17" t="s">
         <v>480</v>
       </c>
@@ -5443,7 +5451,7 @@
       </c>
     </row>
     <row r="97" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B97" s="66" t="s">
+      <c r="B97" s="73" t="s">
         <v>441</v>
       </c>
       <c r="C97" s="17" t="s">
@@ -5456,7 +5464,7 @@
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B98" s="66"/>
+      <c r="B98" s="73"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17" t="s">
         <v>418</v>
@@ -5465,7 +5473,7 @@
       <c r="G98" s="10"/>
     </row>
     <row r="99" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B99" s="66"/>
+      <c r="B99" s="73"/>
       <c r="C99" s="17" t="s">
         <v>547</v>
       </c>
@@ -5480,7 +5488,7 @@
       </c>
     </row>
     <row r="100" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B100" s="66"/>
+      <c r="B100" s="73"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17" t="s">
         <v>447</v>
@@ -5489,7 +5497,7 @@
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B101" s="66"/>
+      <c r="B101" s="73"/>
       <c r="C101" s="17" t="s">
         <v>448</v>
       </c>
@@ -5500,8 +5508,8 @@
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B102" s="66"/>
-      <c r="C102" s="76" t="s">
+      <c r="B102" s="73"/>
+      <c r="C102" s="77" t="s">
         <v>360</v>
       </c>
       <c r="D102" s="49" t="s">
@@ -5513,8 +5521,8 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B103" s="66"/>
-      <c r="C103" s="76"/>
+      <c r="B103" s="73"/>
+      <c r="C103" s="77"/>
       <c r="D103" s="49" t="s">
         <v>485</v>
       </c>
@@ -5522,8 +5530,8 @@
       <c r="G103" s="10"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B104" s="66"/>
-      <c r="C104" s="76"/>
+      <c r="B104" s="73"/>
+      <c r="C104" s="77"/>
       <c r="D104" s="49" t="s">
         <v>487</v>
       </c>
@@ -5531,10 +5539,10 @@
       <c r="G104" s="10"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B105" s="66" t="s">
+      <c r="B105" s="73" t="s">
         <v>450</v>
       </c>
-      <c r="C105" s="76" t="s">
+      <c r="C105" s="77" t="s">
         <v>463</v>
       </c>
       <c r="D105" s="17" t="s">
@@ -5546,8 +5554,8 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B106" s="66"/>
-      <c r="C106" s="76"/>
+      <c r="B106" s="73"/>
+      <c r="C106" s="77"/>
       <c r="D106" s="17" t="s">
         <v>344</v>
       </c>
@@ -5557,8 +5565,8 @@
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B107" s="66"/>
-      <c r="C107" s="76"/>
+      <c r="B107" s="73"/>
+      <c r="C107" s="77"/>
       <c r="D107" s="17" t="s">
         <v>467</v>
       </c>
@@ -5568,8 +5576,8 @@
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B108" s="66"/>
-      <c r="C108" s="76"/>
+      <c r="B108" s="73"/>
+      <c r="C108" s="77"/>
       <c r="D108" s="17" t="s">
         <v>466</v>
       </c>
@@ -5579,8 +5587,8 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B109" s="66"/>
-      <c r="C109" s="76"/>
+      <c r="B109" s="73"/>
+      <c r="C109" s="77"/>
       <c r="D109" s="17" t="s">
         <v>488</v>
       </c>
@@ -5590,8 +5598,8 @@
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B110" s="66"/>
-      <c r="C110" s="76"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="77"/>
       <c r="D110" s="17" t="s">
         <v>489</v>
       </c>
@@ -5599,10 +5607,10 @@
       <c r="G110" s="10"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B111" s="66" t="s">
+      <c r="B111" s="73" t="s">
         <v>385</v>
       </c>
-      <c r="C111" s="76" t="s">
+      <c r="C111" s="77" t="s">
         <v>456</v>
       </c>
       <c r="D111" s="49" t="s">
@@ -5614,8 +5622,8 @@
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B112" s="66"/>
-      <c r="C112" s="76"/>
+      <c r="B112" s="73"/>
+      <c r="C112" s="77"/>
       <c r="D112" s="49" t="s">
         <v>461</v>
       </c>
@@ -5625,8 +5633,8 @@
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B113" s="66"/>
-      <c r="C113" s="76"/>
+      <c r="B113" s="73"/>
+      <c r="C113" s="77"/>
       <c r="D113" s="49" t="s">
         <v>458</v>
       </c>
@@ -5636,7 +5644,7 @@
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B114" s="66"/>
+      <c r="B114" s="73"/>
       <c r="C114" s="17" t="s">
         <v>469</v>
       </c>
@@ -5647,7 +5655,7 @@
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B115" s="66"/>
+      <c r="B115" s="73"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17" t="s">
         <v>474</v>
@@ -5656,7 +5664,7 @@
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B116" s="66"/>
+      <c r="B116" s="73"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17" t="s">
         <v>475</v>
@@ -5665,7 +5673,7 @@
       <c r="G116" s="10"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B117" s="66"/>
+      <c r="B117" s="73"/>
       <c r="C117" s="17" t="s">
         <v>358</v>
       </c>
@@ -5676,7 +5684,7 @@
       <c r="G117" s="10"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B118" s="66"/>
+      <c r="B118" s="73"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17" t="s">
         <v>372</v>
@@ -5685,7 +5693,7 @@
       <c r="G118" s="10"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B119" s="66"/>
+      <c r="B119" s="73"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17" t="s">
         <v>454</v>
@@ -5695,7 +5703,7 @@
       <c r="G119" s="8"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B120" s="66"/>
+      <c r="B120" s="73"/>
       <c r="C120" s="17" t="s">
         <v>364</v>
       </c>
@@ -5705,7 +5713,7 @@
       <c r="E120" s="8"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B121" s="66"/>
+      <c r="B121" s="73"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
         <v>378</v>
@@ -5713,7 +5721,7 @@
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B122" s="66"/>
+      <c r="B122" s="73"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17" t="s">
         <v>379</v>
@@ -5721,7 +5729,7 @@
       <c r="E122" s="8"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B123" s="66" t="s">
+      <c r="B123" s="73" t="s">
         <v>496</v>
       </c>
       <c r="C123" s="17" t="s">
@@ -5734,7 +5742,7 @@
       <c r="G123" s="10"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B124" s="66"/>
+      <c r="B124" s="73"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17" t="s">
         <v>482</v>
@@ -5743,7 +5751,7 @@
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B125" s="66"/>
+      <c r="B125" s="73"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17" t="s">
         <v>483</v>
@@ -5752,7 +5760,7 @@
       <c r="G125" s="10"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B126" s="66"/>
+      <c r="B126" s="73"/>
       <c r="C126" s="17" t="s">
         <v>404</v>
       </c>
@@ -5765,7 +5773,7 @@
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B127" s="66"/>
+      <c r="B127" s="73"/>
       <c r="C127" s="17" t="s">
         <v>409</v>
       </c>
@@ -5776,7 +5784,7 @@
       <c r="G127" s="10"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B128" s="66"/>
+      <c r="B128" s="73"/>
       <c r="C128" s="17"/>
       <c r="D128" s="17" t="s">
         <v>382</v>
@@ -5785,7 +5793,7 @@
       <c r="G128" s="10"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B129" s="67"/>
+      <c r="B129" s="74"/>
       <c r="C129" s="19" t="s">
         <v>513</v>
       </c>
@@ -5952,38 +5960,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B84"/>
     <mergeCell ref="B123:B129"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F13"/>
@@ -6000,6 +5976,38 @@
     <mergeCell ref="C105:C110"/>
     <mergeCell ref="B111:B122"/>
     <mergeCell ref="C111:C113"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="F4:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6268,40 +6276,40 @@
       <c r="A8" s="17" t="s">
         <v>830</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="63" t="s">
         <v>819</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="63" t="s">
         <v>831</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="63" t="s">
         <v>810</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="63" t="s">
         <v>832</v>
       </c>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="63" t="s">
         <v>833</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="63" t="s">
         <v>834</v>
       </c>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="63" t="s">
         <v>835</v>
       </c>
-      <c r="I8" s="81" t="s">
+      <c r="I8" s="63" t="s">
         <v>836</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="63" t="s">
         <v>837</v>
       </c>
-      <c r="K8" s="81" t="s">
+      <c r="K8" s="63" t="s">
         <v>838</v>
       </c>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="63" t="s">
         <v>839</v>
       </c>
-      <c r="M8" s="81"/>
+      <c r="M8" s="63"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A9" s="17" t="s">
@@ -6365,14 +6373,14 @@
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="24"/>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="69" t="s">
         <v>337</v>
       </c>
     </row>
@@ -6392,10 +6400,10 @@
       <c r="F3" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G3" s="72"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="76" t="s">
         <v>338</v>
       </c>
       <c r="C4" s="79" t="s">
@@ -6405,33 +6413,33 @@
         <v>340</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="77" t="s">
         <v>755</v>
       </c>
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B5" s="66"/>
-      <c r="C5" s="76"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="17" t="s">
         <v>341</v>
       </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="76"/>
+      <c r="F5" s="77"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B6" s="66"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="76"/>
+      <c r="F6" s="77"/>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B7" s="66"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="46" t="s">
         <v>380</v>
       </c>
@@ -6452,17 +6460,17 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="76" t="s">
         <v>521</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="81" t="s">
         <v>500</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>503</v>
       </c>
       <c r="E9" s="25"/>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="77" t="s">
         <v>752</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -6471,51 +6479,51 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B10" s="66"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="78"/>
       <c r="D10" s="17" t="s">
         <v>504</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="76"/>
+      <c r="F10" s="77"/>
       <c r="G10" s="20" t="s">
         <v>505</v>
       </c>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B11" s="66"/>
-      <c r="C11" s="76" t="s">
+      <c r="B11" s="73"/>
+      <c r="C11" s="77" t="s">
         <v>463</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>342</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="77" t="s">
         <v>751</v>
       </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B12" s="66"/>
-      <c r="C12" s="76"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="17" t="s">
         <v>479</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F12" s="76"/>
+      <c r="F12" s="77"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B13" s="66"/>
-      <c r="C13" s="76"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="77"/>
       <c r="E13" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="F13" s="76"/>
+      <c r="F13" s="77"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.6">
@@ -6529,7 +6537,7 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="76" t="s">
         <v>348</v>
       </c>
       <c r="C15" s="79" t="s">
@@ -6539,44 +6547,44 @@
         <v>356</v>
       </c>
       <c r="E15" s="25"/>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="77" t="s">
         <v>754</v>
       </c>
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B16" s="66"/>
-      <c r="C16" s="76"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="17" t="s">
         <v>355</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="F16" s="76"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="8" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B17" s="66"/>
-      <c r="C17" s="76"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="F17" s="76"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B18" s="66"/>
-      <c r="C18" s="76"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="77"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="76"/>
+      <c r="F18" s="77"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B19" s="66"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="37" t="s">
         <v>523</v>
       </c>
@@ -6597,14 +6605,14 @@
       <c r="G20" s="54"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="76" t="s">
         <v>451</v>
       </c>
       <c r="C21" s="79" t="s">
         <v>516</v>
       </c>
       <c r="D21" s="56"/>
-      <c r="F21" s="76" t="s">
+      <c r="F21" s="77" t="s">
         <v>756</v>
       </c>
       <c r="G21" s="26" t="s">
@@ -6612,111 +6620,111 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B22" s="66"/>
-      <c r="C22" s="76"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="77"/>
       <c r="D22" t="s">
         <v>770</v>
       </c>
-      <c r="F22" s="76"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B23" s="66"/>
-      <c r="C23" s="76"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="77"/>
       <c r="D23" t="s">
         <v>771</v>
       </c>
-      <c r="F23" s="76"/>
+      <c r="F23" s="77"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B24" s="66"/>
-      <c r="C24" s="76" t="s">
+      <c r="B24" s="73"/>
+      <c r="C24" s="77" t="s">
         <v>769</v>
       </c>
-      <c r="F24" s="76" t="s">
+      <c r="F24" s="77" t="s">
         <v>761</v>
       </c>
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B25" s="66"/>
-      <c r="C25" s="76"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="77"/>
       <c r="D25" t="s">
         <v>772</v>
       </c>
-      <c r="F25" s="76"/>
+      <c r="F25" s="77"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B26" s="66"/>
-      <c r="C26" s="76"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="77"/>
       <c r="D26" t="s">
         <v>773</v>
       </c>
-      <c r="F26" s="76"/>
+      <c r="F26" s="77"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B27" s="66"/>
-      <c r="C27" s="76" t="s">
+      <c r="B27" s="73"/>
+      <c r="C27" s="77" t="s">
         <v>358</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="F27" s="76" t="s">
+      <c r="F27" s="77" t="s">
         <v>757</v>
       </c>
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B28" s="66"/>
-      <c r="C28" s="76"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="F28" s="76"/>
+      <c r="F28" s="77"/>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B29" s="66"/>
-      <c r="C29" s="76"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="77"/>
       <c r="D29" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="F29" s="76"/>
+      <c r="F29" s="77"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B30" s="66"/>
-      <c r="C30" s="76" t="s">
+      <c r="B30" s="73"/>
+      <c r="C30" s="77" t="s">
         <v>364</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="F30" s="76" t="s">
+      <c r="F30" s="77" t="s">
         <v>762</v>
       </c>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B31" s="66"/>
-      <c r="C31" s="76"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="F31" s="76"/>
+      <c r="F31" s="77"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B32" s="66"/>
-      <c r="C32" s="76"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="F32" s="76"/>
+      <c r="F32" s="77"/>
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.6">
@@ -6730,7 +6738,7 @@
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="76" t="s">
         <v>524</v>
       </c>
       <c r="C34" s="25" t="s">
@@ -6740,80 +6748,80 @@
         <v>526</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="76" t="s">
+      <c r="F34" s="77" t="s">
         <v>763</v>
       </c>
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B35" s="66"/>
+      <c r="B35" s="73"/>
       <c r="D35" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="F35" s="76"/>
+      <c r="F35" s="77"/>
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B36" s="66"/>
+      <c r="B36" s="73"/>
       <c r="C36" s="17" t="s">
         <v>528</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="F36" s="76" t="s">
+      <c r="F36" s="77" t="s">
         <v>764</v>
       </c>
       <c r="G36" s="8"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B37" s="66"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="F37" s="76"/>
+      <c r="F37" s="77"/>
       <c r="G37" s="8"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B38" s="66"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="F38" s="76"/>
+      <c r="F38" s="77"/>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B39" s="66"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="17" t="s">
         <v>359</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="F39" s="76" t="s">
+      <c r="F39" s="77" t="s">
         <v>765</v>
       </c>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B40" s="66"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="F40" s="76"/>
+      <c r="F40" s="77"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B41" s="66"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17" t="s">
         <v>376</v>
       </c>
       <c r="E41" s="17"/>
-      <c r="F41" s="76"/>
+      <c r="F41" s="77"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.6">
@@ -6827,7 +6835,7 @@
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="76" t="s">
         <v>529</v>
       </c>
       <c r="C43" s="25" t="s">
@@ -6843,7 +6851,7 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B44" s="66"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="17" t="s">
         <v>532</v>
       </c>
@@ -6856,7 +6864,7 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B45" s="66"/>
+      <c r="B45" s="73"/>
       <c r="C45" s="17" t="s">
         <v>530</v>
       </c>
@@ -6877,7 +6885,7 @@
       <c r="G46" s="9"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="76" t="s">
         <v>545</v>
       </c>
       <c r="C47" s="25" t="s">
@@ -6891,7 +6899,7 @@
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B48" s="66"/>
+      <c r="B48" s="73"/>
       <c r="C48" s="17" t="s">
         <v>535</v>
       </c>
@@ -6915,7 +6923,7 @@
       <c r="G49" s="9"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="73" t="s">
         <v>543</v>
       </c>
       <c r="C50" s="37" t="s">
@@ -6926,7 +6934,7 @@
       <c r="G50" s="8"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B51" s="67"/>
+      <c r="B51" s="74"/>
       <c r="C51" s="19" t="s">
         <v>126</v>
       </c>
@@ -6942,14 +6950,14 @@
       </c>
     </row>
     <row r="54" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B54" s="69" t="s">
+      <c r="B54" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="77"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="80"/>
       <c r="F54" s="50"/>
-      <c r="G54" s="71" t="s">
+      <c r="G54" s="69" t="s">
         <v>337</v>
       </c>
     </row>
@@ -6969,13 +6977,13 @@
       <c r="F55" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G55" s="72"/>
+      <c r="G55" s="75"/>
       <c r="I55" s="31"/>
       <c r="J55" s="31"/>
       <c r="K55" s="31"/>
     </row>
     <row r="56" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B56" s="68" t="s">
+      <c r="B56" s="76" t="s">
         <v>387</v>
       </c>
       <c r="C56" s="25" t="s">
@@ -6990,7 +6998,7 @@
       <c r="K56" s="28"/>
     </row>
     <row r="57" spans="2:11" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="66"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="17" t="s">
         <v>389</v>
       </c>
@@ -7000,7 +7008,7 @@
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="66"/>
+      <c r="B58" s="73"/>
       <c r="C58" s="17" t="s">
         <v>424</v>
       </c>
@@ -7009,7 +7017,7 @@
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="66" t="s">
+      <c r="B59" s="73" t="s">
         <v>390</v>
       </c>
       <c r="C59" s="17" t="s">
@@ -7025,7 +7033,7 @@
       <c r="K59" s="28"/>
     </row>
     <row r="60" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="66"/>
+      <c r="B60" s="73"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17" t="s">
         <v>418</v>
@@ -7036,7 +7044,7 @@
       <c r="K60" s="28"/>
     </row>
     <row r="61" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="66"/>
+      <c r="B61" s="73"/>
       <c r="C61" s="17" t="s">
         <v>392</v>
       </c>
@@ -7048,7 +7056,7 @@
       <c r="K61" s="28"/>
     </row>
     <row r="62" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="66"/>
+      <c r="B62" s="73"/>
       <c r="C62" s="17" t="s">
         <v>403</v>
       </c>
@@ -7062,7 +7070,7 @@
       <c r="K62" s="28"/>
     </row>
     <row r="63" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="66"/>
+      <c r="B63" s="73"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17" t="s">
         <v>415</v>
@@ -7074,7 +7082,7 @@
       <c r="K63" s="28"/>
     </row>
     <row r="64" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="66"/>
+      <c r="B64" s="73"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17" t="s">
         <v>416</v>
@@ -7086,7 +7094,7 @@
       <c r="K64" s="28"/>
     </row>
     <row r="65" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="66"/>
+      <c r="B65" s="73"/>
       <c r="D65" s="17" t="s">
         <v>428</v>
       </c>
@@ -7096,7 +7104,7 @@
       <c r="K65" s="28"/>
     </row>
     <row r="66" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="66" t="s">
+      <c r="B66" s="73" t="s">
         <v>393</v>
       </c>
       <c r="C66" t="s">
@@ -7112,7 +7120,7 @@
       <c r="K66" s="28"/>
     </row>
     <row r="67" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="66"/>
+      <c r="B67" s="73"/>
       <c r="D67" s="17" t="s">
         <v>422</v>
       </c>
@@ -7124,7 +7132,7 @@
       <c r="K67" s="28"/>
     </row>
     <row r="68" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="66"/>
+      <c r="B68" s="73"/>
       <c r="C68" s="17" t="s">
         <v>394</v>
       </c>
@@ -7137,7 +7145,7 @@
       <c r="K68" s="28"/>
     </row>
     <row r="69" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="66"/>
+      <c r="B69" s="73"/>
       <c r="D69" s="17" t="s">
         <v>420</v>
       </c>
@@ -7147,7 +7155,7 @@
       <c r="K69" s="28"/>
     </row>
     <row r="70" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="66"/>
+      <c r="B70" s="73"/>
       <c r="D70" s="17" t="s">
         <v>421</v>
       </c>
@@ -7157,7 +7165,7 @@
       <c r="K70" s="28"/>
     </row>
     <row r="71" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="66"/>
+      <c r="B71" s="73"/>
       <c r="C71" s="17" t="s">
         <v>423</v>
       </c>
@@ -7167,7 +7175,7 @@
       <c r="K71" s="28"/>
     </row>
     <row r="72" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="66" t="s">
+      <c r="B72" s="73" t="s">
         <v>427</v>
       </c>
       <c r="C72" s="17" t="s">
@@ -7182,7 +7190,7 @@
       <c r="K72" s="28"/>
     </row>
     <row r="73" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="66"/>
+      <c r="B73" s="73"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
         <v>398</v>
@@ -7194,7 +7202,7 @@
       <c r="K73" s="28"/>
     </row>
     <row r="74" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="66"/>
+      <c r="B74" s="73"/>
       <c r="C74" s="17" t="s">
         <v>516</v>
       </c>
@@ -7211,7 +7219,7 @@
       <c r="K74" s="28"/>
     </row>
     <row r="75" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="66"/>
+      <c r="B75" s="73"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17" t="s">
         <v>399</v>
@@ -7223,7 +7231,7 @@
       <c r="K75" s="28"/>
     </row>
     <row r="76" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="66" t="s">
+      <c r="B76" s="73" t="s">
         <v>540</v>
       </c>
       <c r="C76" s="17" t="s">
@@ -7238,7 +7246,7 @@
       <c r="K76" s="28"/>
     </row>
     <row r="77" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="66"/>
+      <c r="B77" s="73"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17" t="s">
         <v>413</v>
@@ -7249,7 +7257,7 @@
       <c r="K77" s="28"/>
     </row>
     <row r="78" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="66"/>
+      <c r="B78" s="73"/>
       <c r="C78" s="17" t="s">
         <v>400</v>
       </c>
@@ -7263,7 +7271,7 @@
       <c r="K78" s="28"/>
     </row>
     <row r="79" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="66"/>
+      <c r="B79" s="73"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17" t="s">
         <v>402</v>
@@ -7275,7 +7283,7 @@
       <c r="K79" s="28"/>
     </row>
     <row r="80" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B80" s="66" t="s">
+      <c r="B80" s="73" t="s">
         <v>548</v>
       </c>
       <c r="C80" s="17" t="s">
@@ -7289,7 +7297,7 @@
       <c r="K80" s="28"/>
     </row>
     <row r="81" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B81" s="66"/>
+      <c r="B81" s="73"/>
       <c r="C81" s="17" t="s">
         <v>542</v>
       </c>
@@ -7301,7 +7309,7 @@
       <c r="K81" s="28"/>
     </row>
     <row r="82" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B82" s="66" t="s">
+      <c r="B82" s="73" t="s">
         <v>524</v>
       </c>
       <c r="C82" s="17" t="s">
@@ -7315,7 +7323,7 @@
       <c r="K82" s="28"/>
     </row>
     <row r="83" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B83" s="66"/>
+      <c r="B83" s="73"/>
       <c r="C83" s="17" t="s">
         <v>537</v>
       </c>
@@ -7329,7 +7337,7 @@
       <c r="K83" s="28"/>
     </row>
     <row r="84" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B84" s="66"/>
+      <c r="B84" s="73"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17" t="s">
         <v>408</v>
@@ -7341,7 +7349,7 @@
       <c r="K84" s="28"/>
     </row>
     <row r="85" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B85" s="67"/>
+      <c r="B85" s="74"/>
       <c r="C85" s="19" t="s">
         <v>404</v>
       </c>
@@ -7368,14 +7376,14 @@
       <c r="K87" s="28"/>
     </row>
     <row r="88" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="69" t="s">
+      <c r="B88" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="C88" s="70"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="77"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="80"/>
       <c r="F88" s="50"/>
-      <c r="G88" s="71" t="s">
+      <c r="G88" s="69" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7395,10 +7403,10 @@
       <c r="F89" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G89" s="73"/>
+      <c r="G89" s="70"/>
     </row>
     <row r="90" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B90" s="68" t="s">
+      <c r="B90" s="76" t="s">
         <v>433</v>
       </c>
       <c r="C90" s="25" t="s">
@@ -7412,7 +7420,7 @@
       </c>
     </row>
     <row r="91" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="66"/>
+      <c r="B91" s="73"/>
       <c r="C91" s="17" t="s">
         <v>435</v>
       </c>
@@ -7423,7 +7431,7 @@
       </c>
     </row>
     <row r="92" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B92" s="66"/>
+      <c r="B92" s="73"/>
       <c r="C92" s="17" t="s">
         <v>436</v>
       </c>
@@ -7436,7 +7444,7 @@
       </c>
     </row>
     <row r="93" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B93" s="66"/>
+      <c r="B93" s="73"/>
       <c r="C93" s="17" t="s">
         <v>480</v>
       </c>
@@ -7447,7 +7455,7 @@
       </c>
     </row>
     <row r="94" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B94" s="66" t="s">
+      <c r="B94" s="73" t="s">
         <v>441</v>
       </c>
       <c r="C94" s="17" t="s">
@@ -7460,7 +7468,7 @@
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B95" s="66"/>
+      <c r="B95" s="73"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17" t="s">
         <v>418</v>
@@ -7469,7 +7477,7 @@
       <c r="G95" s="10"/>
     </row>
     <row r="96" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B96" s="66"/>
+      <c r="B96" s="73"/>
       <c r="C96" s="17" t="s">
         <v>547</v>
       </c>
@@ -7484,7 +7492,7 @@
       </c>
     </row>
     <row r="97" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B97" s="66"/>
+      <c r="B97" s="73"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17" t="s">
         <v>447</v>
@@ -7493,7 +7501,7 @@
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B98" s="66"/>
+      <c r="B98" s="73"/>
       <c r="C98" s="17" t="s">
         <v>448</v>
       </c>
@@ -7504,8 +7512,8 @@
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B99" s="66"/>
-      <c r="C99" s="76" t="s">
+      <c r="B99" s="73"/>
+      <c r="C99" s="77" t="s">
         <v>360</v>
       </c>
       <c r="D99" s="49" t="s">
@@ -7517,8 +7525,8 @@
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B100" s="66"/>
-      <c r="C100" s="76"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="77"/>
       <c r="D100" s="49" t="s">
         <v>485</v>
       </c>
@@ -7526,8 +7534,8 @@
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B101" s="66"/>
-      <c r="C101" s="76"/>
+      <c r="B101" s="73"/>
+      <c r="C101" s="77"/>
       <c r="D101" s="49" t="s">
         <v>487</v>
       </c>
@@ -7535,10 +7543,10 @@
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B102" s="66" t="s">
+      <c r="B102" s="73" t="s">
         <v>450</v>
       </c>
-      <c r="C102" s="76" t="s">
+      <c r="C102" s="77" t="s">
         <v>463</v>
       </c>
       <c r="D102" s="17" t="s">
@@ -7550,8 +7558,8 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B103" s="66"/>
-      <c r="C103" s="76"/>
+      <c r="B103" s="73"/>
+      <c r="C103" s="77"/>
       <c r="D103" s="17" t="s">
         <v>344</v>
       </c>
@@ -7561,8 +7569,8 @@
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B104" s="66"/>
-      <c r="C104" s="76"/>
+      <c r="B104" s="73"/>
+      <c r="C104" s="77"/>
       <c r="D104" s="17" t="s">
         <v>467</v>
       </c>
@@ -7572,8 +7580,8 @@
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B105" s="66"/>
-      <c r="C105" s="76"/>
+      <c r="B105" s="73"/>
+      <c r="C105" s="77"/>
       <c r="D105" s="17" t="s">
         <v>466</v>
       </c>
@@ -7583,8 +7591,8 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B106" s="66"/>
-      <c r="C106" s="76"/>
+      <c r="B106" s="73"/>
+      <c r="C106" s="77"/>
       <c r="D106" s="17" t="s">
         <v>488</v>
       </c>
@@ -7594,8 +7602,8 @@
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B107" s="66"/>
-      <c r="C107" s="76"/>
+      <c r="B107" s="73"/>
+      <c r="C107" s="77"/>
       <c r="D107" s="17" t="s">
         <v>489</v>
       </c>
@@ -7603,10 +7611,10 @@
       <c r="G107" s="10"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B108" s="66" t="s">
+      <c r="B108" s="73" t="s">
         <v>385</v>
       </c>
-      <c r="C108" s="76" t="s">
+      <c r="C108" s="77" t="s">
         <v>456</v>
       </c>
       <c r="D108" s="49" t="s">
@@ -7618,8 +7626,8 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B109" s="66"/>
-      <c r="C109" s="76"/>
+      <c r="B109" s="73"/>
+      <c r="C109" s="77"/>
       <c r="D109" s="49" t="s">
         <v>461</v>
       </c>
@@ -7629,8 +7637,8 @@
       <c r="G109" s="10"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B110" s="66"/>
-      <c r="C110" s="76"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="77"/>
       <c r="D110" s="49" t="s">
         <v>458</v>
       </c>
@@ -7640,7 +7648,7 @@
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B111" s="66"/>
+      <c r="B111" s="73"/>
       <c r="C111" s="17" t="s">
         <v>469</v>
       </c>
@@ -7651,7 +7659,7 @@
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B112" s="66"/>
+      <c r="B112" s="73"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17" t="s">
         <v>474</v>
@@ -7660,7 +7668,7 @@
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B113" s="66"/>
+      <c r="B113" s="73"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17" t="s">
         <v>475</v>
@@ -7669,7 +7677,7 @@
       <c r="G113" s="10"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B114" s="66"/>
+      <c r="B114" s="73"/>
       <c r="C114" s="17" t="s">
         <v>358</v>
       </c>
@@ -7680,7 +7688,7 @@
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B115" s="66"/>
+      <c r="B115" s="73"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17" t="s">
         <v>372</v>
@@ -7689,7 +7697,7 @@
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B116" s="66"/>
+      <c r="B116" s="73"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17" t="s">
         <v>454</v>
@@ -7699,7 +7707,7 @@
       <c r="G116" s="8"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B117" s="66"/>
+      <c r="B117" s="73"/>
       <c r="C117" s="17" t="s">
         <v>364</v>
       </c>
@@ -7709,7 +7717,7 @@
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B118" s="66"/>
+      <c r="B118" s="73"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17" t="s">
         <v>378</v>
@@ -7717,7 +7725,7 @@
       <c r="E118" s="8"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B119" s="66"/>
+      <c r="B119" s="73"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17" t="s">
         <v>379</v>
@@ -7725,7 +7733,7 @@
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B120" s="66" t="s">
+      <c r="B120" s="73" t="s">
         <v>496</v>
       </c>
       <c r="C120" s="17" t="s">
@@ -7738,7 +7746,7 @@
       <c r="G120" s="10"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B121" s="66"/>
+      <c r="B121" s="73"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
         <v>482</v>
@@ -7747,7 +7755,7 @@
       <c r="G121" s="10"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B122" s="66"/>
+      <c r="B122" s="73"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17" t="s">
         <v>483</v>
@@ -7756,7 +7764,7 @@
       <c r="G122" s="10"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B123" s="66"/>
+      <c r="B123" s="73"/>
       <c r="C123" s="17" t="s">
         <v>404</v>
       </c>
@@ -7769,7 +7777,7 @@
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B124" s="66"/>
+      <c r="B124" s="73"/>
       <c r="C124" s="17" t="s">
         <v>409</v>
       </c>
@@ -7780,7 +7788,7 @@
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B125" s="66"/>
+      <c r="B125" s="73"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17" t="s">
         <v>382</v>
@@ -7789,7 +7797,7 @@
       <c r="G125" s="10"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B126" s="67"/>
+      <c r="B126" s="74"/>
       <c r="C126" s="19" t="s">
         <v>513</v>
       </c>
@@ -7956,6 +7964,39 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="C102:C107"/>
     <mergeCell ref="B108:B119"/>
     <mergeCell ref="C108:C110"/>
     <mergeCell ref="B120:B126"/>
@@ -7971,39 +8012,6 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B54:E54"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B94:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="C102:C107"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="B21:B32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9363,8 +9371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="F28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -9768,7 +9776,7 @@
         <v>612</v>
       </c>
       <c r="G14" s="60" t="s">
-        <v>639</v>
+        <v>849</v>
       </c>
       <c r="H14" s="60" t="s">
         <v>612</v>
@@ -9798,7 +9806,7 @@
         <v>612</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>633</v>
+        <v>848</v>
       </c>
       <c r="H15" s="60" t="s">
         <v>612</v>
@@ -12385,8 +12393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -12774,13 +12782,13 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69" t="s">
         <v>337</v>
       </c>
     </row>
@@ -12797,13 +12805,13 @@
       <c r="E3" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="73"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="64" t="s">
         <v>339</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -12831,8 +12839,8 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="18" t="s">
         <v>513</v>
       </c>
@@ -12840,10 +12848,10 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="71" t="s">
         <v>497</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="64" t="s">
         <v>500</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -12854,8 +12862,8 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B9" s="75"/>
-      <c r="C9" s="64"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="12" t="s">
         <v>504</v>
       </c>
@@ -12866,10 +12874,10 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="64" t="s">
         <v>502</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="64" t="s">
         <v>501</v>
       </c>
       <c r="D10" s="16" t="s">
@@ -12909,8 +12917,8 @@
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="18" t="s">
         <v>347</v>
       </c>
@@ -12918,7 +12926,7 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="64" t="s">
         <v>348</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -12973,7 +12981,7 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B20" s="64"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
         <v>354</v>
@@ -12982,7 +12990,7 @@
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="64" t="s">
         <v>360</v>
       </c>
       <c r="C21" s="16" t="s">
@@ -13001,7 +13009,7 @@
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B23" s="64"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="18" t="s">
         <v>367</v>
       </c>
@@ -13009,7 +13017,7 @@
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="64" t="s">
         <v>385</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -13098,7 +13106,7 @@
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B33" s="66"/>
+      <c r="B33" s="73"/>
       <c r="C33" s="12" t="s">
         <v>364</v>
       </c>
@@ -13109,7 +13117,7 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B34" s="66"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="12"/>
       <c r="D34" s="29" t="s">
         <v>378</v>
@@ -13118,7 +13126,7 @@
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B35" s="67"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="18"/>
       <c r="D35" s="30" t="s">
         <v>379</v>
@@ -13127,7 +13135,7 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="64" t="s">
         <v>508</v>
       </c>
       <c r="C36" s="16" t="s">
@@ -13147,7 +13155,7 @@
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B38" s="64"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="18" t="s">
         <v>509</v>
       </c>
@@ -13156,7 +13164,7 @@
       <c r="F38" s="10"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="64" t="s">
         <v>361</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -13167,7 +13175,7 @@
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B40" s="64"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="18" t="s">
         <v>381</v>
       </c>
@@ -13176,7 +13184,7 @@
       <c r="F40" s="10"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="64" t="s">
         <v>495</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -13211,7 +13219,7 @@
       <c r="F43" s="11"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="64" t="s">
         <v>362</v>
       </c>
       <c r="C44" s="16" t="s">
@@ -13231,7 +13239,7 @@
       <c r="F45" s="8"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B46" s="64"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="18" t="s">
         <v>126</v>
       </c>
@@ -13246,13 +13254,13 @@
       </c>
     </row>
     <row r="49" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B49" s="69" t="s">
+      <c r="B49" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="71" t="s">
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="69" t="s">
         <v>337</v>
       </c>
     </row>
@@ -13269,13 +13277,13 @@
       <c r="E50" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="F50" s="72"/>
+      <c r="F50" s="75"/>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
       <c r="J50" s="31"/>
     </row>
     <row r="51" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B51" s="68" t="s">
+      <c r="B51" s="76" t="s">
         <v>387</v>
       </c>
       <c r="C51" s="25" t="s">
@@ -13289,7 +13297,7 @@
       <c r="J51" s="28"/>
     </row>
     <row r="52" spans="2:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B52" s="66"/>
+      <c r="B52" s="73"/>
       <c r="C52" s="17" t="s">
         <v>389</v>
       </c>
@@ -13298,7 +13306,7 @@
       <c r="F52" s="10"/>
     </row>
     <row r="53" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B53" s="66"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="17" t="s">
         <v>424</v>
       </c>
@@ -13318,7 +13326,7 @@
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="73" t="s">
         <v>390</v>
       </c>
       <c r="C55" s="17" t="s">
@@ -13334,7 +13342,7 @@
       <c r="J55" s="28"/>
     </row>
     <row r="56" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B56" s="66"/>
+      <c r="B56" s="73"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17" t="s">
         <v>418</v>
@@ -13345,7 +13353,7 @@
       <c r="J56" s="28"/>
     </row>
     <row r="57" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="66"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="17" t="s">
         <v>392</v>
       </c>
@@ -13357,7 +13365,7 @@
       <c r="J57" s="28"/>
     </row>
     <row r="58" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="66"/>
+      <c r="B58" s="73"/>
       <c r="C58" s="17" t="s">
         <v>403</v>
       </c>
@@ -13371,7 +13379,7 @@
       <c r="J58" s="28"/>
     </row>
     <row r="59" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="66"/>
+      <c r="B59" s="73"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17" t="s">
         <v>415</v>
@@ -13383,7 +13391,7 @@
       <c r="J59" s="28"/>
     </row>
     <row r="60" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="66"/>
+      <c r="B60" s="73"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17" t="s">
         <v>416</v>
@@ -13395,7 +13403,7 @@
       <c r="J60" s="28"/>
     </row>
     <row r="61" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="66"/>
+      <c r="B61" s="73"/>
       <c r="D61" s="17" t="s">
         <v>428</v>
       </c>
@@ -13405,7 +13413,7 @@
       <c r="J61" s="28"/>
     </row>
     <row r="62" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="66" t="s">
+      <c r="B62" s="73" t="s">
         <v>393</v>
       </c>
       <c r="C62" t="s">
@@ -13421,7 +13429,7 @@
       <c r="J62" s="28"/>
     </row>
     <row r="63" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="66"/>
+      <c r="B63" s="73"/>
       <c r="D63" s="17" t="s">
         <v>422</v>
       </c>
@@ -13433,7 +13441,7 @@
       <c r="J63" s="28"/>
     </row>
     <row r="64" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="66"/>
+      <c r="B64" s="73"/>
       <c r="C64" s="17" t="s">
         <v>394</v>
       </c>
@@ -13446,7 +13454,7 @@
       <c r="J64" s="28"/>
     </row>
     <row r="65" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="66"/>
+      <c r="B65" s="73"/>
       <c r="D65" s="17" t="s">
         <v>420</v>
       </c>
@@ -13456,7 +13464,7 @@
       <c r="J65" s="28"/>
     </row>
     <row r="66" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="66"/>
+      <c r="B66" s="73"/>
       <c r="D66" s="17" t="s">
         <v>421</v>
       </c>
@@ -13466,7 +13474,7 @@
       <c r="J66" s="28"/>
     </row>
     <row r="67" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="66"/>
+      <c r="B67" s="73"/>
       <c r="C67" s="17" t="s">
         <v>423</v>
       </c>
@@ -13476,7 +13484,7 @@
       <c r="J67" s="28"/>
     </row>
     <row r="68" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="73" t="s">
         <v>427</v>
       </c>
       <c r="C68" s="17" t="s">
@@ -13491,7 +13499,7 @@
       <c r="J68" s="28"/>
     </row>
     <row r="69" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="66"/>
+      <c r="B69" s="73"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17" t="s">
         <v>398</v>
@@ -13503,7 +13511,7 @@
       <c r="J69" s="28"/>
     </row>
     <row r="70" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="66"/>
+      <c r="B70" s="73"/>
       <c r="C70" s="17" t="s">
         <v>516</v>
       </c>
@@ -13519,7 +13527,7 @@
       <c r="J70" s="28"/>
     </row>
     <row r="71" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="66"/>
+      <c r="B71" s="73"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17" t="s">
         <v>399</v>
@@ -13531,7 +13539,7 @@
       <c r="J71" s="28"/>
     </row>
     <row r="72" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="66" t="s">
+      <c r="B72" s="73" t="s">
         <v>430</v>
       </c>
       <c r="C72" s="17" t="s">
@@ -13546,7 +13554,7 @@
       <c r="J72" s="28"/>
     </row>
     <row r="73" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="66"/>
+      <c r="B73" s="73"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
         <v>413</v>
@@ -13557,7 +13565,7 @@
       <c r="J73" s="28"/>
     </row>
     <row r="74" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="66"/>
+      <c r="B74" s="73"/>
       <c r="C74" s="17" t="s">
         <v>400</v>
       </c>
@@ -13571,7 +13579,7 @@
       <c r="J74" s="28"/>
     </row>
     <row r="75" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="66"/>
+      <c r="B75" s="73"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17" t="s">
         <v>402</v>
@@ -13583,7 +13591,7 @@
       <c r="J75" s="28"/>
     </row>
     <row r="76" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="66"/>
+      <c r="B76" s="73"/>
       <c r="C76" s="17" t="s">
         <v>404</v>
       </c>
@@ -13597,7 +13605,7 @@
       <c r="J76" s="28"/>
     </row>
     <row r="77" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="66"/>
+      <c r="B77" s="73"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17" t="s">
         <v>517</v>
@@ -13609,7 +13617,7 @@
       <c r="J77" s="28"/>
     </row>
     <row r="78" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="66" t="s">
+      <c r="B78" s="73" t="s">
         <v>406</v>
       </c>
       <c r="C78" s="17" t="s">
@@ -13623,7 +13631,7 @@
       <c r="J78" s="28"/>
     </row>
     <row r="79" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="66"/>
+      <c r="B79" s="73"/>
       <c r="C79" s="17" t="s">
         <v>408</v>
       </c>
@@ -13660,13 +13668,13 @@
       <c r="J82" s="28"/>
     </row>
     <row r="83" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B83" s="69" t="s">
+      <c r="B83" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="C83" s="70"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="71" t="s">
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="69" t="s">
         <v>337</v>
       </c>
     </row>
@@ -13683,10 +13691,10 @@
       <c r="E84" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F84" s="73"/>
+      <c r="F84" s="70"/>
     </row>
     <row r="85" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B85" s="68" t="s">
+      <c r="B85" s="76" t="s">
         <v>433</v>
       </c>
       <c r="C85" s="25" t="s">
@@ -13699,7 +13707,7 @@
       </c>
     </row>
     <row r="86" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B86" s="66"/>
+      <c r="B86" s="73"/>
       <c r="C86" s="17" t="s">
         <v>435</v>
       </c>
@@ -13710,7 +13718,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B87" s="66"/>
+      <c r="B87" s="73"/>
       <c r="C87" s="17" t="s">
         <v>436</v>
       </c>
@@ -13721,7 +13729,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="66"/>
+      <c r="B88" s="73"/>
       <c r="C88" s="17" t="s">
         <v>480</v>
       </c>
@@ -13732,7 +13740,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B89" s="66" t="s">
+      <c r="B89" s="73" t="s">
         <v>441</v>
       </c>
       <c r="C89" s="17" t="s">
@@ -13745,7 +13753,7 @@
       <c r="F89" s="10"/>
     </row>
     <row r="90" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B90" s="66"/>
+      <c r="B90" s="73"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17" t="s">
         <v>444</v>
@@ -13754,7 +13762,7 @@
       <c r="F90" s="10"/>
     </row>
     <row r="91" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="66"/>
+      <c r="B91" s="73"/>
       <c r="C91" s="17" t="s">
         <v>446</v>
       </c>
@@ -13765,7 +13773,7 @@
       <c r="F91" s="10"/>
     </row>
     <row r="92" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B92" s="66"/>
+      <c r="B92" s="73"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17" t="s">
         <v>447</v>
@@ -13774,7 +13782,7 @@
       <c r="F92" s="10"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B93" s="66"/>
+      <c r="B93" s="73"/>
       <c r="C93" s="17" t="s">
         <v>448</v>
       </c>
@@ -13785,7 +13793,7 @@
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B94" s="66" t="s">
+      <c r="B94" s="73" t="s">
         <v>455</v>
       </c>
       <c r="C94" s="17" t="s">
@@ -13797,7 +13805,7 @@
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B95" s="66"/>
+      <c r="B95" s="73"/>
       <c r="C95" s="17" t="s">
         <v>485</v>
       </c>
@@ -13805,7 +13813,7 @@
       <c r="F95" s="10"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B96" s="66"/>
+      <c r="B96" s="73"/>
       <c r="C96" s="17" t="s">
         <v>487</v>
       </c>
@@ -13813,7 +13821,7 @@
       <c r="F96" s="10"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B97" s="66" t="s">
+      <c r="B97" s="73" t="s">
         <v>450</v>
       </c>
       <c r="C97" s="17" t="s">
@@ -13826,7 +13834,7 @@
       <c r="F97" s="10"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B98" s="66"/>
+      <c r="B98" s="73"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17" t="s">
         <v>468</v>
@@ -13837,7 +13845,7 @@
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B99" s="66"/>
+      <c r="B99" s="73"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17" t="s">
         <v>467</v>
@@ -13848,7 +13856,7 @@
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B100" s="66"/>
+      <c r="B100" s="73"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17" t="s">
         <v>466</v>
@@ -13859,7 +13867,7 @@
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B101" s="66"/>
+      <c r="B101" s="73"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17" t="s">
         <v>488</v>
@@ -13870,7 +13878,7 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B102" s="66"/>
+      <c r="B102" s="73"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17" t="s">
         <v>489</v>
@@ -13879,7 +13887,7 @@
       <c r="F102" s="10"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B103" s="66" t="s">
+      <c r="B103" s="73" t="s">
         <v>451</v>
       </c>
       <c r="C103" s="17" t="s">
@@ -13892,7 +13900,7 @@
       <c r="F103" s="10"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B104" s="66"/>
+      <c r="B104" s="73"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17" t="s">
         <v>474</v>
@@ -13901,7 +13909,7 @@
       <c r="F104" s="10"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B105" s="66"/>
+      <c r="B105" s="73"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17" t="s">
         <v>475</v>
@@ -13910,7 +13918,7 @@
       <c r="F105" s="10"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B106" s="66"/>
+      <c r="B106" s="73"/>
       <c r="C106" s="17" t="s">
         <v>476</v>
       </c>
@@ -13921,7 +13929,7 @@
       <c r="F106" s="10"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B107" s="66"/>
+      <c r="B107" s="73"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17" t="s">
         <v>478</v>
@@ -13930,7 +13938,7 @@
       <c r="F107" s="10"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B108" s="66"/>
+      <c r="B108" s="73"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17" t="s">
         <v>454</v>
@@ -13939,7 +13947,7 @@
       <c r="F108" s="10"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B109" s="66"/>
+      <c r="B109" s="73"/>
       <c r="C109" s="17" t="s">
         <v>470</v>
       </c>
@@ -13952,7 +13960,7 @@
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B110" s="66"/>
+      <c r="B110" s="73"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
       <c r="E110" s="17" t="s">
@@ -13961,7 +13969,7 @@
       <c r="F110" s="10"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B111" s="66"/>
+      <c r="B111" s="73"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
       <c r="E111" s="17" t="s">
@@ -13970,7 +13978,7 @@
       <c r="F111" s="10"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B112" s="66" t="s">
+      <c r="B112" s="73" t="s">
         <v>456</v>
       </c>
       <c r="C112" s="17" t="s">
@@ -13983,7 +13991,7 @@
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B113" s="66"/>
+      <c r="B113" s="73"/>
       <c r="C113" s="17" t="s">
         <v>461</v>
       </c>
@@ -13994,7 +14002,7 @@
       <c r="F113" s="10"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B114" s="66"/>
+      <c r="B114" s="73"/>
       <c r="C114" s="17" t="s">
         <v>458</v>
       </c>
@@ -14005,7 +14013,7 @@
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B115" s="66" t="s">
+      <c r="B115" s="73" t="s">
         <v>496</v>
       </c>
       <c r="C115" s="17" t="s">
@@ -14018,7 +14026,7 @@
       <c r="F115" s="10"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B116" s="66"/>
+      <c r="B116" s="73"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17" t="s">
         <v>482</v>
@@ -14027,7 +14035,7 @@
       <c r="F116" s="10"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B117" s="66"/>
+      <c r="B117" s="73"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17" t="s">
         <v>483</v>
@@ -14036,7 +14044,7 @@
       <c r="F117" s="10"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B118" s="66"/>
+      <c r="B118" s="73"/>
       <c r="C118" s="17" t="s">
         <v>404</v>
       </c>
@@ -14049,7 +14057,7 @@
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B119" s="66"/>
+      <c r="B119" s="73"/>
       <c r="C119" s="17" t="s">
         <v>492</v>
       </c>
@@ -14060,7 +14068,7 @@
       <c r="F119" s="10"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B120" s="66"/>
+      <c r="B120" s="73"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17" t="s">
         <v>494</v>
@@ -14069,7 +14077,7 @@
       <c r="F120" s="10"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B121" s="67"/>
+      <c r="B121" s="74"/>
       <c r="C121" s="19" t="s">
         <v>513</v>
       </c>
@@ -14235,19 +14243,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B115:B121"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B83:E83"/>
     <mergeCell ref="F49:F50"/>
     <mergeCell ref="B94:B96"/>
     <mergeCell ref="B97:B102"/>
@@ -14260,14 +14263,19 @@
     <mergeCell ref="B62:B67"/>
     <mergeCell ref="B68:B71"/>
     <mergeCell ref="B72:B77"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B115:B121"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14303,13 +14311,13 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69" t="s">
         <v>337</v>
       </c>
     </row>
@@ -14326,10 +14334,10 @@
       <c r="E3" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="72"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="76" t="s">
         <v>338</v>
       </c>
       <c r="C4" s="79" t="s">
@@ -14342,8 +14350,8 @@
       <c r="F4" s="26"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B5" s="66"/>
-      <c r="C5" s="76"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="17" t="s">
         <v>341</v>
       </c>
@@ -14351,8 +14359,8 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B6" s="66"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="17" t="s">
         <v>59</v>
       </c>
@@ -14360,7 +14368,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B7" s="66"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="46" t="s">
         <v>380</v>
       </c>
@@ -14371,7 +14379,7 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="73" t="s">
         <v>521</v>
       </c>
       <c r="C8" s="78" t="s">
@@ -14387,7 +14395,7 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B9" s="66"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="78"/>
       <c r="D9" s="17" t="s">
         <v>504</v>
@@ -14399,8 +14407,8 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B10" s="66"/>
-      <c r="C10" s="76" t="s">
+      <c r="B10" s="73"/>
+      <c r="C10" s="77" t="s">
         <v>501</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -14410,8 +14418,8 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B11" s="66"/>
-      <c r="C11" s="76"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="17" t="s">
         <v>479</v>
       </c>
@@ -14421,18 +14429,18 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B12" s="66"/>
-      <c r="C12" s="76"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="77"/>
       <c r="E12" s="17" t="s">
         <v>344</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="73" t="s">
         <v>348</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="77" t="s">
         <v>349</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -14442,8 +14450,8 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B14" s="66"/>
-      <c r="C14" s="76"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="17" t="s">
         <v>355</v>
       </c>
@@ -14455,8 +14463,8 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B15" s="66"/>
-      <c r="C15" s="76"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17" t="s">
         <v>722</v>
@@ -14464,8 +14472,8 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B16" s="66"/>
-      <c r="C16" s="76"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="17" t="s">
         <v>350</v>
       </c>
@@ -14473,8 +14481,8 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B17" s="66"/>
-      <c r="C17" s="76" t="s">
+      <c r="B17" s="73"/>
+      <c r="C17" s="77" t="s">
         <v>360</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -14483,23 +14491,23 @@
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B18" s="66"/>
-      <c r="C18" s="76"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="17" t="s">
         <v>366</v>
       </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B19" s="66"/>
-      <c r="C19" s="76"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="17" t="s">
         <v>367</v>
       </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B20" s="66"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="37" t="s">
         <v>523</v>
       </c>
@@ -14507,10 +14515,10 @@
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="73" t="s">
         <v>385</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="77" t="s">
         <v>508</v>
       </c>
       <c r="D21" s="17" t="s">
@@ -14519,24 +14527,24 @@
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B22" s="66"/>
-      <c r="C22" s="76"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="17" t="s">
         <v>510</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B23" s="66"/>
-      <c r="C23" s="76"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="17" t="s">
         <v>509</v>
       </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B24" s="66"/>
-      <c r="C24" s="76" t="s">
+      <c r="B24" s="73"/>
+      <c r="C24" s="77" t="s">
         <v>357</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -14545,24 +14553,24 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B25" s="66"/>
-      <c r="C25" s="76"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="17" t="s">
         <v>369</v>
       </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B26" s="66"/>
-      <c r="C26" s="76"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="17" t="s">
         <v>370</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B27" s="66"/>
-      <c r="C27" s="76" t="s">
+      <c r="B27" s="73"/>
+      <c r="C27" s="77" t="s">
         <v>358</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -14571,24 +14579,24 @@
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B28" s="66"/>
-      <c r="C28" s="76"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="17" t="s">
         <v>372</v>
       </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B29" s="66"/>
-      <c r="C29" s="76"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="77"/>
       <c r="D29" s="17" t="s">
         <v>373</v>
       </c>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B30" s="66"/>
-      <c r="C30" s="76" t="s">
+      <c r="B30" s="73"/>
+      <c r="C30" s="77" t="s">
         <v>364</v>
       </c>
       <c r="D30" s="17" t="s">
@@ -14597,23 +14605,23 @@
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B31" s="66"/>
-      <c r="C31" s="76"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="17" t="s">
         <v>378</v>
       </c>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B32" s="66"/>
-      <c r="C32" s="76"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="17" t="s">
         <v>379</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="73" t="s">
         <v>524</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -14625,14 +14633,14 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B34" s="66"/>
+      <c r="B34" s="73"/>
       <c r="D34" s="17" t="s">
         <v>527</v>
       </c>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B35" s="66"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="17" t="s">
         <v>528</v>
       </c>
@@ -14642,7 +14650,7 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B36" s="66"/>
+      <c r="B36" s="73"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17" t="s">
         <v>353</v>
@@ -14650,7 +14658,7 @@
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B37" s="66"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
         <v>354</v>
@@ -14658,7 +14666,7 @@
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B38" s="66"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="17" t="s">
         <v>359</v>
       </c>
@@ -14668,7 +14676,7 @@
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B39" s="66"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17" t="s">
         <v>375</v>
@@ -14676,7 +14684,7 @@
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B40" s="66"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17" t="s">
         <v>376</v>
@@ -14685,7 +14693,7 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="73" t="s">
         <v>529</v>
       </c>
       <c r="C41" s="17" t="s">
@@ -14697,7 +14705,7 @@
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B42" s="66"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="17" t="s">
         <v>532</v>
       </c>
@@ -14707,7 +14715,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B43" s="66"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="17" t="s">
         <v>530</v>
       </c>
@@ -14715,7 +14723,7 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="73" t="s">
         <v>545</v>
       </c>
       <c r="C44" s="17" t="s">
@@ -14726,7 +14734,7 @@
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B45" s="66"/>
+      <c r="B45" s="73"/>
       <c r="C45" s="17" t="s">
         <v>535</v>
       </c>
@@ -14737,7 +14745,7 @@
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="73" t="s">
         <v>543</v>
       </c>
       <c r="C46" s="37" t="s">
@@ -14748,7 +14756,7 @@
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B47" s="67"/>
+      <c r="B47" s="74"/>
       <c r="C47" s="19" t="s">
         <v>126</v>
       </c>
@@ -14763,13 +14771,13 @@
       </c>
     </row>
     <row r="50" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B50" s="69" t="s">
+      <c r="B50" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="71" t="s">
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="69" t="s">
         <v>337</v>
       </c>
     </row>
@@ -14786,13 +14794,13 @@
       <c r="E51" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="F51" s="72"/>
+      <c r="F51" s="75"/>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
     </row>
     <row r="52" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="76" t="s">
         <v>387</v>
       </c>
       <c r="C52" s="25" t="s">
@@ -14806,7 +14814,7 @@
       <c r="J52" s="28"/>
     </row>
     <row r="53" spans="2:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B53" s="66"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="17" t="s">
         <v>389</v>
       </c>
@@ -14815,7 +14823,7 @@
       <c r="F53" s="10"/>
     </row>
     <row r="54" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B54" s="66"/>
+      <c r="B54" s="73"/>
       <c r="C54" s="17" t="s">
         <v>424</v>
       </c>
@@ -14824,7 +14832,7 @@
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="73" t="s">
         <v>390</v>
       </c>
       <c r="C55" s="17" t="s">
@@ -14840,7 +14848,7 @@
       <c r="J55" s="28"/>
     </row>
     <row r="56" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B56" s="66"/>
+      <c r="B56" s="73"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17" t="s">
         <v>418</v>
@@ -14851,7 +14859,7 @@
       <c r="J56" s="28"/>
     </row>
     <row r="57" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="66"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="17" t="s">
         <v>392</v>
       </c>
@@ -14863,7 +14871,7 @@
       <c r="J57" s="28"/>
     </row>
     <row r="58" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="66"/>
+      <c r="B58" s="73"/>
       <c r="C58" s="17" t="s">
         <v>403</v>
       </c>
@@ -14877,7 +14885,7 @@
       <c r="J58" s="28"/>
     </row>
     <row r="59" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="66"/>
+      <c r="B59" s="73"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17" t="s">
         <v>415</v>
@@ -14889,7 +14897,7 @@
       <c r="J59" s="28"/>
     </row>
     <row r="60" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="66"/>
+      <c r="B60" s="73"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17" t="s">
         <v>416</v>
@@ -14901,7 +14909,7 @@
       <c r="J60" s="28"/>
     </row>
     <row r="61" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="66"/>
+      <c r="B61" s="73"/>
       <c r="D61" s="17" t="s">
         <v>428</v>
       </c>
@@ -14911,7 +14919,7 @@
       <c r="J61" s="28"/>
     </row>
     <row r="62" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="66" t="s">
+      <c r="B62" s="73" t="s">
         <v>393</v>
       </c>
       <c r="C62" t="s">
@@ -14927,7 +14935,7 @@
       <c r="J62" s="28"/>
     </row>
     <row r="63" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="66"/>
+      <c r="B63" s="73"/>
       <c r="D63" s="17" t="s">
         <v>422</v>
       </c>
@@ -14939,7 +14947,7 @@
       <c r="J63" s="28"/>
     </row>
     <row r="64" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="66"/>
+      <c r="B64" s="73"/>
       <c r="C64" s="17" t="s">
         <v>736</v>
       </c>
@@ -14952,7 +14960,7 @@
       <c r="J64" s="28"/>
     </row>
     <row r="65" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="66"/>
+      <c r="B65" s="73"/>
       <c r="D65" s="17" t="s">
         <v>420</v>
       </c>
@@ -14962,7 +14970,7 @@
       <c r="J65" s="28"/>
     </row>
     <row r="66" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="66"/>
+      <c r="B66" s="73"/>
       <c r="D66" s="17" t="s">
         <v>421</v>
       </c>
@@ -14972,7 +14980,7 @@
       <c r="J66" s="28"/>
     </row>
     <row r="67" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="66"/>
+      <c r="B67" s="73"/>
       <c r="C67" s="17" t="s">
         <v>423</v>
       </c>
@@ -14982,7 +14990,7 @@
       <c r="J67" s="28"/>
     </row>
     <row r="68" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="73" t="s">
         <v>427</v>
       </c>
       <c r="C68" s="17" t="s">
@@ -14997,7 +15005,7 @@
       <c r="J68" s="28"/>
     </row>
     <row r="69" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="66"/>
+      <c r="B69" s="73"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17" t="s">
         <v>398</v>
@@ -15009,7 +15017,7 @@
       <c r="J69" s="28"/>
     </row>
     <row r="70" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="66"/>
+      <c r="B70" s="73"/>
       <c r="C70" s="17" t="s">
         <v>516</v>
       </c>
@@ -15025,7 +15033,7 @@
       <c r="J70" s="28"/>
     </row>
     <row r="71" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="66"/>
+      <c r="B71" s="73"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17" t="s">
         <v>399</v>
@@ -15037,7 +15045,7 @@
       <c r="J71" s="28"/>
     </row>
     <row r="72" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="66" t="s">
+      <c r="B72" s="73" t="s">
         <v>540</v>
       </c>
       <c r="C72" s="17" t="s">
@@ -15052,7 +15060,7 @@
       <c r="J72" s="28"/>
     </row>
     <row r="73" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="66"/>
+      <c r="B73" s="73"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
         <v>413</v>
@@ -15063,7 +15071,7 @@
       <c r="J73" s="28"/>
     </row>
     <row r="74" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="66"/>
+      <c r="B74" s="73"/>
       <c r="C74" s="17" t="s">
         <v>400</v>
       </c>
@@ -15077,7 +15085,7 @@
       <c r="J74" s="28"/>
     </row>
     <row r="75" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="66"/>
+      <c r="B75" s="73"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17" t="s">
         <v>402</v>
@@ -15089,7 +15097,7 @@
       <c r="J75" s="28"/>
     </row>
     <row r="76" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="66" t="s">
+      <c r="B76" s="73" t="s">
         <v>548</v>
       </c>
       <c r="C76" s="17" t="s">
@@ -15103,7 +15111,7 @@
       <c r="J76" s="28"/>
     </row>
     <row r="77" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="66"/>
+      <c r="B77" s="73"/>
       <c r="C77" s="17" t="s">
         <v>542</v>
       </c>
@@ -15115,7 +15123,7 @@
       <c r="J77" s="28"/>
     </row>
     <row r="78" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="66" t="s">
+      <c r="B78" s="73" t="s">
         <v>536</v>
       </c>
       <c r="C78" s="17" t="s">
@@ -15129,7 +15137,7 @@
       <c r="J78" s="28"/>
     </row>
     <row r="79" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="66"/>
+      <c r="B79" s="73"/>
       <c r="C79" s="17" t="s">
         <v>537</v>
       </c>
@@ -15143,7 +15151,7 @@
       <c r="J79" s="28"/>
     </row>
     <row r="80" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B80" s="66"/>
+      <c r="B80" s="73"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17" t="s">
         <v>408</v>
@@ -15155,7 +15163,7 @@
       <c r="J80" s="28"/>
     </row>
     <row r="81" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B81" s="67"/>
+      <c r="B81" s="74"/>
       <c r="C81" s="19" t="s">
         <v>538</v>
       </c>
@@ -15181,13 +15189,13 @@
       <c r="J83" s="28"/>
     </row>
     <row r="84" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B84" s="69" t="s">
+      <c r="B84" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="C84" s="70"/>
-      <c r="D84" s="70"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="71" t="s">
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="80"/>
+      <c r="F84" s="69" t="s">
         <v>337</v>
       </c>
     </row>
@@ -15204,10 +15212,10 @@
       <c r="E85" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F85" s="73"/>
+      <c r="F85" s="70"/>
     </row>
     <row r="86" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B86" s="68" t="s">
+      <c r="B86" s="76" t="s">
         <v>433</v>
       </c>
       <c r="C86" s="25" t="s">
@@ -15220,7 +15228,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B87" s="66"/>
+      <c r="B87" s="73"/>
       <c r="C87" s="17" t="s">
         <v>435</v>
       </c>
@@ -15231,7 +15239,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="66"/>
+      <c r="B88" s="73"/>
       <c r="C88" s="17" t="s">
         <v>436</v>
       </c>
@@ -15244,7 +15252,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B89" s="66"/>
+      <c r="B89" s="73"/>
       <c r="C89" s="17" t="s">
         <v>480</v>
       </c>
@@ -15255,7 +15263,7 @@
       </c>
     </row>
     <row r="90" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B90" s="66" t="s">
+      <c r="B90" s="73" t="s">
         <v>441</v>
       </c>
       <c r="C90" s="17" t="s">
@@ -15268,7 +15276,7 @@
       <c r="F90" s="10"/>
     </row>
     <row r="91" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="66"/>
+      <c r="B91" s="73"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17" t="s">
         <v>418</v>
@@ -15277,7 +15285,7 @@
       <c r="F91" s="10"/>
     </row>
     <row r="92" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B92" s="66"/>
+      <c r="B92" s="73"/>
       <c r="C92" s="17" t="s">
         <v>547</v>
       </c>
@@ -15292,7 +15300,7 @@
       </c>
     </row>
     <row r="93" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B93" s="66"/>
+      <c r="B93" s="73"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17" t="s">
         <v>447</v>
@@ -15301,7 +15309,7 @@
       <c r="F93" s="10"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B94" s="66"/>
+      <c r="B94" s="73"/>
       <c r="C94" s="17" t="s">
         <v>448</v>
       </c>
@@ -15312,8 +15320,8 @@
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B95" s="66"/>
-      <c r="C95" s="76" t="s">
+      <c r="B95" s="73"/>
+      <c r="C95" s="77" t="s">
         <v>455</v>
       </c>
       <c r="D95" s="49" t="s">
@@ -15325,8 +15333,8 @@
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B96" s="66"/>
-      <c r="C96" s="76"/>
+      <c r="B96" s="73"/>
+      <c r="C96" s="77"/>
       <c r="D96" s="49" t="s">
         <v>485</v>
       </c>
@@ -15334,8 +15342,8 @@
       <c r="F96" s="10"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B97" s="66"/>
-      <c r="C97" s="76"/>
+      <c r="B97" s="73"/>
+      <c r="C97" s="77"/>
       <c r="D97" s="49" t="s">
         <v>487</v>
       </c>
@@ -15343,10 +15351,10 @@
       <c r="F97" s="10"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B98" s="66" t="s">
+      <c r="B98" s="73" t="s">
         <v>450</v>
       </c>
-      <c r="C98" s="76" t="s">
+      <c r="C98" s="77" t="s">
         <v>463</v>
       </c>
       <c r="D98" s="17" t="s">
@@ -15358,8 +15366,8 @@
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B99" s="66"/>
-      <c r="C99" s="76"/>
+      <c r="B99" s="73"/>
+      <c r="C99" s="77"/>
       <c r="D99" s="17" t="s">
         <v>468</v>
       </c>
@@ -15369,8 +15377,8 @@
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B100" s="66"/>
-      <c r="C100" s="76"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="77"/>
       <c r="D100" s="17" t="s">
         <v>467</v>
       </c>
@@ -15380,8 +15388,8 @@
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B101" s="66"/>
-      <c r="C101" s="76"/>
+      <c r="B101" s="73"/>
+      <c r="C101" s="77"/>
       <c r="D101" s="17" t="s">
         <v>466</v>
       </c>
@@ -15391,8 +15399,8 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B102" s="66"/>
-      <c r="C102" s="76"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="77"/>
       <c r="D102" s="17" t="s">
         <v>488</v>
       </c>
@@ -15402,8 +15410,8 @@
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B103" s="66"/>
-      <c r="C103" s="76"/>
+      <c r="B103" s="73"/>
+      <c r="C103" s="77"/>
       <c r="D103" s="17" t="s">
         <v>489</v>
       </c>
@@ -15411,10 +15419,10 @@
       <c r="F103" s="10"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B104" s="66" t="s">
+      <c r="B104" s="73" t="s">
         <v>385</v>
       </c>
-      <c r="C104" s="76" t="s">
+      <c r="C104" s="77" t="s">
         <v>456</v>
       </c>
       <c r="D104" s="49" t="s">
@@ -15426,8 +15434,8 @@
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B105" s="66"/>
-      <c r="C105" s="76"/>
+      <c r="B105" s="73"/>
+      <c r="C105" s="77"/>
       <c r="D105" s="49" t="s">
         <v>461</v>
       </c>
@@ -15437,8 +15445,8 @@
       <c r="F105" s="10"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B106" s="66"/>
-      <c r="C106" s="76"/>
+      <c r="B106" s="73"/>
+      <c r="C106" s="77"/>
       <c r="D106" s="49" t="s">
         <v>458</v>
       </c>
@@ -15448,7 +15456,7 @@
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B107" s="66"/>
+      <c r="B107" s="73"/>
       <c r="C107" s="17" t="s">
         <v>469</v>
       </c>
@@ -15459,7 +15467,7 @@
       <c r="F107" s="10"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B108" s="66"/>
+      <c r="B108" s="73"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17" t="s">
         <v>474</v>
@@ -15468,7 +15476,7 @@
       <c r="F108" s="10"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B109" s="66"/>
+      <c r="B109" s="73"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17" t="s">
         <v>475</v>
@@ -15477,7 +15485,7 @@
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B110" s="66"/>
+      <c r="B110" s="73"/>
       <c r="C110" s="17" t="s">
         <v>476</v>
       </c>
@@ -15488,7 +15496,7 @@
       <c r="F110" s="10"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B111" s="66"/>
+      <c r="B111" s="73"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17" t="s">
         <v>478</v>
@@ -15497,7 +15505,7 @@
       <c r="F111" s="10"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B112" s="66"/>
+      <c r="B112" s="73"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17" t="s">
         <v>454</v>
@@ -15506,7 +15514,7 @@
       <c r="F112" s="8"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B113" s="66"/>
+      <c r="B113" s="73"/>
       <c r="C113" s="17" t="s">
         <v>452</v>
       </c>
@@ -15516,7 +15524,7 @@
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B114" s="66"/>
+      <c r="B114" s="73"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17" t="s">
         <v>378</v>
@@ -15524,7 +15532,7 @@
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B115" s="66"/>
+      <c r="B115" s="73"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17" t="s">
         <v>473</v>
@@ -15532,7 +15540,7 @@
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B116" s="66" t="s">
+      <c r="B116" s="73" t="s">
         <v>496</v>
       </c>
       <c r="C116" s="17" t="s">
@@ -15545,7 +15553,7 @@
       <c r="F116" s="10"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B117" s="66"/>
+      <c r="B117" s="73"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17" t="s">
         <v>482</v>
@@ -15554,7 +15562,7 @@
       <c r="F117" s="10"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B118" s="66"/>
+      <c r="B118" s="73"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17" t="s">
         <v>483</v>
@@ -15563,7 +15571,7 @@
       <c r="F118" s="10"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B119" s="66"/>
+      <c r="B119" s="73"/>
       <c r="C119" s="17" t="s">
         <v>404</v>
       </c>
@@ -15576,7 +15584,7 @@
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B120" s="66"/>
+      <c r="B120" s="73"/>
       <c r="C120" s="17" t="s">
         <v>492</v>
       </c>
@@ -15587,7 +15595,7 @@
       <c r="F120" s="10"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B121" s="66"/>
+      <c r="B121" s="73"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
         <v>382</v>
@@ -15596,7 +15604,7 @@
       <c r="F121" s="10"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B122" s="67"/>
+      <c r="B122" s="74"/>
       <c r="C122" s="19" t="s">
         <v>513</v>
       </c>
@@ -15762,6 +15770,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="B116:B122"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B104:B115"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="B90:B97"/>
+    <mergeCell ref="C98:C103"/>
     <mergeCell ref="F50:F51"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="B2:E2"/>
@@ -15778,28 +15808,6 @@
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="B90:B97"/>
-    <mergeCell ref="C98:C103"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="B116:B122"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="B21:B32"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B104:B115"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/메뉴구성도_IA - 김민아.xlsx
+++ b/메뉴구성도_IA - 김민아.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\als70\OneDrive\Desktop\삼성아카데미\samsung-lxp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F76734-FA16-47D8-838E-7C6ACCDD71D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0F77E3-0E66-4182-9010-BAB6CE57CC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="740" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="851">
   <si>
     <t>메뉴</t>
   </si>
@@ -2980,6 +2980,10 @@
   </si>
   <si>
     <t>/instructor/proctor/exams/{id}/recordings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/trainee/my-course</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3582,10 +3586,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3597,6 +3610,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3606,28 +3622,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4333,14 +4337,14 @@
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="24"/>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="72" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4360,13 +4364,13 @@
       <c r="F3" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G3" s="75"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="80" t="s">
         <v>339</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -4379,7 +4383,7 @@
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B5" s="73"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="77"/>
       <c r="D5" s="17" t="s">
         <v>341</v>
@@ -4389,7 +4393,7 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B6" s="73"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="77"/>
       <c r="D6" s="17" t="s">
         <v>59</v>
@@ -4399,7 +4403,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B7" s="73"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="46" t="s">
         <v>380</v>
       </c>
@@ -4420,7 +4424,7 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="69" t="s">
         <v>521</v>
       </c>
       <c r="C9" s="81" t="s">
@@ -4439,8 +4443,8 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B10" s="73"/>
-      <c r="C10" s="78"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="17" t="s">
         <v>504</v>
       </c>
@@ -4452,7 +4456,7 @@
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B11" s="73"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="77" t="s">
         <v>463</v>
       </c>
@@ -4466,7 +4470,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B12" s="73"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="77"/>
       <c r="D12" s="17" t="s">
         <v>479</v>
@@ -4478,7 +4482,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B13" s="73"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="77"/>
       <c r="E13" s="17" t="s">
         <v>344</v>
@@ -4497,10 +4501,10 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="69" t="s">
         <v>348</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="80" t="s">
         <v>349</v>
       </c>
       <c r="D15" s="25" t="s">
@@ -4513,7 +4517,7 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B16" s="73"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="77"/>
       <c r="D16" s="17" t="s">
         <v>355</v>
@@ -4527,7 +4531,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B17" s="73"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="77"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
@@ -4537,7 +4541,7 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" ht="17.649999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B18" s="73"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="77"/>
       <c r="D18" s="55" t="s">
         <v>350</v>
@@ -4547,7 +4551,7 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="B19" s="73"/>
+      <c r="B19" s="67"/>
       <c r="D19" s="77" t="s">
         <v>360</v>
       </c>
@@ -4558,7 +4562,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B20" s="73"/>
+      <c r="B20" s="67"/>
       <c r="D20" s="77"/>
       <c r="E20" s="17" t="s">
         <v>366</v>
@@ -4567,7 +4571,7 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B21" s="73"/>
+      <c r="B21" s="67"/>
       <c r="D21" s="77"/>
       <c r="E21" s="17" t="s">
         <v>367</v>
@@ -4576,7 +4580,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B22" s="73"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="37" t="s">
         <v>523</v>
       </c>
@@ -4597,10 +4601,10 @@
       <c r="G23" s="54"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="69" t="s">
         <v>742</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="80" t="s">
         <v>456</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -4613,7 +4617,7 @@
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B25" s="73"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="77"/>
       <c r="D25" s="17" t="s">
         <v>510</v>
@@ -4622,7 +4626,7 @@
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B26" s="73"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="77"/>
       <c r="D26" s="17" t="s">
         <v>509</v>
@@ -4631,7 +4635,7 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B27" s="73"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="17" t="s">
         <v>357</v>
       </c>
@@ -4644,7 +4648,7 @@
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B28" s="73"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17" t="s">
         <v>369</v>
@@ -4653,7 +4657,7 @@
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B29" s="73"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17" t="s">
         <v>370</v>
@@ -4662,7 +4666,7 @@
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B30" s="73"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="77" t="s">
         <v>358</v>
       </c>
@@ -4675,7 +4679,7 @@
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B31" s="73"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="77"/>
       <c r="D31" s="17" t="s">
         <v>372</v>
@@ -4684,7 +4688,7 @@
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B32" s="73"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="77"/>
       <c r="D32" s="17" t="s">
         <v>373</v>
@@ -4693,7 +4697,7 @@
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B33" s="73"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="77" t="s">
         <v>364</v>
       </c>
@@ -4706,7 +4710,7 @@
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B34" s="73"/>
+      <c r="B34" s="67"/>
       <c r="C34" s="77"/>
       <c r="D34" s="17" t="s">
         <v>378</v>
@@ -4715,7 +4719,7 @@
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B35" s="73"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="77"/>
       <c r="D35" s="17" t="s">
         <v>379</v>
@@ -4734,7 +4738,7 @@
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="69" t="s">
         <v>524</v>
       </c>
       <c r="C37" s="25" t="s">
@@ -4750,7 +4754,7 @@
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B38" s="73"/>
+      <c r="B38" s="67"/>
       <c r="D38" s="17" t="s">
         <v>527</v>
       </c>
@@ -4758,7 +4762,7 @@
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B39" s="73"/>
+      <c r="B39" s="67"/>
       <c r="C39" s="17" t="s">
         <v>528</v>
       </c>
@@ -4771,7 +4775,7 @@
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B40" s="73"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17" t="s">
         <v>353</v>
@@ -4780,7 +4784,7 @@
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B41" s="73"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17" t="s">
         <v>354</v>
@@ -4789,7 +4793,7 @@
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B42" s="73"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="17" t="s">
         <v>359</v>
       </c>
@@ -4802,7 +4806,7 @@
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B43" s="73"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17" t="s">
         <v>375</v>
@@ -4811,7 +4815,7 @@
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B44" s="73"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17" t="s">
         <v>376</v>
@@ -4831,7 +4835,7 @@
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B46" s="76" t="s">
+      <c r="B46" s="69" t="s">
         <v>529</v>
       </c>
       <c r="C46" s="25" t="s">
@@ -4847,7 +4851,7 @@
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B47" s="73"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="17" t="s">
         <v>532</v>
       </c>
@@ -4860,7 +4864,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B48" s="73"/>
+      <c r="B48" s="67"/>
       <c r="C48" s="17" t="s">
         <v>530</v>
       </c>
@@ -4881,7 +4885,7 @@
       <c r="G49" s="9"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B50" s="76" t="s">
+      <c r="B50" s="69" t="s">
         <v>545</v>
       </c>
       <c r="C50" s="25" t="s">
@@ -4895,7 +4899,7 @@
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B51" s="73"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="17" t="s">
         <v>535</v>
       </c>
@@ -4919,7 +4923,7 @@
       <c r="G52" s="9"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="67" t="s">
         <v>543</v>
       </c>
       <c r="C53" s="37" t="s">
@@ -4930,7 +4934,7 @@
       <c r="G53" s="8"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B54" s="74"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="19" t="s">
         <v>126</v>
       </c>
@@ -4946,14 +4950,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="67" t="s">
+      <c r="B57" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="80"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="78"/>
       <c r="F57" s="50"/>
-      <c r="G57" s="69" t="s">
+      <c r="G57" s="72" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4973,13 +4977,13 @@
       <c r="F58" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G58" s="75"/>
+      <c r="G58" s="73"/>
       <c r="I58" s="31"/>
       <c r="J58" s="31"/>
       <c r="K58" s="31"/>
     </row>
     <row r="59" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="76" t="s">
+      <c r="B59" s="69" t="s">
         <v>387</v>
       </c>
       <c r="C59" s="25" t="s">
@@ -4994,7 +4998,7 @@
       <c r="K59" s="28"/>
     </row>
     <row r="60" spans="2:11" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="73"/>
+      <c r="B60" s="67"/>
       <c r="C60" s="17" t="s">
         <v>389</v>
       </c>
@@ -5004,7 +5008,7 @@
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="73"/>
+      <c r="B61" s="67"/>
       <c r="C61" s="17" t="s">
         <v>424</v>
       </c>
@@ -5013,7 +5017,7 @@
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="73" t="s">
+      <c r="B62" s="67" t="s">
         <v>390</v>
       </c>
       <c r="C62" s="17" t="s">
@@ -5029,7 +5033,7 @@
       <c r="K62" s="28"/>
     </row>
     <row r="63" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="73"/>
+      <c r="B63" s="67"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17" t="s">
         <v>418</v>
@@ -5040,7 +5044,7 @@
       <c r="K63" s="28"/>
     </row>
     <row r="64" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="73"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="17" t="s">
         <v>392</v>
       </c>
@@ -5052,7 +5056,7 @@
       <c r="K64" s="28"/>
     </row>
     <row r="65" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="73"/>
+      <c r="B65" s="67"/>
       <c r="C65" s="17" t="s">
         <v>403</v>
       </c>
@@ -5066,7 +5070,7 @@
       <c r="K65" s="28"/>
     </row>
     <row r="66" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="73"/>
+      <c r="B66" s="67"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17" t="s">
         <v>415</v>
@@ -5078,7 +5082,7 @@
       <c r="K66" s="28"/>
     </row>
     <row r="67" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="73"/>
+      <c r="B67" s="67"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17" t="s">
         <v>416</v>
@@ -5090,7 +5094,7 @@
       <c r="K67" s="28"/>
     </row>
     <row r="68" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="73"/>
+      <c r="B68" s="67"/>
       <c r="D68" s="17" t="s">
         <v>428</v>
       </c>
@@ -5100,7 +5104,7 @@
       <c r="K68" s="28"/>
     </row>
     <row r="69" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="73" t="s">
+      <c r="B69" s="67" t="s">
         <v>393</v>
       </c>
       <c r="C69" t="s">
@@ -5116,7 +5120,7 @@
       <c r="K69" s="28"/>
     </row>
     <row r="70" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="73"/>
+      <c r="B70" s="67"/>
       <c r="D70" s="17" t="s">
         <v>422</v>
       </c>
@@ -5128,7 +5132,7 @@
       <c r="K70" s="28"/>
     </row>
     <row r="71" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="73"/>
+      <c r="B71" s="67"/>
       <c r="C71" s="17" t="s">
         <v>394</v>
       </c>
@@ -5141,7 +5145,7 @@
       <c r="K71" s="28"/>
     </row>
     <row r="72" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="73"/>
+      <c r="B72" s="67"/>
       <c r="D72" s="17" t="s">
         <v>420</v>
       </c>
@@ -5151,7 +5155,7 @@
       <c r="K72" s="28"/>
     </row>
     <row r="73" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="73"/>
+      <c r="B73" s="67"/>
       <c r="D73" s="17" t="s">
         <v>421</v>
       </c>
@@ -5161,7 +5165,7 @@
       <c r="K73" s="28"/>
     </row>
     <row r="74" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="73"/>
+      <c r="B74" s="67"/>
       <c r="C74" s="17" t="s">
         <v>423</v>
       </c>
@@ -5171,7 +5175,7 @@
       <c r="K74" s="28"/>
     </row>
     <row r="75" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="73" t="s">
+      <c r="B75" s="67" t="s">
         <v>427</v>
       </c>
       <c r="C75" s="17" t="s">
@@ -5186,7 +5190,7 @@
       <c r="K75" s="28"/>
     </row>
     <row r="76" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="73"/>
+      <c r="B76" s="67"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17" t="s">
         <v>398</v>
@@ -5198,7 +5202,7 @@
       <c r="K76" s="28"/>
     </row>
     <row r="77" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="73"/>
+      <c r="B77" s="67"/>
       <c r="C77" s="17" t="s">
         <v>516</v>
       </c>
@@ -5215,7 +5219,7 @@
       <c r="K77" s="28"/>
     </row>
     <row r="78" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="73"/>
+      <c r="B78" s="67"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17" t="s">
         <v>399</v>
@@ -5227,7 +5231,7 @@
       <c r="K78" s="28"/>
     </row>
     <row r="79" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="73" t="s">
+      <c r="B79" s="67" t="s">
         <v>540</v>
       </c>
       <c r="C79" s="17" t="s">
@@ -5242,7 +5246,7 @@
       <c r="K79" s="28"/>
     </row>
     <row r="80" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B80" s="73"/>
+      <c r="B80" s="67"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17" t="s">
         <v>413</v>
@@ -5253,7 +5257,7 @@
       <c r="K80" s="28"/>
     </row>
     <row r="81" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B81" s="73"/>
+      <c r="B81" s="67"/>
       <c r="C81" s="17" t="s">
         <v>400</v>
       </c>
@@ -5267,7 +5271,7 @@
       <c r="K81" s="28"/>
     </row>
     <row r="82" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B82" s="73"/>
+      <c r="B82" s="67"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17" t="s">
         <v>402</v>
@@ -5279,7 +5283,7 @@
       <c r="K82" s="28"/>
     </row>
     <row r="83" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B83" s="73" t="s">
+      <c r="B83" s="67" t="s">
         <v>548</v>
       </c>
       <c r="C83" s="17" t="s">
@@ -5293,7 +5297,7 @@
       <c r="K83" s="28"/>
     </row>
     <row r="84" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B84" s="73"/>
+      <c r="B84" s="67"/>
       <c r="C84" s="17" t="s">
         <v>542</v>
       </c>
@@ -5305,7 +5309,7 @@
       <c r="K84" s="28"/>
     </row>
     <row r="85" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B85" s="73" t="s">
+      <c r="B85" s="67" t="s">
         <v>524</v>
       </c>
       <c r="C85" s="17" t="s">
@@ -5319,7 +5323,7 @@
       <c r="K85" s="28"/>
     </row>
     <row r="86" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B86" s="73"/>
+      <c r="B86" s="67"/>
       <c r="C86" s="17" t="s">
         <v>537</v>
       </c>
@@ -5333,7 +5337,7 @@
       <c r="K86" s="28"/>
     </row>
     <row r="87" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B87" s="73"/>
+      <c r="B87" s="67"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17" t="s">
         <v>408</v>
@@ -5345,7 +5349,7 @@
       <c r="K87" s="28"/>
     </row>
     <row r="88" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="74"/>
+      <c r="B88" s="68"/>
       <c r="C88" s="19" t="s">
         <v>404</v>
       </c>
@@ -5372,14 +5376,14 @@
       <c r="K90" s="28"/>
     </row>
     <row r="91" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="67" t="s">
+      <c r="B91" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="C91" s="68"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="80"/>
+      <c r="C91" s="71"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="78"/>
       <c r="F91" s="50"/>
-      <c r="G91" s="69" t="s">
+      <c r="G91" s="72" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5399,10 +5403,10 @@
       <c r="F92" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G92" s="70"/>
+      <c r="G92" s="74"/>
     </row>
     <row r="93" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B93" s="76" t="s">
+      <c r="B93" s="69" t="s">
         <v>433</v>
       </c>
       <c r="C93" s="25" t="s">
@@ -5416,7 +5420,7 @@
       </c>
     </row>
     <row r="94" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B94" s="73"/>
+      <c r="B94" s="67"/>
       <c r="C94" s="17" t="s">
         <v>435</v>
       </c>
@@ -5427,7 +5431,7 @@
       </c>
     </row>
     <row r="95" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B95" s="73"/>
+      <c r="B95" s="67"/>
       <c r="C95" s="17" t="s">
         <v>436</v>
       </c>
@@ -5440,7 +5444,7 @@
       </c>
     </row>
     <row r="96" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B96" s="73"/>
+      <c r="B96" s="67"/>
       <c r="C96" s="17" t="s">
         <v>480</v>
       </c>
@@ -5451,7 +5455,7 @@
       </c>
     </row>
     <row r="97" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B97" s="73" t="s">
+      <c r="B97" s="67" t="s">
         <v>441</v>
       </c>
       <c r="C97" s="17" t="s">
@@ -5464,7 +5468,7 @@
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B98" s="73"/>
+      <c r="B98" s="67"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17" t="s">
         <v>418</v>
@@ -5473,7 +5477,7 @@
       <c r="G98" s="10"/>
     </row>
     <row r="99" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B99" s="73"/>
+      <c r="B99" s="67"/>
       <c r="C99" s="17" t="s">
         <v>547</v>
       </c>
@@ -5488,7 +5492,7 @@
       </c>
     </row>
     <row r="100" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B100" s="73"/>
+      <c r="B100" s="67"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17" t="s">
         <v>447</v>
@@ -5497,7 +5501,7 @@
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B101" s="73"/>
+      <c r="B101" s="67"/>
       <c r="C101" s="17" t="s">
         <v>448</v>
       </c>
@@ -5508,7 +5512,7 @@
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B102" s="73"/>
+      <c r="B102" s="67"/>
       <c r="C102" s="77" t="s">
         <v>360</v>
       </c>
@@ -5521,7 +5525,7 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B103" s="73"/>
+      <c r="B103" s="67"/>
       <c r="C103" s="77"/>
       <c r="D103" s="49" t="s">
         <v>485</v>
@@ -5530,7 +5534,7 @@
       <c r="G103" s="10"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B104" s="73"/>
+      <c r="B104" s="67"/>
       <c r="C104" s="77"/>
       <c r="D104" s="49" t="s">
         <v>487</v>
@@ -5539,7 +5543,7 @@
       <c r="G104" s="10"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B105" s="73" t="s">
+      <c r="B105" s="67" t="s">
         <v>450</v>
       </c>
       <c r="C105" s="77" t="s">
@@ -5554,7 +5558,7 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B106" s="73"/>
+      <c r="B106" s="67"/>
       <c r="C106" s="77"/>
       <c r="D106" s="17" t="s">
         <v>344</v>
@@ -5565,7 +5569,7 @@
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B107" s="73"/>
+      <c r="B107" s="67"/>
       <c r="C107" s="77"/>
       <c r="D107" s="17" t="s">
         <v>467</v>
@@ -5576,7 +5580,7 @@
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B108" s="73"/>
+      <c r="B108" s="67"/>
       <c r="C108" s="77"/>
       <c r="D108" s="17" t="s">
         <v>466</v>
@@ -5587,7 +5591,7 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B109" s="73"/>
+      <c r="B109" s="67"/>
       <c r="C109" s="77"/>
       <c r="D109" s="17" t="s">
         <v>488</v>
@@ -5598,7 +5602,7 @@
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B110" s="73"/>
+      <c r="B110" s="67"/>
       <c r="C110" s="77"/>
       <c r="D110" s="17" t="s">
         <v>489</v>
@@ -5607,7 +5611,7 @@
       <c r="G110" s="10"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B111" s="73" t="s">
+      <c r="B111" s="67" t="s">
         <v>385</v>
       </c>
       <c r="C111" s="77" t="s">
@@ -5622,7 +5626,7 @@
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B112" s="73"/>
+      <c r="B112" s="67"/>
       <c r="C112" s="77"/>
       <c r="D112" s="49" t="s">
         <v>461</v>
@@ -5633,7 +5637,7 @@
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B113" s="73"/>
+      <c r="B113" s="67"/>
       <c r="C113" s="77"/>
       <c r="D113" s="49" t="s">
         <v>458</v>
@@ -5644,7 +5648,7 @@
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B114" s="73"/>
+      <c r="B114" s="67"/>
       <c r="C114" s="17" t="s">
         <v>469</v>
       </c>
@@ -5655,7 +5659,7 @@
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B115" s="73"/>
+      <c r="B115" s="67"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17" t="s">
         <v>474</v>
@@ -5664,7 +5668,7 @@
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B116" s="73"/>
+      <c r="B116" s="67"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17" t="s">
         <v>475</v>
@@ -5673,7 +5677,7 @@
       <c r="G116" s="10"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B117" s="73"/>
+      <c r="B117" s="67"/>
       <c r="C117" s="17" t="s">
         <v>358</v>
       </c>
@@ -5684,7 +5688,7 @@
       <c r="G117" s="10"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B118" s="73"/>
+      <c r="B118" s="67"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17" t="s">
         <v>372</v>
@@ -5693,7 +5697,7 @@
       <c r="G118" s="10"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B119" s="73"/>
+      <c r="B119" s="67"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17" t="s">
         <v>454</v>
@@ -5703,7 +5707,7 @@
       <c r="G119" s="8"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B120" s="73"/>
+      <c r="B120" s="67"/>
       <c r="C120" s="17" t="s">
         <v>364</v>
       </c>
@@ -5713,7 +5717,7 @@
       <c r="E120" s="8"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B121" s="73"/>
+      <c r="B121" s="67"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
         <v>378</v>
@@ -5721,7 +5725,7 @@
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B122" s="73"/>
+      <c r="B122" s="67"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17" t="s">
         <v>379</v>
@@ -5729,7 +5733,7 @@
       <c r="E122" s="8"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B123" s="73" t="s">
+      <c r="B123" s="67" t="s">
         <v>496</v>
       </c>
       <c r="C123" s="17" t="s">
@@ -5742,7 +5746,7 @@
       <c r="G123" s="10"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B124" s="73"/>
+      <c r="B124" s="67"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17" t="s">
         <v>482</v>
@@ -5751,7 +5755,7 @@
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B125" s="73"/>
+      <c r="B125" s="67"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17" t="s">
         <v>483</v>
@@ -5760,7 +5764,7 @@
       <c r="G125" s="10"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B126" s="73"/>
+      <c r="B126" s="67"/>
       <c r="C126" s="17" t="s">
         <v>404</v>
       </c>
@@ -5773,7 +5777,7 @@
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B127" s="73"/>
+      <c r="B127" s="67"/>
       <c r="C127" s="17" t="s">
         <v>409</v>
       </c>
@@ -5784,7 +5788,7 @@
       <c r="G127" s="10"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B128" s="73"/>
+      <c r="B128" s="67"/>
       <c r="C128" s="17"/>
       <c r="D128" s="17" t="s">
         <v>382</v>
@@ -5793,7 +5797,7 @@
       <c r="G128" s="10"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B129" s="74"/>
+      <c r="B129" s="68"/>
       <c r="C129" s="19" t="s">
         <v>513</v>
       </c>
@@ -5960,6 +5964,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B84"/>
     <mergeCell ref="B123:B129"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F13"/>
@@ -5976,38 +6012,6 @@
     <mergeCell ref="C105:C110"/>
     <mergeCell ref="B111:B122"/>
     <mergeCell ref="C111:C113"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="F4:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6373,14 +6377,14 @@
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="24"/>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="72" t="s">
         <v>337</v>
       </c>
     </row>
@@ -6400,13 +6404,13 @@
       <c r="F3" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G3" s="75"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="80" t="s">
         <v>339</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -6419,7 +6423,7 @@
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B5" s="73"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="77"/>
       <c r="D5" s="17" t="s">
         <v>341</v>
@@ -6429,7 +6433,7 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B6" s="73"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="77"/>
       <c r="D6" s="17" t="s">
         <v>59</v>
@@ -6439,7 +6443,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B7" s="73"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="46" t="s">
         <v>380</v>
       </c>
@@ -6460,7 +6464,7 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="69" t="s">
         <v>521</v>
       </c>
       <c r="C9" s="81" t="s">
@@ -6479,8 +6483,8 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B10" s="73"/>
-      <c r="C10" s="78"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="17" t="s">
         <v>504</v>
       </c>
@@ -6492,7 +6496,7 @@
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B11" s="73"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="77" t="s">
         <v>463</v>
       </c>
@@ -6506,7 +6510,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B12" s="73"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="77"/>
       <c r="D12" s="17" t="s">
         <v>479</v>
@@ -6518,7 +6522,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B13" s="73"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="77"/>
       <c r="E13" s="17" t="s">
         <v>344</v>
@@ -6537,10 +6541,10 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="69" t="s">
         <v>348</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="80" t="s">
         <v>349</v>
       </c>
       <c r="D15" s="25" t="s">
@@ -6553,7 +6557,7 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B16" s="73"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="77"/>
       <c r="D16" s="17" t="s">
         <v>355</v>
@@ -6567,7 +6571,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B17" s="73"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="77"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
@@ -6577,14 +6581,14 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B18" s="73"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="77"/>
       <c r="E18" s="17"/>
       <c r="F18" s="77"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B19" s="73"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="37" t="s">
         <v>523</v>
       </c>
@@ -6605,10 +6609,10 @@
       <c r="G20" s="54"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="69" t="s">
         <v>451</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D21" s="56"/>
@@ -6620,7 +6624,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B22" s="73"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="77"/>
       <c r="D22" t="s">
         <v>770</v>
@@ -6629,7 +6633,7 @@
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B23" s="73"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="77"/>
       <c r="D23" t="s">
         <v>771</v>
@@ -6638,7 +6642,7 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B24" s="73"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="77" t="s">
         <v>769</v>
       </c>
@@ -6648,7 +6652,7 @@
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B25" s="73"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="77"/>
       <c r="D25" t="s">
         <v>772</v>
@@ -6657,7 +6661,7 @@
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B26" s="73"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="77"/>
       <c r="D26" t="s">
         <v>773</v>
@@ -6666,7 +6670,7 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B27" s="73"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="77" t="s">
         <v>358</v>
       </c>
@@ -6679,7 +6683,7 @@
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B28" s="73"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="77"/>
       <c r="D28" s="17" t="s">
         <v>372</v>
@@ -6688,7 +6692,7 @@
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B29" s="73"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="77"/>
       <c r="D29" s="17" t="s">
         <v>373</v>
@@ -6697,7 +6701,7 @@
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B30" s="73"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="77" t="s">
         <v>364</v>
       </c>
@@ -6710,7 +6714,7 @@
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B31" s="73"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="77"/>
       <c r="D31" s="17" t="s">
         <v>378</v>
@@ -6719,7 +6723,7 @@
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B32" s="73"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="77"/>
       <c r="D32" s="17" t="s">
         <v>379</v>
@@ -6738,7 +6742,7 @@
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="69" t="s">
         <v>524</v>
       </c>
       <c r="C34" s="25" t="s">
@@ -6754,7 +6758,7 @@
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B35" s="73"/>
+      <c r="B35" s="67"/>
       <c r="D35" s="17" t="s">
         <v>527</v>
       </c>
@@ -6762,7 +6766,7 @@
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B36" s="73"/>
+      <c r="B36" s="67"/>
       <c r="C36" s="17" t="s">
         <v>528</v>
       </c>
@@ -6775,7 +6779,7 @@
       <c r="G36" s="8"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B37" s="73"/>
+      <c r="B37" s="67"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
         <v>353</v>
@@ -6784,7 +6788,7 @@
       <c r="G37" s="8"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B38" s="73"/>
+      <c r="B38" s="67"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17" t="s">
         <v>354</v>
@@ -6793,7 +6797,7 @@
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B39" s="73"/>
+      <c r="B39" s="67"/>
       <c r="C39" s="17" t="s">
         <v>359</v>
       </c>
@@ -6806,7 +6810,7 @@
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B40" s="73"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17" t="s">
         <v>375</v>
@@ -6815,7 +6819,7 @@
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B41" s="73"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17" t="s">
         <v>376</v>
@@ -6835,7 +6839,7 @@
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="69" t="s">
         <v>529</v>
       </c>
       <c r="C43" s="25" t="s">
@@ -6851,7 +6855,7 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B44" s="73"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="17" t="s">
         <v>532</v>
       </c>
@@ -6864,7 +6868,7 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B45" s="73"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="17" t="s">
         <v>530</v>
       </c>
@@ -6885,7 +6889,7 @@
       <c r="G46" s="9"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B47" s="76" t="s">
+      <c r="B47" s="69" t="s">
         <v>545</v>
       </c>
       <c r="C47" s="25" t="s">
@@ -6899,7 +6903,7 @@
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B48" s="73"/>
+      <c r="B48" s="67"/>
       <c r="C48" s="17" t="s">
         <v>535</v>
       </c>
@@ -6923,7 +6927,7 @@
       <c r="G49" s="9"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="67" t="s">
         <v>543</v>
       </c>
       <c r="C50" s="37" t="s">
@@ -6934,7 +6938,7 @@
       <c r="G50" s="8"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B51" s="74"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="19" t="s">
         <v>126</v>
       </c>
@@ -6950,14 +6954,14 @@
       </c>
     </row>
     <row r="54" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="80"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="78"/>
       <c r="F54" s="50"/>
-      <c r="G54" s="69" t="s">
+      <c r="G54" s="72" t="s">
         <v>337</v>
       </c>
     </row>
@@ -6977,13 +6981,13 @@
       <c r="F55" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G55" s="75"/>
+      <c r="G55" s="73"/>
       <c r="I55" s="31"/>
       <c r="J55" s="31"/>
       <c r="K55" s="31"/>
     </row>
     <row r="56" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B56" s="76" t="s">
+      <c r="B56" s="69" t="s">
         <v>387</v>
       </c>
       <c r="C56" s="25" t="s">
@@ -6998,7 +7002,7 @@
       <c r="K56" s="28"/>
     </row>
     <row r="57" spans="2:11" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="73"/>
+      <c r="B57" s="67"/>
       <c r="C57" s="17" t="s">
         <v>389</v>
       </c>
@@ -7008,7 +7012,7 @@
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="73"/>
+      <c r="B58" s="67"/>
       <c r="C58" s="17" t="s">
         <v>424</v>
       </c>
@@ -7017,7 +7021,7 @@
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="73" t="s">
+      <c r="B59" s="67" t="s">
         <v>390</v>
       </c>
       <c r="C59" s="17" t="s">
@@ -7033,7 +7037,7 @@
       <c r="K59" s="28"/>
     </row>
     <row r="60" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="73"/>
+      <c r="B60" s="67"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17" t="s">
         <v>418</v>
@@ -7044,7 +7048,7 @@
       <c r="K60" s="28"/>
     </row>
     <row r="61" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="73"/>
+      <c r="B61" s="67"/>
       <c r="C61" s="17" t="s">
         <v>392</v>
       </c>
@@ -7056,7 +7060,7 @@
       <c r="K61" s="28"/>
     </row>
     <row r="62" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="73"/>
+      <c r="B62" s="67"/>
       <c r="C62" s="17" t="s">
         <v>403</v>
       </c>
@@ -7070,7 +7074,7 @@
       <c r="K62" s="28"/>
     </row>
     <row r="63" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="73"/>
+      <c r="B63" s="67"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17" t="s">
         <v>415</v>
@@ -7082,7 +7086,7 @@
       <c r="K63" s="28"/>
     </row>
     <row r="64" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="73"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17" t="s">
         <v>416</v>
@@ -7094,7 +7098,7 @@
       <c r="K64" s="28"/>
     </row>
     <row r="65" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="73"/>
+      <c r="B65" s="67"/>
       <c r="D65" s="17" t="s">
         <v>428</v>
       </c>
@@ -7104,7 +7108,7 @@
       <c r="K65" s="28"/>
     </row>
     <row r="66" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="73" t="s">
+      <c r="B66" s="67" t="s">
         <v>393</v>
       </c>
       <c r="C66" t="s">
@@ -7120,7 +7124,7 @@
       <c r="K66" s="28"/>
     </row>
     <row r="67" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="73"/>
+      <c r="B67" s="67"/>
       <c r="D67" s="17" t="s">
         <v>422</v>
       </c>
@@ -7132,7 +7136,7 @@
       <c r="K67" s="28"/>
     </row>
     <row r="68" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="73"/>
+      <c r="B68" s="67"/>
       <c r="C68" s="17" t="s">
         <v>394</v>
       </c>
@@ -7145,7 +7149,7 @@
       <c r="K68" s="28"/>
     </row>
     <row r="69" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="73"/>
+      <c r="B69" s="67"/>
       <c r="D69" s="17" t="s">
         <v>420</v>
       </c>
@@ -7155,7 +7159,7 @@
       <c r="K69" s="28"/>
     </row>
     <row r="70" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="73"/>
+      <c r="B70" s="67"/>
       <c r="D70" s="17" t="s">
         <v>421</v>
       </c>
@@ -7165,7 +7169,7 @@
       <c r="K70" s="28"/>
     </row>
     <row r="71" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="73"/>
+      <c r="B71" s="67"/>
       <c r="C71" s="17" t="s">
         <v>423</v>
       </c>
@@ -7175,7 +7179,7 @@
       <c r="K71" s="28"/>
     </row>
     <row r="72" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="73" t="s">
+      <c r="B72" s="67" t="s">
         <v>427</v>
       </c>
       <c r="C72" s="17" t="s">
@@ -7190,7 +7194,7 @@
       <c r="K72" s="28"/>
     </row>
     <row r="73" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="73"/>
+      <c r="B73" s="67"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
         <v>398</v>
@@ -7202,7 +7206,7 @@
       <c r="K73" s="28"/>
     </row>
     <row r="74" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="73"/>
+      <c r="B74" s="67"/>
       <c r="C74" s="17" t="s">
         <v>516</v>
       </c>
@@ -7219,7 +7223,7 @@
       <c r="K74" s="28"/>
     </row>
     <row r="75" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="73"/>
+      <c r="B75" s="67"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17" t="s">
         <v>399</v>
@@ -7231,7 +7235,7 @@
       <c r="K75" s="28"/>
     </row>
     <row r="76" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="73" t="s">
+      <c r="B76" s="67" t="s">
         <v>540</v>
       </c>
       <c r="C76" s="17" t="s">
@@ -7246,7 +7250,7 @@
       <c r="K76" s="28"/>
     </row>
     <row r="77" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="73"/>
+      <c r="B77" s="67"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17" t="s">
         <v>413</v>
@@ -7257,7 +7261,7 @@
       <c r="K77" s="28"/>
     </row>
     <row r="78" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="73"/>
+      <c r="B78" s="67"/>
       <c r="C78" s="17" t="s">
         <v>400</v>
       </c>
@@ -7271,7 +7275,7 @@
       <c r="K78" s="28"/>
     </row>
     <row r="79" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="73"/>
+      <c r="B79" s="67"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17" t="s">
         <v>402</v>
@@ -7283,7 +7287,7 @@
       <c r="K79" s="28"/>
     </row>
     <row r="80" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B80" s="73" t="s">
+      <c r="B80" s="67" t="s">
         <v>548</v>
       </c>
       <c r="C80" s="17" t="s">
@@ -7297,7 +7301,7 @@
       <c r="K80" s="28"/>
     </row>
     <row r="81" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B81" s="73"/>
+      <c r="B81" s="67"/>
       <c r="C81" s="17" t="s">
         <v>542</v>
       </c>
@@ -7309,7 +7313,7 @@
       <c r="K81" s="28"/>
     </row>
     <row r="82" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B82" s="73" t="s">
+      <c r="B82" s="67" t="s">
         <v>524</v>
       </c>
       <c r="C82" s="17" t="s">
@@ -7323,7 +7327,7 @@
       <c r="K82" s="28"/>
     </row>
     <row r="83" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B83" s="73"/>
+      <c r="B83" s="67"/>
       <c r="C83" s="17" t="s">
         <v>537</v>
       </c>
@@ -7337,7 +7341,7 @@
       <c r="K83" s="28"/>
     </row>
     <row r="84" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B84" s="73"/>
+      <c r="B84" s="67"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17" t="s">
         <v>408</v>
@@ -7349,7 +7353,7 @@
       <c r="K84" s="28"/>
     </row>
     <row r="85" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B85" s="74"/>
+      <c r="B85" s="68"/>
       <c r="C85" s="19" t="s">
         <v>404</v>
       </c>
@@ -7376,14 +7380,14 @@
       <c r="K87" s="28"/>
     </row>
     <row r="88" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="67" t="s">
+      <c r="B88" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="C88" s="68"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="80"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="78"/>
       <c r="F88" s="50"/>
-      <c r="G88" s="69" t="s">
+      <c r="G88" s="72" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7403,10 +7407,10 @@
       <c r="F89" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="G89" s="70"/>
+      <c r="G89" s="74"/>
     </row>
     <row r="90" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B90" s="76" t="s">
+      <c r="B90" s="69" t="s">
         <v>433</v>
       </c>
       <c r="C90" s="25" t="s">
@@ -7420,7 +7424,7 @@
       </c>
     </row>
     <row r="91" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="73"/>
+      <c r="B91" s="67"/>
       <c r="C91" s="17" t="s">
         <v>435</v>
       </c>
@@ -7431,7 +7435,7 @@
       </c>
     </row>
     <row r="92" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B92" s="73"/>
+      <c r="B92" s="67"/>
       <c r="C92" s="17" t="s">
         <v>436</v>
       </c>
@@ -7444,7 +7448,7 @@
       </c>
     </row>
     <row r="93" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B93" s="73"/>
+      <c r="B93" s="67"/>
       <c r="C93" s="17" t="s">
         <v>480</v>
       </c>
@@ -7455,7 +7459,7 @@
       </c>
     </row>
     <row r="94" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B94" s="73" t="s">
+      <c r="B94" s="67" t="s">
         <v>441</v>
       </c>
       <c r="C94" s="17" t="s">
@@ -7468,7 +7472,7 @@
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B95" s="73"/>
+      <c r="B95" s="67"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17" t="s">
         <v>418</v>
@@ -7477,7 +7481,7 @@
       <c r="G95" s="10"/>
     </row>
     <row r="96" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B96" s="73"/>
+      <c r="B96" s="67"/>
       <c r="C96" s="17" t="s">
         <v>547</v>
       </c>
@@ -7492,7 +7496,7 @@
       </c>
     </row>
     <row r="97" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B97" s="73"/>
+      <c r="B97" s="67"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17" t="s">
         <v>447</v>
@@ -7501,7 +7505,7 @@
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B98" s="73"/>
+      <c r="B98" s="67"/>
       <c r="C98" s="17" t="s">
         <v>448</v>
       </c>
@@ -7512,7 +7516,7 @@
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B99" s="73"/>
+      <c r="B99" s="67"/>
       <c r="C99" s="77" t="s">
         <v>360</v>
       </c>
@@ -7525,7 +7529,7 @@
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B100" s="73"/>
+      <c r="B100" s="67"/>
       <c r="C100" s="77"/>
       <c r="D100" s="49" t="s">
         <v>485</v>
@@ -7534,7 +7538,7 @@
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B101" s="73"/>
+      <c r="B101" s="67"/>
       <c r="C101" s="77"/>
       <c r="D101" s="49" t="s">
         <v>487</v>
@@ -7543,7 +7547,7 @@
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B102" s="73" t="s">
+      <c r="B102" s="67" t="s">
         <v>450</v>
       </c>
       <c r="C102" s="77" t="s">
@@ -7558,7 +7562,7 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B103" s="73"/>
+      <c r="B103" s="67"/>
       <c r="C103" s="77"/>
       <c r="D103" s="17" t="s">
         <v>344</v>
@@ -7569,7 +7573,7 @@
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B104" s="73"/>
+      <c r="B104" s="67"/>
       <c r="C104" s="77"/>
       <c r="D104" s="17" t="s">
         <v>467</v>
@@ -7580,7 +7584,7 @@
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B105" s="73"/>
+      <c r="B105" s="67"/>
       <c r="C105" s="77"/>
       <c r="D105" s="17" t="s">
         <v>466</v>
@@ -7591,7 +7595,7 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B106" s="73"/>
+      <c r="B106" s="67"/>
       <c r="C106" s="77"/>
       <c r="D106" s="17" t="s">
         <v>488</v>
@@ -7602,7 +7606,7 @@
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B107" s="73"/>
+      <c r="B107" s="67"/>
       <c r="C107" s="77"/>
       <c r="D107" s="17" t="s">
         <v>489</v>
@@ -7611,7 +7615,7 @@
       <c r="G107" s="10"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B108" s="73" t="s">
+      <c r="B108" s="67" t="s">
         <v>385</v>
       </c>
       <c r="C108" s="77" t="s">
@@ -7626,7 +7630,7 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B109" s="73"/>
+      <c r="B109" s="67"/>
       <c r="C109" s="77"/>
       <c r="D109" s="49" t="s">
         <v>461</v>
@@ -7637,7 +7641,7 @@
       <c r="G109" s="10"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B110" s="73"/>
+      <c r="B110" s="67"/>
       <c r="C110" s="77"/>
       <c r="D110" s="49" t="s">
         <v>458</v>
@@ -7648,7 +7652,7 @@
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B111" s="73"/>
+      <c r="B111" s="67"/>
       <c r="C111" s="17" t="s">
         <v>469</v>
       </c>
@@ -7659,7 +7663,7 @@
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B112" s="73"/>
+      <c r="B112" s="67"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17" t="s">
         <v>474</v>
@@ -7668,7 +7672,7 @@
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B113" s="73"/>
+      <c r="B113" s="67"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17" t="s">
         <v>475</v>
@@ -7677,7 +7681,7 @@
       <c r="G113" s="10"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B114" s="73"/>
+      <c r="B114" s="67"/>
       <c r="C114" s="17" t="s">
         <v>358</v>
       </c>
@@ -7688,7 +7692,7 @@
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B115" s="73"/>
+      <c r="B115" s="67"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17" t="s">
         <v>372</v>
@@ -7697,7 +7701,7 @@
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B116" s="73"/>
+      <c r="B116" s="67"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17" t="s">
         <v>454</v>
@@ -7707,7 +7711,7 @@
       <c r="G116" s="8"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B117" s="73"/>
+      <c r="B117" s="67"/>
       <c r="C117" s="17" t="s">
         <v>364</v>
       </c>
@@ -7717,7 +7721,7 @@
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B118" s="73"/>
+      <c r="B118" s="67"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17" t="s">
         <v>378</v>
@@ -7725,7 +7729,7 @@
       <c r="E118" s="8"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B119" s="73"/>
+      <c r="B119" s="67"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17" t="s">
         <v>379</v>
@@ -7733,7 +7737,7 @@
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B120" s="73" t="s">
+      <c r="B120" s="67" t="s">
         <v>496</v>
       </c>
       <c r="C120" s="17" t="s">
@@ -7746,7 +7750,7 @@
       <c r="G120" s="10"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B121" s="73"/>
+      <c r="B121" s="67"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
         <v>482</v>
@@ -7755,7 +7759,7 @@
       <c r="G121" s="10"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B122" s="73"/>
+      <c r="B122" s="67"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17" t="s">
         <v>483</v>
@@ -7764,7 +7768,7 @@
       <c r="G122" s="10"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B123" s="73"/>
+      <c r="B123" s="67"/>
       <c r="C123" s="17" t="s">
         <v>404</v>
       </c>
@@ -7777,7 +7781,7 @@
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B124" s="73"/>
+      <c r="B124" s="67"/>
       <c r="C124" s="17" t="s">
         <v>409</v>
       </c>
@@ -7788,7 +7792,7 @@
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B125" s="73"/>
+      <c r="B125" s="67"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17" t="s">
         <v>382</v>
@@ -7797,7 +7801,7 @@
       <c r="G125" s="10"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B126" s="74"/>
+      <c r="B126" s="68"/>
       <c r="C126" s="19" t="s">
         <v>513</v>
       </c>
@@ -7964,39 +7968,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="B21:B32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B94:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="C102:C107"/>
     <mergeCell ref="B108:B119"/>
     <mergeCell ref="C108:C110"/>
     <mergeCell ref="B120:B126"/>
@@ -8012,6 +7983,39 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B54:E54"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="C102:C107"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9371,8 +9375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="F25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -10489,7 +10493,7 @@
         <v>664</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>669</v>
+        <v>850</v>
       </c>
       <c r="K37" s="28" t="s">
         <v>173</v>
@@ -12782,13 +12786,13 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72" t="s">
         <v>337</v>
       </c>
     </row>
@@ -12805,7 +12809,7 @@
       <c r="E3" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="70"/>
+      <c r="F3" s="74"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B4" s="64" t="s">
@@ -12821,8 +12825,8 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="12" t="s">
         <v>341</v>
       </c>
@@ -12830,8 +12834,8 @@
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="12" t="s">
         <v>59</v>
       </c>
@@ -12839,8 +12843,8 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="18" t="s">
         <v>513</v>
       </c>
@@ -12848,7 +12852,7 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="75" t="s">
         <v>497</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -12862,8 +12866,8 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B9" s="72"/>
-      <c r="C9" s="66"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="12" t="s">
         <v>504</v>
       </c>
@@ -12887,8 +12891,8 @@
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="12" t="s">
         <v>479</v>
       </c>
@@ -12898,16 +12902,16 @@
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
       <c r="E12" s="12" t="s">
         <v>344</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B13" s="65"/>
-      <c r="C13" s="65" t="s">
+      <c r="B13" s="66"/>
+      <c r="C13" s="66" t="s">
         <v>345</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -12917,8 +12921,8 @@
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="18" t="s">
         <v>347</v>
       </c>
@@ -12941,7 +12945,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B16" s="65"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
         <v>355</v>
@@ -12952,7 +12956,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B17" s="65"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12" t="s">
         <v>350</v>
@@ -12961,7 +12965,7 @@
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B18" s="65"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="12" t="s">
         <v>351</v>
       </c>
@@ -12972,7 +12976,7 @@
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B19" s="65"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
         <v>353</v>
@@ -12981,7 +12985,7 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B20" s="66"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
         <v>354</v>
@@ -13001,7 +13005,7 @@
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B22" s="65"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="12" t="s">
         <v>366</v>
       </c>
@@ -13009,7 +13013,7 @@
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B23" s="66"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="18" t="s">
         <v>367</v>
       </c>
@@ -13030,7 +13034,7 @@
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B25" s="65"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12" t="s">
         <v>369</v>
@@ -13039,7 +13043,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B26" s="65"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12" t="s">
         <v>370</v>
@@ -13048,7 +13052,7 @@
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B27" s="65"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="12" t="s">
         <v>358</v>
       </c>
@@ -13059,7 +13063,7 @@
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B28" s="65"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="s">
         <v>372</v>
@@ -13068,7 +13072,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B29" s="65"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12" t="s">
         <v>373</v>
@@ -13077,7 +13081,7 @@
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B30" s="65"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="12" t="s">
         <v>359</v>
       </c>
@@ -13088,7 +13092,7 @@
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B31" s="65"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12" t="s">
         <v>375</v>
@@ -13097,7 +13101,7 @@
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B32" s="65"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12" t="s">
         <v>376</v>
@@ -13106,7 +13110,7 @@
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B33" s="73"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="12" t="s">
         <v>364</v>
       </c>
@@ -13117,7 +13121,7 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B34" s="73"/>
+      <c r="B34" s="67"/>
       <c r="C34" s="12"/>
       <c r="D34" s="29" t="s">
         <v>378</v>
@@ -13126,7 +13130,7 @@
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B35" s="74"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="18"/>
       <c r="D35" s="30" t="s">
         <v>379</v>
@@ -13146,7 +13150,7 @@
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B37" s="65"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="12" t="s">
         <v>510</v>
       </c>
@@ -13155,7 +13159,7 @@
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B38" s="66"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="18" t="s">
         <v>509</v>
       </c>
@@ -13175,7 +13179,7 @@
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B40" s="66"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="18" t="s">
         <v>381</v>
       </c>
@@ -13197,7 +13201,7 @@
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B42" s="65"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12" t="s">
         <v>383</v>
@@ -13208,7 +13212,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B43" s="65"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="29" t="s">
         <v>511</v>
       </c>
@@ -13230,7 +13234,7 @@
       <c r="F44" s="26"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B45" s="65"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="36" t="s">
         <v>498</v>
       </c>
@@ -13239,7 +13243,7 @@
       <c r="F45" s="8"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B46" s="66"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="18" t="s">
         <v>126</v>
       </c>
@@ -13254,13 +13258,13 @@
       </c>
     </row>
     <row r="49" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="69" t="s">
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="72" t="s">
         <v>337</v>
       </c>
     </row>
@@ -13277,13 +13281,13 @@
       <c r="E50" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="F50" s="75"/>
+      <c r="F50" s="73"/>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
       <c r="J50" s="31"/>
     </row>
     <row r="51" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B51" s="76" t="s">
+      <c r="B51" s="69" t="s">
         <v>387</v>
       </c>
       <c r="C51" s="25" t="s">
@@ -13297,7 +13301,7 @@
       <c r="J51" s="28"/>
     </row>
     <row r="52" spans="2:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B52" s="73"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="17" t="s">
         <v>389</v>
       </c>
@@ -13306,7 +13310,7 @@
       <c r="F52" s="10"/>
     </row>
     <row r="53" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B53" s="73"/>
+      <c r="B53" s="67"/>
       <c r="C53" s="17" t="s">
         <v>424</v>
       </c>
@@ -13326,7 +13330,7 @@
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="67" t="s">
         <v>390</v>
       </c>
       <c r="C55" s="17" t="s">
@@ -13342,7 +13346,7 @@
       <c r="J55" s="28"/>
     </row>
     <row r="56" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B56" s="73"/>
+      <c r="B56" s="67"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17" t="s">
         <v>418</v>
@@ -13353,7 +13357,7 @@
       <c r="J56" s="28"/>
     </row>
     <row r="57" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="73"/>
+      <c r="B57" s="67"/>
       <c r="C57" s="17" t="s">
         <v>392</v>
       </c>
@@ -13365,7 +13369,7 @@
       <c r="J57" s="28"/>
     </row>
     <row r="58" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="73"/>
+      <c r="B58" s="67"/>
       <c r="C58" s="17" t="s">
         <v>403</v>
       </c>
@@ -13379,7 +13383,7 @@
       <c r="J58" s="28"/>
     </row>
     <row r="59" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="73"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17" t="s">
         <v>415</v>
@@ -13391,7 +13395,7 @@
       <c r="J59" s="28"/>
     </row>
     <row r="60" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="73"/>
+      <c r="B60" s="67"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17" t="s">
         <v>416</v>
@@ -13403,7 +13407,7 @@
       <c r="J60" s="28"/>
     </row>
     <row r="61" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="73"/>
+      <c r="B61" s="67"/>
       <c r="D61" s="17" t="s">
         <v>428</v>
       </c>
@@ -13413,7 +13417,7 @@
       <c r="J61" s="28"/>
     </row>
     <row r="62" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="73" t="s">
+      <c r="B62" s="67" t="s">
         <v>393</v>
       </c>
       <c r="C62" t="s">
@@ -13429,7 +13433,7 @@
       <c r="J62" s="28"/>
     </row>
     <row r="63" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="73"/>
+      <c r="B63" s="67"/>
       <c r="D63" s="17" t="s">
         <v>422</v>
       </c>
@@ -13441,7 +13445,7 @@
       <c r="J63" s="28"/>
     </row>
     <row r="64" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="73"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="17" t="s">
         <v>394</v>
       </c>
@@ -13454,7 +13458,7 @@
       <c r="J64" s="28"/>
     </row>
     <row r="65" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="73"/>
+      <c r="B65" s="67"/>
       <c r="D65" s="17" t="s">
         <v>420</v>
       </c>
@@ -13464,7 +13468,7 @@
       <c r="J65" s="28"/>
     </row>
     <row r="66" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="73"/>
+      <c r="B66" s="67"/>
       <c r="D66" s="17" t="s">
         <v>421</v>
       </c>
@@ -13474,7 +13478,7 @@
       <c r="J66" s="28"/>
     </row>
     <row r="67" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="73"/>
+      <c r="B67" s="67"/>
       <c r="C67" s="17" t="s">
         <v>423</v>
       </c>
@@ -13484,7 +13488,7 @@
       <c r="J67" s="28"/>
     </row>
     <row r="68" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="73" t="s">
+      <c r="B68" s="67" t="s">
         <v>427</v>
       </c>
       <c r="C68" s="17" t="s">
@@ -13499,7 +13503,7 @@
       <c r="J68" s="28"/>
     </row>
     <row r="69" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="73"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17" t="s">
         <v>398</v>
@@ -13511,7 +13515,7 @@
       <c r="J69" s="28"/>
     </row>
     <row r="70" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="73"/>
+      <c r="B70" s="67"/>
       <c r="C70" s="17" t="s">
         <v>516</v>
       </c>
@@ -13527,7 +13531,7 @@
       <c r="J70" s="28"/>
     </row>
     <row r="71" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="73"/>
+      <c r="B71" s="67"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17" t="s">
         <v>399</v>
@@ -13539,7 +13543,7 @@
       <c r="J71" s="28"/>
     </row>
     <row r="72" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="73" t="s">
+      <c r="B72" s="67" t="s">
         <v>430</v>
       </c>
       <c r="C72" s="17" t="s">
@@ -13554,7 +13558,7 @@
       <c r="J72" s="28"/>
     </row>
     <row r="73" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="73"/>
+      <c r="B73" s="67"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
         <v>413</v>
@@ -13565,7 +13569,7 @@
       <c r="J73" s="28"/>
     </row>
     <row r="74" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="73"/>
+      <c r="B74" s="67"/>
       <c r="C74" s="17" t="s">
         <v>400</v>
       </c>
@@ -13579,7 +13583,7 @@
       <c r="J74" s="28"/>
     </row>
     <row r="75" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="73"/>
+      <c r="B75" s="67"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17" t="s">
         <v>402</v>
@@ -13591,7 +13595,7 @@
       <c r="J75" s="28"/>
     </row>
     <row r="76" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="73"/>
+      <c r="B76" s="67"/>
       <c r="C76" s="17" t="s">
         <v>404</v>
       </c>
@@ -13605,7 +13609,7 @@
       <c r="J76" s="28"/>
     </row>
     <row r="77" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="73"/>
+      <c r="B77" s="67"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17" t="s">
         <v>517</v>
@@ -13617,7 +13621,7 @@
       <c r="J77" s="28"/>
     </row>
     <row r="78" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="73" t="s">
+      <c r="B78" s="67" t="s">
         <v>406</v>
       </c>
       <c r="C78" s="17" t="s">
@@ -13631,7 +13635,7 @@
       <c r="J78" s="28"/>
     </row>
     <row r="79" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="73"/>
+      <c r="B79" s="67"/>
       <c r="C79" s="17" t="s">
         <v>408</v>
       </c>
@@ -13668,13 +13672,13 @@
       <c r="J82" s="28"/>
     </row>
     <row r="83" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B83" s="67" t="s">
+      <c r="B83" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="69" t="s">
+      <c r="C83" s="71"/>
+      <c r="D83" s="71"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="72" t="s">
         <v>337</v>
       </c>
     </row>
@@ -13691,10 +13695,10 @@
       <c r="E84" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F84" s="70"/>
+      <c r="F84" s="74"/>
     </row>
     <row r="85" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B85" s="76" t="s">
+      <c r="B85" s="69" t="s">
         <v>433</v>
       </c>
       <c r="C85" s="25" t="s">
@@ -13707,7 +13711,7 @@
       </c>
     </row>
     <row r="86" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B86" s="73"/>
+      <c r="B86" s="67"/>
       <c r="C86" s="17" t="s">
         <v>435</v>
       </c>
@@ -13718,7 +13722,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B87" s="73"/>
+      <c r="B87" s="67"/>
       <c r="C87" s="17" t="s">
         <v>436</v>
       </c>
@@ -13729,7 +13733,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="73"/>
+      <c r="B88" s="67"/>
       <c r="C88" s="17" t="s">
         <v>480</v>
       </c>
@@ -13740,7 +13744,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B89" s="73" t="s">
+      <c r="B89" s="67" t="s">
         <v>441</v>
       </c>
       <c r="C89" s="17" t="s">
@@ -13753,7 +13757,7 @@
       <c r="F89" s="10"/>
     </row>
     <row r="90" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B90" s="73"/>
+      <c r="B90" s="67"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17" t="s">
         <v>444</v>
@@ -13762,7 +13766,7 @@
       <c r="F90" s="10"/>
     </row>
     <row r="91" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="73"/>
+      <c r="B91" s="67"/>
       <c r="C91" s="17" t="s">
         <v>446</v>
       </c>
@@ -13773,7 +13777,7 @@
       <c r="F91" s="10"/>
     </row>
     <row r="92" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B92" s="73"/>
+      <c r="B92" s="67"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17" t="s">
         <v>447</v>
@@ -13782,7 +13786,7 @@
       <c r="F92" s="10"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B93" s="73"/>
+      <c r="B93" s="67"/>
       <c r="C93" s="17" t="s">
         <v>448</v>
       </c>
@@ -13793,7 +13797,7 @@
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B94" s="73" t="s">
+      <c r="B94" s="67" t="s">
         <v>455</v>
       </c>
       <c r="C94" s="17" t="s">
@@ -13805,7 +13809,7 @@
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B95" s="73"/>
+      <c r="B95" s="67"/>
       <c r="C95" s="17" t="s">
         <v>485</v>
       </c>
@@ -13813,7 +13817,7 @@
       <c r="F95" s="10"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B96" s="73"/>
+      <c r="B96" s="67"/>
       <c r="C96" s="17" t="s">
         <v>487</v>
       </c>
@@ -13821,7 +13825,7 @@
       <c r="F96" s="10"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B97" s="73" t="s">
+      <c r="B97" s="67" t="s">
         <v>450</v>
       </c>
       <c r="C97" s="17" t="s">
@@ -13834,7 +13838,7 @@
       <c r="F97" s="10"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B98" s="73"/>
+      <c r="B98" s="67"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17" t="s">
         <v>468</v>
@@ -13845,7 +13849,7 @@
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B99" s="73"/>
+      <c r="B99" s="67"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17" t="s">
         <v>467</v>
@@ -13856,7 +13860,7 @@
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B100" s="73"/>
+      <c r="B100" s="67"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17" t="s">
         <v>466</v>
@@ -13867,7 +13871,7 @@
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B101" s="73"/>
+      <c r="B101" s="67"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17" t="s">
         <v>488</v>
@@ -13878,7 +13882,7 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B102" s="73"/>
+      <c r="B102" s="67"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17" t="s">
         <v>489</v>
@@ -13887,7 +13891,7 @@
       <c r="F102" s="10"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B103" s="73" t="s">
+      <c r="B103" s="67" t="s">
         <v>451</v>
       </c>
       <c r="C103" s="17" t="s">
@@ -13900,7 +13904,7 @@
       <c r="F103" s="10"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B104" s="73"/>
+      <c r="B104" s="67"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17" t="s">
         <v>474</v>
@@ -13909,7 +13913,7 @@
       <c r="F104" s="10"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B105" s="73"/>
+      <c r="B105" s="67"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17" t="s">
         <v>475</v>
@@ -13918,7 +13922,7 @@
       <c r="F105" s="10"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B106" s="73"/>
+      <c r="B106" s="67"/>
       <c r="C106" s="17" t="s">
         <v>476</v>
       </c>
@@ -13929,7 +13933,7 @@
       <c r="F106" s="10"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B107" s="73"/>
+      <c r="B107" s="67"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17" t="s">
         <v>478</v>
@@ -13938,7 +13942,7 @@
       <c r="F107" s="10"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B108" s="73"/>
+      <c r="B108" s="67"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17" t="s">
         <v>454</v>
@@ -13947,7 +13951,7 @@
       <c r="F108" s="10"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B109" s="73"/>
+      <c r="B109" s="67"/>
       <c r="C109" s="17" t="s">
         <v>470</v>
       </c>
@@ -13960,7 +13964,7 @@
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B110" s="73"/>
+      <c r="B110" s="67"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
       <c r="E110" s="17" t="s">
@@ -13969,7 +13973,7 @@
       <c r="F110" s="10"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B111" s="73"/>
+      <c r="B111" s="67"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
       <c r="E111" s="17" t="s">
@@ -13978,7 +13982,7 @@
       <c r="F111" s="10"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B112" s="73" t="s">
+      <c r="B112" s="67" t="s">
         <v>456</v>
       </c>
       <c r="C112" s="17" t="s">
@@ -13991,7 +13995,7 @@
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B113" s="73"/>
+      <c r="B113" s="67"/>
       <c r="C113" s="17" t="s">
         <v>461</v>
       </c>
@@ -14002,7 +14006,7 @@
       <c r="F113" s="10"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B114" s="73"/>
+      <c r="B114" s="67"/>
       <c r="C114" s="17" t="s">
         <v>458</v>
       </c>
@@ -14013,7 +14017,7 @@
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B115" s="73" t="s">
+      <c r="B115" s="67" t="s">
         <v>496</v>
       </c>
       <c r="C115" s="17" t="s">
@@ -14026,7 +14030,7 @@
       <c r="F115" s="10"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B116" s="73"/>
+      <c r="B116" s="67"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17" t="s">
         <v>482</v>
@@ -14035,7 +14039,7 @@
       <c r="F116" s="10"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B117" s="73"/>
+      <c r="B117" s="67"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17" t="s">
         <v>483</v>
@@ -14044,7 +14048,7 @@
       <c r="F117" s="10"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B118" s="73"/>
+      <c r="B118" s="67"/>
       <c r="C118" s="17" t="s">
         <v>404</v>
       </c>
@@ -14057,7 +14061,7 @@
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B119" s="73"/>
+      <c r="B119" s="67"/>
       <c r="C119" s="17" t="s">
         <v>492</v>
       </c>
@@ -14068,7 +14072,7 @@
       <c r="F119" s="10"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B120" s="73"/>
+      <c r="B120" s="67"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17" t="s">
         <v>494</v>
@@ -14077,7 +14081,7 @@
       <c r="F120" s="10"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B121" s="74"/>
+      <c r="B121" s="68"/>
       <c r="C121" s="19" t="s">
         <v>513</v>
       </c>
@@ -14243,14 +14247,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B115:B121"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="F49:F50"/>
     <mergeCell ref="B94:B96"/>
     <mergeCell ref="B97:B102"/>
@@ -14263,19 +14272,14 @@
     <mergeCell ref="B62:B67"/>
     <mergeCell ref="B68:B71"/>
     <mergeCell ref="B72:B77"/>
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B115:B121"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B83:E83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14311,13 +14315,13 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72" t="s">
         <v>337</v>
       </c>
     </row>
@@ -14334,13 +14338,13 @@
       <c r="E3" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="75"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="80" t="s">
         <v>339</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -14350,7 +14354,7 @@
       <c r="F4" s="26"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B5" s="73"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="77"/>
       <c r="D5" s="17" t="s">
         <v>341</v>
@@ -14359,7 +14363,7 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B6" s="73"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="77"/>
       <c r="D6" s="17" t="s">
         <v>59</v>
@@ -14368,7 +14372,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B7" s="73"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="46" t="s">
         <v>380</v>
       </c>
@@ -14379,10 +14383,10 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="67" t="s">
         <v>521</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="79" t="s">
         <v>500</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -14395,8 +14399,8 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B9" s="73"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="17" t="s">
         <v>504</v>
       </c>
@@ -14407,7 +14411,7 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B10" s="73"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="77" t="s">
         <v>501</v>
       </c>
@@ -14418,7 +14422,7 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B11" s="73"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="77"/>
       <c r="D11" s="17" t="s">
         <v>479</v>
@@ -14429,7 +14433,7 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B12" s="73"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="77"/>
       <c r="E12" s="17" t="s">
         <v>344</v>
@@ -14437,7 +14441,7 @@
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="67" t="s">
         <v>348</v>
       </c>
       <c r="C13" s="77" t="s">
@@ -14450,7 +14454,7 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B14" s="73"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="77"/>
       <c r="D14" s="17" t="s">
         <v>355</v>
@@ -14463,7 +14467,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B15" s="73"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="77"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17" t="s">
@@ -14472,7 +14476,7 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B16" s="73"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="77"/>
       <c r="D16" s="17" t="s">
         <v>350</v>
@@ -14481,7 +14485,7 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B17" s="73"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="77" t="s">
         <v>360</v>
       </c>
@@ -14491,7 +14495,7 @@
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B18" s="73"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="77"/>
       <c r="D18" s="17" t="s">
         <v>366</v>
@@ -14499,7 +14503,7 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B19" s="73"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="77"/>
       <c r="D19" s="17" t="s">
         <v>367</v>
@@ -14507,7 +14511,7 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B20" s="73"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="37" t="s">
         <v>523</v>
       </c>
@@ -14515,7 +14519,7 @@
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="67" t="s">
         <v>385</v>
       </c>
       <c r="C21" s="77" t="s">
@@ -14527,7 +14531,7 @@
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B22" s="73"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="77"/>
       <c r="D22" s="17" t="s">
         <v>510</v>
@@ -14535,7 +14539,7 @@
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B23" s="73"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="77"/>
       <c r="D23" s="17" t="s">
         <v>509</v>
@@ -14543,7 +14547,7 @@
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B24" s="73"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="77" t="s">
         <v>357</v>
       </c>
@@ -14553,7 +14557,7 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B25" s="73"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="77"/>
       <c r="D25" s="17" t="s">
         <v>369</v>
@@ -14561,7 +14565,7 @@
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B26" s="73"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="77"/>
       <c r="D26" s="17" t="s">
         <v>370</v>
@@ -14569,7 +14573,7 @@
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B27" s="73"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="77" t="s">
         <v>358</v>
       </c>
@@ -14579,7 +14583,7 @@
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B28" s="73"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="77"/>
       <c r="D28" s="17" t="s">
         <v>372</v>
@@ -14587,7 +14591,7 @@
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B29" s="73"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="77"/>
       <c r="D29" s="17" t="s">
         <v>373</v>
@@ -14595,7 +14599,7 @@
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B30" s="73"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="77" t="s">
         <v>364</v>
       </c>
@@ -14605,7 +14609,7 @@
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B31" s="73"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="77"/>
       <c r="D31" s="17" t="s">
         <v>378</v>
@@ -14613,7 +14617,7 @@
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B32" s="73"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="77"/>
       <c r="D32" s="17" t="s">
         <v>379</v>
@@ -14621,7 +14625,7 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="67" t="s">
         <v>524</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -14633,14 +14637,14 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B34" s="73"/>
+      <c r="B34" s="67"/>
       <c r="D34" s="17" t="s">
         <v>527</v>
       </c>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B35" s="73"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="17" t="s">
         <v>528</v>
       </c>
@@ -14650,7 +14654,7 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B36" s="73"/>
+      <c r="B36" s="67"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17" t="s">
         <v>353</v>
@@ -14658,7 +14662,7 @@
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B37" s="73"/>
+      <c r="B37" s="67"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
         <v>354</v>
@@ -14666,7 +14670,7 @@
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B38" s="73"/>
+      <c r="B38" s="67"/>
       <c r="C38" s="17" t="s">
         <v>359</v>
       </c>
@@ -14676,7 +14680,7 @@
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B39" s="73"/>
+      <c r="B39" s="67"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17" t="s">
         <v>375</v>
@@ -14684,7 +14688,7 @@
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B40" s="73"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17" t="s">
         <v>376</v>
@@ -14693,7 +14697,7 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="67" t="s">
         <v>529</v>
       </c>
       <c r="C41" s="17" t="s">
@@ -14705,7 +14709,7 @@
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B42" s="73"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="17" t="s">
         <v>532</v>
       </c>
@@ -14715,7 +14719,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B43" s="73"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="17" t="s">
         <v>530</v>
       </c>
@@ -14723,7 +14727,7 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="67" t="s">
         <v>545</v>
       </c>
       <c r="C44" s="17" t="s">
@@ -14734,7 +14738,7 @@
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B45" s="73"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="17" t="s">
         <v>535</v>
       </c>
@@ -14745,7 +14749,7 @@
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B46" s="73" t="s">
+      <c r="B46" s="67" t="s">
         <v>543</v>
       </c>
       <c r="C46" s="37" t="s">
@@ -14756,7 +14760,7 @@
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B47" s="74"/>
+      <c r="B47" s="68"/>
       <c r="C47" s="19" t="s">
         <v>126</v>
       </c>
@@ -14771,13 +14775,13 @@
       </c>
     </row>
     <row r="50" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="69" t="s">
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="72" t="s">
         <v>337</v>
       </c>
     </row>
@@ -14794,13 +14798,13 @@
       <c r="E51" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="F51" s="75"/>
+      <c r="F51" s="73"/>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
     </row>
     <row r="52" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B52" s="76" t="s">
+      <c r="B52" s="69" t="s">
         <v>387</v>
       </c>
       <c r="C52" s="25" t="s">
@@ -14814,7 +14818,7 @@
       <c r="J52" s="28"/>
     </row>
     <row r="53" spans="2:10" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B53" s="73"/>
+      <c r="B53" s="67"/>
       <c r="C53" s="17" t="s">
         <v>389</v>
       </c>
@@ -14823,7 +14827,7 @@
       <c r="F53" s="10"/>
     </row>
     <row r="54" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B54" s="73"/>
+      <c r="B54" s="67"/>
       <c r="C54" s="17" t="s">
         <v>424</v>
       </c>
@@ -14832,7 +14836,7 @@
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="67" t="s">
         <v>390</v>
       </c>
       <c r="C55" s="17" t="s">
@@ -14848,7 +14852,7 @@
       <c r="J55" s="28"/>
     </row>
     <row r="56" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B56" s="73"/>
+      <c r="B56" s="67"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17" t="s">
         <v>418</v>
@@ -14859,7 +14863,7 @@
       <c r="J56" s="28"/>
     </row>
     <row r="57" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="73"/>
+      <c r="B57" s="67"/>
       <c r="C57" s="17" t="s">
         <v>392</v>
       </c>
@@ -14871,7 +14875,7 @@
       <c r="J57" s="28"/>
     </row>
     <row r="58" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="73"/>
+      <c r="B58" s="67"/>
       <c r="C58" s="17" t="s">
         <v>403</v>
       </c>
@@ -14885,7 +14889,7 @@
       <c r="J58" s="28"/>
     </row>
     <row r="59" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="73"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17" t="s">
         <v>415</v>
@@ -14897,7 +14901,7 @@
       <c r="J59" s="28"/>
     </row>
     <row r="60" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="73"/>
+      <c r="B60" s="67"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17" t="s">
         <v>416</v>
@@ -14909,7 +14913,7 @@
       <c r="J60" s="28"/>
     </row>
     <row r="61" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="73"/>
+      <c r="B61" s="67"/>
       <c r="D61" s="17" t="s">
         <v>428</v>
       </c>
@@ -14919,7 +14923,7 @@
       <c r="J61" s="28"/>
     </row>
     <row r="62" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="73" t="s">
+      <c r="B62" s="67" t="s">
         <v>393</v>
       </c>
       <c r="C62" t="s">
@@ -14935,7 +14939,7 @@
       <c r="J62" s="28"/>
     </row>
     <row r="63" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="73"/>
+      <c r="B63" s="67"/>
       <c r="D63" s="17" t="s">
         <v>422</v>
       </c>
@@ -14947,7 +14951,7 @@
       <c r="J63" s="28"/>
     </row>
     <row r="64" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="73"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="17" t="s">
         <v>736</v>
       </c>
@@ -14960,7 +14964,7 @@
       <c r="J64" s="28"/>
     </row>
     <row r="65" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="73"/>
+      <c r="B65" s="67"/>
       <c r="D65" s="17" t="s">
         <v>420</v>
       </c>
@@ -14970,7 +14974,7 @@
       <c r="J65" s="28"/>
     </row>
     <row r="66" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="73"/>
+      <c r="B66" s="67"/>
       <c r="D66" s="17" t="s">
         <v>421</v>
       </c>
@@ -14980,7 +14984,7 @@
       <c r="J66" s="28"/>
     </row>
     <row r="67" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="73"/>
+      <c r="B67" s="67"/>
       <c r="C67" s="17" t="s">
         <v>423</v>
       </c>
@@ -14990,7 +14994,7 @@
       <c r="J67" s="28"/>
     </row>
     <row r="68" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="73" t="s">
+      <c r="B68" s="67" t="s">
         <v>427</v>
       </c>
       <c r="C68" s="17" t="s">
@@ -15005,7 +15009,7 @@
       <c r="J68" s="28"/>
     </row>
     <row r="69" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="73"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17" t="s">
         <v>398</v>
@@ -15017,7 +15021,7 @@
       <c r="J69" s="28"/>
     </row>
     <row r="70" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="73"/>
+      <c r="B70" s="67"/>
       <c r="C70" s="17" t="s">
         <v>516</v>
       </c>
@@ -15033,7 +15037,7 @@
       <c r="J70" s="28"/>
     </row>
     <row r="71" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="73"/>
+      <c r="B71" s="67"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17" t="s">
         <v>399</v>
@@ -15045,7 +15049,7 @@
       <c r="J71" s="28"/>
     </row>
     <row r="72" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="73" t="s">
+      <c r="B72" s="67" t="s">
         <v>540</v>
       </c>
       <c r="C72" s="17" t="s">
@@ -15060,7 +15064,7 @@
       <c r="J72" s="28"/>
     </row>
     <row r="73" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="73"/>
+      <c r="B73" s="67"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
         <v>413</v>
@@ -15071,7 +15075,7 @@
       <c r="J73" s="28"/>
     </row>
     <row r="74" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="73"/>
+      <c r="B74" s="67"/>
       <c r="C74" s="17" t="s">
         <v>400</v>
       </c>
@@ -15085,7 +15089,7 @@
       <c r="J74" s="28"/>
     </row>
     <row r="75" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="73"/>
+      <c r="B75" s="67"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17" t="s">
         <v>402</v>
@@ -15097,7 +15101,7 @@
       <c r="J75" s="28"/>
     </row>
     <row r="76" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="73" t="s">
+      <c r="B76" s="67" t="s">
         <v>548</v>
       </c>
       <c r="C76" s="17" t="s">
@@ -15111,7 +15115,7 @@
       <c r="J76" s="28"/>
     </row>
     <row r="77" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="73"/>
+      <c r="B77" s="67"/>
       <c r="C77" s="17" t="s">
         <v>542</v>
       </c>
@@ -15123,7 +15127,7 @@
       <c r="J77" s="28"/>
     </row>
     <row r="78" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="73" t="s">
+      <c r="B78" s="67" t="s">
         <v>536</v>
       </c>
       <c r="C78" s="17" t="s">
@@ -15137,7 +15141,7 @@
       <c r="J78" s="28"/>
     </row>
     <row r="79" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="73"/>
+      <c r="B79" s="67"/>
       <c r="C79" s="17" t="s">
         <v>537</v>
       </c>
@@ -15151,7 +15155,7 @@
       <c r="J79" s="28"/>
     </row>
     <row r="80" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B80" s="73"/>
+      <c r="B80" s="67"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17" t="s">
         <v>408</v>
@@ -15163,7 +15167,7 @@
       <c r="J80" s="28"/>
     </row>
     <row r="81" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B81" s="74"/>
+      <c r="B81" s="68"/>
       <c r="C81" s="19" t="s">
         <v>538</v>
       </c>
@@ -15189,13 +15193,13 @@
       <c r="J83" s="28"/>
     </row>
     <row r="84" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B84" s="67" t="s">
+      <c r="B84" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="C84" s="68"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="80"/>
-      <c r="F84" s="69" t="s">
+      <c r="C84" s="71"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="78"/>
+      <c r="F84" s="72" t="s">
         <v>337</v>
       </c>
     </row>
@@ -15212,10 +15216,10 @@
       <c r="E85" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F85" s="70"/>
+      <c r="F85" s="74"/>
     </row>
     <row r="86" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B86" s="76" t="s">
+      <c r="B86" s="69" t="s">
         <v>433</v>
       </c>
       <c r="C86" s="25" t="s">
@@ -15228,7 +15232,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B87" s="73"/>
+      <c r="B87" s="67"/>
       <c r="C87" s="17" t="s">
         <v>435</v>
       </c>
@@ -15239,7 +15243,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B88" s="73"/>
+      <c r="B88" s="67"/>
       <c r="C88" s="17" t="s">
         <v>436</v>
       </c>
@@ -15252,7 +15256,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B89" s="73"/>
+      <c r="B89" s="67"/>
       <c r="C89" s="17" t="s">
         <v>480</v>
       </c>
@@ -15263,7 +15267,7 @@
       </c>
     </row>
     <row r="90" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B90" s="73" t="s">
+      <c r="B90" s="67" t="s">
         <v>441</v>
       </c>
       <c r="C90" s="17" t="s">
@@ -15276,7 +15280,7 @@
       <c r="F90" s="10"/>
     </row>
     <row r="91" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="73"/>
+      <c r="B91" s="67"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17" t="s">
         <v>418</v>
@@ -15285,7 +15289,7 @@
       <c r="F91" s="10"/>
     </row>
     <row r="92" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B92" s="73"/>
+      <c r="B92" s="67"/>
       <c r="C92" s="17" t="s">
         <v>547</v>
       </c>
@@ -15300,7 +15304,7 @@
       </c>
     </row>
     <row r="93" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B93" s="73"/>
+      <c r="B93" s="67"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17" t="s">
         <v>447</v>
@@ -15309,7 +15313,7 @@
       <c r="F93" s="10"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B94" s="73"/>
+      <c r="B94" s="67"/>
       <c r="C94" s="17" t="s">
         <v>448</v>
       </c>
@@ -15320,7 +15324,7 @@
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B95" s="73"/>
+      <c r="B95" s="67"/>
       <c r="C95" s="77" t="s">
         <v>455</v>
       </c>
@@ -15333,7 +15337,7 @@
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.6">
-      <c r="B96" s="73"/>
+      <c r="B96" s="67"/>
       <c r="C96" s="77"/>
       <c r="D96" s="49" t="s">
         <v>485</v>
@@ -15342,7 +15346,7 @@
       <c r="F96" s="10"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B97" s="73"/>
+      <c r="B97" s="67"/>
       <c r="C97" s="77"/>
       <c r="D97" s="49" t="s">
         <v>487</v>
@@ -15351,7 +15355,7 @@
       <c r="F97" s="10"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B98" s="73" t="s">
+      <c r="B98" s="67" t="s">
         <v>450</v>
       </c>
       <c r="C98" s="77" t="s">
@@ -15366,7 +15370,7 @@
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B99" s="73"/>
+      <c r="B99" s="67"/>
       <c r="C99" s="77"/>
       <c r="D99" s="17" t="s">
         <v>468</v>
@@ -15377,7 +15381,7 @@
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B100" s="73"/>
+      <c r="B100" s="67"/>
       <c r="C100" s="77"/>
       <c r="D100" s="17" t="s">
         <v>467</v>
@@ -15388,7 +15392,7 @@
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B101" s="73"/>
+      <c r="B101" s="67"/>
       <c r="C101" s="77"/>
       <c r="D101" s="17" t="s">
         <v>466</v>
@@ -15399,7 +15403,7 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B102" s="73"/>
+      <c r="B102" s="67"/>
       <c r="C102" s="77"/>
       <c r="D102" s="17" t="s">
         <v>488</v>
@@ -15410,7 +15414,7 @@
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B103" s="73"/>
+      <c r="B103" s="67"/>
       <c r="C103" s="77"/>
       <c r="D103" s="17" t="s">
         <v>489</v>
@@ -15419,7 +15423,7 @@
       <c r="F103" s="10"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B104" s="73" t="s">
+      <c r="B104" s="67" t="s">
         <v>385</v>
       </c>
       <c r="C104" s="77" t="s">
@@ -15434,7 +15438,7 @@
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B105" s="73"/>
+      <c r="B105" s="67"/>
       <c r="C105" s="77"/>
       <c r="D105" s="49" t="s">
         <v>461</v>
@@ -15445,7 +15449,7 @@
       <c r="F105" s="10"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B106" s="73"/>
+      <c r="B106" s="67"/>
       <c r="C106" s="77"/>
       <c r="D106" s="49" t="s">
         <v>458</v>
@@ -15456,7 +15460,7 @@
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B107" s="73"/>
+      <c r="B107" s="67"/>
       <c r="C107" s="17" t="s">
         <v>469</v>
       </c>
@@ -15467,7 +15471,7 @@
       <c r="F107" s="10"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B108" s="73"/>
+      <c r="B108" s="67"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17" t="s">
         <v>474</v>
@@ -15476,7 +15480,7 @@
       <c r="F108" s="10"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B109" s="73"/>
+      <c r="B109" s="67"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17" t="s">
         <v>475</v>
@@ -15485,7 +15489,7 @@
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B110" s="73"/>
+      <c r="B110" s="67"/>
       <c r="C110" s="17" t="s">
         <v>476</v>
       </c>
@@ -15496,7 +15500,7 @@
       <c r="F110" s="10"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B111" s="73"/>
+      <c r="B111" s="67"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17" t="s">
         <v>478</v>
@@ -15505,7 +15509,7 @@
       <c r="F111" s="10"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B112" s="73"/>
+      <c r="B112" s="67"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17" t="s">
         <v>454</v>
@@ -15514,7 +15518,7 @@
       <c r="F112" s="8"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B113" s="73"/>
+      <c r="B113" s="67"/>
       <c r="C113" s="17" t="s">
         <v>452</v>
       </c>
@@ -15524,7 +15528,7 @@
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B114" s="73"/>
+      <c r="B114" s="67"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17" t="s">
         <v>378</v>
@@ -15532,7 +15536,7 @@
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B115" s="73"/>
+      <c r="B115" s="67"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17" t="s">
         <v>473</v>
@@ -15540,7 +15544,7 @@
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B116" s="73" t="s">
+      <c r="B116" s="67" t="s">
         <v>496</v>
       </c>
       <c r="C116" s="17" t="s">
@@ -15553,7 +15557,7 @@
       <c r="F116" s="10"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B117" s="73"/>
+      <c r="B117" s="67"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17" t="s">
         <v>482</v>
@@ -15562,7 +15566,7 @@
       <c r="F117" s="10"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B118" s="73"/>
+      <c r="B118" s="67"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17" t="s">
         <v>483</v>
@@ -15571,7 +15575,7 @@
       <c r="F118" s="10"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B119" s="73"/>
+      <c r="B119" s="67"/>
       <c r="C119" s="17" t="s">
         <v>404</v>
       </c>
@@ -15584,7 +15588,7 @@
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B120" s="73"/>
+      <c r="B120" s="67"/>
       <c r="C120" s="17" t="s">
         <v>492</v>
       </c>
@@ -15595,7 +15599,7 @@
       <c r="F120" s="10"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B121" s="73"/>
+      <c r="B121" s="67"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
         <v>382</v>
@@ -15604,7 +15608,7 @@
       <c r="F121" s="10"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B122" s="74"/>
+      <c r="B122" s="68"/>
       <c r="C122" s="19" t="s">
         <v>513</v>
       </c>
@@ -15770,6 +15774,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="B90:B97"/>
+    <mergeCell ref="C98:C103"/>
     <mergeCell ref="C104:C106"/>
     <mergeCell ref="B116:B122"/>
     <mergeCell ref="B8:B12"/>
@@ -15786,28 +15812,6 @@
     <mergeCell ref="B68:B71"/>
     <mergeCell ref="B72:B75"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="B90:B97"/>
-    <mergeCell ref="C98:C103"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B50:E50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
